--- a/source/Translation.xlsx
+++ b/source/Translation.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\ChanSort\Source\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D083A09C-AE0C-45D1-BCC1-9AE0C6A9214F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B072E1C-46B4-426A-A1B7-76B21E3F8D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="405" windowWidth="38640" windowHeight="20745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResXResourceManager" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5604" uniqueCount="1877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5606" uniqueCount="1877">
   <si>
     <t>Project</t>
   </si>
@@ -4347,15 +4347,6 @@
     <t>ReferenceListForm_AntennaCableSatIPAnalogDigitalTVRadio</t>
   </si>
   <si>
-    <t>Antenna,Cable,Sat,IP,Analog,Digital,TV,Radio</t>
-  </si>
-  <si>
-    <t>Antenne,Kabel,Sat,IP,Analog,Digital,TV,Radio</t>
-  </si>
-  <si>
-    <t>Antenă, Cablu, Sat, IP, analog, digital, TV, radio</t>
-  </si>
-  <si>
     <t>ReferenceListForm_btnApply_ConflictHandling</t>
   </si>
   <si>
@@ -5672,9 +5663,6 @@
 Las causas típicas son memorias USB formateadas en NTFS (use formato FAT32)
 o bien se ha actualizado el firmware sin hacer una nueva búsqueda de canales.
 (El nuevo firmware de la TV puede ser incapáz de procesar los datos existentes de canales durante la exportación.)</t>
-  </si>
-  <si>
-    <t>Antena,Cable,Sat,IP,Analógico,Digital,TV,Radio</t>
   </si>
   <si>
     <t>¿Cómo desea proceder cuando un Pr# ya exista en la lista de destino?</t>
@@ -5821,6 +5809,18 @@
 Para hacer esto, apague el modo Hotel, resetee la TV
 a los valores de fábrica, haga una nueva búsqueda ciega de canales,
 vuelva a encender el modo Hotel y exporte un nuevo y limpio archivo TLL.</t>
+  </si>
+  <si>
+    <t>Antenna,Cable,Sat,IP,Analog,Digital,TV,Radio,Data</t>
+  </si>
+  <si>
+    <t>Antenne,Kabel,Sat,IP,Analog,Digital,TV,Radio,Daten</t>
+  </si>
+  <si>
+    <t>Antenă, Cablu, Sat, IP, analog, digital, TV, radio, data</t>
+  </si>
+  <si>
+    <t>Antena,Cable,Sat,IP,Analógico,Digital,TV,Radio,Data</t>
   </si>
 </sst>
 </file>
@@ -5891,7 +5891,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6189,11 +6189,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="Q302" sqref="Q302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" style="3" customWidth="1"/>
@@ -6246,10 +6246,10 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6299,7 +6299,7 @@
         <v>23</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6499,7 +6499,7 @@
         <v>42</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6599,7 +6599,7 @@
         <v>51</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6649,7 +6649,7 @@
         <v>58</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6749,7 +6749,7 @@
         <v>67</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6799,7 +6799,7 @@
         <v>4</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6849,7 +6849,7 @@
         <v>4</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6899,7 +6899,7 @@
         <v>85</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6949,7 +6949,7 @@
         <v>92</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7049,7 +7049,7 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7099,7 +7099,7 @@
         <v>4</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7199,7 +7199,7 @@
         <v>118</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7249,7 +7249,7 @@
         <v>124</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7299,7 +7299,7 @@
         <v>131</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7349,7 +7349,7 @@
         <v>138</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7449,7 +7449,7 @@
         <v>152</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7499,7 +7499,7 @@
         <v>158</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7549,7 +7549,7 @@
         <v>165</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7599,7 +7599,7 @@
         <v>172</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7649,7 +7649,7 @@
         <v>4</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7749,7 +7749,7 @@
         <v>184</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7849,7 +7849,7 @@
         <v>4</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7899,7 +7899,7 @@
         <v>197</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7949,7 +7949,7 @@
         <v>204</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7999,7 +7999,7 @@
         <v>211</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8049,7 +8049,7 @@
         <v>218</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8099,7 +8099,7 @@
         <v>225</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8149,7 +8149,7 @@
         <v>232</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8199,7 +8199,7 @@
         <v>239</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8249,7 +8249,7 @@
         <v>246</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8299,7 +8299,7 @@
         <v>252</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8349,7 +8349,7 @@
         <v>259</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8399,7 +8399,7 @@
         <v>266</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8449,7 +8449,7 @@
         <v>4</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8499,7 +8499,7 @@
         <v>278</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8549,7 +8549,7 @@
         <v>284</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8649,7 +8649,7 @@
         <v>298</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8699,7 +8699,7 @@
         <v>305</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8749,7 +8749,7 @@
         <v>312</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8799,7 +8799,7 @@
         <v>319</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8849,7 +8849,7 @@
         <v>326</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8899,7 +8899,7 @@
         <v>4</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8949,7 +8949,7 @@
         <v>4</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8999,7 +8999,7 @@
         <v>343</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9049,7 +9049,7 @@
         <v>350</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9099,7 +9099,7 @@
         <v>357</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9149,7 +9149,7 @@
         <v>364</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9199,7 +9199,7 @@
         <v>371</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9249,7 +9249,7 @@
         <v>378</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9299,7 +9299,7 @@
         <v>385</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9349,7 +9349,7 @@
         <v>392</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9449,7 +9449,7 @@
         <v>404</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9499,7 +9499,7 @@
         <v>410</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9549,7 +9549,7 @@
         <v>416</v>
       </c>
       <c r="Q67" s="3" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9599,7 +9599,7 @@
         <v>423</v>
       </c>
       <c r="Q68" s="3" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9999,7 +9999,7 @@
         <v>100</v>
       </c>
       <c r="Q76" s="3" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10049,7 +10049,7 @@
         <v>456</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10149,7 +10149,7 @@
         <v>4</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10199,7 +10199,7 @@
         <v>469</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10249,7 +10249,7 @@
         <v>4</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10299,7 +10299,7 @@
         <v>4</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10349,7 +10349,7 @@
         <v>4</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10399,7 +10399,7 @@
         <v>4</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10449,7 +10449,7 @@
         <v>4</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10499,7 +10499,7 @@
         <v>4</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10549,7 +10549,7 @@
         <v>4</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10599,7 +10599,7 @@
         <v>4</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10699,7 +10699,7 @@
         <v>4</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10749,7 +10749,7 @@
         <v>4</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10849,7 +10849,7 @@
         <v>4</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10899,7 +10899,7 @@
         <v>4</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10949,7 +10949,7 @@
         <v>4</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10999,7 +10999,7 @@
         <v>4</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11049,7 +11049,7 @@
         <v>4</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11099,7 +11099,7 @@
         <v>4</v>
       </c>
       <c r="Q98" s="3" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11149,7 +11149,7 @@
         <v>4</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11199,7 +11199,7 @@
         <v>4</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11249,7 +11249,7 @@
         <v>4</v>
       </c>
       <c r="Q101" s="3" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11299,7 +11299,7 @@
         <v>4</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11349,7 +11349,7 @@
         <v>573</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11449,7 +11449,7 @@
         <v>582</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11499,7 +11499,7 @@
         <v>589</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11549,7 +11549,7 @@
         <v>595</v>
       </c>
       <c r="Q107" s="3" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11599,7 +11599,7 @@
         <v>602</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11649,7 +11649,7 @@
         <v>609</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11699,7 +11699,7 @@
         <v>616</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11749,7 +11749,7 @@
         <v>623</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11849,7 +11849,7 @@
         <v>636</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11899,7 +11899,7 @@
         <v>642</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11949,7 +11949,7 @@
         <v>649</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11999,7 +11999,7 @@
         <v>656</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12099,7 +12099,7 @@
         <v>669</v>
       </c>
       <c r="Q118" s="3" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12199,7 +12199,7 @@
         <v>677</v>
       </c>
       <c r="Q120" s="3" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12249,7 +12249,7 @@
         <v>4</v>
       </c>
       <c r="Q121" s="3" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12299,7 +12299,7 @@
         <v>158</v>
       </c>
       <c r="Q122" s="3" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12349,7 +12349,7 @@
         <v>4</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12449,7 +12449,7 @@
         <v>4</v>
       </c>
       <c r="Q125" s="3" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12549,7 +12549,7 @@
         <v>4</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12649,7 +12649,7 @@
         <v>4</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="130" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12749,7 +12749,7 @@
         <v>4</v>
       </c>
       <c r="Q131" s="3" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12849,7 +12849,7 @@
         <v>4</v>
       </c>
       <c r="Q133" s="3" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12899,7 +12899,7 @@
         <v>729</v>
       </c>
       <c r="Q134" s="3" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12949,7 +12949,7 @@
         <v>736</v>
       </c>
       <c r="Q135" s="3" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="136" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12999,7 +12999,7 @@
         <v>742</v>
       </c>
       <c r="Q136" s="3" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="137" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13049,7 +13049,7 @@
         <v>748</v>
       </c>
       <c r="Q137" s="3" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="138" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13099,7 +13099,7 @@
         <v>754</v>
       </c>
       <c r="Q138" s="3" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13149,7 +13149,7 @@
         <v>760</v>
       </c>
       <c r="Q139" s="3" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13199,7 +13199,7 @@
         <v>766</v>
       </c>
       <c r="Q140" s="3" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13249,7 +13249,7 @@
         <v>772</v>
       </c>
       <c r="Q141" s="3" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="142" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13299,7 +13299,7 @@
         <v>778</v>
       </c>
       <c r="Q142" s="3" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="143" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13349,7 +13349,7 @@
         <v>784</v>
       </c>
       <c r="Q143" s="3" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="144" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13399,7 +13399,7 @@
         <v>791</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="145" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13549,7 +13549,7 @@
         <v>801</v>
       </c>
       <c r="Q147" s="3" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="148" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13599,7 +13599,7 @@
         <v>808</v>
       </c>
       <c r="Q148" s="3" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="149" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13649,7 +13649,7 @@
         <v>124</v>
       </c>
       <c r="Q149" s="3" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="150" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13699,7 +13699,7 @@
         <v>131</v>
       </c>
       <c r="Q150" s="3" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="151" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13749,7 +13749,7 @@
         <v>4</v>
       </c>
       <c r="Q151" s="3" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="152" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13849,7 +13849,7 @@
         <v>138</v>
       </c>
       <c r="Q153" s="3" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="154" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13899,7 +13899,7 @@
         <v>826</v>
       </c>
       <c r="Q154" s="3" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="155" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13999,7 +13999,7 @@
         <v>832</v>
       </c>
       <c r="Q156" s="3" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="157" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14049,7 +14049,7 @@
         <v>165</v>
       </c>
       <c r="Q157" s="3" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="158" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14099,7 +14099,7 @@
         <v>172</v>
       </c>
       <c r="Q158" s="3" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="159" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14149,7 +14149,7 @@
         <v>4</v>
       </c>
       <c r="Q159" s="3" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="160" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14199,7 +14199,7 @@
         <v>842</v>
       </c>
       <c r="Q160" s="3" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="161" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14249,7 +14249,7 @@
         <v>842</v>
       </c>
       <c r="Q161" s="3" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14299,7 +14299,7 @@
         <v>855</v>
       </c>
       <c r="Q162" s="3" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="163" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14349,7 +14349,7 @@
         <v>118</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="164" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14399,7 +14399,7 @@
         <v>863</v>
       </c>
       <c r="Q164" s="3" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="165" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14449,7 +14449,7 @@
         <v>869</v>
       </c>
       <c r="Q165" s="3" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14499,7 +14499,7 @@
         <v>876</v>
       </c>
       <c r="Q166" s="3" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14549,7 +14549,7 @@
         <v>882</v>
       </c>
       <c r="Q167" s="3" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="168" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14599,7 +14599,7 @@
         <v>888</v>
       </c>
       <c r="Q168" s="3" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="169" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14699,7 +14699,7 @@
         <v>896</v>
       </c>
       <c r="Q170" s="3" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="171" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14749,7 +14749,7 @@
         <v>902</v>
       </c>
       <c r="Q171" s="3" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14899,7 +14899,7 @@
         <v>909</v>
       </c>
       <c r="Q174" s="3" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="175" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14949,7 +14949,7 @@
         <v>912</v>
       </c>
       <c r="Q175" s="3" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="176" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15049,7 +15049,7 @@
         <v>926</v>
       </c>
       <c r="Q177" s="3" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="178" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15099,7 +15099,7 @@
         <v>933</v>
       </c>
       <c r="Q178" s="3" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="179" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15149,7 +15149,7 @@
         <v>940</v>
       </c>
       <c r="Q179" s="3" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="180" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15199,7 +15199,7 @@
         <v>4</v>
       </c>
       <c r="Q180" s="3" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="181" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15299,7 +15299,7 @@
         <v>949</v>
       </c>
       <c r="Q182" s="3" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="183" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15349,7 +15349,7 @@
         <v>957</v>
       </c>
       <c r="Q183" s="3" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="184" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15399,7 +15399,7 @@
         <v>964</v>
       </c>
       <c r="Q184" s="3" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="185" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15449,7 +15449,7 @@
         <v>4</v>
       </c>
       <c r="Q185" s="3" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="186" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15466,7 +15466,7 @@
         <v>4</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="F186" t="s">
         <v>4</v>
@@ -15499,7 +15499,7 @@
         <v>4</v>
       </c>
       <c r="Q186" s="3" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="187" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15549,7 +15549,7 @@
         <v>778</v>
       </c>
       <c r="Q187" s="3" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="188" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15599,7 +15599,7 @@
         <v>976</v>
       </c>
       <c r="Q188" s="3" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="189" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15649,7 +15649,7 @@
         <v>4</v>
       </c>
       <c r="Q189" s="3" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="190" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15699,7 +15699,7 @@
         <v>988</v>
       </c>
       <c r="Q190" s="3" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="191" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15749,7 +15749,7 @@
         <v>991</v>
       </c>
       <c r="Q191" s="3" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="192" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15799,7 +15799,7 @@
         <v>4</v>
       </c>
       <c r="Q192" s="3" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="193" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15849,7 +15849,7 @@
         <v>729</v>
       </c>
       <c r="Q193" s="3" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="194" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15899,7 +15899,7 @@
         <v>736</v>
       </c>
       <c r="Q194" s="3" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="195" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15949,7 +15949,7 @@
         <v>1005</v>
       </c>
       <c r="Q195" s="3" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="196" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15999,7 +15999,7 @@
         <v>1008</v>
       </c>
       <c r="Q196" s="3" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="197" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16049,7 +16049,7 @@
         <v>1015</v>
       </c>
       <c r="Q197" s="3" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="198" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16246,7 +16246,7 @@
         <v>4</v>
       </c>
       <c r="Q201" s="3" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="202" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16346,7 +16346,7 @@
         <v>4</v>
       </c>
       <c r="Q203" s="3" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="204" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16446,7 +16446,7 @@
         <v>4</v>
       </c>
       <c r="Q205" s="3" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="206" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16546,7 +16546,7 @@
         <v>4</v>
       </c>
       <c r="Q207" s="3" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="208" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16596,7 +16596,7 @@
         <v>4</v>
       </c>
       <c r="Q208" s="3" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="209" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16646,7 +16646,7 @@
         <v>4</v>
       </c>
       <c r="Q209" s="3" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="210" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16790,7 +16790,7 @@
         <v>4</v>
       </c>
       <c r="Q212" s="4" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="213" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16840,7 +16840,7 @@
         <v>4</v>
       </c>
       <c r="Q213" s="3" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="214" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16890,7 +16890,7 @@
         <v>4</v>
       </c>
       <c r="Q214" s="3" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="215" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16940,7 +16940,7 @@
         <v>4</v>
       </c>
       <c r="Q215" s="3" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="216" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16990,7 +16990,7 @@
         <v>4</v>
       </c>
       <c r="Q216" s="3" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="217" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17140,7 +17140,7 @@
         <v>4</v>
       </c>
       <c r="Q219" s="3" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="220" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17190,7 +17190,7 @@
         <v>4</v>
       </c>
       <c r="Q220" s="3" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="221" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17640,7 +17640,7 @@
         <v>4</v>
       </c>
       <c r="Q229" s="3" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="230" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17690,7 +17690,7 @@
         <v>4</v>
       </c>
       <c r="Q230" s="3" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="231" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17740,7 +17740,7 @@
         <v>4</v>
       </c>
       <c r="Q231" s="3" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="232" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17790,7 +17790,7 @@
         <v>4</v>
       </c>
       <c r="Q232" s="3" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="233" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17840,7 +17840,7 @@
         <v>4</v>
       </c>
       <c r="Q233" s="3" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="234" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17940,7 +17940,7 @@
         <v>4</v>
       </c>
       <c r="Q235" s="3" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="236" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17990,7 +17990,7 @@
         <v>4</v>
       </c>
       <c r="Q236" s="3" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="237" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18184,7 +18184,7 @@
         <v>4</v>
       </c>
       <c r="Q240" s="3" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="241" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18234,7 +18234,7 @@
         <v>4</v>
       </c>
       <c r="Q241" s="3" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="242" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18384,7 +18384,7 @@
         <v>4</v>
       </c>
       <c r="Q244" s="3" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="245" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18434,7 +18434,7 @@
         <v>4</v>
       </c>
       <c r="Q245" s="3" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="246" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18484,7 +18484,7 @@
         <v>4</v>
       </c>
       <c r="Q246" s="3" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="247" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18534,7 +18534,7 @@
         <v>4</v>
       </c>
       <c r="Q247" s="4" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="248" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18584,7 +18584,7 @@
         <v>4</v>
       </c>
       <c r="Q248" s="4" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="249" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18634,7 +18634,7 @@
         <v>4</v>
       </c>
       <c r="Q249" s="3" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="250" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18684,7 +18684,7 @@
         <v>4</v>
       </c>
       <c r="Q250" s="3" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="251" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18734,7 +18734,7 @@
         <v>1170</v>
       </c>
       <c r="Q251" s="3" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="252" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18884,7 +18884,7 @@
         <v>4</v>
       </c>
       <c r="Q254" s="3" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="255" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18934,7 +18934,7 @@
         <v>4</v>
       </c>
       <c r="Q255" s="3" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="256" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18984,7 +18984,7 @@
         <v>4</v>
       </c>
       <c r="Q256" s="3" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="257" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19034,7 +19034,7 @@
         <v>4</v>
       </c>
       <c r="Q257" s="3" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="258" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19084,7 +19084,7 @@
         <v>4</v>
       </c>
       <c r="Q258" s="3" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="259" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19184,7 +19184,7 @@
         <v>4</v>
       </c>
       <c r="Q260" s="3" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="261" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19234,7 +19234,7 @@
         <v>4</v>
       </c>
       <c r="Q261" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="262" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19284,7 +19284,7 @@
         <v>4</v>
       </c>
       <c r="Q262" s="3" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="263" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19334,7 +19334,7 @@
         <v>4</v>
       </c>
       <c r="Q263" s="2" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="264" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19384,7 +19384,7 @@
         <v>4</v>
       </c>
       <c r="Q264" s="4" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="265" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19434,7 +19434,7 @@
         <v>4</v>
       </c>
       <c r="Q265" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="266" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19484,7 +19484,7 @@
         <v>4</v>
       </c>
       <c r="Q266" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="267" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19534,7 +19534,7 @@
         <v>4</v>
       </c>
       <c r="Q267" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="268" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19584,7 +19584,7 @@
         <v>4</v>
       </c>
       <c r="Q268" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="269" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19634,7 +19634,7 @@
         <v>4</v>
       </c>
       <c r="Q269" s="3" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="270" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19684,7 +19684,7 @@
         <v>4</v>
       </c>
       <c r="Q270" s="3" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="271" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19734,7 +19734,7 @@
         <v>4</v>
       </c>
       <c r="Q271" s="3" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="272" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19784,7 +19784,7 @@
         <v>4</v>
       </c>
       <c r="Q272" s="3" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="273" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19834,7 +19834,7 @@
         <v>4</v>
       </c>
       <c r="Q273" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="274" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19884,7 +19884,7 @@
         <v>4</v>
       </c>
       <c r="Q274" s="3" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="275" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19934,7 +19934,7 @@
         <v>4</v>
       </c>
       <c r="Q275" s="3" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="276" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19984,7 +19984,7 @@
         <v>4</v>
       </c>
       <c r="Q276" s="3" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="277" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20034,7 +20034,7 @@
         <v>4</v>
       </c>
       <c r="Q277" s="3" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="278" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20084,7 +20084,7 @@
         <v>4</v>
       </c>
       <c r="Q278" s="3" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="279" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20134,7 +20134,7 @@
         <v>4</v>
       </c>
       <c r="Q279" s="4" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="280" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20184,7 +20184,7 @@
         <v>4</v>
       </c>
       <c r="Q280" s="4" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="281" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20234,7 +20234,7 @@
         <v>4</v>
       </c>
       <c r="Q281" s="3" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="282" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20284,7 +20284,7 @@
         <v>4</v>
       </c>
       <c r="Q282" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="283" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20334,7 +20334,7 @@
         <v>4</v>
       </c>
       <c r="Q283" s="3" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="284" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20384,7 +20384,7 @@
         <v>4</v>
       </c>
       <c r="Q284" s="3" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="285" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20434,7 +20434,7 @@
         <v>4</v>
       </c>
       <c r="Q285" s="4" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="286" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20484,7 +20484,7 @@
         <v>4</v>
       </c>
       <c r="Q286" s="3" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="287" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20534,7 +20534,7 @@
         <v>4</v>
       </c>
       <c r="Q287" s="3" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="288" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20584,7 +20584,7 @@
         <v>4</v>
       </c>
       <c r="Q288" s="3" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="289" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20634,7 +20634,7 @@
         <v>4</v>
       </c>
       <c r="Q289" s="3" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="290" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20684,7 +20684,7 @@
         <v>4</v>
       </c>
       <c r="Q290" s="3" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="291" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20734,7 +20734,7 @@
         <v>4</v>
       </c>
       <c r="Q291" s="3" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="292" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20784,7 +20784,7 @@
         <v>4</v>
       </c>
       <c r="Q292" s="3" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="293" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20834,7 +20834,7 @@
         <v>4</v>
       </c>
       <c r="Q293" s="3" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="294" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20884,7 +20884,7 @@
         <v>4</v>
       </c>
       <c r="Q294" s="3" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="295" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20934,7 +20934,7 @@
         <v>4</v>
       </c>
       <c r="Q295" s="3" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="296" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20984,7 +20984,7 @@
         <v>4</v>
       </c>
       <c r="Q296" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="297" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21034,7 +21034,7 @@
         <v>4</v>
       </c>
       <c r="Q297" s="3" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="298" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21084,7 +21084,7 @@
         <v>4</v>
       </c>
       <c r="Q298" s="3" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="299" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21134,7 +21134,7 @@
         <v>4</v>
       </c>
       <c r="Q299" s="3" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="300" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21184,7 +21184,7 @@
         <v>4</v>
       </c>
       <c r="Q300" s="4" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="301" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21234,7 +21234,7 @@
         <v>4</v>
       </c>
       <c r="Q301" s="4" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="302" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21251,7 +21251,7 @@
         <v>4</v>
       </c>
       <c r="E302" t="s">
-        <v>1402</v>
+        <v>1873</v>
       </c>
       <c r="F302" t="s">
         <v>4</v>
@@ -21263,7 +21263,7 @@
         <v>4</v>
       </c>
       <c r="I302" t="s">
-        <v>1403</v>
+        <v>1874</v>
       </c>
       <c r="J302" t="s">
         <v>4</v>
@@ -21275,7 +21275,7 @@
         <v>4</v>
       </c>
       <c r="M302" t="s">
-        <v>1404</v>
+        <v>1875</v>
       </c>
       <c r="N302" t="s">
         <v>4</v>
@@ -21284,7 +21284,7 @@
         <v>4</v>
       </c>
       <c r="Q302" s="3" t="s">
-        <v>1831</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="303" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21295,38 +21295,38 @@
         <v>1207</v>
       </c>
       <c r="C303" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D303" t="s">
+        <v>4</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F303" t="s">
+        <v>4</v>
+      </c>
+      <c r="G303" t="s">
+        <v>4</v>
+      </c>
+      <c r="H303" t="s">
+        <v>4</v>
+      </c>
+      <c r="I303" t="s">
+        <v>1404</v>
+      </c>
+      <c r="J303" t="s">
+        <v>4</v>
+      </c>
+      <c r="K303" t="s">
+        <v>4</v>
+      </c>
+      <c r="L303" t="s">
+        <v>4</v>
+      </c>
+      <c r="M303" t="s">
         <v>1405</v>
       </c>
-      <c r="D303" t="s">
-        <v>4</v>
-      </c>
-      <c r="E303" t="s">
-        <v>1406</v>
-      </c>
-      <c r="F303" t="s">
-        <v>4</v>
-      </c>
-      <c r="G303" t="s">
-        <v>4</v>
-      </c>
-      <c r="H303" t="s">
-        <v>4</v>
-      </c>
-      <c r="I303" t="s">
-        <v>1407</v>
-      </c>
-      <c r="J303" t="s">
-        <v>4</v>
-      </c>
-      <c r="K303" t="s">
-        <v>4</v>
-      </c>
-      <c r="L303" t="s">
-        <v>4</v>
-      </c>
-      <c r="M303" t="s">
-        <v>1408</v>
-      </c>
       <c r="N303" t="s">
         <v>4</v>
       </c>
@@ -21334,7 +21334,7 @@
         <v>4</v>
       </c>
       <c r="Q303" s="3" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="304" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21345,38 +21345,38 @@
         <v>1207</v>
       </c>
       <c r="C304" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D304" t="s">
+        <v>4</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F304" t="s">
+        <v>4</v>
+      </c>
+      <c r="G304" t="s">
+        <v>4</v>
+      </c>
+      <c r="H304" t="s">
+        <v>4</v>
+      </c>
+      <c r="I304" t="s">
+        <v>1408</v>
+      </c>
+      <c r="J304" t="s">
+        <v>4</v>
+      </c>
+      <c r="K304" t="s">
+        <v>4</v>
+      </c>
+      <c r="L304" t="s">
+        <v>4</v>
+      </c>
+      <c r="M304" t="s">
         <v>1409</v>
       </c>
-      <c r="D304" t="s">
-        <v>4</v>
-      </c>
-      <c r="E304" t="s">
-        <v>1410</v>
-      </c>
-      <c r="F304" t="s">
-        <v>4</v>
-      </c>
-      <c r="G304" t="s">
-        <v>4</v>
-      </c>
-      <c r="H304" t="s">
-        <v>4</v>
-      </c>
-      <c r="I304" t="s">
-        <v>1411</v>
-      </c>
-      <c r="J304" t="s">
-        <v>4</v>
-      </c>
-      <c r="K304" t="s">
-        <v>4</v>
-      </c>
-      <c r="L304" t="s">
-        <v>4</v>
-      </c>
-      <c r="M304" t="s">
-        <v>1412</v>
-      </c>
       <c r="N304" t="s">
         <v>4</v>
       </c>
@@ -21384,7 +21384,7 @@
         <v>4</v>
       </c>
       <c r="Q304" s="3" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="305" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21395,38 +21395,38 @@
         <v>1207</v>
       </c>
       <c r="C305" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D305" t="s">
+        <v>4</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F305" t="s">
+        <v>4</v>
+      </c>
+      <c r="G305" t="s">
+        <v>4</v>
+      </c>
+      <c r="H305" t="s">
+        <v>4</v>
+      </c>
+      <c r="I305" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J305" t="s">
+        <v>4</v>
+      </c>
+      <c r="K305" t="s">
+        <v>4</v>
+      </c>
+      <c r="L305" t="s">
+        <v>4</v>
+      </c>
+      <c r="M305" t="s">
         <v>1413</v>
       </c>
-      <c r="D305" t="s">
-        <v>4</v>
-      </c>
-      <c r="E305" t="s">
-        <v>1414</v>
-      </c>
-      <c r="F305" t="s">
-        <v>4</v>
-      </c>
-      <c r="G305" t="s">
-        <v>4</v>
-      </c>
-      <c r="H305" t="s">
-        <v>4</v>
-      </c>
-      <c r="I305" t="s">
-        <v>1415</v>
-      </c>
-      <c r="J305" t="s">
-        <v>4</v>
-      </c>
-      <c r="K305" t="s">
-        <v>4</v>
-      </c>
-      <c r="L305" t="s">
-        <v>4</v>
-      </c>
-      <c r="M305" t="s">
-        <v>1416</v>
-      </c>
       <c r="N305" t="s">
         <v>4</v>
       </c>
@@ -21434,7 +21434,7 @@
         <v>4</v>
       </c>
       <c r="Q305" s="3" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="306" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21445,38 +21445,38 @@
         <v>1207</v>
       </c>
       <c r="C306" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D306" t="s">
+        <v>4</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F306" t="s">
+        <v>4</v>
+      </c>
+      <c r="G306" t="s">
+        <v>4</v>
+      </c>
+      <c r="H306" t="s">
+        <v>4</v>
+      </c>
+      <c r="I306" t="s">
+        <v>1416</v>
+      </c>
+      <c r="J306" t="s">
+        <v>4</v>
+      </c>
+      <c r="K306" t="s">
+        <v>4</v>
+      </c>
+      <c r="L306" t="s">
+        <v>4</v>
+      </c>
+      <c r="M306" t="s">
         <v>1417</v>
       </c>
-      <c r="D306" t="s">
-        <v>4</v>
-      </c>
-      <c r="E306" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F306" t="s">
-        <v>4</v>
-      </c>
-      <c r="G306" t="s">
-        <v>4</v>
-      </c>
-      <c r="H306" t="s">
-        <v>4</v>
-      </c>
-      <c r="I306" t="s">
-        <v>1419</v>
-      </c>
-      <c r="J306" t="s">
-        <v>4</v>
-      </c>
-      <c r="K306" t="s">
-        <v>4</v>
-      </c>
-      <c r="L306" t="s">
-        <v>4</v>
-      </c>
-      <c r="M306" t="s">
-        <v>1420</v>
-      </c>
       <c r="N306" t="s">
         <v>4</v>
       </c>
@@ -21484,7 +21484,7 @@
         <v>4</v>
       </c>
       <c r="Q306" s="3" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="307" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21495,38 +21495,38 @@
         <v>1207</v>
       </c>
       <c r="C307" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D307" t="s">
+        <v>4</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F307" t="s">
+        <v>4</v>
+      </c>
+      <c r="G307" t="s">
+        <v>4</v>
+      </c>
+      <c r="H307" t="s">
+        <v>4</v>
+      </c>
+      <c r="I307" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J307" t="s">
+        <v>4</v>
+      </c>
+      <c r="K307" t="s">
+        <v>4</v>
+      </c>
+      <c r="L307" t="s">
+        <v>4</v>
+      </c>
+      <c r="M307" t="s">
         <v>1421</v>
       </c>
-      <c r="D307" t="s">
-        <v>4</v>
-      </c>
-      <c r="E307" t="s">
-        <v>1422</v>
-      </c>
-      <c r="F307" t="s">
-        <v>4</v>
-      </c>
-      <c r="G307" t="s">
-        <v>4</v>
-      </c>
-      <c r="H307" t="s">
-        <v>4</v>
-      </c>
-      <c r="I307" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J307" t="s">
-        <v>4</v>
-      </c>
-      <c r="K307" t="s">
-        <v>4</v>
-      </c>
-      <c r="L307" t="s">
-        <v>4</v>
-      </c>
-      <c r="M307" t="s">
-        <v>1424</v>
-      </c>
       <c r="N307" t="s">
         <v>4</v>
       </c>
@@ -21534,7 +21534,7 @@
         <v>4</v>
       </c>
       <c r="Q307" s="3" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="308" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21545,38 +21545,38 @@
         <v>1207</v>
       </c>
       <c r="C308" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D308" t="s">
+        <v>4</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F308" t="s">
+        <v>4</v>
+      </c>
+      <c r="G308" t="s">
+        <v>4</v>
+      </c>
+      <c r="H308" t="s">
+        <v>4</v>
+      </c>
+      <c r="I308" t="s">
+        <v>1424</v>
+      </c>
+      <c r="J308" t="s">
+        <v>4</v>
+      </c>
+      <c r="K308" t="s">
+        <v>4</v>
+      </c>
+      <c r="L308" t="s">
+        <v>4</v>
+      </c>
+      <c r="M308" t="s">
         <v>1425</v>
       </c>
-      <c r="D308" t="s">
-        <v>4</v>
-      </c>
-      <c r="E308" t="s">
-        <v>1426</v>
-      </c>
-      <c r="F308" t="s">
-        <v>4</v>
-      </c>
-      <c r="G308" t="s">
-        <v>4</v>
-      </c>
-      <c r="H308" t="s">
-        <v>4</v>
-      </c>
-      <c r="I308" t="s">
-        <v>1427</v>
-      </c>
-      <c r="J308" t="s">
-        <v>4</v>
-      </c>
-      <c r="K308" t="s">
-        <v>4</v>
-      </c>
-      <c r="L308" t="s">
-        <v>4</v>
-      </c>
-      <c r="M308" t="s">
-        <v>1428</v>
-      </c>
       <c r="N308" t="s">
         <v>4</v>
       </c>
@@ -21584,7 +21584,7 @@
         <v>4</v>
       </c>
       <c r="Q308" s="3" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="309" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21595,38 +21595,38 @@
         <v>1207</v>
       </c>
       <c r="C309" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D309" t="s">
+        <v>4</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F309" t="s">
+        <v>4</v>
+      </c>
+      <c r="G309" t="s">
+        <v>4</v>
+      </c>
+      <c r="H309" t="s">
+        <v>4</v>
+      </c>
+      <c r="I309" t="s">
+        <v>1428</v>
+      </c>
+      <c r="J309" t="s">
+        <v>4</v>
+      </c>
+      <c r="K309" t="s">
+        <v>4</v>
+      </c>
+      <c r="L309" t="s">
+        <v>4</v>
+      </c>
+      <c r="M309" t="s">
         <v>1429</v>
       </c>
-      <c r="D309" t="s">
-        <v>4</v>
-      </c>
-      <c r="E309" t="s">
-        <v>1430</v>
-      </c>
-      <c r="F309" t="s">
-        <v>4</v>
-      </c>
-      <c r="G309" t="s">
-        <v>4</v>
-      </c>
-      <c r="H309" t="s">
-        <v>4</v>
-      </c>
-      <c r="I309" t="s">
-        <v>1431</v>
-      </c>
-      <c r="J309" t="s">
-        <v>4</v>
-      </c>
-      <c r="K309" t="s">
-        <v>4</v>
-      </c>
-      <c r="L309" t="s">
-        <v>4</v>
-      </c>
-      <c r="M309" t="s">
-        <v>1432</v>
-      </c>
       <c r="N309" t="s">
         <v>4</v>
       </c>
@@ -21634,7 +21634,7 @@
         <v>4</v>
       </c>
       <c r="Q309" s="3" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="310" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21645,38 +21645,38 @@
         <v>1207</v>
       </c>
       <c r="C310" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D310" t="s">
+        <v>4</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F310" t="s">
+        <v>4</v>
+      </c>
+      <c r="G310" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H310" t="s">
+        <v>4</v>
+      </c>
+      <c r="I310" t="s">
+        <v>4</v>
+      </c>
+      <c r="J310" t="s">
+        <v>4</v>
+      </c>
+      <c r="K310" t="s">
+        <v>4</v>
+      </c>
+      <c r="L310" t="s">
+        <v>4</v>
+      </c>
+      <c r="M310" t="s">
         <v>1433</v>
       </c>
-      <c r="D310" t="s">
-        <v>4</v>
-      </c>
-      <c r="E310" t="s">
-        <v>1434</v>
-      </c>
-      <c r="F310" t="s">
-        <v>4</v>
-      </c>
-      <c r="G310" t="s">
-        <v>1435</v>
-      </c>
-      <c r="H310" t="s">
-        <v>4</v>
-      </c>
-      <c r="I310" t="s">
-        <v>4</v>
-      </c>
-      <c r="J310" t="s">
-        <v>4</v>
-      </c>
-      <c r="K310" t="s">
-        <v>4</v>
-      </c>
-      <c r="L310" t="s">
-        <v>4</v>
-      </c>
-      <c r="M310" t="s">
-        <v>1436</v>
-      </c>
       <c r="N310" t="s">
         <v>4</v>
       </c>
@@ -21684,7 +21684,7 @@
         <v>4</v>
       </c>
       <c r="Q310" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="311" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21695,38 +21695,38 @@
         <v>1207</v>
       </c>
       <c r="C311" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D311" t="s">
+        <v>4</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F311" t="s">
+        <v>4</v>
+      </c>
+      <c r="G311" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H311" t="s">
+        <v>4</v>
+      </c>
+      <c r="I311" t="s">
+        <v>4</v>
+      </c>
+      <c r="J311" t="s">
+        <v>4</v>
+      </c>
+      <c r="K311" t="s">
+        <v>4</v>
+      </c>
+      <c r="L311" t="s">
+        <v>4</v>
+      </c>
+      <c r="M311" t="s">
         <v>1437</v>
       </c>
-      <c r="D311" t="s">
-        <v>4</v>
-      </c>
-      <c r="E311" t="s">
-        <v>1438</v>
-      </c>
-      <c r="F311" t="s">
-        <v>4</v>
-      </c>
-      <c r="G311" t="s">
-        <v>1439</v>
-      </c>
-      <c r="H311" t="s">
-        <v>4</v>
-      </c>
-      <c r="I311" t="s">
-        <v>4</v>
-      </c>
-      <c r="J311" t="s">
-        <v>4</v>
-      </c>
-      <c r="K311" t="s">
-        <v>4</v>
-      </c>
-      <c r="L311" t="s">
-        <v>4</v>
-      </c>
-      <c r="M311" t="s">
-        <v>1440</v>
-      </c>
       <c r="N311" t="s">
         <v>4</v>
       </c>
@@ -21734,7 +21734,7 @@
         <v>4</v>
       </c>
       <c r="Q311" s="3" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="312" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21745,38 +21745,38 @@
         <v>1207</v>
       </c>
       <c r="C312" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D312" t="s">
+        <v>4</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F312" t="s">
+        <v>4</v>
+      </c>
+      <c r="G312" t="s">
+        <v>4</v>
+      </c>
+      <c r="H312" t="s">
+        <v>4</v>
+      </c>
+      <c r="I312" t="s">
+        <v>1440</v>
+      </c>
+      <c r="J312" t="s">
+        <v>4</v>
+      </c>
+      <c r="K312" t="s">
+        <v>4</v>
+      </c>
+      <c r="L312" t="s">
+        <v>4</v>
+      </c>
+      <c r="M312" t="s">
         <v>1441</v>
       </c>
-      <c r="D312" t="s">
-        <v>4</v>
-      </c>
-      <c r="E312" t="s">
-        <v>1442</v>
-      </c>
-      <c r="F312" t="s">
-        <v>4</v>
-      </c>
-      <c r="G312" t="s">
-        <v>4</v>
-      </c>
-      <c r="H312" t="s">
-        <v>4</v>
-      </c>
-      <c r="I312" t="s">
-        <v>1443</v>
-      </c>
-      <c r="J312" t="s">
-        <v>4</v>
-      </c>
-      <c r="K312" t="s">
-        <v>4</v>
-      </c>
-      <c r="L312" t="s">
-        <v>4</v>
-      </c>
-      <c r="M312" t="s">
-        <v>1444</v>
-      </c>
       <c r="N312" t="s">
         <v>4</v>
       </c>
@@ -21784,49 +21784,49 @@
         <v>4</v>
       </c>
       <c r="Q312" s="4" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="313" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D313" t="s">
+        <v>4</v>
+      </c>
+      <c r="E313" t="s">
         <v>1445</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="F313" t="s">
+        <v>4</v>
+      </c>
+      <c r="G313" t="s">
         <v>1446</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="H313" t="s">
+        <v>4</v>
+      </c>
+      <c r="I313" t="s">
         <v>1447</v>
       </c>
-      <c r="D313" t="s">
-        <v>4</v>
-      </c>
-      <c r="E313" t="s">
+      <c r="J313" t="s">
+        <v>4</v>
+      </c>
+      <c r="K313" t="s">
+        <v>4</v>
+      </c>
+      <c r="L313" t="s">
+        <v>4</v>
+      </c>
+      <c r="M313" t="s">
         <v>1448</v>
       </c>
-      <c r="F313" t="s">
-        <v>4</v>
-      </c>
-      <c r="G313" t="s">
-        <v>1449</v>
-      </c>
-      <c r="H313" t="s">
-        <v>4</v>
-      </c>
-      <c r="I313" t="s">
-        <v>1450</v>
-      </c>
-      <c r="J313" t="s">
-        <v>4</v>
-      </c>
-      <c r="K313" t="s">
-        <v>4</v>
-      </c>
-      <c r="L313" t="s">
-        <v>4</v>
-      </c>
-      <c r="M313" t="s">
-        <v>1451</v>
-      </c>
       <c r="N313" t="s">
         <v>4</v>
       </c>
@@ -21834,49 +21834,49 @@
         <v>4</v>
       </c>
       <c r="Q313" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="314" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C314" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D314" t="s">
+        <v>4</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F314" t="s">
+        <v>4</v>
+      </c>
+      <c r="G314" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H314" t="s">
+        <v>4</v>
+      </c>
+      <c r="I314" t="s">
         <v>1452</v>
       </c>
-      <c r="D314" t="s">
-        <v>4</v>
-      </c>
-      <c r="E314" t="s">
+      <c r="J314" t="s">
+        <v>4</v>
+      </c>
+      <c r="K314" t="s">
+        <v>4</v>
+      </c>
+      <c r="L314" t="s">
+        <v>4</v>
+      </c>
+      <c r="M314" t="s">
         <v>1453</v>
       </c>
-      <c r="F314" t="s">
-        <v>4</v>
-      </c>
-      <c r="G314" t="s">
-        <v>1454</v>
-      </c>
-      <c r="H314" t="s">
-        <v>4</v>
-      </c>
-      <c r="I314" t="s">
-        <v>1455</v>
-      </c>
-      <c r="J314" t="s">
-        <v>4</v>
-      </c>
-      <c r="K314" t="s">
-        <v>4</v>
-      </c>
-      <c r="L314" t="s">
-        <v>4</v>
-      </c>
-      <c r="M314" t="s">
-        <v>1456</v>
-      </c>
       <c r="N314" t="s">
         <v>4</v>
       </c>
@@ -21884,15 +21884,15 @@
         <v>4</v>
       </c>
       <c r="Q314" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="315" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>1037</v>
@@ -21901,32 +21901,32 @@
         <v>4</v>
       </c>
       <c r="E315" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F315" t="s">
+        <v>4</v>
+      </c>
+      <c r="G315" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H315" t="s">
+        <v>4</v>
+      </c>
+      <c r="I315" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J315" t="s">
+        <v>4</v>
+      </c>
+      <c r="K315" t="s">
+        <v>4</v>
+      </c>
+      <c r="L315" t="s">
+        <v>4</v>
+      </c>
+      <c r="M315" t="s">
         <v>1459</v>
       </c>
-      <c r="F315" t="s">
-        <v>4</v>
-      </c>
-      <c r="G315" t="s">
-        <v>1460</v>
-      </c>
-      <c r="H315" t="s">
-        <v>4</v>
-      </c>
-      <c r="I315" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J315" t="s">
-        <v>4</v>
-      </c>
-      <c r="K315" t="s">
-        <v>4</v>
-      </c>
-      <c r="L315" t="s">
-        <v>4</v>
-      </c>
-      <c r="M315" t="s">
-        <v>1462</v>
-      </c>
       <c r="N315" t="s">
         <v>4</v>
       </c>
@@ -21934,15 +21934,15 @@
         <v>4</v>
       </c>
       <c r="Q315" s="3" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="316" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>1059</v>
@@ -21951,32 +21951,32 @@
         <v>4</v>
       </c>
       <c r="E316" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F316" t="s">
+        <v>4</v>
+      </c>
+      <c r="G316" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H316" t="s">
+        <v>4</v>
+      </c>
+      <c r="I316" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J316" t="s">
+        <v>4</v>
+      </c>
+      <c r="K316" t="s">
+        <v>4</v>
+      </c>
+      <c r="L316" t="s">
+        <v>4</v>
+      </c>
+      <c r="M316" t="s">
         <v>1463</v>
       </c>
-      <c r="F316" t="s">
-        <v>4</v>
-      </c>
-      <c r="G316" t="s">
-        <v>1464</v>
-      </c>
-      <c r="H316" t="s">
-        <v>4</v>
-      </c>
-      <c r="I316" t="s">
-        <v>1465</v>
-      </c>
-      <c r="J316" t="s">
-        <v>4</v>
-      </c>
-      <c r="K316" t="s">
-        <v>4</v>
-      </c>
-      <c r="L316" t="s">
-        <v>4</v>
-      </c>
-      <c r="M316" t="s">
-        <v>1466</v>
-      </c>
       <c r="N316" t="s">
         <v>4</v>
       </c>
@@ -21984,15 +21984,15 @@
         <v>4</v>
       </c>
       <c r="Q316" s="3" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="317" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>1063</v>
@@ -22001,32 +22001,32 @@
         <v>4</v>
       </c>
       <c r="E317" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F317" t="s">
+        <v>4</v>
+      </c>
+      <c r="G317" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H317" t="s">
+        <v>4</v>
+      </c>
+      <c r="I317" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J317" t="s">
+        <v>4</v>
+      </c>
+      <c r="K317" t="s">
+        <v>4</v>
+      </c>
+      <c r="L317" t="s">
+        <v>4</v>
+      </c>
+      <c r="M317" t="s">
         <v>1467</v>
       </c>
-      <c r="F317" t="s">
-        <v>4</v>
-      </c>
-      <c r="G317" t="s">
-        <v>1468</v>
-      </c>
-      <c r="H317" t="s">
-        <v>4</v>
-      </c>
-      <c r="I317" t="s">
-        <v>1469</v>
-      </c>
-      <c r="J317" t="s">
-        <v>4</v>
-      </c>
-      <c r="K317" t="s">
-        <v>4</v>
-      </c>
-      <c r="L317" t="s">
-        <v>4</v>
-      </c>
-      <c r="M317" t="s">
-        <v>1470</v>
-      </c>
       <c r="N317" t="s">
         <v>4</v>
       </c>
@@ -22034,15 +22034,15 @@
         <v>4</v>
       </c>
       <c r="Q317" s="3" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="318" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>1071</v>
@@ -22051,32 +22051,32 @@
         <v>4</v>
       </c>
       <c r="E318" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F318" t="s">
+        <v>4</v>
+      </c>
+      <c r="G318" t="s">
+        <v>1469</v>
+      </c>
+      <c r="H318" t="s">
+        <v>4</v>
+      </c>
+      <c r="I318" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J318" t="s">
+        <v>4</v>
+      </c>
+      <c r="K318" t="s">
+        <v>4</v>
+      </c>
+      <c r="L318" t="s">
+        <v>4</v>
+      </c>
+      <c r="M318" t="s">
         <v>1471</v>
       </c>
-      <c r="F318" t="s">
-        <v>4</v>
-      </c>
-      <c r="G318" t="s">
-        <v>1472</v>
-      </c>
-      <c r="H318" t="s">
-        <v>4</v>
-      </c>
-      <c r="I318" t="s">
-        <v>1473</v>
-      </c>
-      <c r="J318" t="s">
-        <v>4</v>
-      </c>
-      <c r="K318" t="s">
-        <v>4</v>
-      </c>
-      <c r="L318" t="s">
-        <v>4</v>
-      </c>
-      <c r="M318" t="s">
-        <v>1474</v>
-      </c>
       <c r="N318" t="s">
         <v>4</v>
       </c>
@@ -22084,15 +22084,15 @@
         <v>4</v>
       </c>
       <c r="Q318" s="3" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="319" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>1075</v>
@@ -22101,32 +22101,32 @@
         <v>4</v>
       </c>
       <c r="E319" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F319" t="s">
+        <v>4</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1473</v>
+      </c>
+      <c r="H319" t="s">
+        <v>4</v>
+      </c>
+      <c r="I319" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J319" t="s">
+        <v>4</v>
+      </c>
+      <c r="K319" t="s">
+        <v>4</v>
+      </c>
+      <c r="L319" t="s">
+        <v>4</v>
+      </c>
+      <c r="M319" t="s">
         <v>1475</v>
       </c>
-      <c r="F319" t="s">
-        <v>4</v>
-      </c>
-      <c r="G319" t="s">
-        <v>1476</v>
-      </c>
-      <c r="H319" t="s">
-        <v>4</v>
-      </c>
-      <c r="I319" t="s">
-        <v>1477</v>
-      </c>
-      <c r="J319" t="s">
-        <v>4</v>
-      </c>
-      <c r="K319" t="s">
-        <v>4</v>
-      </c>
-      <c r="L319" t="s">
-        <v>4</v>
-      </c>
-      <c r="M319" t="s">
-        <v>1478</v>
-      </c>
       <c r="N319" t="s">
         <v>4</v>
       </c>
@@ -22134,15 +22134,15 @@
         <v>4</v>
       </c>
       <c r="Q319" s="3" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="320" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>1127</v>
@@ -22151,32 +22151,32 @@
         <v>4</v>
       </c>
       <c r="E320" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F320" t="s">
+        <v>4</v>
+      </c>
+      <c r="G320" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H320" t="s">
+        <v>4</v>
+      </c>
+      <c r="I320" t="s">
+        <v>1478</v>
+      </c>
+      <c r="J320" t="s">
+        <v>4</v>
+      </c>
+      <c r="K320" t="s">
+        <v>4</v>
+      </c>
+      <c r="L320" t="s">
+        <v>4</v>
+      </c>
+      <c r="M320" t="s">
         <v>1479</v>
       </c>
-      <c r="F320" t="s">
-        <v>4</v>
-      </c>
-      <c r="G320" t="s">
-        <v>1480</v>
-      </c>
-      <c r="H320" t="s">
-        <v>4</v>
-      </c>
-      <c r="I320" t="s">
-        <v>1481</v>
-      </c>
-      <c r="J320" t="s">
-        <v>4</v>
-      </c>
-      <c r="K320" t="s">
-        <v>4</v>
-      </c>
-      <c r="L320" t="s">
-        <v>4</v>
-      </c>
-      <c r="M320" t="s">
-        <v>1482</v>
-      </c>
       <c r="N320" t="s">
         <v>4</v>
       </c>
@@ -22184,49 +22184,49 @@
         <v>4</v>
       </c>
       <c r="Q320" s="3" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="321" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C321" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D321" t="s">
+        <v>4</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F321" t="s">
+        <v>4</v>
+      </c>
+      <c r="G321" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H321" t="s">
+        <v>4</v>
+      </c>
+      <c r="I321" t="s">
         <v>1483</v>
       </c>
-      <c r="D321" t="s">
-        <v>4</v>
-      </c>
-      <c r="E321" t="s">
+      <c r="J321" t="s">
+        <v>4</v>
+      </c>
+      <c r="K321" t="s">
+        <v>4</v>
+      </c>
+      <c r="L321" t="s">
+        <v>4</v>
+      </c>
+      <c r="M321" t="s">
         <v>1484</v>
       </c>
-      <c r="F321" t="s">
-        <v>4</v>
-      </c>
-      <c r="G321" t="s">
-        <v>1485</v>
-      </c>
-      <c r="H321" t="s">
-        <v>4</v>
-      </c>
-      <c r="I321" t="s">
-        <v>1486</v>
-      </c>
-      <c r="J321" t="s">
-        <v>4</v>
-      </c>
-      <c r="K321" t="s">
-        <v>4</v>
-      </c>
-      <c r="L321" t="s">
-        <v>4</v>
-      </c>
-      <c r="M321" t="s">
-        <v>1487</v>
-      </c>
       <c r="N321" t="s">
         <v>4</v>
       </c>
@@ -22234,15 +22234,15 @@
         <v>4</v>
       </c>
       <c r="Q321" s="3" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="322" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>93</v>
@@ -22289,10 +22289,10 @@
     </row>
     <row r="323" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>1047</v>
@@ -22301,32 +22301,32 @@
         <v>4</v>
       </c>
       <c r="E323" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F323" t="s">
+        <v>4</v>
+      </c>
+      <c r="G323" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H323" t="s">
+        <v>4</v>
+      </c>
+      <c r="I323" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J323" t="s">
+        <v>4</v>
+      </c>
+      <c r="K323" t="s">
+        <v>4</v>
+      </c>
+      <c r="L323" t="s">
+        <v>4</v>
+      </c>
+      <c r="M323" t="s">
         <v>1488</v>
       </c>
-      <c r="F323" t="s">
-        <v>4</v>
-      </c>
-      <c r="G323" t="s">
-        <v>1489</v>
-      </c>
-      <c r="H323" t="s">
-        <v>4</v>
-      </c>
-      <c r="I323" t="s">
-        <v>1490</v>
-      </c>
-      <c r="J323" t="s">
-        <v>4</v>
-      </c>
-      <c r="K323" t="s">
-        <v>4</v>
-      </c>
-      <c r="L323" t="s">
-        <v>4</v>
-      </c>
-      <c r="M323" t="s">
-        <v>1491</v>
-      </c>
       <c r="N323" t="s">
         <v>4</v>
       </c>
@@ -22334,15 +22334,15 @@
         <v>4</v>
       </c>
       <c r="Q323" s="3" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="324" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>61</v>
@@ -22351,32 +22351,32 @@
         <v>4</v>
       </c>
       <c r="E324" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F324" t="s">
+        <v>4</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H324" t="s">
+        <v>4</v>
+      </c>
+      <c r="I324" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J324" t="s">
+        <v>4</v>
+      </c>
+      <c r="K324" t="s">
+        <v>4</v>
+      </c>
+      <c r="L324" t="s">
+        <v>4</v>
+      </c>
+      <c r="M324" t="s">
         <v>1492</v>
       </c>
-      <c r="F324" t="s">
-        <v>4</v>
-      </c>
-      <c r="G324" t="s">
-        <v>1493</v>
-      </c>
-      <c r="H324" t="s">
-        <v>4</v>
-      </c>
-      <c r="I324" t="s">
-        <v>1494</v>
-      </c>
-      <c r="J324" t="s">
-        <v>4</v>
-      </c>
-      <c r="K324" t="s">
-        <v>4</v>
-      </c>
-      <c r="L324" t="s">
-        <v>4</v>
-      </c>
-      <c r="M324" t="s">
-        <v>1495</v>
-      </c>
       <c r="N324" t="s">
         <v>4</v>
       </c>
@@ -22384,49 +22384,49 @@
         <v>4</v>
       </c>
       <c r="Q324" s="3" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="325" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D325" t="s">
+        <v>4</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F325" t="s">
+        <v>4</v>
+      </c>
+      <c r="G325" t="s">
         <v>1496</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="H325" t="s">
+        <v>4</v>
+      </c>
+      <c r="I325" t="s">
         <v>1497</v>
       </c>
-      <c r="D325" t="s">
-        <v>4</v>
-      </c>
-      <c r="E325" t="s">
+      <c r="J325" t="s">
+        <v>4</v>
+      </c>
+      <c r="K325" t="s">
+        <v>4</v>
+      </c>
+      <c r="L325" t="s">
+        <v>4</v>
+      </c>
+      <c r="M325" t="s">
         <v>1498</v>
       </c>
-      <c r="F325" t="s">
-        <v>4</v>
-      </c>
-      <c r="G325" t="s">
-        <v>1499</v>
-      </c>
-      <c r="H325" t="s">
-        <v>4</v>
-      </c>
-      <c r="I325" t="s">
-        <v>1500</v>
-      </c>
-      <c r="J325" t="s">
-        <v>4</v>
-      </c>
-      <c r="K325" t="s">
-        <v>4</v>
-      </c>
-      <c r="L325" t="s">
-        <v>4</v>
-      </c>
-      <c r="M325" t="s">
-        <v>1501</v>
-      </c>
       <c r="N325" t="s">
         <v>4</v>
       </c>
@@ -22434,49 +22434,49 @@
         <v>4</v>
       </c>
       <c r="Q325" s="3" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="326" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C326" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D326" t="s">
+        <v>4</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F326" t="s">
+        <v>4</v>
+      </c>
+      <c r="G326" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H326" t="s">
+        <v>4</v>
+      </c>
+      <c r="I326" t="s">
         <v>1502</v>
       </c>
-      <c r="D326" t="s">
-        <v>4</v>
-      </c>
-      <c r="E326" t="s">
+      <c r="J326" t="s">
+        <v>4</v>
+      </c>
+      <c r="K326" t="s">
+        <v>4</v>
+      </c>
+      <c r="L326" t="s">
+        <v>4</v>
+      </c>
+      <c r="M326" t="s">
         <v>1503</v>
       </c>
-      <c r="F326" t="s">
-        <v>4</v>
-      </c>
-      <c r="G326" t="s">
-        <v>1504</v>
-      </c>
-      <c r="H326" t="s">
-        <v>4</v>
-      </c>
-      <c r="I326" t="s">
-        <v>1505</v>
-      </c>
-      <c r="J326" t="s">
-        <v>4</v>
-      </c>
-      <c r="K326" t="s">
-        <v>4</v>
-      </c>
-      <c r="L326" t="s">
-        <v>4</v>
-      </c>
-      <c r="M326" t="s">
-        <v>1506</v>
-      </c>
       <c r="N326" t="s">
         <v>4</v>
       </c>
@@ -22484,49 +22484,49 @@
         <v>4</v>
       </c>
       <c r="Q326" s="3" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="327" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C327" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D327" t="s">
+        <v>4</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F327" t="s">
+        <v>4</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H327" t="s">
+        <v>4</v>
+      </c>
+      <c r="I327" t="s">
         <v>1507</v>
       </c>
-      <c r="D327" t="s">
-        <v>4</v>
-      </c>
-      <c r="E327" t="s">
+      <c r="J327" t="s">
+        <v>4</v>
+      </c>
+      <c r="K327" t="s">
+        <v>4</v>
+      </c>
+      <c r="L327" t="s">
+        <v>4</v>
+      </c>
+      <c r="M327" t="s">
         <v>1508</v>
       </c>
-      <c r="F327" t="s">
-        <v>4</v>
-      </c>
-      <c r="G327" t="s">
-        <v>1509</v>
-      </c>
-      <c r="H327" t="s">
-        <v>4</v>
-      </c>
-      <c r="I327" t="s">
-        <v>1510</v>
-      </c>
-      <c r="J327" t="s">
-        <v>4</v>
-      </c>
-      <c r="K327" t="s">
-        <v>4</v>
-      </c>
-      <c r="L327" t="s">
-        <v>4</v>
-      </c>
-      <c r="M327" t="s">
-        <v>1511</v>
-      </c>
       <c r="N327" t="s">
         <v>4</v>
       </c>
@@ -22534,49 +22534,49 @@
         <v>4</v>
       </c>
       <c r="Q327" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="328" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C328" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D328" t="s">
+        <v>4</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1510</v>
+      </c>
+      <c r="F328" t="s">
+        <v>4</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H328" t="s">
+        <v>4</v>
+      </c>
+      <c r="I328" t="s">
         <v>1512</v>
       </c>
-      <c r="D328" t="s">
-        <v>4</v>
-      </c>
-      <c r="E328" t="s">
+      <c r="J328" t="s">
+        <v>4</v>
+      </c>
+      <c r="K328" t="s">
+        <v>4</v>
+      </c>
+      <c r="L328" t="s">
+        <v>4</v>
+      </c>
+      <c r="M328" t="s">
         <v>1513</v>
       </c>
-      <c r="F328" t="s">
-        <v>4</v>
-      </c>
-      <c r="G328" t="s">
-        <v>1514</v>
-      </c>
-      <c r="H328" t="s">
-        <v>4</v>
-      </c>
-      <c r="I328" t="s">
-        <v>1515</v>
-      </c>
-      <c r="J328" t="s">
-        <v>4</v>
-      </c>
-      <c r="K328" t="s">
-        <v>4</v>
-      </c>
-      <c r="L328" t="s">
-        <v>4</v>
-      </c>
-      <c r="M328" t="s">
-        <v>1516</v>
-      </c>
       <c r="N328" t="s">
         <v>4</v>
       </c>
@@ -22584,49 +22584,49 @@
         <v>4</v>
       </c>
       <c r="Q328" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="329" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D329" t="s">
+        <v>4</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F329" t="s">
+        <v>4</v>
+      </c>
+      <c r="G329" t="s">
         <v>1517</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="H329" t="s">
+        <v>4</v>
+      </c>
+      <c r="I329" t="s">
         <v>1518</v>
       </c>
-      <c r="D329" t="s">
-        <v>4</v>
-      </c>
-      <c r="E329" t="s">
+      <c r="J329" t="s">
+        <v>4</v>
+      </c>
+      <c r="K329" t="s">
+        <v>4</v>
+      </c>
+      <c r="L329" t="s">
+        <v>4</v>
+      </c>
+      <c r="M329" t="s">
         <v>1519</v>
       </c>
-      <c r="F329" t="s">
-        <v>4</v>
-      </c>
-      <c r="G329" t="s">
-        <v>1520</v>
-      </c>
-      <c r="H329" t="s">
-        <v>4</v>
-      </c>
-      <c r="I329" t="s">
-        <v>1521</v>
-      </c>
-      <c r="J329" t="s">
-        <v>4</v>
-      </c>
-      <c r="K329" t="s">
-        <v>4</v>
-      </c>
-      <c r="L329" t="s">
-        <v>4</v>
-      </c>
-      <c r="M329" t="s">
-        <v>1522</v>
-      </c>
       <c r="N329" t="s">
         <v>4</v>
       </c>
@@ -22634,49 +22634,49 @@
         <v>4</v>
       </c>
       <c r="Q329" s="3" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="330" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C330" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D330" t="s">
+        <v>4</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F330" t="s">
+        <v>4</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H330" t="s">
+        <v>4</v>
+      </c>
+      <c r="I330" t="s">
         <v>1523</v>
       </c>
-      <c r="D330" t="s">
-        <v>4</v>
-      </c>
-      <c r="E330" t="s">
+      <c r="J330" t="s">
+        <v>4</v>
+      </c>
+      <c r="K330" t="s">
+        <v>4</v>
+      </c>
+      <c r="L330" t="s">
+        <v>4</v>
+      </c>
+      <c r="M330" t="s">
         <v>1524</v>
       </c>
-      <c r="F330" t="s">
-        <v>4</v>
-      </c>
-      <c r="G330" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H330" t="s">
-        <v>4</v>
-      </c>
-      <c r="I330" t="s">
-        <v>1526</v>
-      </c>
-      <c r="J330" t="s">
-        <v>4</v>
-      </c>
-      <c r="K330" t="s">
-        <v>4</v>
-      </c>
-      <c r="L330" t="s">
-        <v>4</v>
-      </c>
-      <c r="M330" t="s">
-        <v>1527</v>
-      </c>
       <c r="N330" t="s">
         <v>4</v>
       </c>
@@ -22684,15 +22684,15 @@
         <v>4</v>
       </c>
       <c r="Q330" s="3" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="331" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>1037</v>
@@ -22701,32 +22701,32 @@
         <v>4</v>
       </c>
       <c r="E331" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F331" t="s">
+        <v>4</v>
+      </c>
+      <c r="G331" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H331" t="s">
+        <v>4</v>
+      </c>
+      <c r="I331" t="s">
+        <v>1527</v>
+      </c>
+      <c r="J331" t="s">
+        <v>4</v>
+      </c>
+      <c r="K331" t="s">
+        <v>4</v>
+      </c>
+      <c r="L331" t="s">
+        <v>4</v>
+      </c>
+      <c r="M331" t="s">
         <v>1528</v>
       </c>
-      <c r="F331" t="s">
-        <v>4</v>
-      </c>
-      <c r="G331" t="s">
-        <v>1529</v>
-      </c>
-      <c r="H331" t="s">
-        <v>4</v>
-      </c>
-      <c r="I331" t="s">
-        <v>1530</v>
-      </c>
-      <c r="J331" t="s">
-        <v>4</v>
-      </c>
-      <c r="K331" t="s">
-        <v>4</v>
-      </c>
-      <c r="L331" t="s">
-        <v>4</v>
-      </c>
-      <c r="M331" t="s">
-        <v>1531</v>
-      </c>
       <c r="N331" t="s">
         <v>4</v>
       </c>
@@ -22734,49 +22734,49 @@
         <v>4</v>
       </c>
       <c r="Q331" s="3" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="332" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C332" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D332" t="s">
+        <v>4</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F332" t="s">
+        <v>4</v>
+      </c>
+      <c r="G332" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H332" t="s">
+        <v>4</v>
+      </c>
+      <c r="I332" t="s">
         <v>1532</v>
       </c>
-      <c r="D332" t="s">
-        <v>4</v>
-      </c>
-      <c r="E332" t="s">
+      <c r="J332" t="s">
+        <v>4</v>
+      </c>
+      <c r="K332" t="s">
+        <v>4</v>
+      </c>
+      <c r="L332" t="s">
+        <v>4</v>
+      </c>
+      <c r="M332" t="s">
         <v>1533</v>
       </c>
-      <c r="F332" t="s">
-        <v>4</v>
-      </c>
-      <c r="G332" t="s">
-        <v>1534</v>
-      </c>
-      <c r="H332" t="s">
-        <v>4</v>
-      </c>
-      <c r="I332" t="s">
-        <v>1535</v>
-      </c>
-      <c r="J332" t="s">
-        <v>4</v>
-      </c>
-      <c r="K332" t="s">
-        <v>4</v>
-      </c>
-      <c r="L332" t="s">
-        <v>4</v>
-      </c>
-      <c r="M332" t="s">
-        <v>1536</v>
-      </c>
       <c r="N332" t="s">
         <v>4</v>
       </c>
@@ -22784,15 +22784,15 @@
         <v>4</v>
       </c>
       <c r="Q332" s="3" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="333" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>93</v>
@@ -22839,10 +22839,10 @@
     </row>
     <row r="334" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>79</v>
@@ -22884,15 +22884,15 @@
         <v>4</v>
       </c>
       <c r="Q334" s="3" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="335" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>1059</v>
@@ -22901,32 +22901,32 @@
         <v>4</v>
       </c>
       <c r="E335" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F335" t="s">
+        <v>4</v>
+      </c>
+      <c r="G335" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H335" t="s">
+        <v>4</v>
+      </c>
+      <c r="I335" t="s">
+        <v>1536</v>
+      </c>
+      <c r="J335" t="s">
+        <v>4</v>
+      </c>
+      <c r="K335" t="s">
+        <v>4</v>
+      </c>
+      <c r="L335" t="s">
+        <v>4</v>
+      </c>
+      <c r="M335" t="s">
         <v>1537</v>
       </c>
-      <c r="F335" t="s">
-        <v>4</v>
-      </c>
-      <c r="G335" t="s">
-        <v>1538</v>
-      </c>
-      <c r="H335" t="s">
-        <v>4</v>
-      </c>
-      <c r="I335" t="s">
-        <v>1539</v>
-      </c>
-      <c r="J335" t="s">
-        <v>4</v>
-      </c>
-      <c r="K335" t="s">
-        <v>4</v>
-      </c>
-      <c r="L335" t="s">
-        <v>4</v>
-      </c>
-      <c r="M335" t="s">
-        <v>1540</v>
-      </c>
       <c r="N335" t="s">
         <v>4</v>
       </c>
@@ -22934,15 +22934,15 @@
         <v>4</v>
       </c>
       <c r="Q335" s="3" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="336" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>1047</v>
@@ -22951,32 +22951,32 @@
         <v>4</v>
       </c>
       <c r="E336" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F336" t="s">
+        <v>4</v>
+      </c>
+      <c r="G336" t="s">
+        <v>1539</v>
+      </c>
+      <c r="H336" t="s">
+        <v>4</v>
+      </c>
+      <c r="I336" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J336" t="s">
+        <v>4</v>
+      </c>
+      <c r="K336" t="s">
+        <v>4</v>
+      </c>
+      <c r="L336" t="s">
+        <v>4</v>
+      </c>
+      <c r="M336" t="s">
         <v>1541</v>
       </c>
-      <c r="F336" t="s">
-        <v>4</v>
-      </c>
-      <c r="G336" t="s">
-        <v>1542</v>
-      </c>
-      <c r="H336" t="s">
-        <v>4</v>
-      </c>
-      <c r="I336" t="s">
-        <v>1543</v>
-      </c>
-      <c r="J336" t="s">
-        <v>4</v>
-      </c>
-      <c r="K336" t="s">
-        <v>4</v>
-      </c>
-      <c r="L336" t="s">
-        <v>4</v>
-      </c>
-      <c r="M336" t="s">
-        <v>1544</v>
-      </c>
       <c r="N336" t="s">
         <v>4</v>
       </c>
@@ -22984,49 +22984,49 @@
         <v>4</v>
       </c>
       <c r="Q336" s="3" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="337" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C337" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D337" t="s">
+        <v>4</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F337" t="s">
+        <v>4</v>
+      </c>
+      <c r="G337" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H337" t="s">
+        <v>4</v>
+      </c>
+      <c r="I337" t="s">
         <v>1545</v>
       </c>
-      <c r="D337" t="s">
-        <v>4</v>
-      </c>
-      <c r="E337" t="s">
+      <c r="J337" t="s">
+        <v>4</v>
+      </c>
+      <c r="K337" t="s">
+        <v>4</v>
+      </c>
+      <c r="L337" t="s">
+        <v>4</v>
+      </c>
+      <c r="M337" t="s">
         <v>1546</v>
       </c>
-      <c r="F337" t="s">
-        <v>4</v>
-      </c>
-      <c r="G337" t="s">
-        <v>1547</v>
-      </c>
-      <c r="H337" t="s">
-        <v>4</v>
-      </c>
-      <c r="I337" t="s">
-        <v>1548</v>
-      </c>
-      <c r="J337" t="s">
-        <v>4</v>
-      </c>
-      <c r="K337" t="s">
-        <v>4</v>
-      </c>
-      <c r="L337" t="s">
-        <v>4</v>
-      </c>
-      <c r="M337" t="s">
-        <v>1549</v>
-      </c>
       <c r="N337" t="s">
         <v>4</v>
       </c>
@@ -23034,49 +23034,49 @@
         <v>4</v>
       </c>
       <c r="Q337" s="3" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="338" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C338" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D338" t="s">
+        <v>4</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F338" t="s">
+        <v>4</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H338" t="s">
+        <v>4</v>
+      </c>
+      <c r="I338" t="s">
         <v>1550</v>
       </c>
-      <c r="D338" t="s">
-        <v>4</v>
-      </c>
-      <c r="E338" t="s">
+      <c r="J338" t="s">
+        <v>4</v>
+      </c>
+      <c r="K338" t="s">
+        <v>4</v>
+      </c>
+      <c r="L338" t="s">
+        <v>4</v>
+      </c>
+      <c r="M338" t="s">
         <v>1551</v>
       </c>
-      <c r="F338" t="s">
-        <v>4</v>
-      </c>
-      <c r="G338" t="s">
-        <v>1552</v>
-      </c>
-      <c r="H338" t="s">
-        <v>4</v>
-      </c>
-      <c r="I338" t="s">
-        <v>1553</v>
-      </c>
-      <c r="J338" t="s">
-        <v>4</v>
-      </c>
-      <c r="K338" t="s">
-        <v>4</v>
-      </c>
-      <c r="L338" t="s">
-        <v>4</v>
-      </c>
-      <c r="M338" t="s">
-        <v>1554</v>
-      </c>
       <c r="N338" t="s">
         <v>4</v>
       </c>
@@ -23084,49 +23084,49 @@
         <v>4</v>
       </c>
       <c r="Q338" s="3" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="339" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C339" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D339" t="s">
+        <v>4</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F339" t="s">
+        <v>4</v>
+      </c>
+      <c r="G339" t="s">
+        <v>1554</v>
+      </c>
+      <c r="H339" t="s">
+        <v>4</v>
+      </c>
+      <c r="I339" t="s">
         <v>1555</v>
       </c>
-      <c r="D339" t="s">
-        <v>4</v>
-      </c>
-      <c r="E339" t="s">
+      <c r="J339" t="s">
+        <v>4</v>
+      </c>
+      <c r="K339" t="s">
+        <v>4</v>
+      </c>
+      <c r="L339" t="s">
+        <v>4</v>
+      </c>
+      <c r="M339" t="s">
         <v>1556</v>
       </c>
-      <c r="F339" t="s">
-        <v>4</v>
-      </c>
-      <c r="G339" t="s">
-        <v>1557</v>
-      </c>
-      <c r="H339" t="s">
-        <v>4</v>
-      </c>
-      <c r="I339" t="s">
-        <v>1558</v>
-      </c>
-      <c r="J339" t="s">
-        <v>4</v>
-      </c>
-      <c r="K339" t="s">
-        <v>4</v>
-      </c>
-      <c r="L339" t="s">
-        <v>4</v>
-      </c>
-      <c r="M339" t="s">
-        <v>1559</v>
-      </c>
       <c r="N339" t="s">
         <v>4</v>
       </c>
@@ -23134,49 +23134,49 @@
         <v>4</v>
       </c>
       <c r="Q339" s="3" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="340" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C340" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D340" t="s">
+        <v>4</v>
+      </c>
+      <c r="E340" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F340" t="s">
+        <v>4</v>
+      </c>
+      <c r="G340" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H340" t="s">
+        <v>4</v>
+      </c>
+      <c r="I340" t="s">
         <v>1560</v>
       </c>
-      <c r="D340" t="s">
-        <v>4</v>
-      </c>
-      <c r="E340" t="s">
+      <c r="J340" t="s">
+        <v>4</v>
+      </c>
+      <c r="K340" t="s">
+        <v>4</v>
+      </c>
+      <c r="L340" t="s">
+        <v>4</v>
+      </c>
+      <c r="M340" t="s">
         <v>1561</v>
       </c>
-      <c r="F340" t="s">
-        <v>4</v>
-      </c>
-      <c r="G340" t="s">
-        <v>1562</v>
-      </c>
-      <c r="H340" t="s">
-        <v>4</v>
-      </c>
-      <c r="I340" t="s">
-        <v>1563</v>
-      </c>
-      <c r="J340" t="s">
-        <v>4</v>
-      </c>
-      <c r="K340" t="s">
-        <v>4</v>
-      </c>
-      <c r="L340" t="s">
-        <v>4</v>
-      </c>
-      <c r="M340" t="s">
-        <v>1564</v>
-      </c>
       <c r="N340" t="s">
         <v>4</v>
       </c>
@@ -23184,49 +23184,49 @@
         <v>4</v>
       </c>
       <c r="Q340" s="3" t="s">
-        <v>1866</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="341" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C341" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D341" t="s">
+        <v>4</v>
+      </c>
+      <c r="E341" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F341" t="s">
+        <v>4</v>
+      </c>
+      <c r="G341" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H341" t="s">
+        <v>4</v>
+      </c>
+      <c r="I341" t="s">
         <v>1565</v>
       </c>
-      <c r="D341" t="s">
-        <v>4</v>
-      </c>
-      <c r="E341" t="s">
+      <c r="J341" t="s">
+        <v>4</v>
+      </c>
+      <c r="K341" t="s">
+        <v>4</v>
+      </c>
+      <c r="L341" t="s">
+        <v>4</v>
+      </c>
+      <c r="M341" t="s">
         <v>1566</v>
       </c>
-      <c r="F341" t="s">
-        <v>4</v>
-      </c>
-      <c r="G341" t="s">
-        <v>1567</v>
-      </c>
-      <c r="H341" t="s">
-        <v>4</v>
-      </c>
-      <c r="I341" t="s">
-        <v>1568</v>
-      </c>
-      <c r="J341" t="s">
-        <v>4</v>
-      </c>
-      <c r="K341" t="s">
-        <v>4</v>
-      </c>
-      <c r="L341" t="s">
-        <v>4</v>
-      </c>
-      <c r="M341" t="s">
-        <v>1569</v>
-      </c>
       <c r="N341" t="s">
         <v>4</v>
       </c>
@@ -23234,15 +23234,15 @@
         <v>4</v>
       </c>
       <c r="Q341" s="3" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="342" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>1063</v>
@@ -23251,32 +23251,32 @@
         <v>4</v>
       </c>
       <c r="E342" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F342" t="s">
+        <v>4</v>
+      </c>
+      <c r="G342" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H342" t="s">
+        <v>4</v>
+      </c>
+      <c r="I342" t="s">
+        <v>1569</v>
+      </c>
+      <c r="J342" t="s">
+        <v>4</v>
+      </c>
+      <c r="K342" t="s">
+        <v>4</v>
+      </c>
+      <c r="L342" t="s">
+        <v>4</v>
+      </c>
+      <c r="M342" t="s">
         <v>1570</v>
       </c>
-      <c r="F342" t="s">
-        <v>4</v>
-      </c>
-      <c r="G342" t="s">
-        <v>1571</v>
-      </c>
-      <c r="H342" t="s">
-        <v>4</v>
-      </c>
-      <c r="I342" t="s">
-        <v>1572</v>
-      </c>
-      <c r="J342" t="s">
-        <v>4</v>
-      </c>
-      <c r="K342" t="s">
-        <v>4</v>
-      </c>
-      <c r="L342" t="s">
-        <v>4</v>
-      </c>
-      <c r="M342" t="s">
-        <v>1573</v>
-      </c>
       <c r="N342" t="s">
         <v>4</v>
       </c>
@@ -23284,49 +23284,49 @@
         <v>4</v>
       </c>
       <c r="Q342" s="3" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="343" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C343" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D343" t="s">
+        <v>4</v>
+      </c>
+      <c r="E343" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F343" t="s">
+        <v>4</v>
+      </c>
+      <c r="G343" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H343" t="s">
+        <v>4</v>
+      </c>
+      <c r="I343" t="s">
+        <v>1572</v>
+      </c>
+      <c r="J343" t="s">
+        <v>4</v>
+      </c>
+      <c r="K343" t="s">
+        <v>4</v>
+      </c>
+      <c r="L343" t="s">
+        <v>4</v>
+      </c>
+      <c r="M343" t="s">
         <v>1574</v>
       </c>
-      <c r="D343" t="s">
-        <v>4</v>
-      </c>
-      <c r="E343" t="s">
-        <v>1575</v>
-      </c>
-      <c r="F343" t="s">
-        <v>4</v>
-      </c>
-      <c r="G343" t="s">
-        <v>1576</v>
-      </c>
-      <c r="H343" t="s">
-        <v>4</v>
-      </c>
-      <c r="I343" t="s">
-        <v>1575</v>
-      </c>
-      <c r="J343" t="s">
-        <v>4</v>
-      </c>
-      <c r="K343" t="s">
-        <v>4</v>
-      </c>
-      <c r="L343" t="s">
-        <v>4</v>
-      </c>
-      <c r="M343" t="s">
-        <v>1577</v>
-      </c>
       <c r="N343" t="s">
         <v>4</v>
       </c>
@@ -23334,49 +23334,49 @@
         <v>4</v>
       </c>
       <c r="Q343" s="3" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="344" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C344" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D344" t="s">
+        <v>4</v>
+      </c>
+      <c r="E344" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F344" t="s">
+        <v>4</v>
+      </c>
+      <c r="G344" t="s">
+        <v>1577</v>
+      </c>
+      <c r="H344" t="s">
+        <v>4</v>
+      </c>
+      <c r="I344" t="s">
         <v>1578</v>
       </c>
-      <c r="D344" t="s">
-        <v>4</v>
-      </c>
-      <c r="E344" t="s">
+      <c r="J344" t="s">
+        <v>4</v>
+      </c>
+      <c r="K344" t="s">
+        <v>4</v>
+      </c>
+      <c r="L344" t="s">
+        <v>4</v>
+      </c>
+      <c r="M344" t="s">
         <v>1579</v>
       </c>
-      <c r="F344" t="s">
-        <v>4</v>
-      </c>
-      <c r="G344" t="s">
-        <v>1580</v>
-      </c>
-      <c r="H344" t="s">
-        <v>4</v>
-      </c>
-      <c r="I344" t="s">
-        <v>1581</v>
-      </c>
-      <c r="J344" t="s">
-        <v>4</v>
-      </c>
-      <c r="K344" t="s">
-        <v>4</v>
-      </c>
-      <c r="L344" t="s">
-        <v>4</v>
-      </c>
-      <c r="M344" t="s">
-        <v>1582</v>
-      </c>
       <c r="N344" t="s">
         <v>4</v>
       </c>
@@ -23384,15 +23384,15 @@
         <v>4</v>
       </c>
       <c r="Q344" s="3" t="s">
-        <v>1870</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="345" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>61</v>
@@ -23401,32 +23401,32 @@
         <v>4</v>
       </c>
       <c r="E345" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F345" t="s">
+        <v>4</v>
+      </c>
+      <c r="G345" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H345" t="s">
+        <v>4</v>
+      </c>
+      <c r="I345" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J345" t="s">
+        <v>4</v>
+      </c>
+      <c r="K345" t="s">
+        <v>4</v>
+      </c>
+      <c r="L345" t="s">
+        <v>4</v>
+      </c>
+      <c r="M345" t="s">
         <v>1583</v>
       </c>
-      <c r="F345" t="s">
-        <v>4</v>
-      </c>
-      <c r="G345" t="s">
-        <v>1584</v>
-      </c>
-      <c r="H345" t="s">
-        <v>4</v>
-      </c>
-      <c r="I345" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J345" t="s">
-        <v>4</v>
-      </c>
-      <c r="K345" t="s">
-        <v>4</v>
-      </c>
-      <c r="L345" t="s">
-        <v>4</v>
-      </c>
-      <c r="M345" t="s">
-        <v>1586</v>
-      </c>
       <c r="N345" t="s">
         <v>4</v>
       </c>
@@ -23434,49 +23434,49 @@
         <v>4</v>
       </c>
       <c r="Q345" s="3" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="346" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D346" t="s">
+        <v>4</v>
+      </c>
+      <c r="E346" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F346" t="s">
+        <v>4</v>
+      </c>
+      <c r="G346" t="s">
         <v>1587</v>
       </c>
-      <c r="B346" s="1" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C346" s="1" t="s">
+      <c r="H346" t="s">
+        <v>4</v>
+      </c>
+      <c r="I346" t="s">
         <v>1588</v>
       </c>
-      <c r="D346" t="s">
-        <v>4</v>
-      </c>
-      <c r="E346" t="s">
+      <c r="J346" t="s">
+        <v>4</v>
+      </c>
+      <c r="K346" t="s">
+        <v>4</v>
+      </c>
+      <c r="L346" t="s">
+        <v>4</v>
+      </c>
+      <c r="M346" t="s">
         <v>1589</v>
       </c>
-      <c r="F346" t="s">
-        <v>4</v>
-      </c>
-      <c r="G346" t="s">
-        <v>1590</v>
-      </c>
-      <c r="H346" t="s">
-        <v>4</v>
-      </c>
-      <c r="I346" t="s">
-        <v>1591</v>
-      </c>
-      <c r="J346" t="s">
-        <v>4</v>
-      </c>
-      <c r="K346" t="s">
-        <v>4</v>
-      </c>
-      <c r="L346" t="s">
-        <v>4</v>
-      </c>
-      <c r="M346" t="s">
-        <v>1592</v>
-      </c>
       <c r="N346" t="s">
         <v>4</v>
       </c>
@@ -23484,49 +23484,49 @@
         <v>4</v>
       </c>
       <c r="Q346" s="3" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="347" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C347" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D347" t="s">
+        <v>4</v>
+      </c>
+      <c r="E347" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F347" t="s">
+        <v>4</v>
+      </c>
+      <c r="G347" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H347" t="s">
+        <v>4</v>
+      </c>
+      <c r="I347" t="s">
         <v>1593</v>
       </c>
-      <c r="D347" t="s">
-        <v>4</v>
-      </c>
-      <c r="E347" t="s">
+      <c r="J347" t="s">
+        <v>4</v>
+      </c>
+      <c r="K347" t="s">
+        <v>4</v>
+      </c>
+      <c r="L347" t="s">
+        <v>4</v>
+      </c>
+      <c r="M347" t="s">
         <v>1594</v>
       </c>
-      <c r="F347" t="s">
-        <v>4</v>
-      </c>
-      <c r="G347" t="s">
-        <v>1595</v>
-      </c>
-      <c r="H347" t="s">
-        <v>4</v>
-      </c>
-      <c r="I347" t="s">
-        <v>1596</v>
-      </c>
-      <c r="J347" t="s">
-        <v>4</v>
-      </c>
-      <c r="K347" t="s">
-        <v>4</v>
-      </c>
-      <c r="L347" t="s">
-        <v>4</v>
-      </c>
-      <c r="M347" t="s">
-        <v>1597</v>
-      </c>
       <c r="N347" t="s">
         <v>4</v>
       </c>
@@ -23534,49 +23534,49 @@
         <v>4</v>
       </c>
       <c r="Q347" s="4" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="348" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D348" t="s">
+        <v>4</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F348" t="s">
+        <v>4</v>
+      </c>
+      <c r="G348" t="s">
+        <v>4</v>
+      </c>
+      <c r="H348" t="s">
+        <v>4</v>
+      </c>
+      <c r="I348" t="s">
         <v>1598</v>
       </c>
-      <c r="B348" s="1" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C348" s="1" t="s">
+      <c r="J348" t="s">
+        <v>4</v>
+      </c>
+      <c r="K348" t="s">
+        <v>4</v>
+      </c>
+      <c r="L348" t="s">
+        <v>4</v>
+      </c>
+      <c r="M348" t="s">
         <v>1599</v>
       </c>
-      <c r="D348" t="s">
-        <v>4</v>
-      </c>
-      <c r="E348" t="s">
-        <v>1600</v>
-      </c>
-      <c r="F348" t="s">
-        <v>4</v>
-      </c>
-      <c r="G348" t="s">
-        <v>4</v>
-      </c>
-      <c r="H348" t="s">
-        <v>4</v>
-      </c>
-      <c r="I348" t="s">
-        <v>1601</v>
-      </c>
-      <c r="J348" t="s">
-        <v>4</v>
-      </c>
-      <c r="K348" t="s">
-        <v>4</v>
-      </c>
-      <c r="L348" t="s">
-        <v>4</v>
-      </c>
-      <c r="M348" t="s">
-        <v>1602</v>
-      </c>
       <c r="N348" t="s">
         <v>4</v>
       </c>
@@ -23584,49 +23584,49 @@
         <v>4</v>
       </c>
       <c r="Q348" s="4" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="349" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C349" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D349" t="s">
+        <v>4</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F349" t="s">
+        <v>4</v>
+      </c>
+      <c r="G349" t="s">
+        <v>4</v>
+      </c>
+      <c r="H349" t="s">
+        <v>4</v>
+      </c>
+      <c r="I349" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J349" t="s">
+        <v>4</v>
+      </c>
+      <c r="K349" t="s">
+        <v>4</v>
+      </c>
+      <c r="L349" t="s">
+        <v>4</v>
+      </c>
+      <c r="M349" t="s">
         <v>1603</v>
       </c>
-      <c r="D349" t="s">
-        <v>4</v>
-      </c>
-      <c r="E349" t="s">
-        <v>1604</v>
-      </c>
-      <c r="F349" t="s">
-        <v>4</v>
-      </c>
-      <c r="G349" t="s">
-        <v>4</v>
-      </c>
-      <c r="H349" t="s">
-        <v>4</v>
-      </c>
-      <c r="I349" t="s">
-        <v>1605</v>
-      </c>
-      <c r="J349" t="s">
-        <v>4</v>
-      </c>
-      <c r="K349" t="s">
-        <v>4</v>
-      </c>
-      <c r="L349" t="s">
-        <v>4</v>
-      </c>
-      <c r="M349" t="s">
-        <v>1606</v>
-      </c>
       <c r="N349" t="s">
         <v>4</v>
       </c>
@@ -23634,49 +23634,49 @@
         <v>4</v>
       </c>
       <c r="Q349" s="3" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="350" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C350" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D350" t="s">
+        <v>4</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F350" t="s">
+        <v>4</v>
+      </c>
+      <c r="G350" t="s">
+        <v>4</v>
+      </c>
+      <c r="H350" t="s">
+        <v>4</v>
+      </c>
+      <c r="I350" t="s">
+        <v>1598</v>
+      </c>
+      <c r="J350" t="s">
+        <v>4</v>
+      </c>
+      <c r="K350" t="s">
+        <v>4</v>
+      </c>
+      <c r="L350" t="s">
+        <v>4</v>
+      </c>
+      <c r="M350" t="s">
         <v>1599</v>
       </c>
-      <c r="D350" t="s">
-        <v>4</v>
-      </c>
-      <c r="E350" t="s">
-        <v>1600</v>
-      </c>
-      <c r="F350" t="s">
-        <v>4</v>
-      </c>
-      <c r="G350" t="s">
-        <v>4</v>
-      </c>
-      <c r="H350" t="s">
-        <v>4</v>
-      </c>
-      <c r="I350" t="s">
-        <v>1601</v>
-      </c>
-      <c r="J350" t="s">
-        <v>4</v>
-      </c>
-      <c r="K350" t="s">
-        <v>4</v>
-      </c>
-      <c r="L350" t="s">
-        <v>4</v>
-      </c>
-      <c r="M350" t="s">
-        <v>1602</v>
-      </c>
       <c r="N350" t="s">
         <v>4</v>
       </c>
@@ -23684,49 +23684,49 @@
         <v>4</v>
       </c>
       <c r="Q350" s="4" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="351" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C351" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D351" t="s">
+        <v>4</v>
+      </c>
+      <c r="E351" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F351" t="s">
+        <v>4</v>
+      </c>
+      <c r="G351" t="s">
+        <v>4</v>
+      </c>
+      <c r="H351" t="s">
+        <v>4</v>
+      </c>
+      <c r="I351" t="s">
+        <v>1602</v>
+      </c>
+      <c r="J351" t="s">
+        <v>4</v>
+      </c>
+      <c r="K351" t="s">
+        <v>4</v>
+      </c>
+      <c r="L351" t="s">
+        <v>4</v>
+      </c>
+      <c r="M351" t="s">
         <v>1603</v>
       </c>
-      <c r="D351" t="s">
-        <v>4</v>
-      </c>
-      <c r="E351" t="s">
-        <v>1604</v>
-      </c>
-      <c r="F351" t="s">
-        <v>4</v>
-      </c>
-      <c r="G351" t="s">
-        <v>4</v>
-      </c>
-      <c r="H351" t="s">
-        <v>4</v>
-      </c>
-      <c r="I351" t="s">
-        <v>1605</v>
-      </c>
-      <c r="J351" t="s">
-        <v>4</v>
-      </c>
-      <c r="K351" t="s">
-        <v>4</v>
-      </c>
-      <c r="L351" t="s">
-        <v>4</v>
-      </c>
-      <c r="M351" t="s">
-        <v>1606</v>
-      </c>
       <c r="N351" t="s">
         <v>4</v>
       </c>
@@ -23734,7 +23734,7 @@
         <v>4</v>
       </c>
       <c r="Q351" s="3" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
     </row>
   </sheetData>

--- a/source/Translation.xlsx
+++ b/source/Translation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\ChanSort\Source\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962F8DC6-ADDB-4DF0-A4C3-9C4FE6460F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55EDF92-AED3-4465-8D27-07973EA6F66C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36900" yWindow="2475" windowWidth="36330" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36750" yWindow="2865" windowWidth="36330" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8372" uniqueCount="2706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8328" uniqueCount="2704">
   <si>
     <t>Project</t>
   </si>
@@ -7423,9 +7423,6 @@
     <t>TV Ayarları</t>
   </si>
   <si>
-    <t>ChanSort.Loader.GlobalClone</t>
-  </si>
-  <si>
     <t>GcSerializer_ReadModelInfo_ModelWarning</t>
   </si>
   <si>
@@ -7554,9 +7551,6 @@
   </si>
   <si>
     <t>Kanal bulunamadı</t>
-  </si>
-  <si>
-    <t>ChanSort.Loader.Hisense2017</t>
   </si>
   <si>
     <t>Comment.hu</t>
@@ -8745,15 +8739,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W356"/>
+  <dimension ref="A1:W354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="A355" sqref="A355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="53" style="1" customWidth="1"/>
@@ -8800,10 +8795,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="M1" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -8871,7 +8866,7 @@
         <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>4</v>
@@ -9075,7 +9070,7 @@
         <v>42</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>4</v>
@@ -9143,7 +9138,7 @@
         <v>50</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>4</v>
@@ -9279,7 +9274,7 @@
         <v>62</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>4</v>
@@ -9347,7 +9342,7 @@
         <v>72</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>4</v>
@@ -9483,7 +9478,7 @@
         <v>84</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>4</v>
@@ -9551,7 +9546,7 @@
         <v>95</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>4</v>
@@ -9619,7 +9614,7 @@
         <v>102</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>4</v>
@@ -9687,7 +9682,7 @@
         <v>111</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>4</v>
@@ -9755,7 +9750,7 @@
         <v>121</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>4</v>
@@ -9891,7 +9886,7 @@
         <v>134</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>4</v>
@@ -9959,7 +9954,7 @@
         <v>144</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>4</v>
@@ -10095,7 +10090,7 @@
         <v>160</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>4</v>
@@ -10163,7 +10158,7 @@
         <v>169</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>4</v>
@@ -10231,7 +10226,7 @@
         <v>179</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>4</v>
@@ -10299,7 +10294,7 @@
         <v>189</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>4</v>
@@ -10367,7 +10362,7 @@
         <v>198</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>4</v>
@@ -10435,7 +10430,7 @@
         <v>208</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>4</v>
@@ -10503,7 +10498,7 @@
         <v>217</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>4</v>
@@ -10571,7 +10566,7 @@
         <v>227</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>4</v>
@@ -10639,7 +10634,7 @@
         <v>236</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>4</v>
@@ -10707,7 +10702,7 @@
         <v>243</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>4</v>
@@ -10775,7 +10770,7 @@
         <v>4</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>4</v>
@@ -10911,7 +10906,7 @@
         <v>259</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>4</v>
@@ -10979,7 +10974,7 @@
         <v>267</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>4</v>
@@ -11115,7 +11110,7 @@
         <v>275</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>4</v>
@@ -11183,7 +11178,7 @@
         <v>282</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>4</v>
@@ -11251,7 +11246,7 @@
         <v>292</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>4</v>
@@ -11319,7 +11314,7 @@
         <v>302</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>4</v>
@@ -11387,7 +11382,7 @@
         <v>312</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>4</v>
@@ -11455,7 +11450,7 @@
         <v>322</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>4</v>
@@ -11523,7 +11518,7 @@
         <v>332</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>4</v>
@@ -11591,7 +11586,7 @@
         <v>342</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>4</v>
@@ -11659,7 +11654,7 @@
         <v>352</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>4</v>
@@ -11727,7 +11722,7 @@
         <v>362</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>4</v>
@@ -11795,7 +11790,7 @@
         <v>371</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>4</v>
@@ -11863,7 +11858,7 @@
         <v>381</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>4</v>
@@ -11931,7 +11926,7 @@
         <v>391</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>4</v>
@@ -11999,7 +11994,7 @@
         <v>399</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>4</v>
@@ -12067,7 +12062,7 @@
         <v>409</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>4</v>
@@ -12135,7 +12130,7 @@
         <v>418</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>4</v>
@@ -12203,7 +12198,7 @@
         <v>427</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>4</v>
@@ -12271,7 +12266,7 @@
         <v>437</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>4</v>
@@ -12339,7 +12334,7 @@
         <v>447</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>4</v>
@@ -12407,7 +12402,7 @@
         <v>457</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>4</v>
@@ -12475,7 +12470,7 @@
         <v>467</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>4</v>
@@ -12543,7 +12538,7 @@
         <v>477</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>4</v>
@@ -12611,7 +12606,7 @@
         <v>487</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>4</v>
@@ -12679,7 +12674,7 @@
         <v>497</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>4</v>
@@ -12747,7 +12742,7 @@
         <v>507</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>4</v>
@@ -12815,7 +12810,7 @@
         <v>517</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>4</v>
@@ -12883,7 +12878,7 @@
         <v>527</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>4</v>
@@ -12951,7 +12946,7 @@
         <v>537</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>4</v>
@@ -13019,7 +13014,7 @@
         <v>547</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>4</v>
@@ -13087,7 +13082,7 @@
         <v>557</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>4</v>
@@ -13155,7 +13150,7 @@
         <v>565</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>4</v>
@@ -13223,7 +13218,7 @@
         <v>572</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>4</v>
@@ -13291,7 +13286,7 @@
         <v>578</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>4</v>
@@ -13359,7 +13354,7 @@
         <v>586</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>4</v>
@@ -13427,7 +13422,7 @@
         <v>596</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>4</v>
@@ -13495,7 +13490,7 @@
         <v>605</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>4</v>
@@ -13563,7 +13558,7 @@
         <v>614</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>4</v>
@@ -13631,7 +13626,7 @@
         <v>624</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>4</v>
@@ -13678,7 +13673,7 @@
         <v>34</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>4</v>
@@ -13737,13 +13732,13 @@
         <v>149</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.25">
@@ -14171,7 +14166,7 @@
         <v>646</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>4</v>
@@ -14239,7 +14234,7 @@
         <v>654</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>4</v>
@@ -14375,7 +14370,7 @@
         <v>665</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>4</v>
@@ -14443,7 +14438,7 @@
         <v>673</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>4</v>
@@ -14511,7 +14506,7 @@
         <v>682</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>4</v>
@@ -14579,7 +14574,7 @@
         <v>689</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>4</v>
@@ -14647,7 +14642,7 @@
         <v>696</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>4</v>
@@ -14715,7 +14710,7 @@
         <v>702</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>4</v>
@@ -14783,7 +14778,7 @@
         <v>708</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>4</v>
@@ -14851,7 +14846,7 @@
         <v>715</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>4</v>
@@ -14919,7 +14914,7 @@
         <v>723</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>4</v>
@@ -14987,7 +14982,7 @@
         <v>731</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>4</v>
@@ -15123,7 +15118,7 @@
         <v>741</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>4</v>
@@ -15191,7 +15186,7 @@
         <v>749</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>4</v>
@@ -15327,7 +15322,7 @@
         <v>760</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>4</v>
@@ -15395,7 +15390,7 @@
         <v>768</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>4</v>
@@ -15463,7 +15458,7 @@
         <v>776</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>4</v>
@@ -15531,7 +15526,7 @@
         <v>784</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>4</v>
@@ -15599,7 +15594,7 @@
         <v>792</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>4</v>
@@ -15667,7 +15662,7 @@
         <v>800</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="N103" s="1" t="s">
         <v>4</v>
@@ -15735,7 +15730,7 @@
         <v>808</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>4</v>
@@ -15803,7 +15798,7 @@
         <v>816</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="N105" s="1" t="s">
         <v>4</v>
@@ -15871,7 +15866,7 @@
         <v>824</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>4</v>
@@ -15939,7 +15934,7 @@
         <v>832</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>4</v>
@@ -16007,7 +16002,7 @@
         <v>840</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>4</v>
@@ -16143,7 +16138,7 @@
         <v>853</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>4</v>
@@ -16211,7 +16206,7 @@
         <v>862</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>4</v>
@@ -16279,7 +16274,7 @@
         <v>871</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="N112" s="1" t="s">
         <v>4</v>
@@ -16347,7 +16342,7 @@
         <v>880</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>4</v>
@@ -16415,7 +16410,7 @@
         <v>890</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>4</v>
@@ -16483,7 +16478,7 @@
         <v>900</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="N115" s="1" t="s">
         <v>4</v>
@@ -16551,7 +16546,7 @@
         <v>910</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="N116" s="1" t="s">
         <v>4</v>
@@ -16619,7 +16614,7 @@
         <v>920</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="N117" s="1" t="s">
         <v>4</v>
@@ -16687,7 +16682,7 @@
         <v>929</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
       <c r="N118" s="1" t="s">
         <v>4</v>
@@ -16755,7 +16750,7 @@
         <v>938</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="N119" s="1" t="s">
         <v>4</v>
@@ -16823,7 +16818,7 @@
         <v>947</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="N120" s="1" t="s">
         <v>4</v>
@@ -16891,7 +16886,7 @@
         <v>957</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="N121" s="1" t="s">
         <v>4</v>
@@ -16959,7 +16954,7 @@
         <v>967</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="N122" s="1" t="s">
         <v>4</v>
@@ -17027,7 +17022,7 @@
         <v>975</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
       <c r="N123" s="1" t="s">
         <v>4</v>
@@ -17163,7 +17158,7 @@
         <v>986</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="N125" s="1" t="s">
         <v>4</v>
@@ -17299,7 +17294,7 @@
         <v>996</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="N127" s="1" t="s">
         <v>4</v>
@@ -17435,7 +17430,7 @@
         <v>1003</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="N129" s="1" t="s">
         <v>4</v>
@@ -17571,7 +17566,7 @@
         <v>1012</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="N131" s="1" t="s">
         <v>4</v>
@@ -17639,7 +17634,7 @@
         <v>1017</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="N132" s="1" t="s">
         <v>4</v>
@@ -17707,7 +17702,7 @@
         <v>1022</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="N133" s="1" t="s">
         <v>4</v>
@@ -17843,7 +17838,7 @@
         <v>1033</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="N135" s="1" t="s">
         <v>4</v>
@@ -17979,7 +17974,7 @@
         <v>1043</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="N137" s="1" t="s">
         <v>4</v>
@@ -18115,7 +18110,7 @@
         <v>1053</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="N139" s="1" t="s">
         <v>4</v>
@@ -18251,7 +18246,7 @@
         <v>1063</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="N141" s="1" t="s">
         <v>4</v>
@@ -18387,7 +18382,7 @@
         <v>1073</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="N143" s="1" t="s">
         <v>4</v>
@@ -18455,7 +18450,7 @@
         <v>1080</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="N144" s="1" t="s">
         <v>4</v>
@@ -18523,7 +18518,7 @@
         <v>1088</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="N145" s="1" t="s">
         <v>4</v>
@@ -18591,7 +18586,7 @@
         <v>1098</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="N146" s="1" t="s">
         <v>4</v>
@@ -18659,7 +18654,7 @@
         <v>1106</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="N147" s="1" t="s">
         <v>4</v>
@@ -18727,7 +18722,7 @@
         <v>1116</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="N148" s="1" t="s">
         <v>4</v>
@@ -18795,7 +18790,7 @@
         <v>1124</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>4</v>
@@ -18863,7 +18858,7 @@
         <v>1134</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="N150" s="1" t="s">
         <v>4</v>
@@ -18931,7 +18926,7 @@
         <v>1142</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="N151" s="1" t="s">
         <v>4</v>
@@ -18999,7 +18994,7 @@
         <v>1152</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="N152" s="1" t="s">
         <v>4</v>
@@ -19067,7 +19062,7 @@
         <v>1160</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="N153" s="1" t="s">
         <v>4</v>
@@ -19135,7 +19130,7 @@
         <v>1170</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="N154" s="1" t="s">
         <v>4</v>
@@ -19339,7 +19334,7 @@
         <v>1183</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="N157" s="1" t="s">
         <v>4</v>
@@ -19407,7 +19402,7 @@
         <v>1193</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="N158" s="1" t="s">
         <v>4</v>
@@ -19475,7 +19470,7 @@
         <v>1200</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="N159" s="1" t="s">
         <v>4</v>
@@ -19543,7 +19538,7 @@
         <v>1204</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="N160" s="1" t="s">
         <v>4</v>
@@ -19611,7 +19606,7 @@
         <v>1209</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="N161" s="1" t="s">
         <v>4</v>
@@ -19747,7 +19742,7 @@
         <v>179</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="N163" s="1" t="s">
         <v>4</v>
@@ -19815,7 +19810,7 @@
         <v>1217</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="N164" s="1" t="s">
         <v>4</v>
@@ -19883,7 +19878,7 @@
         <v>189</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="N165" s="1" t="s">
         <v>4</v>
@@ -19951,7 +19946,7 @@
         <v>1227</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
       <c r="N166" s="1" t="s">
         <v>4</v>
@@ -20019,7 +20014,7 @@
         <v>217</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="N167" s="1" t="s">
         <v>4</v>
@@ -20087,7 +20082,7 @@
         <v>227</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="N168" s="1" t="s">
         <v>4</v>
@@ -20155,7 +20150,7 @@
         <v>236</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="N169" s="1" t="s">
         <v>4</v>
@@ -20223,7 +20218,7 @@
         <v>1240</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="N170" s="1" t="s">
         <v>4</v>
@@ -20291,7 +20286,7 @@
         <v>1250</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
       <c r="N171" s="1" t="s">
         <v>4</v>
@@ -20359,7 +20354,7 @@
         <v>1258</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="N172" s="1" t="s">
         <v>4</v>
@@ -20427,7 +20422,7 @@
         <v>1265</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="N173" s="1" t="s">
         <v>4</v>
@@ -20495,7 +20490,7 @@
         <v>1271</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="N174" s="1" t="s">
         <v>4</v>
@@ -20563,7 +20558,7 @@
         <v>1281</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="N175" s="1" t="s">
         <v>4</v>
@@ -20631,7 +20626,7 @@
         <v>1290</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
       <c r="N176" s="1" t="s">
         <v>4</v>
@@ -20699,7 +20694,7 @@
         <v>1300</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
       <c r="N177" s="1" t="s">
         <v>4</v>
@@ -20767,7 +20762,7 @@
         <v>1310</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="N178" s="1" t="s">
         <v>4</v>
@@ -20835,7 +20830,7 @@
         <v>1319</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="N179" s="1" t="s">
         <v>4</v>
@@ -21447,7 +21442,7 @@
         <v>1375</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="N188" s="1" t="s">
         <v>4</v>
@@ -21515,7 +21510,7 @@
         <v>1385</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="N189" s="1" t="s">
         <v>4</v>
@@ -21583,7 +21578,7 @@
         <v>1395</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="N190" s="1" t="s">
         <v>4</v>
@@ -21719,7 +21714,7 @@
         <v>1405</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="N192" s="1" t="s">
         <v>4</v>
@@ -21787,7 +21782,7 @@
         <v>1412</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
       <c r="N193" s="1" t="s">
         <v>4</v>
@@ -21855,7 +21850,7 @@
         <v>1421</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="N194" s="1" t="s">
         <v>4</v>
@@ -21923,7 +21918,7 @@
         <v>1430</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
       <c r="N195" s="1" t="s">
         <v>4</v>
@@ -21991,7 +21986,7 @@
         <v>1437</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
       <c r="N196" s="1" t="s">
         <v>4</v>
@@ -22059,7 +22054,7 @@
         <v>1443</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="N197" s="1" t="s">
         <v>4</v>
@@ -22127,7 +22122,7 @@
         <v>1443</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="N198" s="1" t="s">
         <v>4</v>
@@ -22263,7 +22258,7 @@
         <v>1459</v>
       </c>
       <c r="M200" s="1" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="N200" s="1" t="s">
         <v>4</v>
@@ -22331,7 +22326,7 @@
         <v>1451</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="N201" s="1" t="s">
         <v>4</v>
@@ -22399,7 +22394,7 @@
         <v>1472</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
       <c r="N202" s="1" t="s">
         <v>4</v>
@@ -22467,7 +22462,7 @@
         <v>1080</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="N203" s="1" t="s">
         <v>4</v>
@@ -22535,7 +22530,7 @@
         <v>1088</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="N204" s="1" t="s">
         <v>4</v>
@@ -22603,7 +22598,7 @@
         <v>1482</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
       <c r="N205" s="1" t="s">
         <v>4</v>
@@ -22671,7 +22666,7 @@
         <v>1482</v>
       </c>
       <c r="M206" s="1" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="N206" s="1" t="s">
         <v>4</v>
@@ -22739,7 +22734,7 @@
         <v>1494</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="N207" s="1" t="s">
         <v>4</v>
@@ -23073,7 +23068,7 @@
         <v>1514</v>
       </c>
       <c r="M212" s="1" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="N212" s="1" t="s">
         <v>4</v>
@@ -23141,7 +23136,7 @@
         <v>1521</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="N213" s="1" t="s">
         <v>4</v>
@@ -23274,7 +23269,7 @@
         <v>1529</v>
       </c>
       <c r="M215" s="1" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="N215" s="1" t="s">
         <v>4</v>
@@ -23342,7 +23337,7 @@
         <v>1536</v>
       </c>
       <c r="M216" s="1" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="N216" s="1" t="s">
         <v>4</v>
@@ -23410,7 +23405,7 @@
         <v>1543</v>
       </c>
       <c r="M217" s="1" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="N217" s="1" t="s">
         <v>4</v>
@@ -23478,7 +23473,7 @@
         <v>1550</v>
       </c>
       <c r="M218" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="N218" s="1" t="s">
         <v>4</v>
@@ -23546,7 +23541,7 @@
         <v>1557</v>
       </c>
       <c r="M219" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="N219" s="1" t="s">
         <v>4</v>
@@ -23682,7 +23677,7 @@
         <v>1564</v>
       </c>
       <c r="M221" s="1" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="N221" s="1" t="s">
         <v>4</v>
@@ -23750,7 +23745,7 @@
         <v>1569</v>
       </c>
       <c r="M222" s="1" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="N222" s="1" t="s">
         <v>4</v>
@@ -23818,7 +23813,7 @@
         <v>1576</v>
       </c>
       <c r="M223" s="1" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="N223" s="1" t="s">
         <v>4</v>
@@ -24430,7 +24425,7 @@
         <v>4</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="N232" s="1" t="s">
         <v>4</v>
@@ -24498,7 +24493,7 @@
         <v>1602</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="N233" s="1" t="s">
         <v>4</v>
@@ -24566,7 +24561,7 @@
         <v>1609</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="N234" s="1" t="s">
         <v>4</v>
@@ -24634,7 +24629,7 @@
         <v>1310</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="N235" s="1" t="s">
         <v>4</v>
@@ -24702,7 +24697,7 @@
         <v>1617</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="N236" s="1" t="s">
         <v>4</v>
@@ -24838,7 +24833,7 @@
         <v>1628</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="N238" s="1" t="s">
         <v>4</v>
@@ -24906,7 +24901,7 @@
         <v>1635</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="N239" s="1" t="s">
         <v>4</v>
@@ -24974,7 +24969,7 @@
         <v>1641</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="N240" s="1" t="s">
         <v>4</v>
@@ -25042,7 +25037,7 @@
         <v>1644</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="N241" s="1" t="s">
         <v>4</v>
@@ -25240,7 +25235,7 @@
         <v>1652</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="N244" s="1" t="s">
         <v>4</v>
@@ -25308,7 +25303,7 @@
         <v>1659</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
       <c r="N245" s="1" t="s">
         <v>4</v>
@@ -25512,7 +25507,7 @@
         <v>1669</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="N248" s="1" t="s">
         <v>4</v>
@@ -25580,7 +25575,7 @@
         <v>1676</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="N249" s="1" t="s">
         <v>4</v>
@@ -25648,7 +25643,7 @@
         <v>1683</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="N250" s="1" t="s">
         <v>4</v>
@@ -25716,7 +25711,7 @@
         <v>1690</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="N251" s="1" t="s">
         <v>4</v>
@@ -25784,7 +25779,7 @@
         <v>1697</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="N252" s="1" t="s">
         <v>4</v>
@@ -25852,7 +25847,7 @@
         <v>1704</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="N253" s="1" t="s">
         <v>4</v>
@@ -25920,7 +25915,7 @@
         <v>1710</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="N254" s="1" t="s">
         <v>4</v>
@@ -25988,7 +25983,7 @@
         <v>1719</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="N255" s="1" t="s">
         <v>4</v>
@@ -26186,7 +26181,7 @@
         <v>1732</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="N258" s="1" t="s">
         <v>4</v>
@@ -26254,7 +26249,7 @@
         <v>1741</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="N259" s="1" t="s">
         <v>4</v>
@@ -26322,7 +26317,7 @@
         <v>1749</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="N260" s="1" t="s">
         <v>4</v>
@@ -26390,7 +26385,7 @@
         <v>1756</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="N261" s="1" t="s">
         <v>4</v>
@@ -26458,7 +26453,7 @@
         <v>1762</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="N262" s="1" t="s">
         <v>4</v>
@@ -26591,7 +26586,7 @@
         <v>1771</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="N264" s="1" t="s">
         <v>4</v>
@@ -26659,7 +26654,7 @@
         <v>111</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="N265" s="1" t="s">
         <v>4</v>
@@ -26727,7 +26722,7 @@
         <v>4</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="N266" s="1" t="s">
         <v>4</v>
@@ -26795,7 +26790,7 @@
         <v>1781</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="N267" s="1" t="s">
         <v>4</v>
@@ -26863,7 +26858,7 @@
         <v>1789</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="N268" s="1" t="s">
         <v>4</v>
@@ -26931,7 +26926,7 @@
         <v>1796</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="N269" s="1" t="s">
         <v>4</v>
@@ -26999,7 +26994,7 @@
         <v>1804</v>
       </c>
       <c r="M270" s="1" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="N270" s="1" t="s">
         <v>4</v>
@@ -27067,7 +27062,7 @@
         <v>1812</v>
       </c>
       <c r="M271" s="1" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="N271" s="1" t="s">
         <v>4</v>
@@ -27135,7 +27130,7 @@
         <v>1820</v>
       </c>
       <c r="M272" s="1" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="N272" s="1" t="s">
         <v>4</v>
@@ -27203,7 +27198,7 @@
         <v>1828</v>
       </c>
       <c r="M273" s="1" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="N273" s="1" t="s">
         <v>4</v>
@@ -27271,7 +27266,7 @@
         <v>1836</v>
       </c>
       <c r="M274" s="1" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="N274" s="1" t="s">
         <v>4</v>
@@ -27339,7 +27334,7 @@
         <v>1844</v>
       </c>
       <c r="M275" s="1" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="N275" s="1" t="s">
         <v>4</v>
@@ -27407,7 +27402,7 @@
         <v>1852</v>
       </c>
       <c r="M276" s="1" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="N276" s="1" t="s">
         <v>4</v>
@@ -27475,7 +27470,7 @@
         <v>1860</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="N277" s="1" t="s">
         <v>4</v>
@@ -27543,7 +27538,7 @@
         <v>1868</v>
       </c>
       <c r="M278" s="1" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="N278" s="1" t="s">
         <v>4</v>
@@ -27611,7 +27606,7 @@
         <v>1876</v>
       </c>
       <c r="M279" s="1" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="N279" s="1" t="s">
         <v>4</v>
@@ -27679,7 +27674,7 @@
         <v>1884</v>
       </c>
       <c r="M280" s="1" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="N280" s="1" t="s">
         <v>4</v>
@@ -27747,7 +27742,7 @@
         <v>1892</v>
       </c>
       <c r="M281" s="1" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="N281" s="1" t="s">
         <v>4</v>
@@ -27815,7 +27810,7 @@
         <v>1900</v>
       </c>
       <c r="M282" s="1" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="N282" s="1" t="s">
         <v>4</v>
@@ -27883,7 +27878,7 @@
         <v>1908</v>
       </c>
       <c r="M283" s="1" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="N283" s="1" t="s">
         <v>4</v>
@@ -27951,7 +27946,7 @@
         <v>1916</v>
       </c>
       <c r="M284" s="1" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="N284" s="1" t="s">
         <v>4</v>
@@ -28019,7 +28014,7 @@
         <v>1924</v>
       </c>
       <c r="M285" s="1" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="N285" s="1" t="s">
         <v>4</v>
@@ -28087,7 +28082,7 @@
         <v>1932</v>
       </c>
       <c r="M286" s="1" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="N286" s="1" t="s">
         <v>4</v>
@@ -28155,7 +28150,7 @@
         <v>1940</v>
       </c>
       <c r="M287" s="1" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="N287" s="1" t="s">
         <v>4</v>
@@ -28223,7 +28218,7 @@
         <v>1948</v>
       </c>
       <c r="M288" s="1" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="N288" s="1" t="s">
         <v>4</v>
@@ -28291,7 +28286,7 @@
         <v>1956</v>
       </c>
       <c r="M289" s="1" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="N289" s="1" t="s">
         <v>4</v>
@@ -28359,7 +28354,7 @@
         <v>1964</v>
       </c>
       <c r="M290" s="1" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="N290" s="1" t="s">
         <v>4</v>
@@ -28427,7 +28422,7 @@
         <v>1972</v>
       </c>
       <c r="M291" s="1" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="N291" s="1" t="s">
         <v>4</v>
@@ -28495,7 +28490,7 @@
         <v>1980</v>
       </c>
       <c r="M292" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="N292" s="1" t="s">
         <v>4</v>
@@ -28563,7 +28558,7 @@
         <v>1988</v>
       </c>
       <c r="M293" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="N293" s="1" t="s">
         <v>4</v>
@@ -28631,7 +28626,7 @@
         <v>1996</v>
       </c>
       <c r="M294" s="1" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="N294" s="1" t="s">
         <v>4</v>
@@ -28699,7 +28694,7 @@
         <v>2004</v>
       </c>
       <c r="M295" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="N295" s="1" t="s">
         <v>4</v>
@@ -28767,7 +28762,7 @@
         <v>2012</v>
       </c>
       <c r="M296" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="N296" s="1" t="s">
         <v>4</v>
@@ -28835,7 +28830,7 @@
         <v>2020</v>
       </c>
       <c r="M297" s="1" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="N297" s="1" t="s">
         <v>4</v>
@@ -28903,7 +28898,7 @@
         <v>2028</v>
       </c>
       <c r="M298" s="1" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="N298" s="1" t="s">
         <v>4</v>
@@ -28971,7 +28966,7 @@
         <v>2037</v>
       </c>
       <c r="M299" s="1" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="N299" s="1" t="s">
         <v>4</v>
@@ -29039,7 +29034,7 @@
         <v>2046</v>
       </c>
       <c r="M300" s="1" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="N300" s="1" t="s">
         <v>4</v>
@@ -29107,7 +29102,7 @@
         <v>111</v>
       </c>
       <c r="M301" s="1" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="N301" s="1" t="s">
         <v>4</v>
@@ -29175,7 +29170,7 @@
         <v>2056</v>
       </c>
       <c r="M302" s="1" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="N302" s="1" t="s">
         <v>4</v>
@@ -29243,7 +29238,7 @@
         <v>2064</v>
       </c>
       <c r="M303" s="1" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="N303" s="1" t="s">
         <v>4</v>
@@ -29311,7 +29306,7 @@
         <v>2072</v>
       </c>
       <c r="M304" s="1" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="N304" s="1" t="s">
         <v>4</v>
@@ -29379,7 +29374,7 @@
         <v>2080</v>
       </c>
       <c r="M305" s="1" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="N305" s="1" t="s">
         <v>4</v>
@@ -29447,7 +29442,7 @@
         <v>2088</v>
       </c>
       <c r="M306" s="1" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="N306" s="1" t="s">
         <v>4</v>
@@ -29515,7 +29510,7 @@
         <v>2095</v>
       </c>
       <c r="M307" s="1" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="N307" s="1" t="s">
         <v>4</v>
@@ -29583,7 +29578,7 @@
         <v>2102</v>
       </c>
       <c r="M308" s="1" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="N308" s="1" t="s">
         <v>4</v>
@@ -29651,7 +29646,7 @@
         <v>2109</v>
       </c>
       <c r="M309" s="1" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="N309" s="1" t="s">
         <v>4</v>
@@ -29719,7 +29714,7 @@
         <v>2116</v>
       </c>
       <c r="M310" s="1" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="N310" s="1" t="s">
         <v>4</v>
@@ -29787,7 +29782,7 @@
         <v>2123</v>
       </c>
       <c r="M311" s="1" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="N311" s="1" t="s">
         <v>4</v>
@@ -29855,7 +29850,7 @@
         <v>2130</v>
       </c>
       <c r="M312" s="1" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="N312" s="1" t="s">
         <v>4</v>
@@ -29923,7 +29918,7 @@
         <v>2137</v>
       </c>
       <c r="M313" s="1" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="N313" s="1" t="s">
         <v>4</v>
@@ -29991,7 +29986,7 @@
         <v>2144</v>
       </c>
       <c r="M314" s="1" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="N314" s="1" t="s">
         <v>4</v>
@@ -30059,7 +30054,7 @@
         <v>2151</v>
       </c>
       <c r="M315" s="1" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="N315" s="1" t="s">
         <v>4</v>
@@ -30127,7 +30122,7 @@
         <v>2158</v>
       </c>
       <c r="M316" s="1" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="N316" s="1" t="s">
         <v>4</v>
@@ -30195,7 +30190,7 @@
         <v>2165</v>
       </c>
       <c r="M317" s="1" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="N317" s="1" t="s">
         <v>4</v>
@@ -30263,7 +30258,7 @@
         <v>2175</v>
       </c>
       <c r="M318" s="1" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="N318" s="1" t="s">
         <v>4</v>
@@ -30331,7 +30326,7 @@
         <v>2183</v>
       </c>
       <c r="M319" s="1" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="N319" s="1" t="s">
         <v>4</v>
@@ -30399,7 +30394,7 @@
         <v>2192</v>
       </c>
       <c r="M320" s="1" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="N320" s="1" t="s">
         <v>4</v>
@@ -30467,7 +30462,7 @@
         <v>2199</v>
       </c>
       <c r="M321" s="1" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="N321" s="1" t="s">
         <v>4</v>
@@ -30535,7 +30530,7 @@
         <v>2206</v>
       </c>
       <c r="M322" s="1" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="N322" s="1" t="s">
         <v>4</v>
@@ -30603,7 +30598,7 @@
         <v>2213</v>
       </c>
       <c r="M323" s="1" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="N323" s="1" t="s">
         <v>4</v>
@@ -30671,7 +30666,7 @@
         <v>2220</v>
       </c>
       <c r="M324" s="1" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="N324" s="1" t="s">
         <v>4</v>
@@ -30739,7 +30734,7 @@
         <v>2227</v>
       </c>
       <c r="M325" s="1" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
       <c r="N325" s="1" t="s">
         <v>4</v>
@@ -30807,7 +30802,7 @@
         <v>2235</v>
       </c>
       <c r="M326" s="1" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="N326" s="1" t="s">
         <v>4</v>
@@ -30943,7 +30938,7 @@
         <v>2242</v>
       </c>
       <c r="M328" s="1" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="N328" s="1" t="s">
         <v>4</v>
@@ -31011,7 +31006,7 @@
         <v>2249</v>
       </c>
       <c r="M329" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="N329" s="1" t="s">
         <v>4</v>
@@ -31079,7 +31074,7 @@
         <v>2258</v>
       </c>
       <c r="M330" s="1" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="N330" s="1" t="s">
         <v>4</v>
@@ -31147,7 +31142,7 @@
         <v>2266</v>
       </c>
       <c r="M331" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="N331" s="1" t="s">
         <v>4</v>
@@ -31215,7 +31210,7 @@
         <v>2274</v>
       </c>
       <c r="M332" s="1" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="N332" s="1" t="s">
         <v>4</v>
@@ -31283,7 +31278,7 @@
         <v>2282</v>
       </c>
       <c r="M333" s="1" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="N333" s="1" t="s">
         <v>4</v>
@@ -31351,7 +31346,7 @@
         <v>2291</v>
       </c>
       <c r="M334" s="1" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="N334" s="1" t="s">
         <v>4</v>
@@ -31419,7 +31414,7 @@
         <v>2299</v>
       </c>
       <c r="M335" s="1" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="N335" s="1" t="s">
         <v>4</v>
@@ -31487,7 +31482,7 @@
         <v>2306</v>
       </c>
       <c r="M336" s="1" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="N336" s="1" t="s">
         <v>4</v>
@@ -31555,7 +31550,7 @@
         <v>2314</v>
       </c>
       <c r="M337" s="1" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="N337" s="1" t="s">
         <v>4</v>
@@ -31691,7 +31686,7 @@
         <v>111</v>
       </c>
       <c r="M339" s="1" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="N339" s="1" t="s">
         <v>4</v>
@@ -31759,7 +31754,7 @@
         <v>2321</v>
       </c>
       <c r="M340" s="1" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="N340" s="1" t="s">
         <v>4</v>
@@ -31827,7 +31822,7 @@
         <v>2328</v>
       </c>
       <c r="M341" s="1" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="N341" s="1" t="s">
         <v>4</v>
@@ -31895,7 +31890,7 @@
         <v>2336</v>
       </c>
       <c r="M342" s="1" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="N342" s="1" t="s">
         <v>4</v>
@@ -31963,7 +31958,7 @@
         <v>2344</v>
       </c>
       <c r="M343" s="1" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="N343" s="1" t="s">
         <v>4</v>
@@ -32031,7 +32026,7 @@
         <v>2352</v>
       </c>
       <c r="M344" s="1" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="N344" s="1" t="s">
         <v>4</v>
@@ -32099,7 +32094,7 @@
         <v>2360</v>
       </c>
       <c r="M345" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="N345" s="1" t="s">
         <v>4</v>
@@ -32167,7 +32162,7 @@
         <v>2368</v>
       </c>
       <c r="M346" s="1" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="N346" s="1" t="s">
         <v>4</v>
@@ -32235,7 +32230,7 @@
         <v>2375</v>
       </c>
       <c r="M347" s="1" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="N347" s="1" t="s">
         <v>4</v>
@@ -32303,7 +32298,7 @@
         <v>2382</v>
       </c>
       <c r="M348" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="N348" s="1" t="s">
         <v>4</v>
@@ -32371,7 +32366,7 @@
         <v>2390</v>
       </c>
       <c r="M349" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="N349" s="1" t="s">
         <v>4</v>
@@ -32439,7 +32434,7 @@
         <v>2397</v>
       </c>
       <c r="M350" s="1" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="N350" s="1" t="s">
         <v>4</v>
@@ -32474,410 +32469,274 @@
     </row>
     <row r="351" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>2401</v>
+        <v>2187</v>
       </c>
       <c r="B351" t="s">
         <v>2170</v>
       </c>
       <c r="C351" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E351" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="D351" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E351" s="1" t="s">
+      <c r="F351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G351" s="1" t="s">
         <v>2403</v>
       </c>
-      <c r="F351" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G351" s="1" t="s">
+      <c r="H351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I351" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="H351" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I351" s="1" t="s">
+      <c r="J351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K351" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="J351" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K351" s="1" t="s">
+      <c r="M351" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="N351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O351" s="1" t="s">
         <v>2406</v>
       </c>
-      <c r="M351" s="1" t="s">
-        <v>2674</v>
-      </c>
-      <c r="N351" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O351" s="1" t="s">
+      <c r="P351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S351" s="1" t="s">
         <v>2407</v>
       </c>
-      <c r="P351" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q351" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R351" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S351" s="1" t="s">
+      <c r="T351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V351" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W351" s="1" t="s">
         <v>2408</v>
-      </c>
-      <c r="T351" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U351" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V351" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W351" s="1" t="s">
-        <v>2409</v>
       </c>
     </row>
     <row r="352" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>2401</v>
+        <v>2187</v>
       </c>
       <c r="B352" t="s">
         <v>2170</v>
       </c>
       <c r="C352" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E352" s="1" t="s">
         <v>2410</v>
       </c>
-      <c r="D352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E352" s="1" t="s">
+      <c r="F352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G352" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="F352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G352" s="1" t="s">
+      <c r="H352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I352" s="1" t="s">
         <v>2412</v>
       </c>
-      <c r="H352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I352" s="1" t="s">
+      <c r="J352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K352" s="1" t="s">
         <v>2413</v>
       </c>
-      <c r="J352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K352" s="1" t="s">
+      <c r="M352" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="N352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O352" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="M352" s="1" t="s">
-        <v>2675</v>
-      </c>
-      <c r="N352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O352" s="1" t="s">
+      <c r="P352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S352" s="1" t="s">
         <v>2415</v>
       </c>
-      <c r="P352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S352" s="1" t="s">
+      <c r="T352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W352" s="1" t="s">
         <v>2416</v>
-      </c>
-      <c r="T352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V352" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W352" s="1" t="s">
-        <v>2417</v>
       </c>
     </row>
     <row r="353" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B353" t="s">
         <v>2170</v>
       </c>
       <c r="C353" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E353" s="1" t="s">
         <v>2419</v>
       </c>
-      <c r="D353" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E353" s="1" t="s">
+      <c r="F353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I353" s="1" t="s">
         <v>2420</v>
       </c>
-      <c r="F353" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G353" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H353" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I353" s="1" t="s">
+      <c r="J353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K353" s="1" t="s">
         <v>2421</v>
       </c>
-      <c r="J353" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K353" s="1" t="s">
+      <c r="M353" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O353" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="M353" s="1" t="s">
-        <v>2676</v>
-      </c>
-      <c r="N353" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O353" s="1" t="s">
+      <c r="P353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S353" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="P353" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q353" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R353" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S353" s="1" t="s">
+      <c r="T353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W353" s="1" t="s">
         <v>2424</v>
-      </c>
-      <c r="T353" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U353" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V353" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W353" s="1" t="s">
-        <v>2425</v>
       </c>
     </row>
     <row r="354" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B354" t="s">
         <v>2170</v>
       </c>
       <c r="C354" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E354" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="D354" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E354" s="1" t="s">
+      <c r="F354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I354" s="1" t="s">
         <v>2427</v>
       </c>
-      <c r="F354" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G354" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H354" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I354" s="1" t="s">
+      <c r="J354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K354" s="1" t="s">
         <v>2428</v>
       </c>
-      <c r="J354" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K354" s="1" t="s">
+      <c r="M354" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="N354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O354" s="1" t="s">
         <v>2429</v>
       </c>
-      <c r="M354" s="1" t="s">
-        <v>2677</v>
-      </c>
-      <c r="N354" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O354" s="1" t="s">
+      <c r="P354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S354" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="P354" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q354" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R354" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S354" s="1" t="s">
+      <c r="T354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V354" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W354" s="1" t="s">
         <v>2431</v>
-      </c>
-      <c r="T354" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U354" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V354" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W354" s="1" t="s">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="355" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>2433</v>
-      </c>
-      <c r="B355" t="s">
-        <v>2170</v>
-      </c>
-      <c r="C355" t="s">
-        <v>2419</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>2420</v>
-      </c>
-      <c r="F355" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G355" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H355" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I355" s="1" t="s">
-        <v>2421</v>
-      </c>
-      <c r="J355" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K355" s="1" t="s">
-        <v>2422</v>
-      </c>
-      <c r="M355" s="1" t="s">
-        <v>2676</v>
-      </c>
-      <c r="N355" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O355" s="1" t="s">
-        <v>2423</v>
-      </c>
-      <c r="P355" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q355" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R355" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S355" s="1" t="s">
-        <v>2424</v>
-      </c>
-      <c r="T355" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U355" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V355" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W355" s="1" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="356" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>2433</v>
-      </c>
-      <c r="B356" t="s">
-        <v>2170</v>
-      </c>
-      <c r="C356" t="s">
-        <v>2426</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E356" s="1" t="s">
-        <v>2427</v>
-      </c>
-      <c r="F356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I356" s="1" t="s">
-        <v>2428</v>
-      </c>
-      <c r="J356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K356" s="1" t="s">
-        <v>2429</v>
-      </c>
-      <c r="M356" s="1" t="s">
-        <v>2677</v>
-      </c>
-      <c r="N356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O356" s="1" t="s">
-        <v>2430</v>
-      </c>
-      <c r="P356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S356" s="1" t="s">
-        <v>2431</v>
-      </c>
-      <c r="T356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V356" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W356" s="1" t="s">
-        <v>2432</v>
       </c>
     </row>
   </sheetData>
@@ -32909,7 +32768,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -32917,7 +32776,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -32925,7 +32784,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -32933,7 +32792,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -32941,7 +32800,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -32949,7 +32808,7 @@
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -32957,7 +32816,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -32965,7 +32824,7 @@
         <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -32973,7 +32832,7 @@
         <v>117</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -32989,7 +32848,7 @@
         <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -33005,7 +32864,7 @@
         <v>156</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -33013,7 +32872,7 @@
         <v>165</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -33021,7 +32880,7 @@
         <v>175</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -33029,7 +32888,7 @@
         <v>185</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -33037,7 +32896,7 @@
         <v>194</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -33045,7 +32904,7 @@
         <v>204</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -33053,7 +32912,7 @@
         <v>213</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -33061,7 +32920,7 @@
         <v>223</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -33069,7 +32928,7 @@
         <v>233</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -33077,7 +32936,7 @@
         <v>239</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -33085,7 +32944,7 @@
         <v>249</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -33101,7 +32960,7 @@
         <v>255</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -33109,7 +32968,7 @@
         <v>265</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -33125,7 +32984,7 @@
         <v>273</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -33133,7 +32992,7 @@
         <v>278</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -33141,7 +33000,7 @@
         <v>288</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -33149,7 +33008,7 @@
         <v>298</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -33157,7 +33016,7 @@
         <v>308</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -33165,7 +33024,7 @@
         <v>318</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -33173,7 +33032,7 @@
         <v>328</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -33181,7 +33040,7 @@
         <v>338</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -33189,7 +33048,7 @@
         <v>348</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -33197,7 +33056,7 @@
         <v>358</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -33205,7 +33064,7 @@
         <v>367</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -33213,7 +33072,7 @@
         <v>377</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -33221,7 +33080,7 @@
         <v>387</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -33229,7 +33088,7 @@
         <v>395</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -33237,7 +33096,7 @@
         <v>405</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -33245,7 +33104,7 @@
         <v>414</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -33253,7 +33112,7 @@
         <v>423</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -33261,7 +33120,7 @@
         <v>433</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -33269,7 +33128,7 @@
         <v>443</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -33277,7 +33136,7 @@
         <v>453</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -33285,7 +33144,7 @@
         <v>463</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -33293,7 +33152,7 @@
         <v>473</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -33301,7 +33160,7 @@
         <v>483</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -33309,7 +33168,7 @@
         <v>493</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -33317,7 +33176,7 @@
         <v>503</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -33325,7 +33184,7 @@
         <v>513</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -33333,7 +33192,7 @@
         <v>523</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -33341,7 +33200,7 @@
         <v>533</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -33349,7 +33208,7 @@
         <v>543</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -33357,7 +33216,7 @@
         <v>553</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -33365,7 +33224,7 @@
         <v>561</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -33373,7 +33232,7 @@
         <v>569</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -33381,7 +33240,7 @@
         <v>575</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -33389,7 +33248,7 @@
         <v>582</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -33397,7 +33256,7 @@
         <v>592</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -33405,7 +33264,7 @@
         <v>601</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -33413,7 +33272,7 @@
         <v>610</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -33421,7 +33280,7 @@
         <v>620</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -33429,7 +33288,7 @@
         <v>642</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -33437,7 +33296,7 @@
         <v>650</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -33445,7 +33304,7 @@
         <v>661</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -33453,7 +33312,7 @@
         <v>669</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -33461,7 +33320,7 @@
         <v>678</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -33469,7 +33328,7 @@
         <v>686</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -33477,7 +33336,7 @@
         <v>693</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -33485,7 +33344,7 @@
         <v>700</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -33493,7 +33352,7 @@
         <v>705</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -33501,7 +33360,7 @@
         <v>711</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -33509,7 +33368,7 @@
         <v>719</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -33517,7 +33376,7 @@
         <v>727</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -33525,7 +33384,7 @@
         <v>737</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -33533,7 +33392,7 @@
         <v>745</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -33541,7 +33400,7 @@
         <v>756</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -33549,7 +33408,7 @@
         <v>764</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -33557,7 +33416,7 @@
         <v>772</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -33565,7 +33424,7 @@
         <v>780</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -33573,7 +33432,7 @@
         <v>788</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -33581,7 +33440,7 @@
         <v>796</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -33589,7 +33448,7 @@
         <v>804</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -33597,7 +33456,7 @@
         <v>812</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -33605,7 +33464,7 @@
         <v>820</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -33613,7 +33472,7 @@
         <v>828</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -33621,7 +33480,7 @@
         <v>836</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -33637,7 +33496,7 @@
         <v>849</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -33645,7 +33504,7 @@
         <v>858</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -33653,7 +33512,7 @@
         <v>867</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -33661,7 +33520,7 @@
         <v>876</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -33669,7 +33528,7 @@
         <v>886</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -33677,7 +33536,7 @@
         <v>896</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -33685,7 +33544,7 @@
         <v>906</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -33693,7 +33552,7 @@
         <v>916</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -33701,7 +33560,7 @@
         <v>925</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -33709,7 +33568,7 @@
         <v>934</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -33717,7 +33576,7 @@
         <v>943</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -33725,7 +33584,7 @@
         <v>953</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -33733,7 +33592,7 @@
         <v>963</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -33741,7 +33600,7 @@
         <v>971</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -33765,7 +33624,7 @@
         <v>994</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -33781,7 +33640,7 @@
         <v>1001</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -33797,7 +33656,7 @@
         <v>1008</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -33805,7 +33664,7 @@
         <v>1016</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -33813,7 +33672,7 @@
         <v>1018</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -33829,7 +33688,7 @@
         <v>1029</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -33845,7 +33704,7 @@
         <v>1039</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -33861,7 +33720,7 @@
         <v>1049</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -33877,7 +33736,7 @@
         <v>1059</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -33893,7 +33752,7 @@
         <v>1069</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -33901,7 +33760,7 @@
         <v>1077</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -33909,7 +33768,7 @@
         <v>1084</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -33917,7 +33776,7 @@
         <v>1094</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -33925,7 +33784,7 @@
         <v>1103</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -33933,7 +33792,7 @@
         <v>1112</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -33941,7 +33800,7 @@
         <v>1121</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -33949,7 +33808,7 @@
         <v>1130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -33957,7 +33816,7 @@
         <v>1139</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -33965,7 +33824,7 @@
         <v>1148</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -33973,7 +33832,7 @@
         <v>1157</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -33981,7 +33840,7 @@
         <v>1166</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -34005,7 +33864,7 @@
         <v>1179</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -34013,7 +33872,7 @@
         <v>1189</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -34021,7 +33880,7 @@
         <v>1199</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -34029,7 +33888,7 @@
         <v>1202</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -34037,7 +33896,7 @@
         <v>1207</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -34053,7 +33912,7 @@
         <v>1212</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -34061,7 +33920,7 @@
         <v>1213</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -34069,7 +33928,7 @@
         <v>1223</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -34077,7 +33936,7 @@
         <v>1224</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -34085,7 +33944,7 @@
         <v>1232</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -34093,7 +33952,7 @@
         <v>1233</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -34101,7 +33960,7 @@
         <v>1234</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -34109,7 +33968,7 @@
         <v>1236</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -34117,7 +33976,7 @@
         <v>1246</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -34125,7 +33984,7 @@
         <v>1254</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -34133,7 +33992,7 @@
         <v>1264</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -34141,7 +34000,7 @@
         <v>1267</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -34149,7 +34008,7 @@
         <v>1277</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -34157,7 +34016,7 @@
         <v>1287</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>2563</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -34165,7 +34024,7 @@
         <v>1296</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>2564</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -34173,7 +34032,7 @@
         <v>1306</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -34181,7 +34040,7 @@
         <v>1315</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -34189,7 +34048,7 @@
         <v>1408</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>2567</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -34197,7 +34056,7 @@
         <v>1417</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -34205,7 +34064,7 @@
         <v>1427</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -34213,7 +34072,7 @@
         <v>1434</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -34221,7 +34080,7 @@
         <v>1441</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -34229,7 +34088,7 @@
         <v>1445</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -34237,7 +34096,7 @@
         <v>1455</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -34245,7 +34104,7 @@
         <v>1465</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -34253,7 +34112,7 @@
         <v>1468</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -34261,7 +34120,7 @@
         <v>1476</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -34269,7 +34128,7 @@
         <v>1477</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -34277,7 +34136,7 @@
         <v>1478</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -34285,7 +34144,7 @@
         <v>1487</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -34293,7 +34152,7 @@
         <v>1490</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -34301,7 +34160,7 @@
         <v>1511</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -34309,7 +34168,7 @@
         <v>1518</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -34317,7 +34176,7 @@
         <v>1526</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -34325,7 +34184,7 @@
         <v>1533</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -34333,7 +34192,7 @@
         <v>1540</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -34341,7 +34200,7 @@
         <v>1547</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -34349,7 +34208,7 @@
         <v>1554</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -34365,7 +34224,7 @@
         <v>1563</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -34373,7 +34232,7 @@
         <v>1566</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -34381,7 +34240,7 @@
         <v>1573</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -34453,7 +34312,7 @@
         <v>1595</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -34461,7 +34320,7 @@
         <v>1599</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -34469,7 +34328,7 @@
         <v>1606</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -34477,7 +34336,7 @@
         <v>1613</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -34485,7 +34344,7 @@
         <v>1614</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -34501,7 +34360,7 @@
         <v>1627</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -34509,7 +34368,7 @@
         <v>1632</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -34517,7 +34376,7 @@
         <v>1639</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -34525,7 +34384,7 @@
         <v>1643</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -34533,7 +34392,7 @@
         <v>1649</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -34541,7 +34400,7 @@
         <v>1656</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -34549,7 +34408,7 @@
         <v>1673</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -34557,7 +34416,7 @@
         <v>1680</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -34565,7 +34424,7 @@
         <v>1687</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -34573,7 +34432,7 @@
         <v>1694</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -34581,7 +34440,7 @@
         <v>1701</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -34589,7 +34448,7 @@
         <v>1715</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -34597,7 +34456,7 @@
         <v>1728</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -34605,7 +34464,7 @@
         <v>1745</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -34613,7 +34472,7 @@
         <v>1753</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -34621,7 +34480,7 @@
         <v>1767</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -34629,7 +34488,7 @@
         <v>1786</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -34637,7 +34496,7 @@
         <v>1792</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -34645,7 +34504,7 @@
         <v>1800</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -34653,7 +34512,7 @@
         <v>1808</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -34661,7 +34520,7 @@
         <v>1816</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -34669,7 +34528,7 @@
         <v>1824</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -34677,7 +34536,7 @@
         <v>1832</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -34685,7 +34544,7 @@
         <v>1840</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -34693,7 +34552,7 @@
         <v>1848</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -34701,7 +34560,7 @@
         <v>1856</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -34709,7 +34568,7 @@
         <v>1864</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -34717,7 +34576,7 @@
         <v>1872</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -34725,7 +34584,7 @@
         <v>1880</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -34733,7 +34592,7 @@
         <v>1888</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -34741,7 +34600,7 @@
         <v>1896</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -34749,7 +34608,7 @@
         <v>1904</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -34757,7 +34616,7 @@
         <v>1912</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -34765,7 +34624,7 @@
         <v>1920</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -34773,7 +34632,7 @@
         <v>1928</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -34781,7 +34640,7 @@
         <v>1936</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -34789,7 +34648,7 @@
         <v>1944</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -34797,7 +34656,7 @@
         <v>1952</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -34805,7 +34664,7 @@
         <v>1960</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -34813,7 +34672,7 @@
         <v>1968</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -34821,7 +34680,7 @@
         <v>1976</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -34829,7 +34688,7 @@
         <v>1984</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -34837,7 +34696,7 @@
         <v>1992</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -34845,7 +34704,7 @@
         <v>2000</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -34853,7 +34712,7 @@
         <v>2008</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -34861,7 +34720,7 @@
         <v>2016</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -34869,7 +34728,7 @@
         <v>2024</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -34877,7 +34736,7 @@
         <v>2033</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -34885,7 +34744,7 @@
         <v>2042</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -34893,7 +34752,7 @@
         <v>2051</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -34901,7 +34760,7 @@
         <v>2052</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -34909,7 +34768,7 @@
         <v>2060</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -34917,7 +34776,7 @@
         <v>2068</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -34925,7 +34784,7 @@
         <v>2076</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -34933,7 +34792,7 @@
         <v>2084</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -34941,7 +34800,7 @@
         <v>2092</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -34949,7 +34808,7 @@
         <v>2099</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -34957,7 +34816,7 @@
         <v>2106</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -34965,7 +34824,7 @@
         <v>2113</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -34973,7 +34832,7 @@
         <v>2120</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -34981,7 +34840,7 @@
         <v>2127</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -34989,7 +34848,7 @@
         <v>2134</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -34997,7 +34856,7 @@
         <v>2141</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -35005,7 +34864,7 @@
         <v>2148</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -35013,7 +34872,7 @@
         <v>2155</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -35021,7 +34880,7 @@
         <v>2162</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -35029,7 +34888,7 @@
         <v>2171</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -35037,7 +34896,7 @@
         <v>2179</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -35045,7 +34904,7 @@
         <v>2231</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -35053,7 +34912,7 @@
         <v>2254</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -35061,7 +34920,7 @@
         <v>2262</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -35069,7 +34928,7 @@
         <v>2270</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -35077,7 +34936,7 @@
         <v>2278</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -35085,7 +34944,7 @@
         <v>2287</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -35093,7 +34952,7 @@
         <v>2295</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -35101,7 +34960,7 @@
         <v>2310</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -35109,7 +34968,7 @@
         <v>2332</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -35117,7 +34976,7 @@
         <v>2340</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -35125,7 +34984,7 @@
         <v>2348</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -35133,7 +34992,7 @@
         <v>2356</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -35141,7 +35000,7 @@
         <v>2364</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -35149,7 +35008,7 @@
         <v>2379</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -35157,39 +35016,39 @@
         <v>2386</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
     </row>
   </sheetData>

--- a/source/Translation.xlsx
+++ b/source/Translation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\ChanSort\Source\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA024CA3-56A8-4543-B196-A98F809ADF76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91340C08-CD88-4FE8-9594-5C787392737E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36750" yWindow="2865" windowWidth="36330" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResXResourceManager" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8441" uniqueCount="2729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8579" uniqueCount="2747">
   <si>
     <t>Project</t>
   </si>
@@ -8389,7 +8389,15 @@
 - Provider: MUST be None/Other (do NOT select your cable provider or Astra 19.2E)
 - Blindscan: MUST be selected
 - Network search: optional (can be selected)
-Your TV will show a broken list if these steps are not followed!</t>
+Your TV will not process the list correctly if these steps are not followed!</t>
+  </si>
+  <si>
+    <t>!!! ACHTUNG !!!
+LG Senderlisten können NUR DANN vom Fernseher eingelesen werden, wenn bestimmte Optionen bei der Sendersuche gewählt wurden:
+- Anbieter: MUSS "Keiner" gewählt werden
+- Blindsuche: MUSS ausgewählt sein
+- Netzwerksuche: kann ausgewählt werden
+Ihr Fernseher wird die Senderliste nicht korrekt verarbeiten, wenn diese Schritte nicht befolgt wurden!</t>
   </si>
   <si>
     <t>LG_BlindscanInfo_OpenWebpage</t>
@@ -8398,10 +8406,28 @@
     <t>Read information about webOS 5 support on github.com</t>
   </si>
   <si>
+    <t>Webseite mit Infos zu webOS Unterstützung öffnen</t>
+  </si>
+  <si>
     <t>LG_BlindscanInfo_Continue</t>
   </si>
   <si>
+    <t>I searched for channels as described above</t>
+  </si>
+  <si>
+    <t>Ich habe die Sendersuche wie oben beschrieben durchgeführt</t>
+  </si>
+  <si>
     <t>LG_BlindscanInfo_Cancel</t>
+  </si>
+  <si>
+    <t>LG_BlindscanInfo_Rejected</t>
+  </si>
+  <si>
+    <t>Loading process was canceled</t>
+  </si>
+  <si>
+    <t>Ladevorgang wurde abgebrochen</t>
   </si>
   <si>
     <t>ChanSort.Loader.Hisense</t>
@@ -8469,10 +8495,57 @@
     <t>Kanal bulunamadı</t>
   </si>
   <si>
-    <t>I searched for channels as described above</t>
-  </si>
-  <si>
-    <t>Ich habe die Sendersuche wie oben beschrieben durchgeführt</t>
+    <t>ChanSort.Loader.Philips</t>
+  </si>
+  <si>
+    <t>InfoRestartAfterImport</t>
+  </si>
+  <si>
+    <t>INFO: After importing the list back in your TV, unplug it and plug it back in after a few seconds.</t>
+  </si>
+  <si>
+    <t>InfoIgnoreImportError</t>
+  </si>
+  <si>
+    <t>The TV may incorrectly show that the import failed, but that can be ignored.</t>
+  </si>
+  <si>
+    <t>WarningChecksumErrorMsg</t>
+  </si>
+  <si>
+    <t>WarningChechsumErrorIgnore</t>
+  </si>
+  <si>
+    <t>Ignore the error and edit the list anyway</t>
+  </si>
+  <si>
+    <t>INFO: Bitte schalten Sie Ihren Fernseher nach dem Import aus, ziehen den Netzstecker und stecken ihn nach einigen Sekunden wieder an.</t>
+  </si>
+  <si>
+    <t>Ihr Fernseher zeigt eventuell eine Falschmeldung, dass der Import fehlschlug. Dies kann ignoriert werden.</t>
+  </si>
+  <si>
+    <t>Fehler ignorieren und Datei trotzdem bearbeiten</t>
+  </si>
+  <si>
+    <t>WARNUNG: Beim Laden der Liste wurden Prüfsummenfehler festgestellt!
+Es gibt 2 typische Ursachen für dieses Problem:
+- Die interne Senderliste des Fernsehers ist beschädigt (z.B. nach einem Firmware-Update)
+   Dies kann durch einen neuen Suchlauf oder einen Reset behoben werden.
+   Exportieren Sie danach die Liste erneut und öffnen Sie sie in ChanSort.
+   Wenn Sie die Liste trotz Fehler bearbeiten und importieren, wird sie vermutlich nicht funktionieren.
+- Defekter USB-Stick (Speicherfehler oder inkomptibles Dateisystem)
+   Verwenden Sie nach Möglichkeit einen Stick &lt;= 16GB formatiert mit FAT32 (nicht NTFS oder exFAT)</t>
+  </si>
+  <si>
+    <t>WARNING: There were checksum errors in the loaded list!
+There are 2 situations how this can happen:
+- TV's internal channel list is corrupted (e.g. after a firmware update)
+   This can be solved by running a new channel scan or resetting the TV.
+   After that export the list again and open it with ChanSort.
+   Trying to edit and import the currently broken file can lead to unexpected behavior of the TV.
+- Bad USB-Stick (bad memory cells or incompatible file format)
+   Try using a Stick &lt;= 16GB formatted with FAT32 (not NTFS nor exFAT)</t>
   </si>
 </sst>
 </file>
@@ -8508,11 +8581,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8827,16 +8904,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W367"/>
+  <dimension ref="A1:W373"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="I364" sqref="I364"/>
+      <selection activeCell="F371" sqref="F371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -34496,7 +34572,7 @@
         <v>4</v>
       </c>
       <c r="I362" t="s">
-        <v>4</v>
+        <v>2706</v>
       </c>
       <c r="J362" t="s">
         <v>4</v>
@@ -34549,13 +34625,13 @@
         <v>2646</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="D363" t="s">
         <v>4</v>
       </c>
       <c r="E363" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="F363" t="s">
         <v>4</v>
@@ -34567,7 +34643,7 @@
         <v>4</v>
       </c>
       <c r="I363" t="s">
-        <v>4</v>
+        <v>2709</v>
       </c>
       <c r="J363" t="s">
         <v>4</v>
@@ -34620,13 +34696,13 @@
         <v>2646</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>2708</v>
+        <v>2710</v>
       </c>
       <c r="D364" t="s">
         <v>4</v>
       </c>
       <c r="E364" t="s">
-        <v>2727</v>
+        <v>2711</v>
       </c>
       <c r="F364" t="s">
         <v>4</v>
@@ -34638,7 +34714,7 @@
         <v>4</v>
       </c>
       <c r="I364" t="s">
-        <v>2728</v>
+        <v>2712</v>
       </c>
       <c r="J364" t="s">
         <v>4</v>
@@ -34691,7 +34767,7 @@
         <v>2646</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>2709</v>
+        <v>2713</v>
       </c>
       <c r="D365" t="s">
         <v>4</v>
@@ -34756,19 +34832,19 @@
     </row>
     <row r="366" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>2710</v>
+        <v>2443</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>2424</v>
+        <v>2646</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>2711</v>
+        <v>2714</v>
       </c>
       <c r="D366" t="s">
         <v>4</v>
       </c>
       <c r="E366" t="s">
-        <v>2712</v>
+        <v>2715</v>
       </c>
       <c r="F366" t="s">
         <v>4</v>
@@ -34780,25 +34856,25 @@
         <v>4</v>
       </c>
       <c r="I366" t="s">
-        <v>2713</v>
+        <v>2716</v>
       </c>
       <c r="J366" t="s">
         <v>4</v>
       </c>
       <c r="K366" t="s">
-        <v>2714</v>
+        <v>4</v>
       </c>
       <c r="L366" t="s">
         <v>4</v>
       </c>
       <c r="M366" t="s">
-        <v>2715</v>
+        <v>4</v>
       </c>
       <c r="N366" t="s">
         <v>4</v>
       </c>
       <c r="O366" t="s">
-        <v>2716</v>
+        <v>4</v>
       </c>
       <c r="P366" t="s">
         <v>4</v>
@@ -34810,7 +34886,7 @@
         <v>4</v>
       </c>
       <c r="S366" t="s">
-        <v>2717</v>
+        <v>4</v>
       </c>
       <c r="T366" t="s">
         <v>4</v>
@@ -34822,78 +34898,504 @@
         <v>4</v>
       </c>
       <c r="W366" t="s">
-        <v>2718</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>2710</v>
+        <v>2717</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>2424</v>
       </c>
       <c r="C367" s="1" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D367" t="s">
+        <v>4</v>
+      </c>
+      <c r="E367" t="s">
         <v>2719</v>
       </c>
-      <c r="D367" t="s">
-        <v>4</v>
-      </c>
-      <c r="E367" t="s">
+      <c r="F367" t="s">
+        <v>4</v>
+      </c>
+      <c r="G367" t="s">
+        <v>4</v>
+      </c>
+      <c r="H367" t="s">
+        <v>4</v>
+      </c>
+      <c r="I367" t="s">
         <v>2720</v>
       </c>
-      <c r="F367" t="s">
-        <v>4</v>
-      </c>
-      <c r="G367" t="s">
-        <v>4</v>
-      </c>
-      <c r="H367" t="s">
-        <v>4</v>
-      </c>
-      <c r="I367" t="s">
+      <c r="J367" t="s">
+        <v>4</v>
+      </c>
+      <c r="K367" t="s">
         <v>2721</v>
       </c>
-      <c r="J367" t="s">
-        <v>4</v>
-      </c>
-      <c r="K367" t="s">
+      <c r="L367" t="s">
+        <v>4</v>
+      </c>
+      <c r="M367" t="s">
         <v>2722</v>
       </c>
-      <c r="L367" t="s">
-        <v>4</v>
-      </c>
-      <c r="M367" t="s">
+      <c r="N367" t="s">
+        <v>4</v>
+      </c>
+      <c r="O367" t="s">
         <v>2723</v>
       </c>
-      <c r="N367" t="s">
-        <v>4</v>
-      </c>
-      <c r="O367" t="s">
+      <c r="P367" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q367" t="s">
+        <v>4</v>
+      </c>
+      <c r="R367" t="s">
+        <v>4</v>
+      </c>
+      <c r="S367" t="s">
         <v>2724</v>
       </c>
-      <c r="P367" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q367" t="s">
-        <v>4</v>
-      </c>
-      <c r="R367" t="s">
-        <v>4</v>
-      </c>
-      <c r="S367" t="s">
+      <c r="T367" t="s">
+        <v>4</v>
+      </c>
+      <c r="U367" t="s">
+        <v>4</v>
+      </c>
+      <c r="V367" t="s">
+        <v>4</v>
+      </c>
+      <c r="W367" t="s">
         <v>2725</v>
       </c>
-      <c r="T367" t="s">
-        <v>4</v>
-      </c>
-      <c r="U367" t="s">
-        <v>4</v>
-      </c>
-      <c r="V367" t="s">
-        <v>4</v>
-      </c>
-      <c r="W367" t="s">
+    </row>
+    <row r="368" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>2726</v>
+      </c>
+      <c r="D368" t="s">
+        <v>4</v>
+      </c>
+      <c r="E368" t="s">
+        <v>2727</v>
+      </c>
+      <c r="F368" t="s">
+        <v>4</v>
+      </c>
+      <c r="G368" t="s">
+        <v>4</v>
+      </c>
+      <c r="H368" t="s">
+        <v>4</v>
+      </c>
+      <c r="I368" t="s">
+        <v>2728</v>
+      </c>
+      <c r="J368" t="s">
+        <v>4</v>
+      </c>
+      <c r="K368" t="s">
+        <v>2729</v>
+      </c>
+      <c r="L368" t="s">
+        <v>4</v>
+      </c>
+      <c r="M368" t="s">
+        <v>2730</v>
+      </c>
+      <c r="N368" t="s">
+        <v>4</v>
+      </c>
+      <c r="O368" t="s">
+        <v>2731</v>
+      </c>
+      <c r="P368" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q368" t="s">
+        <v>4</v>
+      </c>
+      <c r="R368" t="s">
+        <v>4</v>
+      </c>
+      <c r="S368" t="s">
+        <v>2732</v>
+      </c>
+      <c r="T368" t="s">
+        <v>4</v>
+      </c>
+      <c r="U368" t="s">
+        <v>4</v>
+      </c>
+      <c r="V368" t="s">
+        <v>4</v>
+      </c>
+      <c r="W368" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="369" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D369" t="s">
+        <v>4</v>
+      </c>
+      <c r="E369" t="s">
+        <v>2736</v>
+      </c>
+      <c r="F369" t="s">
+        <v>4</v>
+      </c>
+      <c r="G369" t="s">
+        <v>4</v>
+      </c>
+      <c r="H369" t="s">
+        <v>4</v>
+      </c>
+      <c r="I369" t="s">
+        <v>2742</v>
+      </c>
+      <c r="J369" t="s">
+        <v>4</v>
+      </c>
+      <c r="K369" t="s">
+        <v>4</v>
+      </c>
+      <c r="L369" t="s">
+        <v>4</v>
+      </c>
+      <c r="M369" t="s">
+        <v>4</v>
+      </c>
+      <c r="N369" t="s">
+        <v>4</v>
+      </c>
+      <c r="O369" t="s">
+        <v>4</v>
+      </c>
+      <c r="P369" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q369" t="s">
+        <v>4</v>
+      </c>
+      <c r="R369" t="s">
+        <v>4</v>
+      </c>
+      <c r="S369" t="s">
+        <v>4</v>
+      </c>
+      <c r="T369" t="s">
+        <v>4</v>
+      </c>
+      <c r="U369" t="s">
+        <v>4</v>
+      </c>
+      <c r="V369" t="s">
+        <v>4</v>
+      </c>
+      <c r="W369" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D370" t="s">
+        <v>4</v>
+      </c>
+      <c r="E370" t="s">
+        <v>2738</v>
+      </c>
+      <c r="F370" t="s">
+        <v>4</v>
+      </c>
+      <c r="G370" t="s">
+        <v>4</v>
+      </c>
+      <c r="H370" t="s">
+        <v>4</v>
+      </c>
+      <c r="I370" t="s">
+        <v>2743</v>
+      </c>
+      <c r="J370" t="s">
+        <v>4</v>
+      </c>
+      <c r="K370" t="s">
+        <v>4</v>
+      </c>
+      <c r="L370" t="s">
+        <v>4</v>
+      </c>
+      <c r="M370" t="s">
+        <v>4</v>
+      </c>
+      <c r="N370" t="s">
+        <v>4</v>
+      </c>
+      <c r="O370" t="s">
+        <v>4</v>
+      </c>
+      <c r="P370" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q370" t="s">
+        <v>4</v>
+      </c>
+      <c r="R370" t="s">
+        <v>4</v>
+      </c>
+      <c r="S370" t="s">
+        <v>4</v>
+      </c>
+      <c r="T370" t="s">
+        <v>4</v>
+      </c>
+      <c r="U370" t="s">
+        <v>4</v>
+      </c>
+      <c r="V370" t="s">
+        <v>4</v>
+      </c>
+      <c r="W370" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="D371" t="s">
+        <v>4</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>2746</v>
+      </c>
+      <c r="F371" t="s">
+        <v>4</v>
+      </c>
+      <c r="G371" t="s">
+        <v>4</v>
+      </c>
+      <c r="H371" t="s">
+        <v>4</v>
+      </c>
+      <c r="I371" s="2" t="s">
+        <v>2745</v>
+      </c>
+      <c r="J371" t="s">
+        <v>4</v>
+      </c>
+      <c r="K371" t="s">
+        <v>4</v>
+      </c>
+      <c r="L371" t="s">
+        <v>4</v>
+      </c>
+      <c r="M371" t="s">
+        <v>4</v>
+      </c>
+      <c r="N371" t="s">
+        <v>4</v>
+      </c>
+      <c r="O371" t="s">
+        <v>4</v>
+      </c>
+      <c r="P371" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q371" t="s">
+        <v>4</v>
+      </c>
+      <c r="R371" t="s">
+        <v>4</v>
+      </c>
+      <c r="S371" t="s">
+        <v>4</v>
+      </c>
+      <c r="T371" t="s">
+        <v>4</v>
+      </c>
+      <c r="U371" t="s">
+        <v>4</v>
+      </c>
+      <c r="V371" t="s">
+        <v>4</v>
+      </c>
+      <c r="W371" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D372" t="s">
+        <v>4</v>
+      </c>
+      <c r="E372" t="s">
+        <v>2741</v>
+      </c>
+      <c r="F372" t="s">
+        <v>4</v>
+      </c>
+      <c r="G372" t="s">
+        <v>4</v>
+      </c>
+      <c r="H372" t="s">
+        <v>4</v>
+      </c>
+      <c r="I372" t="s">
+        <v>2744</v>
+      </c>
+      <c r="J372" t="s">
+        <v>4</v>
+      </c>
+      <c r="K372" t="s">
+        <v>4</v>
+      </c>
+      <c r="L372" t="s">
+        <v>4</v>
+      </c>
+      <c r="M372" t="s">
+        <v>4</v>
+      </c>
+      <c r="N372" t="s">
+        <v>4</v>
+      </c>
+      <c r="O372" t="s">
+        <v>4</v>
+      </c>
+      <c r="P372" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q372" t="s">
+        <v>4</v>
+      </c>
+      <c r="R372" t="s">
+        <v>4</v>
+      </c>
+      <c r="S372" t="s">
+        <v>4</v>
+      </c>
+      <c r="T372" t="s">
+        <v>4</v>
+      </c>
+      <c r="U372" t="s">
+        <v>4</v>
+      </c>
+      <c r="V372" t="s">
+        <v>4</v>
+      </c>
+      <c r="W372" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D373" t="s">
+        <v>4</v>
+      </c>
+      <c r="E373" t="s">
+        <v>118</v>
+      </c>
+      <c r="F373" t="s">
+        <v>4</v>
+      </c>
+      <c r="G373" t="s">
+        <v>119</v>
+      </c>
+      <c r="H373" t="s">
+        <v>4</v>
+      </c>
+      <c r="I373" t="s">
+        <v>120</v>
+      </c>
+      <c r="J373" t="s">
+        <v>4</v>
+      </c>
+      <c r="K373" t="s">
+        <v>121</v>
+      </c>
+      <c r="L373" t="s">
+        <v>4</v>
+      </c>
+      <c r="M373" t="s">
+        <v>122</v>
+      </c>
+      <c r="N373" t="s">
+        <v>4</v>
+      </c>
+      <c r="O373" t="s">
+        <v>123</v>
+      </c>
+      <c r="P373" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q373" t="s">
+        <v>4</v>
+      </c>
+      <c r="R373" t="s">
+        <v>4</v>
+      </c>
+      <c r="S373" t="s">
+        <v>125</v>
+      </c>
+      <c r="T373" t="s">
+        <v>4</v>
+      </c>
+      <c r="U373" t="s">
+        <v>4</v>
+      </c>
+      <c r="V373" t="s">
+        <v>4</v>
+      </c>
+      <c r="W373" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/source/Translation.xlsx
+++ b/source/Translation.xlsx
@@ -320,7 +320,7 @@
       </x:c>
       <x:c r="G3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">http://github.com/PredatH0r/ChanSort</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="H3" t="inlineStr">
@@ -340,7 +340,7 @@
       </x:c>
       <x:c r="K3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">http://github.com/PredatH0r/ChanSort</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="L3" t="inlineStr">
@@ -350,7 +350,7 @@
       </x:c>
       <x:c r="M3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">http://github.com/PredatH0r/ChanSort</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="N3" t="inlineStr">
@@ -360,7 +360,7 @@
       </x:c>
       <x:c r="O3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">http://github.com/PredatH0r/ChanSort</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="P3" t="inlineStr">
@@ -400,7 +400,7 @@
       </x:c>
       <x:c r="W3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">http://github.com/PredatH0r/ChanSort</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
     </x:row>
@@ -437,7 +437,7 @@
       </x:c>
       <x:c r="G4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">horst@beham.biz</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="H4" t="inlineStr">
@@ -457,7 +457,7 @@
       </x:c>
       <x:c r="K4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">horst@beham.biz</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="L4" t="inlineStr">
@@ -467,7 +467,7 @@
       </x:c>
       <x:c r="M4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">horst@beham.biz</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="N4" t="inlineStr">
@@ -477,7 +477,7 @@
       </x:c>
       <x:c r="O4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">horst@beham.biz</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="P4" t="inlineStr">
@@ -517,7 +517,7 @@
       </x:c>
       <x:c r="W4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">horst@beham.biz</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
     </x:row>
@@ -788,7 +788,7 @@
       </x:c>
       <x:c r="G7" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">GNU GPLv3</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="H7" t="inlineStr">
@@ -808,7 +808,7 @@
       </x:c>
       <x:c r="K7" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">GNU GPLv3</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="L7" t="inlineStr">
@@ -818,7 +818,7 @@
       </x:c>
       <x:c r="M7" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">GNU GPLv3</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="N7" t="inlineStr">
@@ -828,7 +828,7 @@
       </x:c>
       <x:c r="O7" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">GNU GPLv3</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="P7" t="inlineStr">
@@ -868,7 +868,7 @@
       </x:c>
       <x:c r="W7" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">GNU GPLv3</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
     </x:row>
@@ -1169,7 +1169,7 @@
       </x:c>
       <x:c r="M10" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Horst Beham</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="N10" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </x:c>
       <x:c r="K13" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Seleccione una opción…</x:t>
+          <x:t xml:space="preserve">Seleccione una opción...</x:t>
         </x:is>
       </x:c>
       <x:c r="L13" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </x:c>
       <x:c r="M13" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Válasszon egy műveletet…</x:t>
+          <x:t xml:space="preserve">Válasszon egy műveletet...</x:t>
         </x:is>
       </x:c>
       <x:c r="N13" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </x:c>
       <x:c r="W13" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Bir eylem seçin…</x:t>
+          <x:t xml:space="preserve">Bir eylem seçin...</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -3743,7 +3743,7 @@
       </x:c>
       <x:c r="M32" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Egy csatorna keresése</x:t>
         </x:is>
       </x:c>
       <x:c r="N32" t="inlineStr">
@@ -4261,7 +4261,7 @@
       </x:c>
       <x:c r="W36" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">TV veri dosyasını aç…</x:t>
+          <x:t xml:space="preserve">TV veri dosyasını aç...</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -4532,7 +4532,7 @@
       </x:c>
       <x:c r="G39" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Informace o souboru</x:t>
+          <x:t xml:space="preserve">Informace o souboru...</x:t>
         </x:is>
       </x:c>
       <x:c r="H39" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </x:c>
       <x:c r="K39" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Archivo e información…</x:t>
+          <x:t xml:space="preserve">Archivo e información...</x:t>
         </x:is>
       </x:c>
       <x:c r="L39" t="inlineStr">
@@ -4612,7 +4612,7 @@
       </x:c>
       <x:c r="W39" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Dosya bilgisi</x:t>
+          <x:t xml:space="preserve">Dosya bilgisi...</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -4796,7 +4796,7 @@
       </x:c>
       <x:c r="M41" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mentés m&amp;ásként</x:t>
+          <x:t xml:space="preserve">Mentés m&amp;ásként...</x:t>
         </x:is>
       </x:c>
       <x:c r="N41" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </x:c>
       <x:c r="W42" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Referans listesinden düzen uygula…</x:t>
+          <x:t xml:space="preserve">Referans listesinden düzen uygula...</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5254,7 +5254,7 @@
       </x:c>
       <x:c r="K45" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Exportar lista de Excel</x:t>
+          <x:t xml:space="preserve">Exportar lista de Excel...</x:t>
         </x:is>
       </x:c>
       <x:c r="L45" t="inlineStr">
@@ -5314,7 +5314,7 @@
       </x:c>
       <x:c r="W45" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Excel listesini dışa aktar…</x:t>
+          <x:t xml:space="preserve">Excel listesini dışa aktar...</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5371,7 +5371,7 @@
       </x:c>
       <x:c r="K46" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">&amp;Imprimir</x:t>
+          <x:t xml:space="preserve">&amp;Imprimir...</x:t>
         </x:is>
       </x:c>
       <x:c r="L46" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </x:c>
       <x:c r="W46" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Yazdır</x:t>
+          <x:t xml:space="preserve">Yazdır...</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -8540,7 +8540,7 @@
       </x:c>
       <x:c r="M73" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Osztott nézet</x:t>
         </x:is>
       </x:c>
       <x:c r="N73" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </x:c>
       <x:c r="M74" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">&amp;Nyelv</x:t>
         </x:is>
       </x:c>
       <x:c r="N74" t="inlineStr">
@@ -8729,7 +8729,7 @@
       </x:c>
       <x:c r="D75" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E75" t="inlineStr">
@@ -8846,7 +8846,7 @@
       </x:c>
       <x:c r="D76" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E76" t="inlineStr">
@@ -8963,7 +8963,7 @@
       </x:c>
       <x:c r="D77" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E77" t="inlineStr">
@@ -9080,7 +9080,7 @@
       </x:c>
       <x:c r="D78" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E78" t="inlineStr">
@@ -9197,7 +9197,7 @@
       </x:c>
       <x:c r="D79" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E79" t="inlineStr">
@@ -9314,7 +9314,7 @@
       </x:c>
       <x:c r="D80" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E80" t="inlineStr">
@@ -9431,7 +9431,7 @@
       </x:c>
       <x:c r="D81" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E81" t="inlineStr">
@@ -9548,7 +9548,7 @@
       </x:c>
       <x:c r="D82" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E82" t="inlineStr">
@@ -9665,7 +9665,7 @@
       </x:c>
       <x:c r="D83" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E83" t="inlineStr">
@@ -9782,7 +9782,7 @@
       </x:c>
       <x:c r="D84" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E84" t="inlineStr">
@@ -10133,7 +10133,7 @@
       </x:c>
       <x:c r="D87" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E87" t="inlineStr">
@@ -10367,7 +10367,7 @@
       </x:c>
       <x:c r="D89" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E89" t="inlineStr">
@@ -10484,7 +10484,7 @@
       </x:c>
       <x:c r="D90" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E90" t="inlineStr">
@@ -11465,7 +11465,7 @@
       </x:c>
       <x:c r="M98" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Alaphelyzetbe állítás és újraindítás</x:t>
         </x:is>
       </x:c>
       <x:c r="N98" t="inlineStr">
@@ -11582,7 +11582,7 @@
       </x:c>
       <x:c r="M99" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Töröl minden egyéni beállítást és újraindítja a programot</x:t>
         </x:is>
       </x:c>
       <x:c r="N99" t="inlineStr">
@@ -13526,7 +13526,7 @@
       </x:c>
       <x:c r="D116" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E116" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </x:c>
       <x:c r="D117" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E117" t="inlineStr">
@@ -13760,7 +13760,7 @@
       </x:c>
       <x:c r="D118" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E118" t="inlineStr">
@@ -13877,7 +13877,7 @@
       </x:c>
       <x:c r="D119" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E119" t="inlineStr">
@@ -13994,7 +13994,7 @@
       </x:c>
       <x:c r="D120" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E120" t="inlineStr">
@@ -14380,7 +14380,7 @@
       </x:c>
       <x:c r="K123" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sitio Web de ChanSort…</x:t>
+          <x:t xml:space="preserve">Sitio Web de ChanSort...</x:t>
         </x:is>
       </x:c>
       <x:c r="L123" t="inlineStr">
@@ -14440,7 +14440,7 @@
       </x:c>
       <x:c r="W123" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">ChanSort sayfası</x:t>
+          <x:t xml:space="preserve">ChanSort sayfası...</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -15749,7 +15749,7 @@
       </x:c>
       <x:c r="D135" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">@Invariant</x:t>
         </x:is>
       </x:c>
       <x:c r="E135" t="inlineStr">
@@ -15764,7 +15764,7 @@
       </x:c>
       <x:c r="G135" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">\d{1,4}</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="H135" t="inlineStr">
@@ -15784,7 +15784,7 @@
       </x:c>
       <x:c r="K135" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">\d{1,4}</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="L135" t="inlineStr">
@@ -15794,7 +15794,7 @@
       </x:c>
       <x:c r="M135" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">\d{1,4}</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="N135" t="inlineStr">
@@ -15804,7 +15804,7 @@
       </x:c>
       <x:c r="O135" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">\d{1,4}</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="P135" t="inlineStr">
@@ -15824,7 +15824,7 @@
       </x:c>
       <x:c r="S135" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">\d{1,4}</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="T135" t="inlineStr">
@@ -15844,7 +15844,7 @@
       </x:c>
       <x:c r="W135" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">\d{1,4}</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
     </x:row>
@@ -16028,7 +16028,7 @@
       </x:c>
       <x:c r="M137" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Csatorna keresése név alapján</x:t>
         </x:is>
       </x:c>
       <x:c r="N137" t="inlineStr">
@@ -18953,7 +18953,7 @@
       </x:c>
       <x:c r="M162" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mozgassa a kijelölt csatornát lefelé</x:t>
+          <x:t xml:space="preserve">Mozgassa a kijelölt csatornákat lefelé</x:t>
         </x:is>
       </x:c>
       <x:c r="N162" t="inlineStr">
@@ -19187,7 +19187,7 @@
       </x:c>
       <x:c r="M164" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mozgassa a kijelölt csatornát felfelé</x:t>
+          <x:t xml:space="preserve">Mozgassa a kijelölt csatornákat felfelé</x:t>
         </x:is>
       </x:c>
       <x:c r="N164" t="inlineStr">
@@ -24218,7 +24218,7 @@
       </x:c>
       <x:c r="M207" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Egy csatorna keresése</x:t>
         </x:is>
       </x:c>
       <x:c r="N207" t="inlineStr">
@@ -24335,7 +24335,7 @@
       </x:c>
       <x:c r="M208" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Csatorna keresése név alapján</x:t>
         </x:is>
       </x:c>
       <x:c r="N208" t="inlineStr">
@@ -24926,7 +24926,7 @@
       </x:c>
       <x:c r="M213" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">#N/A</x:t>
+          <x:t xml:space="preserve">Az összes jelenleg nem rendezett csatorna hozzáfűzése a lista végéhez</x:t>
         </x:is>
       </x:c>
       <x:c r="N213" t="inlineStr">
@@ -30758,7 +30758,7 @@
       </x:c>
       <x:c r="G263" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Ok</x:t>
         </x:is>
       </x:c>
       <x:c r="H263" t="inlineStr">
@@ -30768,7 +30768,7 @@
       </x:c>
       <x:c r="I263" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Ok</x:t>
         </x:is>
       </x:c>
       <x:c r="J263" t="inlineStr">
@@ -31735,7 +31735,7 @@
       </x:c>
       <x:c r="M271" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Alapértelmezett téme használata</x:t>
         </x:is>
       </x:c>
       <x:c r="N271" t="inlineStr">
@@ -33363,7 +33363,7 @@
       </x:c>
       <x:c r="K285" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Previsualizar…</x:t>
+          <x:t xml:space="preserve">Previsualizar...</x:t>
         </x:is>
       </x:c>
       <x:c r="L285" t="inlineStr">
@@ -41091,7 +41091,12 @@
       </x:c>
       <x:c r="M349" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">!!! FIGYELEM !!!
+Az LG csatornalistákat CSAK akkor lehet visszaimportálni a tévékészülékbe, ha a csatornakeresési folyamat során speciális beállítások voltak kiválasztva:
+- Szolgáltató: Nincs/Egyéb KELL (NE válasszon ki a kábelszolgáltatót vagy az Astra 19.2E -t)
+- Blindscan: ki KELL jelölni
+- Hálózati keresés: opcionális (kiválasztható)
+TV -je nem fogja megfelelően feldolgozni a listát, ha nem követi ezeket a lépéseket!</x:t>
         </x:is>
       </x:c>
       <x:c r="N349" t="inlineStr">
@@ -41208,7 +41213,7 @@
       </x:c>
       <x:c r="M350" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">A webOS5 támogatásáról szóló információkat olvassa el a github.com-on</x:t>
         </x:is>
       </x:c>
       <x:c r="N350" t="inlineStr">
@@ -41325,7 +41330,7 @@
       </x:c>
       <x:c r="M351" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">A csatorna keresés a fent leírtak szerint történt</x:t>
         </x:is>
       </x:c>
       <x:c r="N351" t="inlineStr">
@@ -41559,7 +41564,7 @@
       </x:c>
       <x:c r="M353" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">A betöltési folyamat leállítva</x:t>
         </x:is>
       </x:c>
       <x:c r="N353" t="inlineStr">
@@ -41924,7 +41929,7 @@
       </x:c>
       <x:c r="M356" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Lehet, hogy a TV hibásan mutatja, hogy az importálás sikertelen volt, de ezt figyelmen kívül lehet hagyni.</x:t>
         </x:is>
       </x:c>
       <x:c r="N356" t="inlineStr">
@@ -42041,7 +42046,7 @@
       </x:c>
       <x:c r="M357" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">INFORMÁCIÓ: Miután importálta a listát a TV -be, húzza ki a hálózati csatlakozót, majd néhány másodperc múlva csatlakoztassa újra.</x:t>
         </x:is>
       </x:c>
       <x:c r="N357" t="inlineStr">
@@ -42172,7 +42177,14 @@
       </x:c>
       <x:c r="M358" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">FIGYELEM: Ellenőrző összeg hibák voltak a betöltött listában!
+Ez két esetben fordul elő:
+- A TV belső csatornalistája sérült (pl. Firmware frissítés után)
+    Ez megoldható új csatornakeresés újrafuttatásával vagy a TV alaphelyzetbe állításával.
+    Ezt követően újra exportálja a listát, és nyissa meg a ChanSort segítségével.
+    A jelenleg meghibásodott fájl szerkesztésének és importálásának kísérlete a TV -készülék váratlan viselkedéséhez vezethet.
+- Hibás USB-stick (rossz memóriacellák vagy nem kompatibilis fájlformátum)
+    Próbáljon meg egy 16 GB-osnál nem nagyobb, FAT32 -es (nem NTFS és exFAT) formátumú pendrive-ot használni</x:t>
         </x:is>
       </x:c>
       <x:c r="N358" t="inlineStr">
@@ -42289,7 +42301,7 @@
       </x:c>
       <x:c r="M359" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Hiba figyelmenkívül hagyása és a lista szerkesztése</x:t>
         </x:is>
       </x:c>
       <x:c r="N359" t="inlineStr">

--- a/source/Translation.xlsx
+++ b/source/Translation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sources\ChanSort\Source\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E539BDD0-A29D-4A05-ACBA-E2D969099C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9922D2-411C-4893-8550-DD85AD5DE181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="285" windowWidth="38640" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43830" yWindow="2400" windowWidth="28800" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResXResourceManager" sheetId="1" r:id="rId1"/>
@@ -8033,14 +8033,6 @@
 TV -je nem fogja megfelelően feldolgozni a listát, ha nem követi ezeket a lépéseket!</t>
   </si>
   <si>
-    <t>!!! UWAGA !!!
-Listy kanałów LG można zaimportować z powrotem do telewizora TYLKO, jeśli podczas wyszukiwania kanałów w telewizorze wybrano specjalne opcje:
-- Dostawca: MUSI być żaden/inny (NIE wybieraj dostawcy telewizji kablowej ani Astry 19.2E)
-- Blindscan: MUSI być wybrany
-- Wyszukiwanie sieci: opcjonalne (można wybrać)
-Telewizor nie przetworzy listy poprawnie, jeśli te kroki nie zostaną wykonane!</t>
-  </si>
-  <si>
     <t>LG_BlindscanInfo_OpenWebpage</t>
   </si>
   <si>
@@ -9619,6 +9611,14 @@
   </si>
   <si>
     <t>tabPage2.Text</t>
+  </si>
+  <si>
+    <t>!!! UWAGA !!!
+Listy kanałów LG można zaimportować z powrotem do telewizora TYLKO, jeśli podczas wyszukiwania kanałów w telewizorze wybrano specjalne opcje:
+- Dostawca: MUSI być żaden/inny (NIE wybieraj dostawcy telewizji kablowej ani Astry 19.2E)
+- Wyszukiwanie na ślepo: MUSI być wybrany
+- Wyszukiwanie sieci: opcjonalne (można wybrać)
+Telewizor nie przetworzy listy poprawnie, jeśli te kroki nie zostaną wykonane!</t>
   </si>
 </sst>
 </file>
@@ -9654,7 +9654,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -9979,9 +9987,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C294" sqref="C294"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10035,7 +10043,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -10106,7 +10114,7 @@
       <c r="N2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="P2" t="s">
@@ -10177,7 +10185,7 @@
       <c r="N3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P3" t="s">
@@ -10248,7 +10256,7 @@
       <c r="N4" t="s">
         <v>4</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P4" t="s">
@@ -10319,7 +10327,7 @@
       <c r="N5" t="s">
         <v>4</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P5" t="s">
@@ -10390,7 +10398,7 @@
       <c r="N6" t="s">
         <v>4</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="P6" t="s">
@@ -10461,7 +10469,7 @@
       <c r="N7" t="s">
         <v>4</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P7" t="s">
@@ -10532,7 +10540,7 @@
       <c r="N8" t="s">
         <v>4</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="3" t="s">
         <v>69</v>
       </c>
       <c r="P8" t="s">
@@ -10551,7 +10559,7 @@
         <v>4</v>
       </c>
       <c r="U8" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="V8" t="s">
         <v>4</v>
@@ -10603,7 +10611,7 @@
       <c r="N9" t="s">
         <v>4</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="3" t="s">
         <v>79</v>
       </c>
       <c r="P9" t="s">
@@ -10674,7 +10682,7 @@
       <c r="N10" t="s">
         <v>4</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P10" t="s">
@@ -10745,7 +10753,7 @@
       <c r="N11" t="s">
         <v>4</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="3" t="s">
         <v>92</v>
       </c>
       <c r="P11" t="s">
@@ -10764,7 +10772,7 @@
         <v>4</v>
       </c>
       <c r="U11" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="V11" t="s">
         <v>4</v>
@@ -10816,7 +10824,7 @@
       <c r="N12" t="s">
         <v>4</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="3" t="s">
         <v>103</v>
       </c>
       <c r="P12" t="s">
@@ -10835,7 +10843,7 @@
         <v>4</v>
       </c>
       <c r="U12" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="V12" t="s">
         <v>4</v>
@@ -10887,7 +10895,7 @@
       <c r="N13" t="s">
         <v>4</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="3" t="s">
         <v>111</v>
       </c>
       <c r="P13" t="s">
@@ -10906,7 +10914,7 @@
         <v>4</v>
       </c>
       <c r="U13" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="V13" t="s">
         <v>4</v>
@@ -10958,7 +10966,7 @@
       <c r="N14" t="s">
         <v>4</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="3" t="s">
         <v>121</v>
       </c>
       <c r="P14" t="s">
@@ -10977,7 +10985,7 @@
         <v>4</v>
       </c>
       <c r="U14" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="V14" t="s">
         <v>4</v>
@@ -11029,7 +11037,7 @@
       <c r="N15" t="s">
         <v>4</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="3" t="s">
         <v>131</v>
       </c>
       <c r="P15" t="s">
@@ -11100,7 +11108,7 @@
       <c r="N16" t="s">
         <v>4</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="3" t="s">
         <v>137</v>
       </c>
       <c r="P16" t="s">
@@ -11171,7 +11179,7 @@
       <c r="N17" t="s">
         <v>4</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="3" t="s">
         <v>143</v>
       </c>
       <c r="P17" t="s">
@@ -11242,7 +11250,7 @@
       <c r="N18" t="s">
         <v>4</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="3" t="s">
         <v>154</v>
       </c>
       <c r="P18" t="s">
@@ -11261,7 +11269,7 @@
         <v>4</v>
       </c>
       <c r="U18" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="V18" t="s">
         <v>4</v>
@@ -11313,7 +11321,7 @@
       <c r="N19" t="s">
         <v>4</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="3" t="s">
         <v>162</v>
       </c>
       <c r="P19" t="s">
@@ -11384,7 +11392,7 @@
       <c r="N20" t="s">
         <v>4</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="3" t="s">
         <v>171</v>
       </c>
       <c r="P20" t="s">
@@ -11455,7 +11463,7 @@
       <c r="N21" t="s">
         <v>4</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O21" s="3" t="s">
         <v>181</v>
       </c>
       <c r="P21" t="s">
@@ -11526,7 +11534,7 @@
       <c r="N22" t="s">
         <v>4</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O22" s="3" t="s">
         <v>192</v>
       </c>
       <c r="P22" t="s">
@@ -11597,7 +11605,7 @@
       <c r="N23" t="s">
         <v>4</v>
       </c>
-      <c r="O23" t="s">
+      <c r="O23" s="3" t="s">
         <v>203</v>
       </c>
       <c r="P23" t="s">
@@ -11668,7 +11676,7 @@
       <c r="N24" t="s">
         <v>4</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" s="3" t="s">
         <v>213</v>
       </c>
       <c r="P24" t="s">
@@ -11739,7 +11747,7 @@
       <c r="N25" t="s">
         <v>4</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" s="3" t="s">
         <v>224</v>
       </c>
       <c r="P25" t="s">
@@ -11810,7 +11818,7 @@
       <c r="N26" t="s">
         <v>4</v>
       </c>
-      <c r="O26" t="s">
+      <c r="O26" s="3" t="s">
         <v>234</v>
       </c>
       <c r="P26" t="s">
@@ -11881,7 +11889,7 @@
       <c r="N27" t="s">
         <v>4</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="3" t="s">
         <v>245</v>
       </c>
       <c r="P27" t="s">
@@ -11952,7 +11960,7 @@
       <c r="N28" t="s">
         <v>4</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="3" t="s">
         <v>255</v>
       </c>
       <c r="P28" t="s">
@@ -11971,7 +11979,7 @@
         <v>4</v>
       </c>
       <c r="U28" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="V28" t="s">
         <v>4</v>
@@ -12023,7 +12031,7 @@
       <c r="N29" t="s">
         <v>4</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="3" t="s">
         <v>263</v>
       </c>
       <c r="P29" t="s">
@@ -12094,7 +12102,7 @@
       <c r="N30" t="s">
         <v>4</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="3" t="s">
         <v>272</v>
       </c>
       <c r="P30" t="s">
@@ -12113,7 +12121,7 @@
         <v>4</v>
       </c>
       <c r="U30" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="V30" t="s">
         <v>4</v>
@@ -12165,7 +12173,7 @@
       <c r="N31" t="s">
         <v>4</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O31" s="3" t="s">
         <v>275</v>
       </c>
       <c r="P31" t="s">
@@ -12236,7 +12244,7 @@
       <c r="N32" t="s">
         <v>4</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="3" t="s">
         <v>279</v>
       </c>
       <c r="P32" t="s">
@@ -12255,7 +12263,7 @@
         <v>4</v>
       </c>
       <c r="U32" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="V32" t="s">
         <v>4</v>
@@ -12307,7 +12315,7 @@
       <c r="N33" t="s">
         <v>4</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="3" t="s">
         <v>281</v>
       </c>
       <c r="P33" t="s">
@@ -12326,7 +12334,7 @@
         <v>4</v>
       </c>
       <c r="U33" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="V33" t="s">
         <v>4</v>
@@ -12378,7 +12386,7 @@
       <c r="N34" t="s">
         <v>4</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="3" t="s">
         <v>288</v>
       </c>
       <c r="P34" t="s">
@@ -12397,7 +12405,7 @@
         <v>4</v>
       </c>
       <c r="U34" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="V34" t="s">
         <v>4</v>
@@ -12449,7 +12457,7 @@
       <c r="N35" t="s">
         <v>4</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="3" t="s">
         <v>297</v>
       </c>
       <c r="P35" t="s">
@@ -12520,7 +12528,7 @@
       <c r="N36" t="s">
         <v>4</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="3" t="s">
         <v>308</v>
       </c>
       <c r="P36" t="s">
@@ -12539,7 +12547,7 @@
         <v>4</v>
       </c>
       <c r="U36" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="V36" t="s">
         <v>4</v>
@@ -12591,7 +12599,7 @@
       <c r="N37" t="s">
         <v>4</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="3" t="s">
         <v>318</v>
       </c>
       <c r="P37" t="s">
@@ -12662,7 +12670,7 @@
       <c r="N38" t="s">
         <v>4</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="3" t="s">
         <v>329</v>
       </c>
       <c r="P38" t="s">
@@ -12733,7 +12741,7 @@
       <c r="N39" t="s">
         <v>4</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="3" t="s">
         <v>340</v>
       </c>
       <c r="P39" t="s">
@@ -12752,7 +12760,7 @@
         <v>4</v>
       </c>
       <c r="U39" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="V39" t="s">
         <v>4</v>
@@ -12804,7 +12812,7 @@
       <c r="N40" t="s">
         <v>4</v>
       </c>
-      <c r="O40" t="s">
+      <c r="O40" s="3" t="s">
         <v>350</v>
       </c>
       <c r="P40" t="s">
@@ -12875,7 +12883,7 @@
       <c r="N41" t="s">
         <v>4</v>
       </c>
-      <c r="O41" t="s">
+      <c r="O41" s="3" t="s">
         <v>361</v>
       </c>
       <c r="P41" t="s">
@@ -12946,7 +12954,7 @@
       <c r="N42" t="s">
         <v>4</v>
       </c>
-      <c r="O42" t="s">
+      <c r="O42" s="3" t="s">
         <v>372</v>
       </c>
       <c r="P42" t="s">
@@ -12965,7 +12973,7 @@
         <v>4</v>
       </c>
       <c r="U42" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="V42" t="s">
         <v>4</v>
@@ -13017,7 +13025,7 @@
       <c r="N43" t="s">
         <v>4</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="3" t="s">
         <v>382</v>
       </c>
       <c r="P43" t="s">
@@ -13036,7 +13044,7 @@
         <v>4</v>
       </c>
       <c r="U43" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="V43" t="s">
         <v>4</v>
@@ -13088,7 +13096,7 @@
       <c r="N44" t="s">
         <v>4</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="3" t="s">
         <v>391</v>
       </c>
       <c r="P44" t="s">
@@ -13107,7 +13115,7 @@
         <v>4</v>
       </c>
       <c r="U44" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="V44" t="s">
         <v>4</v>
@@ -13159,7 +13167,7 @@
       <c r="N45" t="s">
         <v>4</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="3" t="s">
         <v>401</v>
       </c>
       <c r="P45" t="s">
@@ -13230,7 +13238,7 @@
       <c r="N46" t="s">
         <v>4</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O46" s="3" t="s">
         <v>411</v>
       </c>
       <c r="P46" t="s">
@@ -13249,7 +13257,7 @@
         <v>4</v>
       </c>
       <c r="U46" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="V46" t="s">
         <v>4</v>
@@ -13301,7 +13309,7 @@
       <c r="N47" t="s">
         <v>4</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47" s="3" t="s">
         <v>420</v>
       </c>
       <c r="P47" t="s">
@@ -13372,7 +13380,7 @@
       <c r="N48" t="s">
         <v>4</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48" s="3" t="s">
         <v>431</v>
       </c>
       <c r="P48" t="s">
@@ -13391,7 +13399,7 @@
         <v>4</v>
       </c>
       <c r="U48" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="V48" t="s">
         <v>4</v>
@@ -13443,7 +13451,7 @@
       <c r="N49" t="s">
         <v>4</v>
       </c>
-      <c r="O49" t="s">
+      <c r="O49" s="3" t="s">
         <v>440</v>
       </c>
       <c r="P49" t="s">
@@ -13514,7 +13522,7 @@
       <c r="N50" t="s">
         <v>4</v>
       </c>
-      <c r="O50" t="s">
+      <c r="O50" s="3" t="s">
         <v>450</v>
       </c>
       <c r="P50" t="s">
@@ -13533,7 +13541,7 @@
         <v>4</v>
       </c>
       <c r="U50" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="V50" t="s">
         <v>4</v>
@@ -13585,7 +13593,7 @@
       <c r="N51" t="s">
         <v>4</v>
       </c>
-      <c r="O51" t="s">
+      <c r="O51" s="3" t="s">
         <v>460</v>
       </c>
       <c r="P51" t="s">
@@ -13604,7 +13612,7 @@
         <v>4</v>
       </c>
       <c r="U51" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="V51" t="s">
         <v>4</v>
@@ -13656,7 +13664,7 @@
       <c r="N52" t="s">
         <v>4</v>
       </c>
-      <c r="O52" t="s">
+      <c r="O52" s="3" t="s">
         <v>470</v>
       </c>
       <c r="P52" t="s">
@@ -13727,7 +13735,7 @@
       <c r="N53" t="s">
         <v>4</v>
       </c>
-      <c r="O53" t="s">
+      <c r="O53" s="3" t="s">
         <v>481</v>
       </c>
       <c r="P53" t="s">
@@ -13798,7 +13806,7 @@
       <c r="N54" t="s">
         <v>4</v>
       </c>
-      <c r="O54" t="s">
+      <c r="O54" s="3" t="s">
         <v>492</v>
       </c>
       <c r="P54" t="s">
@@ -13869,7 +13877,7 @@
       <c r="N55" t="s">
         <v>4</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O55" s="3" t="s">
         <v>503</v>
       </c>
       <c r="P55" t="s">
@@ -13888,7 +13896,7 @@
         <v>4</v>
       </c>
       <c r="U55" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="V55" t="s">
         <v>4</v>
@@ -13940,7 +13948,7 @@
       <c r="N56" t="s">
         <v>4</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O56" s="3" t="s">
         <v>513</v>
       </c>
       <c r="P56" t="s">
@@ -13959,7 +13967,7 @@
         <v>4</v>
       </c>
       <c r="U56" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="V56" t="s">
         <v>4</v>
@@ -14011,7 +14019,7 @@
       <c r="N57" t="s">
         <v>4</v>
       </c>
-      <c r="O57" t="s">
+      <c r="O57" s="3" t="s">
         <v>523</v>
       </c>
       <c r="P57" t="s">
@@ -14082,7 +14090,7 @@
       <c r="N58" t="s">
         <v>4</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="3" t="s">
         <v>534</v>
       </c>
       <c r="P58" t="s">
@@ -14153,7 +14161,7 @@
       <c r="N59" t="s">
         <v>4</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O59" s="3" t="s">
         <v>545</v>
       </c>
       <c r="P59" t="s">
@@ -14224,7 +14232,7 @@
       <c r="N60" t="s">
         <v>4</v>
       </c>
-      <c r="O60" t="s">
+      <c r="O60" s="3" t="s">
         <v>556</v>
       </c>
       <c r="P60" t="s">
@@ -14295,7 +14303,7 @@
       <c r="N61" t="s">
         <v>4</v>
       </c>
-      <c r="O61" t="s">
+      <c r="O61" s="3" t="s">
         <v>567</v>
       </c>
       <c r="P61" t="s">
@@ -14366,7 +14374,7 @@
       <c r="N62" t="s">
         <v>4</v>
       </c>
-      <c r="O62" t="s">
+      <c r="O62" s="3" t="s">
         <v>578</v>
       </c>
       <c r="P62" t="s">
@@ -14437,7 +14445,7 @@
       <c r="N63" t="s">
         <v>4</v>
       </c>
-      <c r="O63" t="s">
+      <c r="O63" s="3" t="s">
         <v>589</v>
       </c>
       <c r="P63" t="s">
@@ -14508,7 +14516,7 @@
       <c r="N64" t="s">
         <v>4</v>
       </c>
-      <c r="O64" t="s">
+      <c r="O64" s="3" t="s">
         <v>600</v>
       </c>
       <c r="P64" t="s">
@@ -14579,7 +14587,7 @@
       <c r="N65" t="s">
         <v>4</v>
       </c>
-      <c r="O65" t="s">
+      <c r="O65" s="3" t="s">
         <v>611</v>
       </c>
       <c r="P65" t="s">
@@ -14598,7 +14606,7 @@
         <v>4</v>
       </c>
       <c r="U65" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="V65" t="s">
         <v>4</v>
@@ -14650,7 +14658,7 @@
       <c r="N66" t="s">
         <v>4</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O66" s="3" t="s">
         <v>620</v>
       </c>
       <c r="P66" t="s">
@@ -14669,7 +14677,7 @@
         <v>4</v>
       </c>
       <c r="U66" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="V66" t="s">
         <v>4</v>
@@ -14721,7 +14729,7 @@
       <c r="N67" t="s">
         <v>4</v>
       </c>
-      <c r="O67" t="s">
+      <c r="O67" s="3" t="s">
         <v>628</v>
       </c>
       <c r="P67" t="s">
@@ -14740,7 +14748,7 @@
         <v>4</v>
       </c>
       <c r="U67" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="V67" t="s">
         <v>4</v>
@@ -14792,7 +14800,7 @@
       <c r="N68" t="s">
         <v>4</v>
       </c>
-      <c r="O68" t="s">
+      <c r="O68" s="3" t="s">
         <v>635</v>
       </c>
       <c r="P68" t="s">
@@ -14863,7 +14871,7 @@
       <c r="N69" t="s">
         <v>4</v>
       </c>
-      <c r="O69" t="s">
+      <c r="O69" s="3" t="s">
         <v>644</v>
       </c>
       <c r="P69" t="s">
@@ -14934,7 +14942,7 @@
       <c r="N70" t="s">
         <v>4</v>
       </c>
-      <c r="O70" t="s">
+      <c r="O70" s="3" t="s">
         <v>655</v>
       </c>
       <c r="P70" t="s">
@@ -14953,7 +14961,7 @@
         <v>4</v>
       </c>
       <c r="U70" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="V70" t="s">
         <v>4</v>
@@ -15005,7 +15013,7 @@
       <c r="N71" t="s">
         <v>4</v>
       </c>
-      <c r="O71" t="s">
+      <c r="O71" s="3" t="s">
         <v>664</v>
       </c>
       <c r="P71" t="s">
@@ -15024,7 +15032,7 @@
         <v>4</v>
       </c>
       <c r="U71" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="V71" t="s">
         <v>4</v>
@@ -15076,7 +15084,7 @@
       <c r="N72" t="s">
         <v>4</v>
       </c>
-      <c r="O72" t="s">
+      <c r="O72" s="3" t="s">
         <v>673</v>
       </c>
       <c r="P72" t="s">
@@ -15147,7 +15155,7 @@
       <c r="N73" t="s">
         <v>4</v>
       </c>
-      <c r="O73" t="s">
+      <c r="O73" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P73" t="s">
@@ -15215,7 +15223,7 @@
       <c r="N74" t="s">
         <v>4</v>
       </c>
-      <c r="O74" t="s">
+      <c r="O74" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P74" t="s">
@@ -15283,7 +15291,7 @@
       <c r="N75" t="s">
         <v>4</v>
       </c>
-      <c r="O75" t="s">
+      <c r="O75" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P75" t="s">
@@ -15322,7 +15330,7 @@
         <v>37</v>
       </c>
       <c r="E76" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="F76" t="s">
         <v>4</v>
@@ -15351,7 +15359,7 @@
       <c r="N76" t="s">
         <v>4</v>
       </c>
-      <c r="O76" t="s">
+      <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P76" t="s">
@@ -15419,7 +15427,7 @@
       <c r="N77" t="s">
         <v>4</v>
       </c>
-      <c r="O77" t="s">
+      <c r="O77" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P77" t="s">
@@ -15487,7 +15495,7 @@
       <c r="N78" t="s">
         <v>4</v>
       </c>
-      <c r="O78" t="s">
+      <c r="O78" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P78" t="s">
@@ -15555,7 +15563,7 @@
       <c r="N79" t="s">
         <v>4</v>
       </c>
-      <c r="O79" t="s">
+      <c r="O79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P79" t="s">
@@ -15623,7 +15631,7 @@
       <c r="N80" t="s">
         <v>4</v>
       </c>
-      <c r="O80" t="s">
+      <c r="O80" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P80" t="s">
@@ -15691,7 +15699,7 @@
       <c r="N81" t="s">
         <v>4</v>
       </c>
-      <c r="O81" t="s">
+      <c r="O81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P81" t="s">
@@ -15730,7 +15738,7 @@
         <v>37</v>
       </c>
       <c r="E82" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="F82" t="s">
         <v>4</v>
@@ -15759,7 +15767,7 @@
       <c r="N82" t="s">
         <v>4</v>
       </c>
-      <c r="O82" t="s">
+      <c r="O82" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P82" t="s">
@@ -15827,7 +15835,7 @@
       <c r="N83" t="s">
         <v>4</v>
       </c>
-      <c r="O83" t="s">
+      <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P83" t="s">
@@ -15895,7 +15903,7 @@
       <c r="N84" t="s">
         <v>4</v>
       </c>
-      <c r="O84" t="s">
+      <c r="O84" s="3" t="s">
         <v>704</v>
       </c>
       <c r="P84" t="s">
@@ -15966,7 +15974,7 @@
       <c r="N85" t="s">
         <v>4</v>
       </c>
-      <c r="O85" t="s">
+      <c r="O85" s="3" t="s">
         <v>713</v>
       </c>
       <c r="P85" t="s">
@@ -16037,7 +16045,7 @@
       <c r="N86" t="s">
         <v>4</v>
       </c>
-      <c r="O86" t="s">
+      <c r="O86" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P86" t="s">
@@ -16056,7 +16064,7 @@
         <v>4</v>
       </c>
       <c r="U86" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="V86" t="s">
         <v>4</v>
@@ -16108,7 +16116,7 @@
       <c r="N87" t="s">
         <v>4</v>
       </c>
-      <c r="O87" t="s">
+      <c r="O87" s="3" t="s">
         <v>725</v>
       </c>
       <c r="P87" t="s">
@@ -16127,7 +16135,7 @@
         <v>4</v>
       </c>
       <c r="U87" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="V87" t="s">
         <v>4</v>
@@ -16179,7 +16187,7 @@
       <c r="N88" t="s">
         <v>4</v>
       </c>
-      <c r="O88" t="s">
+      <c r="O88" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P88" t="s">
@@ -16198,7 +16206,7 @@
         <v>4</v>
       </c>
       <c r="U88" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="V88" t="s">
         <v>4</v>
@@ -16250,7 +16258,7 @@
       <c r="N89" t="s">
         <v>4</v>
       </c>
-      <c r="O89" t="s">
+      <c r="O89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P89" t="s">
@@ -16269,7 +16277,7 @@
         <v>4</v>
       </c>
       <c r="U89" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="V89" t="s">
         <v>4</v>
@@ -16321,7 +16329,7 @@
       <c r="N90" t="s">
         <v>4</v>
       </c>
-      <c r="O90" t="s">
+      <c r="O90" s="3" t="s">
         <v>738</v>
       </c>
       <c r="P90" t="s">
@@ -16392,7 +16400,7 @@
       <c r="N91" t="s">
         <v>4</v>
       </c>
-      <c r="O91" t="s">
+      <c r="O91" s="3" t="s">
         <v>747</v>
       </c>
       <c r="P91" t="s">
@@ -16411,7 +16419,7 @@
         <v>4</v>
       </c>
       <c r="U91" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="V91" t="s">
         <v>4</v>
@@ -16463,7 +16471,7 @@
       <c r="N92" t="s">
         <v>4</v>
       </c>
-      <c r="O92" t="s">
+      <c r="O92" s="3" t="s">
         <v>751</v>
       </c>
       <c r="P92" t="s">
@@ -16482,7 +16490,7 @@
         <v>4</v>
       </c>
       <c r="U92" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="V92" t="s">
         <v>4</v>
@@ -16534,7 +16542,7 @@
       <c r="N93" t="s">
         <v>4</v>
       </c>
-      <c r="O93" t="s">
+      <c r="O93" s="3" t="s">
         <v>755</v>
       </c>
       <c r="P93" t="s">
@@ -16553,7 +16561,7 @@
         <v>4</v>
       </c>
       <c r="U93" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="V93" t="s">
         <v>4</v>
@@ -16605,7 +16613,7 @@
       <c r="N94" t="s">
         <v>4</v>
       </c>
-      <c r="O94" t="s">
+      <c r="O94" s="3" t="s">
         <v>762</v>
       </c>
       <c r="P94" t="s">
@@ -16676,7 +16684,7 @@
       <c r="N95" t="s">
         <v>4</v>
       </c>
-      <c r="O95" t="s">
+      <c r="O95" s="3" t="s">
         <v>772</v>
       </c>
       <c r="P95" t="s">
@@ -16695,7 +16703,7 @@
         <v>4</v>
       </c>
       <c r="U95" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="V95" t="s">
         <v>4</v>
@@ -16747,7 +16755,7 @@
       <c r="N96" t="s">
         <v>4</v>
       </c>
-      <c r="O96" t="s">
+      <c r="O96" s="3" t="s">
         <v>780</v>
       </c>
       <c r="P96" t="s">
@@ -16766,7 +16774,7 @@
         <v>4</v>
       </c>
       <c r="U96" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="V96" t="s">
         <v>4</v>
@@ -16818,7 +16826,7 @@
       <c r="N97" t="s">
         <v>4</v>
       </c>
-      <c r="O97" t="s">
+      <c r="O97" s="3" t="s">
         <v>788</v>
       </c>
       <c r="P97" t="s">
@@ -16837,7 +16845,7 @@
         <v>4</v>
       </c>
       <c r="U97" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="V97" t="s">
         <v>4</v>
@@ -16889,7 +16897,7 @@
       <c r="N98" t="s">
         <v>4</v>
       </c>
-      <c r="O98" t="s">
+      <c r="O98" s="3" t="s">
         <v>796</v>
       </c>
       <c r="P98" t="s">
@@ -16908,7 +16916,7 @@
         <v>4</v>
       </c>
       <c r="U98" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="V98" t="s">
         <v>4</v>
@@ -16960,7 +16968,7 @@
       <c r="N99" t="s">
         <v>4</v>
       </c>
-      <c r="O99" t="s">
+      <c r="O99" s="3" t="s">
         <v>803</v>
       </c>
       <c r="P99" t="s">
@@ -16979,7 +16987,7 @@
         <v>4</v>
       </c>
       <c r="U99" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="V99" t="s">
         <v>4</v>
@@ -17031,7 +17039,7 @@
       <c r="N100" t="s">
         <v>4</v>
       </c>
-      <c r="O100" t="s">
+      <c r="O100" s="3" t="s">
         <v>809</v>
       </c>
       <c r="P100" t="s">
@@ -17050,7 +17058,7 @@
         <v>4</v>
       </c>
       <c r="U100" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="V100" t="s">
         <v>4</v>
@@ -17102,7 +17110,7 @@
       <c r="N101" t="s">
         <v>4</v>
       </c>
-      <c r="O101" t="s">
+      <c r="O101" s="3" t="s">
         <v>814</v>
       </c>
       <c r="P101" t="s">
@@ -17121,7 +17129,7 @@
         <v>4</v>
       </c>
       <c r="U101" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="V101" t="s">
         <v>4</v>
@@ -17173,7 +17181,7 @@
       <c r="N102" t="s">
         <v>4</v>
       </c>
-      <c r="O102" t="s">
+      <c r="O102" s="3" t="s">
         <v>821</v>
       </c>
       <c r="P102" t="s">
@@ -17192,7 +17200,7 @@
         <v>4</v>
       </c>
       <c r="U102" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="V102" t="s">
         <v>4</v>
@@ -17244,7 +17252,7 @@
       <c r="N103" t="s">
         <v>4</v>
       </c>
-      <c r="O103" t="s">
+      <c r="O103" s="3" t="s">
         <v>830</v>
       </c>
       <c r="P103" t="s">
@@ -17263,7 +17271,7 @@
         <v>4</v>
       </c>
       <c r="U103" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="V103" t="s">
         <v>4</v>
@@ -17315,7 +17323,7 @@
       <c r="N104" t="s">
         <v>4</v>
       </c>
-      <c r="O104" t="s">
+      <c r="O104" s="3" t="s">
         <v>839</v>
       </c>
       <c r="P104" t="s">
@@ -17334,7 +17342,7 @@
         <v>4</v>
       </c>
       <c r="U104" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="V104" t="s">
         <v>4</v>
@@ -17386,7 +17394,7 @@
       <c r="N105" t="s">
         <v>4</v>
       </c>
-      <c r="O105" t="s">
+      <c r="O105" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P105" t="s">
@@ -17457,7 +17465,7 @@
       <c r="N106" t="s">
         <v>4</v>
       </c>
-      <c r="O106" t="s">
+      <c r="O106" s="3" t="s">
         <v>850</v>
       </c>
       <c r="P106" t="s">
@@ -17476,7 +17484,7 @@
         <v>4</v>
       </c>
       <c r="U106" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="V106" t="s">
         <v>4</v>
@@ -17528,7 +17536,7 @@
       <c r="N107" t="s">
         <v>4</v>
       </c>
-      <c r="O107" t="s">
+      <c r="O107" s="3" t="s">
         <v>859</v>
       </c>
       <c r="P107" t="s">
@@ -17547,7 +17555,7 @@
         <v>4</v>
       </c>
       <c r="U107" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="V107" t="s">
         <v>4</v>
@@ -17599,7 +17607,7 @@
       <c r="N108" t="s">
         <v>4</v>
       </c>
-      <c r="O108" t="s">
+      <c r="O108" s="3" t="s">
         <v>864</v>
       </c>
       <c r="P108" t="s">
@@ -17670,7 +17678,7 @@
       <c r="N109" t="s">
         <v>4</v>
       </c>
-      <c r="O109" t="s">
+      <c r="O109" s="3" t="s">
         <v>871</v>
       </c>
       <c r="P109" t="s">
@@ -17689,7 +17697,7 @@
         <v>4</v>
       </c>
       <c r="U109" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="V109" t="s">
         <v>4</v>
@@ -17741,7 +17749,7 @@
       <c r="N110" t="s">
         <v>4</v>
       </c>
-      <c r="O110" t="s">
+      <c r="O110" s="3" t="s">
         <v>880</v>
       </c>
       <c r="P110" t="s">
@@ -17760,7 +17768,7 @@
         <v>4</v>
       </c>
       <c r="U110" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="V110" t="s">
         <v>4</v>
@@ -17812,7 +17820,7 @@
       <c r="N111" t="s">
         <v>4</v>
       </c>
-      <c r="O111" t="s">
+      <c r="O111" s="3" t="s">
         <v>889</v>
       </c>
       <c r="P111" t="s">
@@ -17831,7 +17839,7 @@
         <v>4</v>
       </c>
       <c r="U111" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="V111" t="s">
         <v>4</v>
@@ -17883,7 +17891,7 @@
       <c r="N112" t="s">
         <v>4</v>
       </c>
-      <c r="O112" t="s">
+      <c r="O112" s="3" t="s">
         <v>898</v>
       </c>
       <c r="P112" t="s">
@@ -17902,7 +17910,7 @@
         <v>4</v>
       </c>
       <c r="U112" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="V112" t="s">
         <v>4</v>
@@ -17954,7 +17962,7 @@
       <c r="N113" t="s">
         <v>4</v>
       </c>
-      <c r="O113" t="s">
+      <c r="O113" s="3" t="s">
         <v>907</v>
       </c>
       <c r="P113" t="s">
@@ -17973,7 +17981,7 @@
         <v>4</v>
       </c>
       <c r="U113" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="V113" t="s">
         <v>4</v>
@@ -18025,7 +18033,7 @@
       <c r="N114" t="s">
         <v>4</v>
       </c>
-      <c r="O114" t="s">
+      <c r="O114" s="3" t="s">
         <v>916</v>
       </c>
       <c r="P114" t="s">
@@ -18044,7 +18052,7 @@
         <v>4</v>
       </c>
       <c r="U114" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="V114" t="s">
         <v>4</v>
@@ -18096,7 +18104,7 @@
       <c r="N115" t="s">
         <v>4</v>
       </c>
-      <c r="O115" t="s">
+      <c r="O115" s="3" t="s">
         <v>925</v>
       </c>
       <c r="P115" t="s">
@@ -18115,7 +18123,7 @@
         <v>4</v>
       </c>
       <c r="U115" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="V115" t="s">
         <v>4</v>
@@ -18167,7 +18175,7 @@
       <c r="N116" t="s">
         <v>4</v>
       </c>
-      <c r="O116" t="s">
+      <c r="O116" s="3" t="s">
         <v>934</v>
       </c>
       <c r="P116" t="s">
@@ -18186,7 +18194,7 @@
         <v>4</v>
       </c>
       <c r="U116" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="V116" t="s">
         <v>4</v>
@@ -18238,7 +18246,7 @@
       <c r="N117" t="s">
         <v>4</v>
       </c>
-      <c r="O117" t="s">
+      <c r="O117" s="3" t="s">
         <v>943</v>
       </c>
       <c r="P117" t="s">
@@ -18257,7 +18265,7 @@
         <v>4</v>
       </c>
       <c r="U117" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="V117" t="s">
         <v>4</v>
@@ -18309,7 +18317,7 @@
       <c r="N118" t="s">
         <v>4</v>
       </c>
-      <c r="O118" t="s">
+      <c r="O118" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P118" t="s">
@@ -18328,7 +18336,7 @@
         <v>4</v>
       </c>
       <c r="U118" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="V118" t="s">
         <v>4</v>
@@ -18380,7 +18388,7 @@
       <c r="N119" t="s">
         <v>4</v>
       </c>
-      <c r="O119" t="s">
+      <c r="O119" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P119" t="s">
@@ -18399,7 +18407,7 @@
         <v>4</v>
       </c>
       <c r="U119" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="V119" t="s">
         <v>4</v>
@@ -18451,7 +18459,7 @@
       <c r="N120" t="s">
         <v>4</v>
       </c>
-      <c r="O120" t="s">
+      <c r="O120" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P120" t="s">
@@ -18470,7 +18478,7 @@
         <v>4</v>
       </c>
       <c r="U120" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="V120" t="s">
         <v>4</v>
@@ -18522,7 +18530,7 @@
       <c r="N121" t="s">
         <v>4</v>
       </c>
-      <c r="O121" t="s">
+      <c r="O121" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P121" t="s">
@@ -18541,7 +18549,7 @@
         <v>4</v>
       </c>
       <c r="U121" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="V121" t="s">
         <v>4</v>
@@ -18593,7 +18601,7 @@
       <c r="N122" t="s">
         <v>4</v>
       </c>
-      <c r="O122" t="s">
+      <c r="O122" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P122" t="s">
@@ -18612,7 +18620,7 @@
         <v>4</v>
       </c>
       <c r="U122" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="V122" t="s">
         <v>4</v>
@@ -18664,7 +18672,7 @@
       <c r="N123" t="s">
         <v>4</v>
       </c>
-      <c r="O123" t="s">
+      <c r="O123" s="3" t="s">
         <v>962</v>
       </c>
       <c r="P123" t="s">
@@ -18683,7 +18691,7 @@
         <v>4</v>
       </c>
       <c r="U123" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="V123" t="s">
         <v>4</v>
@@ -18735,7 +18743,7 @@
       <c r="N124" t="s">
         <v>4</v>
       </c>
-      <c r="O124" t="s">
+      <c r="O124" s="3" t="s">
         <v>968</v>
       </c>
       <c r="P124" t="s">
@@ -18806,7 +18814,7 @@
       <c r="N125" t="s">
         <v>4</v>
       </c>
-      <c r="O125" t="s">
+      <c r="O125" s="3" t="s">
         <v>976</v>
       </c>
       <c r="P125" t="s">
@@ -18877,7 +18885,7 @@
       <c r="N126" t="s">
         <v>4</v>
       </c>
-      <c r="O126" t="s">
+      <c r="O126" s="3" t="s">
         <v>986</v>
       </c>
       <c r="P126" t="s">
@@ -18896,7 +18904,7 @@
         <v>4</v>
       </c>
       <c r="U126" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="V126" t="s">
         <v>4</v>
@@ -18948,7 +18956,7 @@
       <c r="N127" t="s">
         <v>4</v>
       </c>
-      <c r="O127" t="s">
+      <c r="O127" s="3" t="s">
         <v>995</v>
       </c>
       <c r="P127" t="s">
@@ -18967,7 +18975,7 @@
         <v>4</v>
       </c>
       <c r="U127" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="V127" t="s">
         <v>4</v>
@@ -19019,7 +19027,7 @@
       <c r="N128" t="s">
         <v>4</v>
       </c>
-      <c r="O128" t="s">
+      <c r="O128" s="3" t="s">
         <v>1004</v>
       </c>
       <c r="P128" t="s">
@@ -19038,7 +19046,7 @@
         <v>4</v>
       </c>
       <c r="U128" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="V128" t="s">
         <v>4</v>
@@ -19090,7 +19098,7 @@
       <c r="N129" t="s">
         <v>4</v>
       </c>
-      <c r="O129" t="s">
+      <c r="O129" s="3" t="s">
         <v>1014</v>
       </c>
       <c r="P129" t="s">
@@ -19161,7 +19169,7 @@
       <c r="N130" t="s">
         <v>4</v>
       </c>
-      <c r="O130" t="s">
+      <c r="O130" s="3" t="s">
         <v>1025</v>
       </c>
       <c r="P130" t="s">
@@ -19232,7 +19240,7 @@
       <c r="N131" t="s">
         <v>4</v>
       </c>
-      <c r="O131" t="s">
+      <c r="O131" s="3" t="s">
         <v>1035</v>
       </c>
       <c r="P131" t="s">
@@ -19251,7 +19259,7 @@
         <v>4</v>
       </c>
       <c r="U131" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="V131" t="s">
         <v>4</v>
@@ -19303,7 +19311,7 @@
       <c r="N132" t="s">
         <v>4</v>
       </c>
-      <c r="O132" t="s">
+      <c r="O132" s="3" t="s">
         <v>1044</v>
       </c>
       <c r="P132" t="s">
@@ -19322,7 +19330,7 @@
         <v>4</v>
       </c>
       <c r="U132" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="V132" t="s">
         <v>4</v>
@@ -19374,7 +19382,7 @@
       <c r="N133" t="s">
         <v>4</v>
       </c>
-      <c r="O133" t="s">
+      <c r="O133" s="3" t="s">
         <v>1053</v>
       </c>
       <c r="P133" t="s">
@@ -19445,7 +19453,7 @@
       <c r="N134" t="s">
         <v>4</v>
       </c>
-      <c r="O134" t="s">
+      <c r="O134" s="3" t="s">
         <v>1064</v>
       </c>
       <c r="P134" t="s">
@@ -19516,7 +19524,7 @@
       <c r="N135" t="s">
         <v>4</v>
       </c>
-      <c r="O135" t="s">
+      <c r="O135" s="3" t="s">
         <v>1075</v>
       </c>
       <c r="P135" t="s">
@@ -19535,7 +19543,7 @@
         <v>4</v>
       </c>
       <c r="U135" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="V135" t="s">
         <v>4</v>
@@ -19587,7 +19595,7 @@
       <c r="N136" t="s">
         <v>4</v>
       </c>
-      <c r="O136" t="s">
+      <c r="O136" s="3" t="s">
         <v>1083</v>
       </c>
       <c r="P136" t="s">
@@ -19606,7 +19614,7 @@
         <v>4</v>
       </c>
       <c r="U136" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="V136" t="s">
         <v>4</v>
@@ -19658,7 +19666,7 @@
       <c r="N137" t="s">
         <v>4</v>
       </c>
-      <c r="O137" t="s">
+      <c r="O137" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P137" t="s">
@@ -19729,7 +19737,7 @@
       <c r="N138" t="s">
         <v>4</v>
       </c>
-      <c r="O138" t="s">
+      <c r="O138" s="3" t="s">
         <v>1094</v>
       </c>
       <c r="P138" t="s">
@@ -19748,7 +19756,7 @@
         <v>4</v>
       </c>
       <c r="U138" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="V138" t="s">
         <v>4</v>
@@ -19800,7 +19808,7 @@
       <c r="N139" t="s">
         <v>4</v>
       </c>
-      <c r="O139" t="s">
+      <c r="O139" s="3" t="s">
         <v>1101</v>
       </c>
       <c r="P139" t="s">
@@ -19819,7 +19827,7 @@
         <v>4</v>
       </c>
       <c r="U139" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="V139" t="s">
         <v>4</v>
@@ -19871,7 +19879,7 @@
       <c r="N140" t="s">
         <v>4</v>
       </c>
-      <c r="O140" t="s">
+      <c r="O140" s="3" t="s">
         <v>1108</v>
       </c>
       <c r="P140" t="s">
@@ -19890,7 +19898,7 @@
         <v>4</v>
       </c>
       <c r="U140" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="V140" t="s">
         <v>4</v>
@@ -19942,7 +19950,7 @@
       <c r="N141" t="s">
         <v>4</v>
       </c>
-      <c r="O141" t="s">
+      <c r="O141" s="3" t="s">
         <v>1112</v>
       </c>
       <c r="P141" t="s">
@@ -20013,7 +20021,7 @@
       <c r="N142" t="s">
         <v>4</v>
       </c>
-      <c r="O142" t="s">
+      <c r="O142" s="3" t="s">
         <v>1119</v>
       </c>
       <c r="P142" t="s">
@@ -20032,7 +20040,7 @@
         <v>4</v>
       </c>
       <c r="U142" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="V142" t="s">
         <v>4</v>
@@ -20084,7 +20092,7 @@
       <c r="N143" t="s">
         <v>4</v>
       </c>
-      <c r="O143" t="s">
+      <c r="O143" s="3" t="s">
         <v>1123</v>
       </c>
       <c r="P143" t="s">
@@ -20155,7 +20163,7 @@
       <c r="N144" t="s">
         <v>4</v>
       </c>
-      <c r="O144" t="s">
+      <c r="O144" s="3" t="s">
         <v>1130</v>
       </c>
       <c r="P144" t="s">
@@ -20174,7 +20182,7 @@
         <v>4</v>
       </c>
       <c r="U144" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="V144" t="s">
         <v>4</v>
@@ -20226,7 +20234,7 @@
       <c r="N145" t="s">
         <v>4</v>
       </c>
-      <c r="O145" t="s">
+      <c r="O145" s="3" t="s">
         <v>1134</v>
       </c>
       <c r="P145" t="s">
@@ -20297,7 +20305,7 @@
       <c r="N146" t="s">
         <v>4</v>
       </c>
-      <c r="O146" t="s">
+      <c r="O146" s="3" t="s">
         <v>1141</v>
       </c>
       <c r="P146" t="s">
@@ -20316,7 +20324,7 @@
         <v>4</v>
       </c>
       <c r="U146" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="V146" t="s">
         <v>4</v>
@@ -20368,7 +20376,7 @@
       <c r="N147" t="s">
         <v>4</v>
       </c>
-      <c r="O147" t="s">
+      <c r="O147" s="3" t="s">
         <v>1150</v>
       </c>
       <c r="P147" t="s">
@@ -20439,7 +20447,7 @@
       <c r="N148" t="s">
         <v>4</v>
       </c>
-      <c r="O148" t="s">
+      <c r="O148" s="3" t="s">
         <v>1160</v>
       </c>
       <c r="P148" t="s">
@@ -20458,7 +20466,7 @@
         <v>4</v>
       </c>
       <c r="U148" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="V148" t="s">
         <v>4</v>
@@ -20510,7 +20518,7 @@
       <c r="N149" t="s">
         <v>4</v>
       </c>
-      <c r="O149" t="s">
+      <c r="O149" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="P149" t="s">
@@ -20581,7 +20589,7 @@
       <c r="N150" t="s">
         <v>4</v>
       </c>
-      <c r="O150" t="s">
+      <c r="O150" s="3" t="s">
         <v>1172</v>
       </c>
       <c r="P150" t="s">
@@ -20600,7 +20608,7 @@
         <v>4</v>
       </c>
       <c r="U150" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="V150" t="s">
         <v>4</v>
@@ -20652,7 +20660,7 @@
       <c r="N151" t="s">
         <v>4</v>
       </c>
-      <c r="O151" t="s">
+      <c r="O151" s="3" t="s">
         <v>1176</v>
       </c>
       <c r="P151" t="s">
@@ -20723,7 +20731,7 @@
       <c r="N152" t="s">
         <v>4</v>
       </c>
-      <c r="O152" t="s">
+      <c r="O152" s="3" t="s">
         <v>1183</v>
       </c>
       <c r="P152" t="s">
@@ -20742,7 +20750,7 @@
         <v>4</v>
       </c>
       <c r="U152" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="V152" t="s">
         <v>4</v>
@@ -20794,7 +20802,7 @@
       <c r="N153" t="s">
         <v>4</v>
       </c>
-      <c r="O153" t="s">
+      <c r="O153" s="3" t="s">
         <v>1187</v>
       </c>
       <c r="P153" t="s">
@@ -20865,7 +20873,7 @@
       <c r="N154" t="s">
         <v>4</v>
       </c>
-      <c r="O154" t="s">
+      <c r="O154" s="3" t="s">
         <v>1194</v>
       </c>
       <c r="P154" t="s">
@@ -20884,7 +20892,7 @@
         <v>4</v>
       </c>
       <c r="U154" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="V154" t="s">
         <v>4</v>
@@ -20936,7 +20944,7 @@
       <c r="N155" t="s">
         <v>4</v>
       </c>
-      <c r="O155" t="s">
+      <c r="O155" s="3" t="s">
         <v>1198</v>
       </c>
       <c r="P155" t="s">
@@ -21007,7 +21015,7 @@
       <c r="N156" t="s">
         <v>4</v>
       </c>
-      <c r="O156" t="s">
+      <c r="O156" s="3" t="s">
         <v>1205</v>
       </c>
       <c r="P156" t="s">
@@ -21026,7 +21034,7 @@
         <v>4</v>
       </c>
       <c r="U156" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="V156" t="s">
         <v>4</v>
@@ -21078,7 +21086,7 @@
       <c r="N157" t="s">
         <v>4</v>
       </c>
-      <c r="O157" t="s">
+      <c r="O157" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="P157" t="s">
@@ -21149,7 +21157,7 @@
       <c r="N158" t="s">
         <v>4</v>
       </c>
-      <c r="O158" t="s">
+      <c r="O158" s="3" t="s">
         <v>1216</v>
       </c>
       <c r="P158" t="s">
@@ -21168,7 +21176,7 @@
         <v>4</v>
       </c>
       <c r="U158" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="V158" t="s">
         <v>4</v>
@@ -21220,7 +21228,7 @@
       <c r="N159" t="s">
         <v>4</v>
       </c>
-      <c r="O159" t="s">
+      <c r="O159" s="3" t="s">
         <v>1221</v>
       </c>
       <c r="P159" t="s">
@@ -21291,7 +21299,7 @@
       <c r="N160" t="s">
         <v>4</v>
       </c>
-      <c r="O160" t="s">
+      <c r="O160" s="3" t="s">
         <v>1233</v>
       </c>
       <c r="P160" t="s">
@@ -21362,7 +21370,7 @@
       <c r="N161" t="s">
         <v>4</v>
       </c>
-      <c r="O161" t="s">
+      <c r="O161" s="3" t="s">
         <v>1244</v>
       </c>
       <c r="P161" t="s">
@@ -21433,7 +21441,7 @@
       <c r="N162" t="s">
         <v>4</v>
       </c>
-      <c r="O162" t="s">
+      <c r="O162" s="3" t="s">
         <v>1253</v>
       </c>
       <c r="P162" t="s">
@@ -21504,7 +21512,7 @@
       <c r="N163" t="s">
         <v>4</v>
       </c>
-      <c r="O163" t="s">
+      <c r="O163" s="3" t="s">
         <v>1264</v>
       </c>
       <c r="P163" t="s">
@@ -21575,7 +21583,7 @@
       <c r="N164" t="s">
         <v>4</v>
       </c>
-      <c r="O164" t="s">
+      <c r="O164" s="3" t="s">
         <v>1273</v>
       </c>
       <c r="P164" t="s">
@@ -21646,7 +21654,7 @@
       <c r="N165" t="s">
         <v>4</v>
       </c>
-      <c r="O165" t="s">
+      <c r="O165" s="3" t="s">
         <v>1284</v>
       </c>
       <c r="P165" t="s">
@@ -21717,7 +21725,7 @@
       <c r="N166" t="s">
         <v>4</v>
       </c>
-      <c r="O166" t="s">
+      <c r="O166" s="3" t="s">
         <v>1293</v>
       </c>
       <c r="P166" t="s">
@@ -21736,7 +21744,7 @@
         <v>4</v>
       </c>
       <c r="U166" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="V166" t="s">
         <v>4</v>
@@ -21788,7 +21796,7 @@
       <c r="N167" t="s">
         <v>4</v>
       </c>
-      <c r="O167" t="s">
+      <c r="O167" s="3" t="s">
         <v>1303</v>
       </c>
       <c r="P167" t="s">
@@ -21859,7 +21867,7 @@
       <c r="N168" t="s">
         <v>4</v>
       </c>
-      <c r="O168" t="s">
+      <c r="O168" s="3" t="s">
         <v>1312</v>
       </c>
       <c r="P168" t="s">
@@ -21930,7 +21938,7 @@
       <c r="N169" t="s">
         <v>4</v>
       </c>
-      <c r="O169" t="s">
+      <c r="O169" s="3" t="s">
         <v>1323</v>
       </c>
       <c r="P169" t="s">
@@ -22001,7 +22009,7 @@
       <c r="N170" t="s">
         <v>4</v>
       </c>
-      <c r="O170" t="s">
+      <c r="O170" s="3" t="s">
         <v>1329</v>
       </c>
       <c r="P170" t="s">
@@ -22072,7 +22080,7 @@
       <c r="N171" t="s">
         <v>4</v>
       </c>
-      <c r="O171" t="s">
+      <c r="O171" s="3" t="s">
         <v>162</v>
       </c>
       <c r="P171" t="s">
@@ -22143,7 +22151,7 @@
       <c r="N172" t="s">
         <v>4</v>
       </c>
-      <c r="O172" t="s">
+      <c r="O172" s="3" t="s">
         <v>1337</v>
       </c>
       <c r="P172" t="s">
@@ -22214,7 +22222,7 @@
       <c r="N173" t="s">
         <v>4</v>
       </c>
-      <c r="O173" t="s">
+      <c r="O173" s="3" t="s">
         <v>1348</v>
       </c>
       <c r="P173" t="s">
@@ -22285,7 +22293,7 @@
       <c r="N174" t="s">
         <v>4</v>
       </c>
-      <c r="O174" t="s">
+      <c r="O174" s="3" t="s">
         <v>171</v>
       </c>
       <c r="P174" t="s">
@@ -22356,7 +22364,7 @@
       <c r="N175" t="s">
         <v>4</v>
       </c>
-      <c r="O175" t="s">
+      <c r="O175" s="3" t="s">
         <v>1360</v>
       </c>
       <c r="P175" t="s">
@@ -22427,7 +22435,7 @@
       <c r="N176" t="s">
         <v>4</v>
       </c>
-      <c r="O176" t="s">
+      <c r="O176" s="3" t="s">
         <v>272</v>
       </c>
       <c r="P176" t="s">
@@ -22446,7 +22454,7 @@
         <v>4</v>
       </c>
       <c r="U176" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="V176" t="s">
         <v>4</v>
@@ -22498,7 +22506,7 @@
       <c r="N177" t="s">
         <v>4</v>
       </c>
-      <c r="O177" t="s">
+      <c r="O177" s="3" t="s">
         <v>281</v>
       </c>
       <c r="P177" t="s">
@@ -22517,7 +22525,7 @@
         <v>4</v>
       </c>
       <c r="U177" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="V177" t="s">
         <v>4</v>
@@ -22569,7 +22577,7 @@
       <c r="N178" t="s">
         <v>4</v>
       </c>
-      <c r="O178" t="s">
+      <c r="O178" s="3" t="s">
         <v>192</v>
       </c>
       <c r="P178" t="s">
@@ -22640,7 +22648,7 @@
       <c r="N179" t="s">
         <v>4</v>
       </c>
-      <c r="O179" t="s">
+      <c r="O179" s="3" t="s">
         <v>1375</v>
       </c>
       <c r="P179" t="s">
@@ -22711,7 +22719,7 @@
       <c r="N180" t="s">
         <v>4</v>
       </c>
-      <c r="O180" t="s">
+      <c r="O180" s="3" t="s">
         <v>203</v>
       </c>
       <c r="P180" t="s">
@@ -22782,7 +22790,7 @@
       <c r="N181" t="s">
         <v>4</v>
       </c>
-      <c r="O181" t="s">
+      <c r="O181" s="3" t="s">
         <v>213</v>
       </c>
       <c r="P181" t="s">
@@ -22801,7 +22809,7 @@
         <v>4</v>
       </c>
       <c r="U181" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="V181" t="s">
         <v>4</v>
@@ -22853,7 +22861,7 @@
       <c r="N182" t="s">
         <v>4</v>
       </c>
-      <c r="O182" t="s">
+      <c r="O182" s="3" t="s">
         <v>234</v>
       </c>
       <c r="P182" t="s">
@@ -22872,7 +22880,7 @@
         <v>4</v>
       </c>
       <c r="U182" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="V182" t="s">
         <v>4</v>
@@ -22924,7 +22932,7 @@
       <c r="N183" t="s">
         <v>4</v>
       </c>
-      <c r="O183" t="s">
+      <c r="O183" s="3" t="s">
         <v>245</v>
       </c>
       <c r="P183" t="s">
@@ -22943,7 +22951,7 @@
         <v>4</v>
       </c>
       <c r="U183" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="V183" t="s">
         <v>4</v>
@@ -22995,7 +23003,7 @@
       <c r="N184" t="s">
         <v>4</v>
       </c>
-      <c r="O184" t="s">
+      <c r="O184" s="3" t="s">
         <v>255</v>
       </c>
       <c r="P184" t="s">
@@ -23014,7 +23022,7 @@
         <v>4</v>
       </c>
       <c r="U184" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="V184" t="s">
         <v>4</v>
@@ -23066,7 +23074,7 @@
       <c r="N185" t="s">
         <v>4</v>
       </c>
-      <c r="O185" t="s">
+      <c r="O185" s="3" t="s">
         <v>1398</v>
       </c>
       <c r="P185" t="s">
@@ -23085,7 +23093,7 @@
         <v>4</v>
       </c>
       <c r="U185" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="V185" t="s">
         <v>4</v>
@@ -23137,7 +23145,7 @@
       <c r="N186" t="s">
         <v>4</v>
       </c>
-      <c r="O186" t="s">
+      <c r="O186" s="3" t="s">
         <v>1409</v>
       </c>
       <c r="P186" t="s">
@@ -23208,7 +23216,7 @@
       <c r="N187" t="s">
         <v>4</v>
       </c>
-      <c r="O187" t="s">
+      <c r="O187" s="3" t="s">
         <v>1419</v>
       </c>
       <c r="P187" t="s">
@@ -23227,7 +23235,7 @@
         <v>4</v>
       </c>
       <c r="U187" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="V187" t="s">
         <v>4</v>
@@ -23279,7 +23287,7 @@
       <c r="N188" t="s">
         <v>4</v>
       </c>
-      <c r="O188" t="s">
+      <c r="O188" s="3" t="s">
         <v>263</v>
       </c>
       <c r="P188" t="s">
@@ -23350,7 +23358,7 @@
       <c r="N189" t="s">
         <v>4</v>
       </c>
-      <c r="O189" t="s">
+      <c r="O189" s="3" t="s">
         <v>1432</v>
       </c>
       <c r="P189" t="s">
@@ -23369,7 +23377,7 @@
         <v>4</v>
       </c>
       <c r="U189" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="V189" t="s">
         <v>4</v>
@@ -23421,7 +23429,7 @@
       <c r="N190" t="s">
         <v>4</v>
       </c>
-      <c r="O190" t="s">
+      <c r="O190" s="3" t="s">
         <v>1442</v>
       </c>
       <c r="P190" t="s">
@@ -23492,7 +23500,7 @@
       <c r="N191" t="s">
         <v>4</v>
       </c>
-      <c r="O191" t="s">
+      <c r="O191" s="3" t="s">
         <v>1452</v>
       </c>
       <c r="P191" t="s">
@@ -23563,7 +23571,7 @@
       <c r="N192" t="s">
         <v>4</v>
       </c>
-      <c r="O192" t="s">
+      <c r="O192" s="3" t="s">
         <v>1461</v>
       </c>
       <c r="P192" t="s">
@@ -23582,7 +23590,7 @@
         <v>4</v>
       </c>
       <c r="U192" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="V192" t="s">
         <v>4</v>
@@ -23634,7 +23642,7 @@
       <c r="N193" t="s">
         <v>4</v>
       </c>
-      <c r="O193" t="s">
+      <c r="O193" s="3" t="s">
         <v>1471</v>
       </c>
       <c r="P193" t="s">
@@ -23705,7 +23713,7 @@
       <c r="N194" t="s">
         <v>4</v>
       </c>
-      <c r="O194" t="s">
+      <c r="O194" s="3" t="s">
         <v>1481</v>
       </c>
       <c r="P194" t="s">
@@ -23776,7 +23784,7 @@
       <c r="N195" t="s">
         <v>4</v>
       </c>
-      <c r="O195" t="s">
+      <c r="O195" s="3" t="s">
         <v>1486</v>
       </c>
       <c r="P195" t="s">
@@ -23795,7 +23803,7 @@
         <v>4</v>
       </c>
       <c r="U195" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="V195" t="s">
         <v>4</v>
@@ -23847,7 +23855,7 @@
       <c r="N196" t="s">
         <v>4</v>
       </c>
-      <c r="O196" t="s">
+      <c r="O196" s="3" t="s">
         <v>1493</v>
       </c>
       <c r="P196" t="s">
@@ -23918,7 +23926,7 @@
       <c r="N197" t="s">
         <v>4</v>
       </c>
-      <c r="O197" t="s">
+      <c r="O197" s="3" t="s">
         <v>1501</v>
       </c>
       <c r="P197" t="s">
@@ -23989,7 +23997,7 @@
       <c r="N198" t="s">
         <v>4</v>
       </c>
-      <c r="O198" t="s">
+      <c r="O198" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P198" t="s">
@@ -24060,7 +24068,7 @@
       <c r="N199" t="s">
         <v>4</v>
       </c>
-      <c r="O199" t="s">
+      <c r="O199" s="3" t="s">
         <v>1510</v>
       </c>
       <c r="P199" t="s">
@@ -24079,7 +24087,7 @@
         <v>4</v>
       </c>
       <c r="U199" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="V199" t="s">
         <v>4</v>
@@ -24131,7 +24139,7 @@
       <c r="N200" t="s">
         <v>4</v>
       </c>
-      <c r="O200" t="s">
+      <c r="O200" s="3" t="s">
         <v>1515</v>
       </c>
       <c r="P200" t="s">
@@ -24202,7 +24210,7 @@
       <c r="N201" t="s">
         <v>4</v>
       </c>
-      <c r="O201" t="s">
+      <c r="O201" s="3" t="s">
         <v>1519</v>
       </c>
       <c r="P201" t="s">
@@ -24273,7 +24281,7 @@
       <c r="N202" t="s">
         <v>4</v>
       </c>
-      <c r="O202" t="s">
+      <c r="O202" s="3" t="s">
         <v>1527</v>
       </c>
       <c r="P202" t="s">
@@ -24344,7 +24352,7 @@
       <c r="N203" t="s">
         <v>4</v>
       </c>
-      <c r="O203" t="s">
+      <c r="O203" s="3" t="s">
         <v>1538</v>
       </c>
       <c r="P203" t="s">
@@ -24415,7 +24423,7 @@
       <c r="N204" t="s">
         <v>4</v>
       </c>
-      <c r="O204" t="s">
+      <c r="O204" s="3" t="s">
         <v>1549</v>
       </c>
       <c r="P204" t="s">
@@ -24486,7 +24494,7 @@
       <c r="N205" t="s">
         <v>4</v>
       </c>
-      <c r="O205" t="s">
+      <c r="O205" s="3" t="s">
         <v>1560</v>
       </c>
       <c r="P205" t="s">
@@ -24505,7 +24513,7 @@
         <v>4</v>
       </c>
       <c r="U205" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="V205" t="s">
         <v>4</v>
@@ -24557,7 +24565,7 @@
       <c r="N206" t="s">
         <v>4</v>
       </c>
-      <c r="O206" t="s">
+      <c r="O206" s="3" t="s">
         <v>1564</v>
       </c>
       <c r="P206" t="s">
@@ -24628,7 +24636,7 @@
       <c r="N207" t="s">
         <v>4</v>
       </c>
-      <c r="O207" t="s">
+      <c r="O207" s="3" t="s">
         <v>1571</v>
       </c>
       <c r="P207" t="s">
@@ -24647,7 +24655,7 @@
         <v>4</v>
       </c>
       <c r="U207" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="V207" t="s">
         <v>4</v>
@@ -24699,7 +24707,7 @@
       <c r="N208" t="s">
         <v>4</v>
       </c>
-      <c r="O208" t="s">
+      <c r="O208" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="P208" t="s">
@@ -24770,7 +24778,7 @@
       <c r="N209" t="s">
         <v>4</v>
       </c>
-      <c r="O209" t="s">
+      <c r="O209" s="3" t="s">
         <v>279</v>
       </c>
       <c r="P209" t="s">
@@ -24789,7 +24797,7 @@
         <v>4</v>
       </c>
       <c r="U209" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="V209" t="s">
         <v>4</v>
@@ -24841,7 +24849,7 @@
       <c r="N210" t="s">
         <v>4</v>
       </c>
-      <c r="O210" t="s">
+      <c r="O210" s="3" t="s">
         <v>1101</v>
       </c>
       <c r="P210" t="s">
@@ -24860,7 +24868,7 @@
         <v>4</v>
       </c>
       <c r="U210" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="V210" t="s">
         <v>4</v>
@@ -24912,7 +24920,7 @@
       <c r="N211" t="s">
         <v>4</v>
       </c>
-      <c r="O211" t="s">
+      <c r="O211" s="3" t="s">
         <v>1592</v>
       </c>
       <c r="P211" t="s">
@@ -24931,7 +24939,7 @@
         <v>4</v>
       </c>
       <c r="U211" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="V211" t="s">
         <v>4</v>
@@ -24983,7 +24991,7 @@
       <c r="N212" t="s">
         <v>4</v>
       </c>
-      <c r="O212" t="s">
+      <c r="O212" s="3" t="s">
         <v>1600</v>
       </c>
       <c r="P212" t="s">
@@ -25002,7 +25010,7 @@
         <v>4</v>
       </c>
       <c r="U212" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="V212" t="s">
         <v>4</v>
@@ -25054,7 +25062,7 @@
       <c r="N213" t="s">
         <v>4</v>
       </c>
-      <c r="O213" t="s">
+      <c r="O213" s="3" t="s">
         <v>1303</v>
       </c>
       <c r="P213" t="s">
@@ -25125,7 +25133,7 @@
       <c r="N214" t="s">
         <v>4</v>
       </c>
-      <c r="O214" t="s">
+      <c r="O214" s="3" t="s">
         <v>1303</v>
       </c>
       <c r="P214" t="s">
@@ -25196,7 +25204,7 @@
       <c r="N215" t="s">
         <v>4</v>
       </c>
-      <c r="O215" t="s">
+      <c r="O215" s="3" t="s">
         <v>1616</v>
       </c>
       <c r="P215" t="s">
@@ -25215,7 +25223,7 @@
         <v>4</v>
       </c>
       <c r="U215" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="V215" t="s">
         <v>4</v>
@@ -25267,7 +25275,7 @@
       <c r="N216" t="s">
         <v>4</v>
       </c>
-      <c r="O216" t="s">
+      <c r="O216" s="3" t="s">
         <v>1625</v>
       </c>
       <c r="P216" t="s">
@@ -25338,7 +25346,7 @@
       <c r="N217" t="s">
         <v>4</v>
       </c>
-      <c r="O217" t="s">
+      <c r="O217" s="3" t="s">
         <v>1616</v>
       </c>
       <c r="P217" t="s">
@@ -25357,7 +25365,7 @@
         <v>4</v>
       </c>
       <c r="U217" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="V217" t="s">
         <v>4</v>
@@ -25409,7 +25417,7 @@
       <c r="N218" t="s">
         <v>4</v>
       </c>
-      <c r="O218" t="s">
+      <c r="O218" s="3" t="s">
         <v>1639</v>
       </c>
       <c r="P218" t="s">
@@ -25428,7 +25436,7 @@
         <v>4</v>
       </c>
       <c r="U218" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="V218" t="s">
         <v>4</v>
@@ -25480,7 +25488,7 @@
       <c r="N219" t="s">
         <v>4</v>
       </c>
-      <c r="O219" t="s">
+      <c r="O219" s="3" t="s">
         <v>1221</v>
       </c>
       <c r="P219" t="s">
@@ -25551,7 +25559,7 @@
       <c r="N220" t="s">
         <v>4</v>
       </c>
-      <c r="O220" t="s">
+      <c r="O220" s="3" t="s">
         <v>1233</v>
       </c>
       <c r="P220" t="s">
@@ -25622,7 +25630,7 @@
       <c r="N221" t="s">
         <v>4</v>
       </c>
-      <c r="O221" t="s">
+      <c r="O221" s="3" t="s">
         <v>1651</v>
       </c>
       <c r="P221" t="s">
@@ -25693,7 +25701,7 @@
       <c r="N222" t="s">
         <v>4</v>
       </c>
-      <c r="O222" t="s">
+      <c r="O222" s="3" t="s">
         <v>1651</v>
       </c>
       <c r="P222" t="s">
@@ -25764,7 +25772,7 @@
       <c r="N223" t="s">
         <v>4</v>
       </c>
-      <c r="O223" t="s">
+      <c r="O223" s="3" t="s">
         <v>1665</v>
       </c>
       <c r="P223" t="s">
@@ -25835,7 +25843,7 @@
       <c r="N224" t="s">
         <v>4</v>
       </c>
-      <c r="O224" t="s">
+      <c r="O224" s="3" t="s">
         <v>1671</v>
       </c>
       <c r="P224" t="s">
@@ -25906,7 +25914,7 @@
       <c r="N225" t="s">
         <v>4</v>
       </c>
-      <c r="O225" t="s">
+      <c r="O225" s="3" t="s">
         <v>1674</v>
       </c>
       <c r="P225" t="s">
@@ -25977,7 +25985,7 @@
       <c r="N226" t="s">
         <v>4</v>
       </c>
-      <c r="O226" t="s">
+      <c r="O226" s="3" t="s">
         <v>1680</v>
       </c>
       <c r="P226" t="s">
@@ -26048,7 +26056,7 @@
       <c r="N227" t="s">
         <v>4</v>
       </c>
-      <c r="O227" t="s">
+      <c r="O227" s="3" t="s">
         <v>1688</v>
       </c>
       <c r="P227" t="s">
@@ -26119,7 +26127,7 @@
       <c r="N228" t="s">
         <v>4</v>
       </c>
-      <c r="O228" t="s">
+      <c r="O228" s="3" t="s">
         <v>1697</v>
       </c>
       <c r="P228" t="s">
@@ -26190,7 +26198,7 @@
       <c r="N229" t="s">
         <v>4</v>
       </c>
-      <c r="O229" t="s">
+      <c r="O229" s="3" t="s">
         <v>1706</v>
       </c>
       <c r="P229" t="s">
@@ -26261,7 +26269,7 @@
       <c r="N230" t="s">
         <v>4</v>
       </c>
-      <c r="O230" t="s">
+      <c r="O230" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P230" t="s">
@@ -26332,7 +26340,7 @@
       <c r="N231" t="s">
         <v>4</v>
       </c>
-      <c r="O231" t="s">
+      <c r="O231" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P231" t="s">
@@ -26403,7 +26411,7 @@
       <c r="N232" t="s">
         <v>4</v>
       </c>
-      <c r="O232" t="s">
+      <c r="O232" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P232" t="s">
@@ -26474,7 +26482,7 @@
       <c r="N233" t="s">
         <v>4</v>
       </c>
-      <c r="O233" t="s">
+      <c r="O233" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P233" t="s">
@@ -26545,7 +26553,7 @@
       <c r="N234" t="s">
         <v>4</v>
       </c>
-      <c r="O234" t="s">
+      <c r="O234" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P234" t="s">
@@ -26616,7 +26624,7 @@
       <c r="N235" t="s">
         <v>4</v>
       </c>
-      <c r="O235" t="s">
+      <c r="O235" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P235" t="s">
@@ -26687,7 +26695,7 @@
       <c r="N236" t="s">
         <v>4</v>
       </c>
-      <c r="O236" t="s">
+      <c r="O236" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P236" t="s">
@@ -26758,7 +26766,7 @@
       <c r="N237" t="s">
         <v>4</v>
       </c>
-      <c r="O237" t="s">
+      <c r="O237" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P237" t="s">
@@ -26829,7 +26837,7 @@
       <c r="N238" t="s">
         <v>4</v>
       </c>
-      <c r="O238" t="s">
+      <c r="O238" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P238" t="s">
@@ -26900,7 +26908,7 @@
       <c r="N239" t="s">
         <v>4</v>
       </c>
-      <c r="O239" t="s">
+      <c r="O239" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P239" t="s">
@@ -26971,7 +26979,7 @@
       <c r="N240" t="s">
         <v>4</v>
       </c>
-      <c r="O240" t="s">
+      <c r="O240" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P240" t="s">
@@ -27042,7 +27050,7 @@
       <c r="N241" t="s">
         <v>4</v>
       </c>
-      <c r="O241" t="s">
+      <c r="O241" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P241" t="s">
@@ -27113,7 +27121,7 @@
       <c r="N242" t="s">
         <v>4</v>
       </c>
-      <c r="O242" t="s">
+      <c r="O242" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P242" t="s">
@@ -27184,7 +27192,7 @@
       <c r="N243" t="s">
         <v>4</v>
       </c>
-      <c r="O243" t="s">
+      <c r="O243" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P243" t="s">
@@ -27255,7 +27263,7 @@
       <c r="N244" t="s">
         <v>4</v>
       </c>
-      <c r="O244" t="s">
+      <c r="O244" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P244" t="s">
@@ -27326,7 +27334,7 @@
       <c r="N245" t="s">
         <v>4</v>
       </c>
-      <c r="O245" t="s">
+      <c r="O245" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P245" t="s">
@@ -27397,7 +27405,7 @@
       <c r="N246" t="s">
         <v>4</v>
       </c>
-      <c r="O246" t="s">
+      <c r="O246" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P246" t="s">
@@ -27416,7 +27424,7 @@
         <v>4</v>
       </c>
       <c r="U246" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="V246" t="s">
         <v>4</v>
@@ -27468,7 +27476,7 @@
       <c r="N247" t="s">
         <v>4</v>
       </c>
-      <c r="O247" t="s">
+      <c r="O247" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P247" t="s">
@@ -27487,7 +27495,7 @@
         <v>4</v>
       </c>
       <c r="U247" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="V247" t="s">
         <v>4</v>
@@ -27539,7 +27547,7 @@
       <c r="N248" t="s">
         <v>4</v>
       </c>
-      <c r="O248" t="s">
+      <c r="O248" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P248" t="s">
@@ -27558,7 +27566,7 @@
         <v>4</v>
       </c>
       <c r="U248" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="V248" t="s">
         <v>4</v>
@@ -27610,7 +27618,7 @@
       <c r="N249" t="s">
         <v>4</v>
       </c>
-      <c r="O249" t="s">
+      <c r="O249" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P249" t="s">
@@ -27629,7 +27637,7 @@
         <v>4</v>
       </c>
       <c r="U249" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="V249" t="s">
         <v>4</v>
@@ -27681,7 +27689,7 @@
       <c r="N250" t="s">
         <v>4</v>
       </c>
-      <c r="O250" t="s">
+      <c r="O250" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P250" t="s">
@@ -27700,7 +27708,7 @@
         <v>4</v>
       </c>
       <c r="U250" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="V250" t="s">
         <v>4</v>
@@ -27752,7 +27760,7 @@
       <c r="N251" t="s">
         <v>4</v>
       </c>
-      <c r="O251" t="s">
+      <c r="O251" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P251" t="s">
@@ -27771,7 +27779,7 @@
         <v>4</v>
       </c>
       <c r="U251" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="V251" t="s">
         <v>4</v>
@@ -27823,7 +27831,7 @@
       <c r="N252" t="s">
         <v>4</v>
       </c>
-      <c r="O252" t="s">
+      <c r="O252" s="3" t="s">
         <v>1743</v>
       </c>
       <c r="P252" t="s">
@@ -27842,7 +27850,7 @@
         <v>4</v>
       </c>
       <c r="U252" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="V252" t="s">
         <v>4</v>
@@ -27894,7 +27902,7 @@
       <c r="N253" t="s">
         <v>4</v>
       </c>
-      <c r="O253" t="s">
+      <c r="O253" s="3" t="s">
         <v>1751</v>
       </c>
       <c r="P253" t="s">
@@ -27913,7 +27921,7 @@
         <v>4</v>
       </c>
       <c r="U253" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="V253" t="s">
         <v>4</v>
@@ -27965,7 +27973,7 @@
       <c r="N254" t="s">
         <v>4</v>
       </c>
-      <c r="O254" t="s">
+      <c r="O254" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P254" t="s">
@@ -28036,7 +28044,7 @@
       <c r="N255" t="s">
         <v>4</v>
       </c>
-      <c r="O255" t="s">
+      <c r="O255" s="3" t="s">
         <v>1760</v>
       </c>
       <c r="P255" t="s">
@@ -28055,7 +28063,7 @@
         <v>4</v>
       </c>
       <c r="U255" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="V255" t="s">
         <v>4</v>
@@ -28107,7 +28115,7 @@
       <c r="N256" t="s">
         <v>4</v>
       </c>
-      <c r="O256" t="s">
+      <c r="O256" s="3" t="s">
         <v>1768</v>
       </c>
       <c r="P256" t="s">
@@ -28126,7 +28134,7 @@
         <v>4</v>
       </c>
       <c r="U256" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="V256" t="s">
         <v>4</v>
@@ -28178,7 +28186,7 @@
       <c r="N257" t="s">
         <v>4</v>
       </c>
-      <c r="O257" t="s">
+      <c r="O257" s="3" t="s">
         <v>1776</v>
       </c>
       <c r="P257" t="s">
@@ -28197,7 +28205,7 @@
         <v>4</v>
       </c>
       <c r="U257" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="V257" t="s">
         <v>4</v>
@@ -28249,7 +28257,7 @@
       <c r="N258" t="s">
         <v>4</v>
       </c>
-      <c r="O258" t="s">
+      <c r="O258" s="3" t="s">
         <v>1784</v>
       </c>
       <c r="P258" t="s">
@@ -28268,7 +28276,7 @@
         <v>4</v>
       </c>
       <c r="U258" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="V258" t="s">
         <v>4</v>
@@ -28320,7 +28328,7 @@
       <c r="N259" t="s">
         <v>4</v>
       </c>
-      <c r="O259" t="s">
+      <c r="O259" s="3" t="s">
         <v>1792</v>
       </c>
       <c r="P259" t="s">
@@ -28339,7 +28347,7 @@
         <v>4</v>
       </c>
       <c r="U259" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="V259" t="s">
         <v>4</v>
@@ -28391,7 +28399,7 @@
       <c r="N260" t="s">
         <v>4</v>
       </c>
-      <c r="O260" t="s">
+      <c r="O260" s="3" t="s">
         <v>1796</v>
       </c>
       <c r="P260" t="s">
@@ -28410,7 +28418,7 @@
         <v>4</v>
       </c>
       <c r="U260" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="V260" t="s">
         <v>4</v>
@@ -28462,7 +28470,7 @@
       <c r="N261" t="s">
         <v>4</v>
       </c>
-      <c r="O261" t="s">
+      <c r="O261" s="3" t="s">
         <v>1798</v>
       </c>
       <c r="P261" t="s">
@@ -28481,7 +28489,7 @@
         <v>4</v>
       </c>
       <c r="U261" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="V261" t="s">
         <v>4</v>
@@ -28533,7 +28541,7 @@
       <c r="N262" t="s">
         <v>4</v>
       </c>
-      <c r="O262" t="s">
+      <c r="O262" s="3" t="s">
         <v>1806</v>
       </c>
       <c r="P262" t="s">
@@ -28552,7 +28560,7 @@
         <v>4</v>
       </c>
       <c r="U262" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="V262" t="s">
         <v>4</v>
@@ -28604,7 +28612,7 @@
       <c r="N263" t="s">
         <v>4</v>
       </c>
-      <c r="O263" t="s">
+      <c r="O263" s="3" t="s">
         <v>1814</v>
       </c>
       <c r="P263" t="s">
@@ -28623,7 +28631,7 @@
         <v>4</v>
       </c>
       <c r="U263" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="V263" t="s">
         <v>4</v>
@@ -28675,7 +28683,7 @@
       <c r="N264" t="s">
         <v>4</v>
       </c>
-      <c r="O264" t="s">
+      <c r="O264" s="3" t="s">
         <v>1818</v>
       </c>
       <c r="P264" t="s">
@@ -28746,7 +28754,7 @@
       <c r="N265" t="s">
         <v>4</v>
       </c>
-      <c r="O265" t="s">
+      <c r="O265" s="3" t="s">
         <v>1818</v>
       </c>
       <c r="P265" t="s">
@@ -28817,7 +28825,7 @@
       <c r="N266" t="s">
         <v>4</v>
       </c>
-      <c r="O266" t="s">
+      <c r="O266" s="3" t="s">
         <v>1821</v>
       </c>
       <c r="P266" t="s">
@@ -28888,7 +28896,7 @@
       <c r="N267" t="s">
         <v>4</v>
       </c>
-      <c r="O267" t="s">
+      <c r="O267" s="3" t="s">
         <v>1823</v>
       </c>
       <c r="P267" t="s">
@@ -28959,7 +28967,7 @@
       <c r="N268" t="s">
         <v>4</v>
       </c>
-      <c r="O268" t="s">
+      <c r="O268" s="3" t="s">
         <v>1825</v>
       </c>
       <c r="P268" t="s">
@@ -29030,7 +29038,7 @@
       <c r="N269" t="s">
         <v>4</v>
       </c>
-      <c r="O269" t="s">
+      <c r="O269" s="3" t="s">
         <v>1827</v>
       </c>
       <c r="P269" t="s">
@@ -29101,7 +29109,7 @@
       <c r="N270" t="s">
         <v>4</v>
       </c>
-      <c r="O270" t="s">
+      <c r="O270" s="3" t="s">
         <v>1829</v>
       </c>
       <c r="P270" t="s">
@@ -29172,7 +29180,7 @@
       <c r="N271" t="s">
         <v>4</v>
       </c>
-      <c r="O271" t="s">
+      <c r="O271" s="3" t="s">
         <v>1831</v>
       </c>
       <c r="P271" t="s">
@@ -29243,7 +29251,7 @@
       <c r="N272" t="s">
         <v>4</v>
       </c>
-      <c r="O272" t="s">
+      <c r="O272" s="3" t="s">
         <v>1835</v>
       </c>
       <c r="P272" t="s">
@@ -29262,7 +29270,7 @@
         <v>4</v>
       </c>
       <c r="U272" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="V272" t="s">
         <v>4</v>
@@ -29314,7 +29322,7 @@
       <c r="N273" t="s">
         <v>4</v>
       </c>
-      <c r="O273" t="s">
+      <c r="O273" s="3" t="s">
         <v>1842</v>
       </c>
       <c r="P273" t="s">
@@ -29333,7 +29341,7 @@
         <v>4</v>
       </c>
       <c r="U273" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="V273" t="s">
         <v>4</v>
@@ -29385,7 +29393,7 @@
       <c r="N274" t="s">
         <v>4</v>
       </c>
-      <c r="O274" t="s">
+      <c r="O274" s="3" t="s">
         <v>1850</v>
       </c>
       <c r="P274" t="s">
@@ -29404,7 +29412,7 @@
         <v>4</v>
       </c>
       <c r="U274" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="V274" t="s">
         <v>4</v>
@@ -29456,7 +29464,7 @@
       <c r="N275" t="s">
         <v>4</v>
       </c>
-      <c r="O275" t="s">
+      <c r="O275" s="3" t="s">
         <v>1471</v>
       </c>
       <c r="P275" t="s">
@@ -29527,7 +29535,7 @@
       <c r="N276" t="s">
         <v>4</v>
       </c>
-      <c r="O276" t="s">
+      <c r="O276" s="3" t="s">
         <v>1859</v>
       </c>
       <c r="P276" t="s">
@@ -29546,7 +29554,7 @@
         <v>4</v>
       </c>
       <c r="U276" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="V276" t="s">
         <v>4</v>
@@ -29598,7 +29606,7 @@
       <c r="N277" t="s">
         <v>4</v>
       </c>
-      <c r="O277" t="s">
+      <c r="O277" s="3" t="s">
         <v>1865</v>
       </c>
       <c r="P277" t="s">
@@ -29617,7 +29625,7 @@
         <v>4</v>
       </c>
       <c r="U277" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="V277" t="s">
         <v>4</v>
@@ -29669,7 +29677,7 @@
       <c r="N278" t="s">
         <v>4</v>
       </c>
-      <c r="O278" t="s">
+      <c r="O278" s="3" t="s">
         <v>1870</v>
       </c>
       <c r="P278" t="s">
@@ -29688,7 +29696,7 @@
         <v>4</v>
       </c>
       <c r="U278" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="V278" t="s">
         <v>4</v>
@@ -29740,7 +29748,7 @@
       <c r="N279" t="s">
         <v>4</v>
       </c>
-      <c r="O279" t="s">
+      <c r="O279" s="3" t="s">
         <v>1879</v>
       </c>
       <c r="P279" t="s">
@@ -29759,7 +29767,7 @@
         <v>4</v>
       </c>
       <c r="U279" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="V279" t="s">
         <v>4</v>
@@ -29811,7 +29819,7 @@
       <c r="N280" t="s">
         <v>4</v>
       </c>
-      <c r="O280" t="s">
+      <c r="O280" s="3" t="s">
         <v>1886</v>
       </c>
       <c r="P280" t="s">
@@ -29830,7 +29838,7 @@
         <v>4</v>
       </c>
       <c r="U280" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="V280" t="s">
         <v>4</v>
@@ -29882,7 +29890,7 @@
       <c r="N281" t="s">
         <v>4</v>
       </c>
-      <c r="O281" t="s">
+      <c r="O281" s="3" t="s">
         <v>1891</v>
       </c>
       <c r="P281" t="s">
@@ -29901,7 +29909,7 @@
         <v>4</v>
       </c>
       <c r="U281" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="V281" t="s">
         <v>4</v>
@@ -29953,7 +29961,7 @@
       <c r="N282" t="s">
         <v>4</v>
       </c>
-      <c r="O282" t="s">
+      <c r="O282" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P282" t="s">
@@ -30024,7 +30032,7 @@
       <c r="N283" t="s">
         <v>4</v>
       </c>
-      <c r="O283" t="s">
+      <c r="O283" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P283" t="s">
@@ -30095,7 +30103,7 @@
       <c r="N284" t="s">
         <v>4</v>
       </c>
-      <c r="O284" t="s">
+      <c r="O284" s="3" t="s">
         <v>1900</v>
       </c>
       <c r="P284" t="s">
@@ -30114,7 +30122,7 @@
         <v>4</v>
       </c>
       <c r="U284" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="V284" t="s">
         <v>4</v>
@@ -30166,7 +30174,7 @@
       <c r="N285" t="s">
         <v>4</v>
       </c>
-      <c r="O285" t="s">
+      <c r="O285" s="3" t="s">
         <v>1908</v>
       </c>
       <c r="P285" t="s">
@@ -30185,7 +30193,7 @@
         <v>4</v>
       </c>
       <c r="U285" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="V285" t="s">
         <v>4</v>
@@ -30237,7 +30245,7 @@
       <c r="N286" t="s">
         <v>4</v>
       </c>
-      <c r="O286" t="s">
+      <c r="O286" s="3" t="s">
         <v>1913</v>
       </c>
       <c r="P286" t="s">
@@ -30308,7 +30316,7 @@
       <c r="N287" t="s">
         <v>4</v>
       </c>
-      <c r="O287" t="s">
+      <c r="O287" s="3" t="s">
         <v>1914</v>
       </c>
       <c r="P287" t="s">
@@ -30379,7 +30387,7 @@
       <c r="N288" t="s">
         <v>4</v>
       </c>
-      <c r="O288" t="s">
+      <c r="O288" s="3" t="s">
         <v>1918</v>
       </c>
       <c r="P288" t="s">
@@ -30398,7 +30406,7 @@
         <v>4</v>
       </c>
       <c r="U288" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="V288" t="s">
         <v>4</v>
@@ -30450,7 +30458,7 @@
       <c r="N289" t="s">
         <v>4</v>
       </c>
-      <c r="O289" t="s">
+      <c r="O289" s="3" t="s">
         <v>1926</v>
       </c>
       <c r="P289" t="s">
@@ -30469,7 +30477,7 @@
         <v>4</v>
       </c>
       <c r="U289" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="V289" t="s">
         <v>4</v>
@@ -30486,7 +30494,7 @@
         <v>1737</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="D290" t="s">
         <v>4</v>
@@ -30521,7 +30529,7 @@
       <c r="N290" t="s">
         <v>4</v>
       </c>
-      <c r="O290" t="s">
+      <c r="O290" s="3" t="s">
         <v>1933</v>
       </c>
       <c r="P290" t="s">
@@ -30540,7 +30548,7 @@
         <v>4</v>
       </c>
       <c r="U290" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="V290" t="s">
         <v>4</v>
@@ -30592,7 +30600,7 @@
       <c r="N291" t="s">
         <v>4</v>
       </c>
-      <c r="O291" t="s">
+      <c r="O291" s="3" t="s">
         <v>1941</v>
       </c>
       <c r="P291" t="s">
@@ -30611,7 +30619,7 @@
         <v>4</v>
       </c>
       <c r="U291" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="V291" t="s">
         <v>4</v>
@@ -30663,7 +30671,7 @@
       <c r="N292" t="s">
         <v>4</v>
       </c>
-      <c r="O292" t="s">
+      <c r="O292" s="3" t="s">
         <v>1949</v>
       </c>
       <c r="P292" t="s">
@@ -30682,7 +30690,7 @@
         <v>4</v>
       </c>
       <c r="U292" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="V292" t="s">
         <v>4</v>
@@ -30699,7 +30707,7 @@
         <v>1737</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="D293" t="s">
         <v>4</v>
@@ -30734,7 +30742,7 @@
       <c r="N293" t="s">
         <v>4</v>
       </c>
-      <c r="O293" t="s">
+      <c r="O293" s="3" t="s">
         <v>1956</v>
       </c>
       <c r="P293" t="s">
@@ -30753,7 +30761,7 @@
         <v>4</v>
       </c>
       <c r="U293" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="V293" t="s">
         <v>4</v>
@@ -30805,7 +30813,7 @@
       <c r="N294" t="s">
         <v>4</v>
       </c>
-      <c r="O294" t="s">
+      <c r="O294" s="3" t="s">
         <v>1963</v>
       </c>
       <c r="P294" t="s">
@@ -30824,7 +30832,7 @@
         <v>4</v>
       </c>
       <c r="U294" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="V294" t="s">
         <v>4</v>
@@ -30876,7 +30884,7 @@
       <c r="N295" t="s">
         <v>4</v>
       </c>
-      <c r="O295" t="s">
+      <c r="O295" s="3" t="s">
         <v>1970</v>
       </c>
       <c r="P295" t="s">
@@ -30895,7 +30903,7 @@
         <v>4</v>
       </c>
       <c r="U295" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="V295" t="s">
         <v>4</v>
@@ -30947,7 +30955,7 @@
       <c r="N296" t="s">
         <v>4</v>
       </c>
-      <c r="O296" t="s">
+      <c r="O296" s="3" t="s">
         <v>121</v>
       </c>
       <c r="P296" t="s">
@@ -30966,7 +30974,7 @@
         <v>4</v>
       </c>
       <c r="U296" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="V296" t="s">
         <v>4</v>
@@ -31018,7 +31026,7 @@
       <c r="N297" t="s">
         <v>4</v>
       </c>
-      <c r="O297" t="s">
+      <c r="O297" s="3" t="s">
         <v>137</v>
       </c>
       <c r="P297" t="s">
@@ -31089,7 +31097,7 @@
       <c r="N298" t="s">
         <v>4</v>
       </c>
-      <c r="O298" t="s">
+      <c r="O298" s="3" t="s">
         <v>1973</v>
       </c>
       <c r="P298" t="s">
@@ -31160,7 +31168,7 @@
       <c r="N299" t="s">
         <v>4</v>
       </c>
-      <c r="O299" t="s">
+      <c r="O299" s="3" t="s">
         <v>1979</v>
       </c>
       <c r="P299" t="s">
@@ -31179,7 +31187,7 @@
         <v>4</v>
       </c>
       <c r="U299" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="V299" t="s">
         <v>4</v>
@@ -31231,7 +31239,7 @@
       <c r="N300" t="s">
         <v>4</v>
       </c>
-      <c r="O300" t="s">
+      <c r="O300" s="3" t="s">
         <v>1990</v>
       </c>
       <c r="P300" t="s">
@@ -31250,7 +31258,7 @@
         <v>4</v>
       </c>
       <c r="U300" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="V300" t="s">
         <v>4</v>
@@ -31302,7 +31310,7 @@
       <c r="N301" t="s">
         <v>4</v>
       </c>
-      <c r="O301" t="s">
+      <c r="O301" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P301" t="s">
@@ -31373,7 +31381,7 @@
       <c r="N302" t="s">
         <v>4</v>
       </c>
-      <c r="O302" t="s">
+      <c r="O302" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P302" t="s">
@@ -31444,7 +31452,7 @@
       <c r="N303" t="s">
         <v>4</v>
       </c>
-      <c r="O303" t="s">
+      <c r="O303" s="3" t="s">
         <v>2003</v>
       </c>
       <c r="P303" t="s">
@@ -31463,7 +31471,7 @@
         <v>4</v>
       </c>
       <c r="U303" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="V303" t="s">
         <v>4</v>
@@ -31515,7 +31523,7 @@
       <c r="N304" t="s">
         <v>4</v>
       </c>
-      <c r="O304" t="s">
+      <c r="O304" s="3" t="s">
         <v>2013</v>
       </c>
       <c r="P304" t="s">
@@ -31534,7 +31542,7 @@
         <v>4</v>
       </c>
       <c r="U304" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="V304" t="s">
         <v>4</v>
@@ -31586,7 +31594,7 @@
       <c r="N305" t="s">
         <v>4</v>
       </c>
-      <c r="O305" t="s">
+      <c r="O305" s="3" t="s">
         <v>2022</v>
       </c>
       <c r="P305" t="s">
@@ -31605,7 +31613,7 @@
         <v>4</v>
       </c>
       <c r="U305" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="V305" t="s">
         <v>4</v>
@@ -31657,7 +31665,7 @@
       <c r="N306" t="s">
         <v>4</v>
       </c>
-      <c r="O306" t="s">
+      <c r="O306" s="3" t="s">
         <v>2030</v>
       </c>
       <c r="P306" t="s">
@@ -31676,7 +31684,7 @@
         <v>4</v>
       </c>
       <c r="U306" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="V306" t="s">
         <v>4</v>
@@ -31728,7 +31736,7 @@
       <c r="N307" t="s">
         <v>4</v>
       </c>
-      <c r="O307" t="s">
+      <c r="O307" s="3" t="s">
         <v>2037</v>
       </c>
       <c r="P307" t="s">
@@ -31747,7 +31755,7 @@
         <v>4</v>
       </c>
       <c r="U307" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="V307" t="s">
         <v>4</v>
@@ -31799,7 +31807,7 @@
       <c r="N308" t="s">
         <v>4</v>
       </c>
-      <c r="O308" t="s">
+      <c r="O308" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P308" t="s">
@@ -31870,7 +31878,7 @@
       <c r="N309" t="s">
         <v>4</v>
       </c>
-      <c r="O309" t="s">
+      <c r="O309" s="3" t="s">
         <v>2047</v>
       </c>
       <c r="P309" t="s">
@@ -31889,7 +31897,7 @@
         <v>4</v>
       </c>
       <c r="U309" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="V309" t="s">
         <v>4</v>
@@ -31941,7 +31949,7 @@
       <c r="N310" t="s">
         <v>4</v>
       </c>
-      <c r="O310" t="s">
+      <c r="O310" s="3" t="s">
         <v>121</v>
       </c>
       <c r="P310" t="s">
@@ -31960,7 +31968,7 @@
         <v>4</v>
       </c>
       <c r="U310" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="V310" t="s">
         <v>4</v>
@@ -32012,7 +32020,7 @@
       <c r="N311" t="s">
         <v>4</v>
       </c>
-      <c r="O311" t="s">
+      <c r="O311" s="3" t="s">
         <v>2052</v>
       </c>
       <c r="P311" t="s">
@@ -32031,7 +32039,7 @@
         <v>4</v>
       </c>
       <c r="U311" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="V311" t="s">
         <v>4</v>
@@ -32083,7 +32091,7 @@
       <c r="N312" t="s">
         <v>4</v>
       </c>
-      <c r="O312" t="s">
+      <c r="O312" s="3" t="s">
         <v>2059</v>
       </c>
       <c r="P312" t="s">
@@ -32102,7 +32110,7 @@
         <v>4</v>
       </c>
       <c r="U312" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="V312" t="s">
         <v>4</v>
@@ -32154,7 +32162,7 @@
       <c r="N313" t="s">
         <v>4</v>
       </c>
-      <c r="O313" t="s">
+      <c r="O313" s="3" t="s">
         <v>2068</v>
       </c>
       <c r="P313" t="s">
@@ -32173,7 +32181,7 @@
         <v>4</v>
       </c>
       <c r="U313" s="2" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="V313" t="s">
         <v>4</v>
@@ -32225,7 +32233,7 @@
       <c r="N314" t="s">
         <v>4</v>
       </c>
-      <c r="O314" t="s">
+      <c r="O314" s="3" t="s">
         <v>2076</v>
       </c>
       <c r="P314" t="s">
@@ -32244,7 +32252,7 @@
         <v>4</v>
       </c>
       <c r="U314" s="2" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="V314" t="s">
         <v>4</v>
@@ -32296,7 +32304,7 @@
       <c r="N315" t="s">
         <v>4</v>
       </c>
-      <c r="O315" t="s">
+      <c r="O315" s="3" t="s">
         <v>2085</v>
       </c>
       <c r="P315" t="s">
@@ -32315,7 +32323,7 @@
         <v>4</v>
       </c>
       <c r="U315" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="V315" t="s">
         <v>4</v>
@@ -32367,7 +32375,7 @@
       <c r="N316" t="s">
         <v>4</v>
       </c>
-      <c r="O316" t="s">
+      <c r="O316" s="3" t="s">
         <v>2094</v>
       </c>
       <c r="P316" t="s">
@@ -32386,7 +32394,7 @@
         <v>4</v>
       </c>
       <c r="U316" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="V316" t="s">
         <v>4</v>
@@ -32438,7 +32446,7 @@
       <c r="N317" t="s">
         <v>4</v>
       </c>
-      <c r="O317" t="s">
+      <c r="O317" s="3" t="s">
         <v>2103</v>
       </c>
       <c r="P317" t="s">
@@ -32457,7 +32465,7 @@
         <v>4</v>
       </c>
       <c r="U317" s="2" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="V317" t="s">
         <v>4</v>
@@ -32509,7 +32517,7 @@
       <c r="N318" t="s">
         <v>4</v>
       </c>
-      <c r="O318" t="s">
+      <c r="O318" s="3" t="s">
         <v>2112</v>
       </c>
       <c r="P318" t="s">
@@ -32528,7 +32536,7 @@
         <v>4</v>
       </c>
       <c r="U318" s="2" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="V318" t="s">
         <v>4</v>
@@ -32580,7 +32588,7 @@
       <c r="N319" t="s">
         <v>4</v>
       </c>
-      <c r="O319" t="s">
+      <c r="O319" s="3" t="s">
         <v>2121</v>
       </c>
       <c r="P319" t="s">
@@ -32599,7 +32607,7 @@
         <v>4</v>
       </c>
       <c r="U319" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="V319" t="s">
         <v>4</v>
@@ -32651,7 +32659,7 @@
       <c r="N320" t="s">
         <v>4</v>
       </c>
-      <c r="O320" t="s">
+      <c r="O320" s="3" t="s">
         <v>2130</v>
       </c>
       <c r="P320" t="s">
@@ -32670,7 +32678,7 @@
         <v>4</v>
       </c>
       <c r="U320" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="V320" t="s">
         <v>4</v>
@@ -32722,7 +32730,7 @@
       <c r="N321" t="s">
         <v>4</v>
       </c>
-      <c r="O321" t="s">
+      <c r="O321" s="3" t="s">
         <v>2139</v>
       </c>
       <c r="P321" t="s">
@@ -32741,7 +32749,7 @@
         <v>4</v>
       </c>
       <c r="U321" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="V321" t="s">
         <v>4</v>
@@ -32793,7 +32801,7 @@
       <c r="N322" t="s">
         <v>4</v>
       </c>
-      <c r="O322" t="s">
+      <c r="O322" s="3" t="s">
         <v>2148</v>
       </c>
       <c r="P322" t="s">
@@ -32812,7 +32820,7 @@
         <v>4</v>
       </c>
       <c r="U322" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="V322" t="s">
         <v>4</v>
@@ -32864,7 +32872,7 @@
       <c r="N323" t="s">
         <v>4</v>
       </c>
-      <c r="O323" t="s">
+      <c r="O323" s="3" t="s">
         <v>2157</v>
       </c>
       <c r="P323" t="s">
@@ -32883,7 +32891,7 @@
         <v>4</v>
       </c>
       <c r="U323" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="V323" t="s">
         <v>4</v>
@@ -32935,7 +32943,7 @@
       <c r="N324" t="s">
         <v>4</v>
       </c>
-      <c r="O324" t="s">
+      <c r="O324" s="3" t="s">
         <v>2166</v>
       </c>
       <c r="P324" t="s">
@@ -32954,7 +32962,7 @@
         <v>4</v>
       </c>
       <c r="U324" s="2" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="V324" t="s">
         <v>4</v>
@@ -33006,7 +33014,7 @@
       <c r="N325" t="s">
         <v>4</v>
       </c>
-      <c r="O325" t="s">
+      <c r="O325" s="3" t="s">
         <v>2175</v>
       </c>
       <c r="P325" t="s">
@@ -33025,7 +33033,7 @@
         <v>4</v>
       </c>
       <c r="U325" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="V325" t="s">
         <v>4</v>
@@ -33077,7 +33085,7 @@
       <c r="N326" t="s">
         <v>4</v>
       </c>
-      <c r="O326" t="s">
+      <c r="O326" s="3" t="s">
         <v>2184</v>
       </c>
       <c r="P326" t="s">
@@ -33096,7 +33104,7 @@
         <v>4</v>
       </c>
       <c r="U326" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="V326" t="s">
         <v>4</v>
@@ -33148,7 +33156,7 @@
       <c r="N327" t="s">
         <v>4</v>
       </c>
-      <c r="O327" t="s">
+      <c r="O327" s="3" t="s">
         <v>2193</v>
       </c>
       <c r="P327" t="s">
@@ -33167,7 +33175,7 @@
         <v>4</v>
       </c>
       <c r="U327" s="2" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="V327" t="s">
         <v>4</v>
@@ -33219,7 +33227,7 @@
       <c r="N328" t="s">
         <v>4</v>
       </c>
-      <c r="O328" t="s">
+      <c r="O328" s="3" t="s">
         <v>2202</v>
       </c>
       <c r="P328" t="s">
@@ -33238,7 +33246,7 @@
         <v>4</v>
       </c>
       <c r="U328" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="V328" t="s">
         <v>4</v>
@@ -33290,7 +33298,7 @@
       <c r="N329" t="s">
         <v>4</v>
       </c>
-      <c r="O329" t="s">
+      <c r="O329" s="3" t="s">
         <v>2211</v>
       </c>
       <c r="P329" t="s">
@@ -33309,7 +33317,7 @@
         <v>4</v>
       </c>
       <c r="U329" s="2" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="V329" t="s">
         <v>4</v>
@@ -33361,7 +33369,7 @@
       <c r="N330" t="s">
         <v>4</v>
       </c>
-      <c r="O330" t="s">
+      <c r="O330" s="3" t="s">
         <v>2220</v>
       </c>
       <c r="P330" t="s">
@@ -33380,7 +33388,7 @@
         <v>4</v>
       </c>
       <c r="U330" s="2" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="V330" t="s">
         <v>4</v>
@@ -33432,7 +33440,7 @@
       <c r="N331" t="s">
         <v>4</v>
       </c>
-      <c r="O331" t="s">
+      <c r="O331" s="3" t="s">
         <v>2229</v>
       </c>
       <c r="P331" t="s">
@@ -33451,7 +33459,7 @@
         <v>4</v>
       </c>
       <c r="U331" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="V331" t="s">
         <v>4</v>
@@ -33503,7 +33511,7 @@
       <c r="N332" t="s">
         <v>4</v>
       </c>
-      <c r="O332" t="s">
+      <c r="O332" s="3" t="s">
         <v>2238</v>
       </c>
       <c r="P332" t="s">
@@ -33522,7 +33530,7 @@
         <v>4</v>
       </c>
       <c r="U332" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="V332" t="s">
         <v>4</v>
@@ -33574,7 +33582,7 @@
       <c r="N333" t="s">
         <v>4</v>
       </c>
-      <c r="O333" t="s">
+      <c r="O333" s="3" t="s">
         <v>2247</v>
       </c>
       <c r="P333" t="s">
@@ -33593,7 +33601,7 @@
         <v>4</v>
       </c>
       <c r="U333" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="V333" t="s">
         <v>4</v>
@@ -33645,7 +33653,7 @@
       <c r="N334" t="s">
         <v>4</v>
       </c>
-      <c r="O334" t="s">
+      <c r="O334" s="3" t="s">
         <v>2256</v>
       </c>
       <c r="P334" t="s">
@@ -33664,7 +33672,7 @@
         <v>4</v>
       </c>
       <c r="U334" s="2" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="V334" t="s">
         <v>4</v>
@@ -33716,7 +33724,7 @@
       <c r="N335" t="s">
         <v>4</v>
       </c>
-      <c r="O335" t="s">
+      <c r="O335" s="3" t="s">
         <v>2265</v>
       </c>
       <c r="P335" t="s">
@@ -33735,7 +33743,7 @@
         <v>4</v>
       </c>
       <c r="U335" s="2" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="V335" t="s">
         <v>4</v>
@@ -33787,7 +33795,7 @@
       <c r="N336" t="s">
         <v>4</v>
       </c>
-      <c r="O336" t="s">
+      <c r="O336" s="3" t="s">
         <v>2274</v>
       </c>
       <c r="P336" t="s">
@@ -33806,7 +33814,7 @@
         <v>4</v>
       </c>
       <c r="U336" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="V336" t="s">
         <v>4</v>
@@ -33858,7 +33866,7 @@
       <c r="N337" t="s">
         <v>4</v>
       </c>
-      <c r="O337" t="s">
+      <c r="O337" s="3" t="s">
         <v>2283</v>
       </c>
       <c r="P337" t="s">
@@ -33877,7 +33885,7 @@
         <v>4</v>
       </c>
       <c r="U337" s="2" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="V337" t="s">
         <v>4</v>
@@ -33929,7 +33937,7 @@
       <c r="N338" t="s">
         <v>4</v>
       </c>
-      <c r="O338" t="s">
+      <c r="O338" s="3" t="s">
         <v>2292</v>
       </c>
       <c r="P338" t="s">
@@ -33948,7 +33956,7 @@
         <v>4</v>
       </c>
       <c r="U338" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="V338" t="s">
         <v>4</v>
@@ -34000,7 +34008,7 @@
       <c r="N339" t="s">
         <v>4</v>
       </c>
-      <c r="O339" t="s">
+      <c r="O339" s="3" t="s">
         <v>2301</v>
       </c>
       <c r="P339" t="s">
@@ -34019,7 +34027,7 @@
         <v>4</v>
       </c>
       <c r="U339" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="V339" t="s">
         <v>4</v>
@@ -34071,7 +34079,7 @@
       <c r="N340" t="s">
         <v>4</v>
       </c>
-      <c r="O340" t="s">
+      <c r="O340" s="3" t="s">
         <v>2310</v>
       </c>
       <c r="P340" t="s">
@@ -34090,7 +34098,7 @@
         <v>4</v>
       </c>
       <c r="U340" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="V340" t="s">
         <v>4</v>
@@ -34142,7 +34150,7 @@
       <c r="N341" t="s">
         <v>4</v>
       </c>
-      <c r="O341" t="s">
+      <c r="O341" s="3" t="s">
         <v>2319</v>
       </c>
       <c r="P341" t="s">
@@ -34161,7 +34169,7 @@
         <v>4</v>
       </c>
       <c r="U341" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="V341" t="s">
         <v>4</v>
@@ -34213,7 +34221,7 @@
       <c r="N342" t="s">
         <v>4</v>
       </c>
-      <c r="O342" t="s">
+      <c r="O342" s="3" t="s">
         <v>2328</v>
       </c>
       <c r="P342" t="s">
@@ -34232,7 +34240,7 @@
         <v>4</v>
       </c>
       <c r="U342" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="V342" t="s">
         <v>4</v>
@@ -34284,7 +34292,7 @@
       <c r="N343" t="s">
         <v>4</v>
       </c>
-      <c r="O343" t="s">
+      <c r="O343" s="3" t="s">
         <v>2337</v>
       </c>
       <c r="P343" t="s">
@@ -34303,7 +34311,7 @@
         <v>4</v>
       </c>
       <c r="U343" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="V343" t="s">
         <v>4</v>
@@ -34355,7 +34363,7 @@
       <c r="N344" t="s">
         <v>4</v>
       </c>
-      <c r="O344" t="s">
+      <c r="O344" s="3" t="s">
         <v>2347</v>
       </c>
       <c r="P344" t="s">
@@ -34374,7 +34382,7 @@
         <v>4</v>
       </c>
       <c r="U344" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="V344" t="s">
         <v>4</v>
@@ -34426,7 +34434,7 @@
       <c r="N345" t="s">
         <v>4</v>
       </c>
-      <c r="O345" t="s">
+      <c r="O345" s="3" t="s">
         <v>2357</v>
       </c>
       <c r="P345" t="s">
@@ -34445,7 +34453,7 @@
         <v>4</v>
       </c>
       <c r="U345" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="V345" t="s">
         <v>4</v>
@@ -34497,7 +34505,7 @@
       <c r="N346" t="s">
         <v>4</v>
       </c>
-      <c r="O346" t="s">
+      <c r="O346" s="3" t="s">
         <v>121</v>
       </c>
       <c r="P346" t="s">
@@ -34516,7 +34524,7 @@
         <v>4</v>
       </c>
       <c r="U346" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="V346" t="s">
         <v>4</v>
@@ -34568,7 +34576,7 @@
       <c r="N347" t="s">
         <v>4</v>
       </c>
-      <c r="O347" t="s">
+      <c r="O347" s="3" t="s">
         <v>2368</v>
       </c>
       <c r="P347" t="s">
@@ -34587,7 +34595,7 @@
         <v>4</v>
       </c>
       <c r="U347" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="V347" t="s">
         <v>4</v>
@@ -34639,7 +34647,7 @@
       <c r="N348" t="s">
         <v>4</v>
       </c>
-      <c r="O348" t="s">
+      <c r="O348" s="3" t="s">
         <v>2377</v>
       </c>
       <c r="P348" t="s">
@@ -34658,7 +34666,7 @@
         <v>4</v>
       </c>
       <c r="U348" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="V348" t="s">
         <v>4</v>
@@ -34710,7 +34718,7 @@
       <c r="N349" t="s">
         <v>4</v>
       </c>
-      <c r="O349" t="s">
+      <c r="O349" s="3" t="s">
         <v>2386</v>
       </c>
       <c r="P349" t="s">
@@ -34729,7 +34737,7 @@
         <v>4</v>
       </c>
       <c r="U349" s="2" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="V349" t="s">
         <v>4</v>
@@ -34781,7 +34789,7 @@
       <c r="N350" t="s">
         <v>4</v>
       </c>
-      <c r="O350" t="s">
+      <c r="O350" s="3" t="s">
         <v>2395</v>
       </c>
       <c r="P350" t="s">
@@ -34800,7 +34808,7 @@
         <v>4</v>
       </c>
       <c r="U350" s="2" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="V350" t="s">
         <v>4</v>
@@ -34852,7 +34860,7 @@
       <c r="N351" t="s">
         <v>4</v>
       </c>
-      <c r="O351" t="s">
+      <c r="O351" s="3" t="s">
         <v>2404</v>
       </c>
       <c r="P351" t="s">
@@ -34871,7 +34879,7 @@
         <v>4</v>
       </c>
       <c r="U351" s="2" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="V351" t="s">
         <v>4</v>
@@ -34923,7 +34931,7 @@
       <c r="N352" t="s">
         <v>4</v>
       </c>
-      <c r="O352" t="s">
+      <c r="O352" s="3" t="s">
         <v>2412</v>
       </c>
       <c r="P352" t="s">
@@ -34942,7 +34950,7 @@
         <v>4</v>
       </c>
       <c r="U352" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="V352" t="s">
         <v>4</v>
@@ -34994,7 +35002,7 @@
       <c r="N353" t="s">
         <v>4</v>
       </c>
-      <c r="O353" t="s">
+      <c r="O353" s="3" t="s">
         <v>2420</v>
       </c>
       <c r="P353" t="s">
@@ -35013,7 +35021,7 @@
         <v>4</v>
       </c>
       <c r="U353" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="V353" t="s">
         <v>4</v>
@@ -35065,7 +35073,7 @@
       <c r="N354" t="s">
         <v>4</v>
       </c>
-      <c r="O354" t="s">
+      <c r="O354" s="3" t="s">
         <v>2428</v>
       </c>
       <c r="P354" t="s">
@@ -35084,7 +35092,7 @@
         <v>4</v>
       </c>
       <c r="U354" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="V354" t="s">
         <v>4</v>
@@ -35136,7 +35144,7 @@
       <c r="N355" t="s">
         <v>4</v>
       </c>
-      <c r="O355" t="s">
+      <c r="O355" s="3" t="s">
         <v>2436</v>
       </c>
       <c r="P355" t="s">
@@ -35155,7 +35163,7 @@
         <v>4</v>
       </c>
       <c r="U355" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="V355" t="s">
         <v>4</v>
@@ -35207,7 +35215,7 @@
       <c r="N356" t="s">
         <v>4</v>
       </c>
-      <c r="O356" t="s">
+      <c r="O356" s="3" t="s">
         <v>2444</v>
       </c>
       <c r="P356" t="s">
@@ -35226,7 +35234,7 @@
         <v>4</v>
       </c>
       <c r="U356" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="V356" t="s">
         <v>4</v>
@@ -35278,7 +35286,7 @@
       <c r="N357" t="s">
         <v>4</v>
       </c>
-      <c r="O357" t="s">
+      <c r="O357" s="3" t="s">
         <v>2452</v>
       </c>
       <c r="P357" t="s">
@@ -35297,7 +35305,7 @@
         <v>4</v>
       </c>
       <c r="U357" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="V357" t="s">
         <v>4</v>
@@ -35349,7 +35357,7 @@
       <c r="N358" t="s">
         <v>4</v>
       </c>
-      <c r="O358" t="s">
+      <c r="O358" s="3" t="s">
         <v>2460</v>
       </c>
       <c r="P358" t="s">
@@ -35368,7 +35376,7 @@
         <v>4</v>
       </c>
       <c r="U358" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="V358" t="s">
         <v>4</v>
@@ -35420,7 +35428,7 @@
       <c r="N359" t="s">
         <v>4</v>
       </c>
-      <c r="O359" t="s">
+      <c r="O359" s="3" t="s">
         <v>2468</v>
       </c>
       <c r="P359" t="s">
@@ -35439,7 +35447,7 @@
         <v>4</v>
       </c>
       <c r="U359" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="V359" t="s">
         <v>4</v>
@@ -35491,7 +35499,7 @@
       <c r="N360" t="s">
         <v>4</v>
       </c>
-      <c r="O360" t="s">
+      <c r="O360" s="3" t="s">
         <v>2476</v>
       </c>
       <c r="P360" t="s">
@@ -35510,7 +35518,7 @@
         <v>4</v>
       </c>
       <c r="U360" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="V360" t="s">
         <v>4</v>
@@ -35562,7 +35570,7 @@
       <c r="N361" t="s">
         <v>4</v>
       </c>
-      <c r="O361" t="s">
+      <c r="O361" s="3" t="s">
         <v>2484</v>
       </c>
       <c r="P361" t="s">
@@ -35581,7 +35589,7 @@
         <v>4</v>
       </c>
       <c r="U361" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="V361" t="s">
         <v>4</v>
@@ -35633,7 +35641,7 @@
       <c r="N362" t="s">
         <v>4</v>
       </c>
-      <c r="O362" t="s">
+      <c r="O362" s="3" t="s">
         <v>2492</v>
       </c>
       <c r="P362" t="s">
@@ -35652,7 +35660,7 @@
         <v>4</v>
       </c>
       <c r="U362" s="2" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="V362" t="s">
         <v>4</v>
@@ -35704,7 +35712,7 @@
       <c r="N363" t="s">
         <v>4</v>
       </c>
-      <c r="O363" t="s">
+      <c r="O363" s="3" t="s">
         <v>2503</v>
       </c>
       <c r="P363" t="s">
@@ -35723,7 +35731,7 @@
         <v>4</v>
       </c>
       <c r="U363" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="V363" t="s">
         <v>4</v>
@@ -35775,7 +35783,7 @@
       <c r="N364" t="s">
         <v>4</v>
       </c>
-      <c r="O364" t="s">
+      <c r="O364" s="3" t="s">
         <v>2512</v>
       </c>
       <c r="P364" t="s">
@@ -35794,7 +35802,7 @@
         <v>4</v>
       </c>
       <c r="U364" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="V364" t="s">
         <v>4</v>
@@ -35846,7 +35854,7 @@
       <c r="N365" t="s">
         <v>4</v>
       </c>
-      <c r="O365" t="s">
+      <c r="O365" s="3" t="s">
         <v>2523</v>
       </c>
       <c r="P365" t="s">
@@ -35865,7 +35873,7 @@
         <v>4</v>
       </c>
       <c r="U365" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="V365" t="s">
         <v>4</v>
@@ -35917,7 +35925,7 @@
       <c r="N366" t="s">
         <v>4</v>
       </c>
-      <c r="O366" t="s">
+      <c r="O366" s="3" t="s">
         <v>2532</v>
       </c>
       <c r="P366" t="s">
@@ -35936,7 +35944,7 @@
         <v>4</v>
       </c>
       <c r="U366" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="V366" t="s">
         <v>4</v>
@@ -35988,7 +35996,7 @@
       <c r="N367" t="s">
         <v>4</v>
       </c>
-      <c r="O367" t="s">
+      <c r="O367" s="3" t="s">
         <v>2541</v>
       </c>
       <c r="P367" t="s">
@@ -36007,7 +36015,7 @@
         <v>4</v>
       </c>
       <c r="U367" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="V367" t="s">
         <v>4</v>
@@ -36059,7 +36067,7 @@
       <c r="N368" t="s">
         <v>4</v>
       </c>
-      <c r="O368" t="s">
+      <c r="O368" s="3" t="s">
         <v>2550</v>
       </c>
       <c r="P368" t="s">
@@ -36078,7 +36086,7 @@
         <v>4</v>
       </c>
       <c r="U368" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="V368" t="s">
         <v>4</v>
@@ -36130,7 +36138,7 @@
       <c r="N369" t="s">
         <v>4</v>
       </c>
-      <c r="O369" t="s">
+      <c r="O369" s="3" t="s">
         <v>2556</v>
       </c>
       <c r="P369" t="s">
@@ -36149,7 +36157,7 @@
         <v>4</v>
       </c>
       <c r="U369" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="V369" t="s">
         <v>4</v>
@@ -36201,7 +36209,7 @@
       <c r="N370" t="s">
         <v>4</v>
       </c>
-      <c r="O370" t="s">
+      <c r="O370" s="3" t="s">
         <v>2560</v>
       </c>
       <c r="P370" t="s">
@@ -36220,7 +36228,7 @@
         <v>4</v>
       </c>
       <c r="U370" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="V370" t="s">
         <v>4</v>
@@ -36272,7 +36280,7 @@
       <c r="N371" t="s">
         <v>4</v>
       </c>
-      <c r="O371" t="s">
+      <c r="O371" s="3" t="s">
         <v>2567</v>
       </c>
       <c r="P371" t="s">
@@ -36291,7 +36299,7 @@
         <v>4</v>
       </c>
       <c r="U371" s="2" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="V371" t="s">
         <v>4</v>
@@ -36343,7 +36351,7 @@
       <c r="N372" t="s">
         <v>4</v>
       </c>
-      <c r="O372" t="s">
+      <c r="O372" s="3" t="s">
         <v>2576</v>
       </c>
       <c r="P372" t="s">
@@ -36362,7 +36370,7 @@
         <v>4</v>
       </c>
       <c r="U372" s="2" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="V372" t="s">
         <v>4</v>
@@ -36414,8 +36422,8 @@
       <c r="N373" t="s">
         <v>4</v>
       </c>
-      <c r="O373" t="s">
-        <v>2583</v>
+      <c r="O373" s="5" t="s">
+        <v>3081</v>
       </c>
       <c r="P373" t="s">
         <v>4</v>
@@ -36433,7 +36441,7 @@
         <v>4</v>
       </c>
       <c r="U373" s="2" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="V373" t="s">
         <v>4</v>
@@ -36450,44 +36458,44 @@
         <v>2516</v>
       </c>
       <c r="C374" s="1" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D374" t="s">
+        <v>4</v>
+      </c>
+      <c r="E374" t="s">
         <v>2584</v>
       </c>
-      <c r="D374" t="s">
-        <v>4</v>
-      </c>
-      <c r="E374" t="s">
+      <c r="F374" t="s">
+        <v>4</v>
+      </c>
+      <c r="G374" t="s">
+        <v>4</v>
+      </c>
+      <c r="H374" t="s">
+        <v>4</v>
+      </c>
+      <c r="I374" t="s">
         <v>2585</v>
       </c>
-      <c r="F374" t="s">
-        <v>4</v>
-      </c>
-      <c r="G374" t="s">
-        <v>4</v>
-      </c>
-      <c r="H374" t="s">
-        <v>4</v>
-      </c>
-      <c r="I374" t="s">
+      <c r="J374" t="s">
+        <v>4</v>
+      </c>
+      <c r="K374" t="s">
+        <v>4</v>
+      </c>
+      <c r="L374" t="s">
+        <v>4</v>
+      </c>
+      <c r="M374" t="s">
         <v>2586</v>
       </c>
-      <c r="J374" t="s">
-        <v>4</v>
-      </c>
-      <c r="K374" t="s">
-        <v>4</v>
-      </c>
-      <c r="L374" t="s">
-        <v>4</v>
-      </c>
-      <c r="M374" t="s">
+      <c r="N374" t="s">
+        <v>4</v>
+      </c>
+      <c r="O374" s="3" t="s">
         <v>2587</v>
       </c>
-      <c r="N374" t="s">
-        <v>4</v>
-      </c>
-      <c r="O374" t="s">
-        <v>2588</v>
-      </c>
       <c r="P374" t="s">
         <v>4</v>
       </c>
@@ -36504,7 +36512,7 @@
         <v>4</v>
       </c>
       <c r="U374" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="V374" t="s">
         <v>4</v>
@@ -36521,44 +36529,44 @@
         <v>2516</v>
       </c>
       <c r="C375" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D375" t="s">
+        <v>4</v>
+      </c>
+      <c r="E375" t="s">
         <v>2589</v>
       </c>
-      <c r="D375" t="s">
-        <v>4</v>
-      </c>
-      <c r="E375" t="s">
+      <c r="F375" t="s">
+        <v>4</v>
+      </c>
+      <c r="G375" t="s">
+        <v>4</v>
+      </c>
+      <c r="H375" t="s">
+        <v>4</v>
+      </c>
+      <c r="I375" t="s">
         <v>2590</v>
       </c>
-      <c r="F375" t="s">
-        <v>4</v>
-      </c>
-      <c r="G375" t="s">
-        <v>4</v>
-      </c>
-      <c r="H375" t="s">
-        <v>4</v>
-      </c>
-      <c r="I375" t="s">
+      <c r="J375" t="s">
+        <v>4</v>
+      </c>
+      <c r="K375" t="s">
+        <v>4</v>
+      </c>
+      <c r="L375" t="s">
+        <v>4</v>
+      </c>
+      <c r="M375" t="s">
         <v>2591</v>
       </c>
-      <c r="J375" t="s">
-        <v>4</v>
-      </c>
-      <c r="K375" t="s">
-        <v>4</v>
-      </c>
-      <c r="L375" t="s">
-        <v>4</v>
-      </c>
-      <c r="M375" t="s">
+      <c r="N375" t="s">
+        <v>4</v>
+      </c>
+      <c r="O375" s="3" t="s">
         <v>2592</v>
       </c>
-      <c r="N375" t="s">
-        <v>4</v>
-      </c>
-      <c r="O375" t="s">
-        <v>2593</v>
-      </c>
       <c r="P375" t="s">
         <v>4</v>
       </c>
@@ -36575,7 +36583,7 @@
         <v>4</v>
       </c>
       <c r="U375" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="V375" t="s">
         <v>4</v>
@@ -36592,7 +36600,7 @@
         <v>2516</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="D376" t="s">
         <v>4</v>
@@ -36627,7 +36635,7 @@
       <c r="N376" t="s">
         <v>4</v>
       </c>
-      <c r="O376" t="s">
+      <c r="O376" s="3" t="s">
         <v>121</v>
       </c>
       <c r="P376" t="s">
@@ -36646,7 +36654,7 @@
         <v>4</v>
       </c>
       <c r="U376" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="V376" t="s">
         <v>4</v>
@@ -36663,44 +36671,44 @@
         <v>2516</v>
       </c>
       <c r="C377" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D377" t="s">
+        <v>4</v>
+      </c>
+      <c r="E377" t="s">
         <v>2595</v>
       </c>
-      <c r="D377" t="s">
-        <v>4</v>
-      </c>
-      <c r="E377" t="s">
+      <c r="F377" t="s">
+        <v>4</v>
+      </c>
+      <c r="G377" t="s">
+        <v>4</v>
+      </c>
+      <c r="H377" t="s">
+        <v>4</v>
+      </c>
+      <c r="I377" t="s">
         <v>2596</v>
       </c>
-      <c r="F377" t="s">
-        <v>4</v>
-      </c>
-      <c r="G377" t="s">
-        <v>4</v>
-      </c>
-      <c r="H377" t="s">
-        <v>4</v>
-      </c>
-      <c r="I377" t="s">
+      <c r="J377" t="s">
+        <v>4</v>
+      </c>
+      <c r="K377" t="s">
+        <v>4</v>
+      </c>
+      <c r="L377" t="s">
+        <v>4</v>
+      </c>
+      <c r="M377" t="s">
         <v>2597</v>
       </c>
-      <c r="J377" t="s">
-        <v>4</v>
-      </c>
-      <c r="K377" t="s">
-        <v>4</v>
-      </c>
-      <c r="L377" t="s">
-        <v>4</v>
-      </c>
-      <c r="M377" t="s">
+      <c r="N377" t="s">
+        <v>4</v>
+      </c>
+      <c r="O377" s="3" t="s">
         <v>2598</v>
       </c>
-      <c r="N377" t="s">
-        <v>4</v>
-      </c>
-      <c r="O377" t="s">
-        <v>2599</v>
-      </c>
       <c r="P377" t="s">
         <v>4</v>
       </c>
@@ -36717,7 +36725,7 @@
         <v>4</v>
       </c>
       <c r="U377" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="V377" t="s">
         <v>4</v>
@@ -36728,192 +36736,192 @@
     </row>
     <row r="378" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>2496</v>
       </c>
       <c r="C378" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D378" t="s">
+        <v>4</v>
+      </c>
+      <c r="E378" t="s">
         <v>2601</v>
       </c>
-      <c r="D378" t="s">
-        <v>4</v>
-      </c>
-      <c r="E378" t="s">
+      <c r="F378" t="s">
+        <v>4</v>
+      </c>
+      <c r="G378" t="s">
+        <v>4</v>
+      </c>
+      <c r="H378" t="s">
+        <v>4</v>
+      </c>
+      <c r="I378" t="s">
         <v>2602</v>
       </c>
-      <c r="F378" t="s">
-        <v>4</v>
-      </c>
-      <c r="G378" t="s">
-        <v>4</v>
-      </c>
-      <c r="H378" t="s">
-        <v>4</v>
-      </c>
-      <c r="I378" t="s">
+      <c r="J378" t="s">
+        <v>4</v>
+      </c>
+      <c r="K378" t="s">
         <v>2603</v>
       </c>
-      <c r="J378" t="s">
-        <v>4</v>
-      </c>
-      <c r="K378" t="s">
+      <c r="L378" t="s">
+        <v>4</v>
+      </c>
+      <c r="M378" t="s">
         <v>2604</v>
       </c>
-      <c r="L378" t="s">
-        <v>4</v>
-      </c>
-      <c r="M378" t="s">
+      <c r="N378" t="s">
+        <v>4</v>
+      </c>
+      <c r="O378" s="3" t="s">
         <v>2605</v>
       </c>
-      <c r="N378" t="s">
-        <v>4</v>
-      </c>
-      <c r="O378" t="s">
+      <c r="P378" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q378" t="s">
+        <v>4</v>
+      </c>
+      <c r="R378" t="s">
+        <v>4</v>
+      </c>
+      <c r="S378" t="s">
         <v>2606</v>
       </c>
-      <c r="P378" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q378" t="s">
-        <v>4</v>
-      </c>
-      <c r="R378" t="s">
-        <v>4</v>
-      </c>
-      <c r="S378" t="s">
+      <c r="T378" t="s">
+        <v>4</v>
+      </c>
+      <c r="U378" s="2" t="s">
+        <v>3025</v>
+      </c>
+      <c r="V378" t="s">
+        <v>4</v>
+      </c>
+      <c r="W378" t="s">
         <v>2607</v>
-      </c>
-      <c r="T378" t="s">
-        <v>4</v>
-      </c>
-      <c r="U378" s="2" t="s">
-        <v>3026</v>
-      </c>
-      <c r="V378" t="s">
-        <v>4</v>
-      </c>
-      <c r="W378" t="s">
-        <v>2608</v>
       </c>
     </row>
     <row r="379" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>2496</v>
       </c>
       <c r="C379" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="D379" t="s">
+        <v>4</v>
+      </c>
+      <c r="E379" t="s">
         <v>2609</v>
       </c>
-      <c r="D379" t="s">
-        <v>4</v>
-      </c>
-      <c r="E379" t="s">
+      <c r="F379" t="s">
+        <v>4</v>
+      </c>
+      <c r="G379" t="s">
+        <v>4</v>
+      </c>
+      <c r="H379" t="s">
+        <v>4</v>
+      </c>
+      <c r="I379" t="s">
         <v>2610</v>
       </c>
-      <c r="F379" t="s">
-        <v>4</v>
-      </c>
-      <c r="G379" t="s">
-        <v>4</v>
-      </c>
-      <c r="H379" t="s">
-        <v>4</v>
-      </c>
-      <c r="I379" t="s">
+      <c r="J379" t="s">
+        <v>4</v>
+      </c>
+      <c r="K379" t="s">
         <v>2611</v>
       </c>
-      <c r="J379" t="s">
-        <v>4</v>
-      </c>
-      <c r="K379" t="s">
+      <c r="L379" t="s">
+        <v>4</v>
+      </c>
+      <c r="M379" t="s">
         <v>2612</v>
       </c>
-      <c r="L379" t="s">
-        <v>4</v>
-      </c>
-      <c r="M379" t="s">
+      <c r="N379" t="s">
+        <v>4</v>
+      </c>
+      <c r="O379" s="3" t="s">
         <v>2613</v>
       </c>
-      <c r="N379" t="s">
-        <v>4</v>
-      </c>
-      <c r="O379" t="s">
+      <c r="P379" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q379" t="s">
+        <v>4</v>
+      </c>
+      <c r="R379" t="s">
+        <v>4</v>
+      </c>
+      <c r="S379" t="s">
         <v>2614</v>
       </c>
-      <c r="P379" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q379" t="s">
-        <v>4</v>
-      </c>
-      <c r="R379" t="s">
-        <v>4</v>
-      </c>
-      <c r="S379" t="s">
+      <c r="T379" t="s">
+        <v>4</v>
+      </c>
+      <c r="U379" t="s">
+        <v>3026</v>
+      </c>
+      <c r="V379" t="s">
+        <v>4</v>
+      </c>
+      <c r="W379" t="s">
         <v>2615</v>
-      </c>
-      <c r="T379" t="s">
-        <v>4</v>
-      </c>
-      <c r="U379" t="s">
-        <v>3027</v>
-      </c>
-      <c r="V379" t="s">
-        <v>4</v>
-      </c>
-      <c r="W379" t="s">
-        <v>2616</v>
       </c>
     </row>
     <row r="380" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>2496</v>
       </c>
       <c r="C380" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="D380" t="s">
+        <v>4</v>
+      </c>
+      <c r="E380" t="s">
         <v>2618</v>
       </c>
-      <c r="D380" t="s">
-        <v>4</v>
-      </c>
-      <c r="E380" t="s">
+      <c r="F380" t="s">
+        <v>4</v>
+      </c>
+      <c r="G380" t="s">
+        <v>4</v>
+      </c>
+      <c r="H380" t="s">
+        <v>4</v>
+      </c>
+      <c r="I380" t="s">
         <v>2619</v>
       </c>
-      <c r="F380" t="s">
-        <v>4</v>
-      </c>
-      <c r="G380" t="s">
-        <v>4</v>
-      </c>
-      <c r="H380" t="s">
-        <v>4</v>
-      </c>
-      <c r="I380" t="s">
+      <c r="J380" t="s">
+        <v>4</v>
+      </c>
+      <c r="K380" t="s">
+        <v>4</v>
+      </c>
+      <c r="L380" t="s">
+        <v>4</v>
+      </c>
+      <c r="M380" t="s">
         <v>2620</v>
       </c>
-      <c r="J380" t="s">
-        <v>4</v>
-      </c>
-      <c r="K380" t="s">
-        <v>4</v>
-      </c>
-      <c r="L380" t="s">
-        <v>4</v>
-      </c>
-      <c r="M380" t="s">
+      <c r="N380" t="s">
+        <v>4</v>
+      </c>
+      <c r="O380" s="3" t="s">
         <v>2621</v>
       </c>
-      <c r="N380" t="s">
-        <v>4</v>
-      </c>
-      <c r="O380" t="s">
-        <v>2622</v>
-      </c>
       <c r="P380" t="s">
         <v>4</v>
       </c>
@@ -36930,7 +36938,7 @@
         <v>4</v>
       </c>
       <c r="U380" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="V380" t="s">
         <v>4</v>
@@ -36941,50 +36949,50 @@
     </row>
     <row r="381" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>2496</v>
       </c>
       <c r="C381" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="D381" t="s">
+        <v>4</v>
+      </c>
+      <c r="E381" t="s">
         <v>2623</v>
       </c>
-      <c r="D381" t="s">
-        <v>4</v>
-      </c>
-      <c r="E381" t="s">
+      <c r="F381" t="s">
+        <v>4</v>
+      </c>
+      <c r="G381" t="s">
+        <v>4</v>
+      </c>
+      <c r="H381" t="s">
+        <v>4</v>
+      </c>
+      <c r="I381" t="s">
         <v>2624</v>
       </c>
-      <c r="F381" t="s">
-        <v>4</v>
-      </c>
-      <c r="G381" t="s">
-        <v>4</v>
-      </c>
-      <c r="H381" t="s">
-        <v>4</v>
-      </c>
-      <c r="I381" t="s">
+      <c r="J381" t="s">
+        <v>4</v>
+      </c>
+      <c r="K381" t="s">
+        <v>4</v>
+      </c>
+      <c r="L381" t="s">
+        <v>4</v>
+      </c>
+      <c r="M381" t="s">
         <v>2625</v>
       </c>
-      <c r="J381" t="s">
-        <v>4</v>
-      </c>
-      <c r="K381" t="s">
-        <v>4</v>
-      </c>
-      <c r="L381" t="s">
-        <v>4</v>
-      </c>
-      <c r="M381" t="s">
+      <c r="N381" t="s">
+        <v>4</v>
+      </c>
+      <c r="O381" s="3" t="s">
         <v>2626</v>
       </c>
-      <c r="N381" t="s">
-        <v>4</v>
-      </c>
-      <c r="O381" t="s">
-        <v>2627</v>
-      </c>
       <c r="P381" t="s">
         <v>4</v>
       </c>
@@ -37001,7 +37009,7 @@
         <v>4</v>
       </c>
       <c r="U381" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="V381" t="s">
         <v>4</v>
@@ -37012,50 +37020,50 @@
     </row>
     <row r="382" spans="1:23" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>2496</v>
       </c>
       <c r="C382" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D382" t="s">
+        <v>4</v>
+      </c>
+      <c r="E382" t="s">
         <v>2628</v>
       </c>
-      <c r="D382" t="s">
-        <v>4</v>
-      </c>
-      <c r="E382" t="s">
+      <c r="F382" t="s">
+        <v>4</v>
+      </c>
+      <c r="G382" t="s">
+        <v>4</v>
+      </c>
+      <c r="H382" t="s">
+        <v>4</v>
+      </c>
+      <c r="I382" t="s">
         <v>2629</v>
       </c>
-      <c r="F382" t="s">
-        <v>4</v>
-      </c>
-      <c r="G382" t="s">
-        <v>4</v>
-      </c>
-      <c r="H382" t="s">
-        <v>4</v>
-      </c>
-      <c r="I382" t="s">
+      <c r="J382" t="s">
+        <v>4</v>
+      </c>
+      <c r="K382" t="s">
+        <v>4</v>
+      </c>
+      <c r="L382" t="s">
+        <v>4</v>
+      </c>
+      <c r="M382" t="s">
         <v>2630</v>
       </c>
-      <c r="J382" t="s">
-        <v>4</v>
-      </c>
-      <c r="K382" t="s">
-        <v>4</v>
-      </c>
-      <c r="L382" t="s">
-        <v>4</v>
-      </c>
-      <c r="M382" t="s">
+      <c r="N382" t="s">
+        <v>4</v>
+      </c>
+      <c r="O382" s="3" t="s">
         <v>2631</v>
       </c>
-      <c r="N382" t="s">
-        <v>4</v>
-      </c>
-      <c r="O382" t="s">
-        <v>2632</v>
-      </c>
       <c r="P382" t="s">
         <v>4</v>
       </c>
@@ -37072,7 +37080,7 @@
         <v>4</v>
       </c>
       <c r="U382" s="2" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="V382" t="s">
         <v>4</v>
@@ -37083,50 +37091,50 @@
     </row>
     <row r="383" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>2496</v>
       </c>
       <c r="C383" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D383" t="s">
+        <v>4</v>
+      </c>
+      <c r="E383" t="s">
         <v>2633</v>
       </c>
-      <c r="D383" t="s">
-        <v>4</v>
-      </c>
-      <c r="E383" t="s">
+      <c r="F383" t="s">
+        <v>4</v>
+      </c>
+      <c r="G383" t="s">
+        <v>4</v>
+      </c>
+      <c r="H383" t="s">
+        <v>4</v>
+      </c>
+      <c r="I383" t="s">
         <v>2634</v>
       </c>
-      <c r="F383" t="s">
-        <v>4</v>
-      </c>
-      <c r="G383" t="s">
-        <v>4</v>
-      </c>
-      <c r="H383" t="s">
-        <v>4</v>
-      </c>
-      <c r="I383" t="s">
+      <c r="J383" t="s">
+        <v>4</v>
+      </c>
+      <c r="K383" t="s">
+        <v>4</v>
+      </c>
+      <c r="L383" t="s">
+        <v>4</v>
+      </c>
+      <c r="M383" t="s">
         <v>2635</v>
       </c>
-      <c r="J383" t="s">
-        <v>4</v>
-      </c>
-      <c r="K383" t="s">
-        <v>4</v>
-      </c>
-      <c r="L383" t="s">
-        <v>4</v>
-      </c>
-      <c r="M383" t="s">
+      <c r="N383" t="s">
+        <v>4</v>
+      </c>
+      <c r="O383" s="3" t="s">
         <v>2636</v>
       </c>
-      <c r="N383" t="s">
-        <v>4</v>
-      </c>
-      <c r="O383" t="s">
-        <v>2637</v>
-      </c>
       <c r="P383" t="s">
         <v>4</v>
       </c>
@@ -37143,7 +37151,7 @@
         <v>4</v>
       </c>
       <c r="U383" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="V383" t="s">
         <v>4</v>
@@ -37154,7 +37162,7 @@
     </row>
     <row r="384" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>2496</v>
@@ -37195,7 +37203,7 @@
       <c r="N384" t="s">
         <v>4</v>
       </c>
-      <c r="O384" t="s">
+      <c r="O384" s="3" t="s">
         <v>121</v>
       </c>
       <c r="P384" t="s">
@@ -37214,7 +37222,7 @@
         <v>4</v>
       </c>
       <c r="U384" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="V384" t="s">
         <v>4</v>
@@ -37225,10 +37233,10 @@
     </row>
     <row r="385" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B385" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>1738</v>
@@ -37237,69 +37245,69 @@
         <v>4</v>
       </c>
       <c r="E385" t="s">
+        <v>2639</v>
+      </c>
+      <c r="F385" t="s">
+        <v>4</v>
+      </c>
+      <c r="G385" t="s">
         <v>2640</v>
       </c>
-      <c r="F385" t="s">
-        <v>4</v>
-      </c>
-      <c r="G385" t="s">
+      <c r="H385" t="s">
+        <v>4</v>
+      </c>
+      <c r="I385" t="s">
         <v>2641</v>
       </c>
-      <c r="H385" t="s">
-        <v>4</v>
-      </c>
-      <c r="I385" t="s">
+      <c r="J385" t="s">
+        <v>4</v>
+      </c>
+      <c r="K385" t="s">
         <v>2642</v>
       </c>
-      <c r="J385" t="s">
-        <v>4</v>
-      </c>
-      <c r="K385" t="s">
+      <c r="L385" t="s">
+        <v>4</v>
+      </c>
+      <c r="M385" t="s">
         <v>2643</v>
       </c>
-      <c r="L385" t="s">
-        <v>4</v>
-      </c>
-      <c r="M385" t="s">
+      <c r="N385" t="s">
+        <v>4</v>
+      </c>
+      <c r="O385" s="3" t="s">
         <v>2644</v>
       </c>
-      <c r="N385" t="s">
-        <v>4</v>
-      </c>
-      <c r="O385" t="s">
+      <c r="P385" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q385" t="s">
+        <v>4</v>
+      </c>
+      <c r="R385" t="s">
+        <v>4</v>
+      </c>
+      <c r="S385" t="s">
         <v>2645</v>
       </c>
-      <c r="P385" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q385" t="s">
-        <v>4</v>
-      </c>
-      <c r="R385" t="s">
-        <v>4</v>
-      </c>
-      <c r="S385" t="s">
+      <c r="T385" t="s">
+        <v>4</v>
+      </c>
+      <c r="U385" t="s">
+        <v>3031</v>
+      </c>
+      <c r="V385" t="s">
+        <v>4</v>
+      </c>
+      <c r="W385" t="s">
         <v>2646</v>
-      </c>
-      <c r="T385" t="s">
-        <v>4</v>
-      </c>
-      <c r="U385" t="s">
-        <v>3032</v>
-      </c>
-      <c r="V385" t="s">
-        <v>4</v>
-      </c>
-      <c r="W385" t="s">
-        <v>2647</v>
       </c>
     </row>
     <row r="386" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>1779</v>
@@ -37308,69 +37316,69 @@
         <v>4</v>
       </c>
       <c r="E386" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F386" t="s">
+        <v>4</v>
+      </c>
+      <c r="G386" t="s">
         <v>2648</v>
       </c>
-      <c r="F386" t="s">
-        <v>4</v>
-      </c>
-      <c r="G386" t="s">
+      <c r="H386" t="s">
+        <v>4</v>
+      </c>
+      <c r="I386" t="s">
         <v>2649</v>
       </c>
-      <c r="H386" t="s">
-        <v>4</v>
-      </c>
-      <c r="I386" t="s">
+      <c r="J386" t="s">
+        <v>4</v>
+      </c>
+      <c r="K386" t="s">
         <v>2650</v>
       </c>
-      <c r="J386" t="s">
-        <v>4</v>
-      </c>
-      <c r="K386" t="s">
+      <c r="L386" t="s">
+        <v>4</v>
+      </c>
+      <c r="M386" t="s">
         <v>2651</v>
       </c>
-      <c r="L386" t="s">
-        <v>4</v>
-      </c>
-      <c r="M386" t="s">
+      <c r="N386" t="s">
+        <v>4</v>
+      </c>
+      <c r="O386" s="3" t="s">
         <v>2652</v>
       </c>
-      <c r="N386" t="s">
-        <v>4</v>
-      </c>
-      <c r="O386" t="s">
+      <c r="P386" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q386" t="s">
+        <v>4</v>
+      </c>
+      <c r="R386" t="s">
+        <v>4</v>
+      </c>
+      <c r="S386" t="s">
         <v>2653</v>
       </c>
-      <c r="P386" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q386" t="s">
-        <v>4</v>
-      </c>
-      <c r="R386" t="s">
-        <v>4</v>
-      </c>
-      <c r="S386" t="s">
+      <c r="T386" t="s">
+        <v>4</v>
+      </c>
+      <c r="U386" t="s">
+        <v>3032</v>
+      </c>
+      <c r="V386" t="s">
+        <v>4</v>
+      </c>
+      <c r="W386" t="s">
         <v>2654</v>
-      </c>
-      <c r="T386" t="s">
-        <v>4</v>
-      </c>
-      <c r="U386" t="s">
-        <v>3033</v>
-      </c>
-      <c r="V386" t="s">
-        <v>4</v>
-      </c>
-      <c r="W386" t="s">
-        <v>2655</v>
       </c>
     </row>
     <row r="387" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B387" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>1787</v>
@@ -37379,69 +37387,69 @@
         <v>4</v>
       </c>
       <c r="E387" t="s">
+        <v>2655</v>
+      </c>
+      <c r="F387" t="s">
+        <v>4</v>
+      </c>
+      <c r="G387" t="s">
         <v>2656</v>
       </c>
-      <c r="F387" t="s">
-        <v>4</v>
-      </c>
-      <c r="G387" t="s">
+      <c r="H387" t="s">
+        <v>4</v>
+      </c>
+      <c r="I387" t="s">
         <v>2657</v>
       </c>
-      <c r="H387" t="s">
-        <v>4</v>
-      </c>
-      <c r="I387" t="s">
+      <c r="J387" t="s">
+        <v>4</v>
+      </c>
+      <c r="K387" t="s">
         <v>2658</v>
       </c>
-      <c r="J387" t="s">
-        <v>4</v>
-      </c>
-      <c r="K387" t="s">
+      <c r="L387" t="s">
+        <v>4</v>
+      </c>
+      <c r="M387" t="s">
         <v>2659</v>
       </c>
-      <c r="L387" t="s">
-        <v>4</v>
-      </c>
-      <c r="M387" t="s">
+      <c r="N387" t="s">
+        <v>4</v>
+      </c>
+      <c r="O387" s="3" t="s">
         <v>2660</v>
       </c>
-      <c r="N387" t="s">
-        <v>4</v>
-      </c>
-      <c r="O387" t="s">
+      <c r="P387" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q387" t="s">
+        <v>4</v>
+      </c>
+      <c r="R387" t="s">
+        <v>4</v>
+      </c>
+      <c r="S387" t="s">
         <v>2661</v>
       </c>
-      <c r="P387" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q387" t="s">
-        <v>4</v>
-      </c>
-      <c r="R387" t="s">
-        <v>4</v>
-      </c>
-      <c r="S387" t="s">
+      <c r="T387" t="s">
+        <v>4</v>
+      </c>
+      <c r="U387" t="s">
+        <v>3033</v>
+      </c>
+      <c r="V387" t="s">
+        <v>4</v>
+      </c>
+      <c r="W387" t="s">
         <v>2662</v>
-      </c>
-      <c r="T387" t="s">
-        <v>4</v>
-      </c>
-      <c r="U387" t="s">
-        <v>3034</v>
-      </c>
-      <c r="V387" t="s">
-        <v>4</v>
-      </c>
-      <c r="W387" t="s">
-        <v>2663</v>
       </c>
     </row>
     <row r="388" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B388" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>1801</v>
@@ -37450,69 +37458,69 @@
         <v>4</v>
       </c>
       <c r="E388" t="s">
+        <v>2663</v>
+      </c>
+      <c r="F388" t="s">
+        <v>4</v>
+      </c>
+      <c r="G388" t="s">
         <v>2664</v>
       </c>
-      <c r="F388" t="s">
-        <v>4</v>
-      </c>
-      <c r="G388" t="s">
+      <c r="H388" t="s">
+        <v>4</v>
+      </c>
+      <c r="I388" t="s">
         <v>2665</v>
       </c>
-      <c r="H388" t="s">
-        <v>4</v>
-      </c>
-      <c r="I388" t="s">
+      <c r="J388" t="s">
+        <v>4</v>
+      </c>
+      <c r="K388" t="s">
         <v>2666</v>
       </c>
-      <c r="J388" t="s">
-        <v>4</v>
-      </c>
-      <c r="K388" t="s">
+      <c r="L388" t="s">
+        <v>4</v>
+      </c>
+      <c r="M388" t="s">
         <v>2667</v>
       </c>
-      <c r="L388" t="s">
-        <v>4</v>
-      </c>
-      <c r="M388" t="s">
+      <c r="N388" t="s">
+        <v>4</v>
+      </c>
+      <c r="O388" s="3" t="s">
         <v>2668</v>
       </c>
-      <c r="N388" t="s">
-        <v>4</v>
-      </c>
-      <c r="O388" t="s">
+      <c r="P388" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q388" t="s">
+        <v>4</v>
+      </c>
+      <c r="R388" t="s">
+        <v>4</v>
+      </c>
+      <c r="S388" t="s">
         <v>2669</v>
       </c>
-      <c r="P388" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q388" t="s">
-        <v>4</v>
-      </c>
-      <c r="R388" t="s">
-        <v>4</v>
-      </c>
-      <c r="S388" t="s">
+      <c r="T388" t="s">
+        <v>4</v>
+      </c>
+      <c r="U388" t="s">
+        <v>3034</v>
+      </c>
+      <c r="V388" t="s">
+        <v>4</v>
+      </c>
+      <c r="W388" t="s">
         <v>2670</v>
-      </c>
-      <c r="T388" t="s">
-        <v>4</v>
-      </c>
-      <c r="U388" t="s">
-        <v>3035</v>
-      </c>
-      <c r="V388" t="s">
-        <v>4</v>
-      </c>
-      <c r="W388" t="s">
-        <v>2671</v>
       </c>
     </row>
     <row r="389" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>1809</v>
@@ -37521,69 +37529,69 @@
         <v>4</v>
       </c>
       <c r="E389" t="s">
+        <v>2671</v>
+      </c>
+      <c r="F389" t="s">
+        <v>4</v>
+      </c>
+      <c r="G389" t="s">
         <v>2672</v>
       </c>
-      <c r="F389" t="s">
-        <v>4</v>
-      </c>
-      <c r="G389" t="s">
+      <c r="H389" t="s">
+        <v>4</v>
+      </c>
+      <c r="I389" t="s">
         <v>2673</v>
       </c>
-      <c r="H389" t="s">
-        <v>4</v>
-      </c>
-      <c r="I389" t="s">
+      <c r="J389" t="s">
+        <v>4</v>
+      </c>
+      <c r="K389" t="s">
         <v>2674</v>
       </c>
-      <c r="J389" t="s">
-        <v>4</v>
-      </c>
-      <c r="K389" t="s">
+      <c r="L389" t="s">
+        <v>4</v>
+      </c>
+      <c r="M389" t="s">
         <v>2675</v>
       </c>
-      <c r="L389" t="s">
-        <v>4</v>
-      </c>
-      <c r="M389" t="s">
+      <c r="N389" t="s">
+        <v>4</v>
+      </c>
+      <c r="O389" s="3" t="s">
         <v>2676</v>
       </c>
-      <c r="N389" t="s">
-        <v>4</v>
-      </c>
-      <c r="O389" t="s">
+      <c r="P389" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q389" t="s">
+        <v>4</v>
+      </c>
+      <c r="R389" t="s">
+        <v>4</v>
+      </c>
+      <c r="S389" t="s">
         <v>2677</v>
       </c>
-      <c r="P389" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q389" t="s">
-        <v>4</v>
-      </c>
-      <c r="R389" t="s">
-        <v>4</v>
-      </c>
-      <c r="S389" t="s">
+      <c r="T389" t="s">
+        <v>4</v>
+      </c>
+      <c r="U389" t="s">
+        <v>3035</v>
+      </c>
+      <c r="V389" t="s">
+        <v>4</v>
+      </c>
+      <c r="W389" t="s">
         <v>2678</v>
-      </c>
-      <c r="T389" t="s">
-        <v>4</v>
-      </c>
-      <c r="U389" t="s">
-        <v>3036</v>
-      </c>
-      <c r="V389" t="s">
-        <v>4</v>
-      </c>
-      <c r="W389" t="s">
-        <v>2679</v>
       </c>
     </row>
     <row r="390" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B390" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>1895</v>
@@ -37592,140 +37600,140 @@
         <v>4</v>
       </c>
       <c r="E390" t="s">
+        <v>2679</v>
+      </c>
+      <c r="F390" t="s">
+        <v>4</v>
+      </c>
+      <c r="G390" t="s">
         <v>2680</v>
       </c>
-      <c r="F390" t="s">
-        <v>4</v>
-      </c>
-      <c r="G390" t="s">
+      <c r="H390" t="s">
+        <v>4</v>
+      </c>
+      <c r="I390" t="s">
         <v>2681</v>
       </c>
-      <c r="H390" t="s">
-        <v>4</v>
-      </c>
-      <c r="I390" t="s">
+      <c r="J390" t="s">
+        <v>4</v>
+      </c>
+      <c r="K390" t="s">
         <v>2682</v>
       </c>
-      <c r="J390" t="s">
-        <v>4</v>
-      </c>
-      <c r="K390" t="s">
+      <c r="L390" t="s">
+        <v>4</v>
+      </c>
+      <c r="M390" t="s">
         <v>2683</v>
       </c>
-      <c r="L390" t="s">
-        <v>4</v>
-      </c>
-      <c r="M390" t="s">
+      <c r="N390" t="s">
+        <v>4</v>
+      </c>
+      <c r="O390" s="3" t="s">
         <v>2684</v>
       </c>
-      <c r="N390" t="s">
-        <v>4</v>
-      </c>
-      <c r="O390" t="s">
+      <c r="P390" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>4</v>
+      </c>
+      <c r="R390" t="s">
+        <v>4</v>
+      </c>
+      <c r="S390" t="s">
         <v>2685</v>
       </c>
-      <c r="P390" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q390" t="s">
-        <v>4</v>
-      </c>
-      <c r="R390" t="s">
-        <v>4</v>
-      </c>
-      <c r="S390" t="s">
+      <c r="T390" t="s">
+        <v>4</v>
+      </c>
+      <c r="U390" t="s">
+        <v>3036</v>
+      </c>
+      <c r="V390" t="s">
+        <v>4</v>
+      </c>
+      <c r="W390" t="s">
         <v>2686</v>
-      </c>
-      <c r="T390" t="s">
-        <v>4</v>
-      </c>
-      <c r="U390" t="s">
-        <v>3037</v>
-      </c>
-      <c r="V390" t="s">
-        <v>4</v>
-      </c>
-      <c r="W390" t="s">
-        <v>2687</v>
       </c>
     </row>
     <row r="391" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>2638</v>
       </c>
-      <c r="B391" s="1" t="s">
-        <v>2639</v>
-      </c>
       <c r="C391" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D391" t="s">
+        <v>4</v>
+      </c>
+      <c r="E391" t="s">
         <v>2688</v>
       </c>
-      <c r="D391" t="s">
-        <v>4</v>
-      </c>
-      <c r="E391" t="s">
+      <c r="F391" t="s">
+        <v>4</v>
+      </c>
+      <c r="G391" t="s">
         <v>2689</v>
       </c>
-      <c r="F391" t="s">
-        <v>4</v>
-      </c>
-      <c r="G391" t="s">
+      <c r="H391" t="s">
+        <v>4</v>
+      </c>
+      <c r="I391" t="s">
         <v>2690</v>
       </c>
-      <c r="H391" t="s">
-        <v>4</v>
-      </c>
-      <c r="I391" t="s">
+      <c r="J391" t="s">
+        <v>4</v>
+      </c>
+      <c r="K391" t="s">
         <v>2691</v>
       </c>
-      <c r="J391" t="s">
-        <v>4</v>
-      </c>
-      <c r="K391" t="s">
+      <c r="L391" t="s">
+        <v>4</v>
+      </c>
+      <c r="M391" t="s">
         <v>2692</v>
       </c>
-      <c r="L391" t="s">
-        <v>4</v>
-      </c>
-      <c r="M391" t="s">
+      <c r="N391" t="s">
+        <v>4</v>
+      </c>
+      <c r="O391" s="3" t="s">
         <v>2693</v>
       </c>
-      <c r="N391" t="s">
-        <v>4</v>
-      </c>
-      <c r="O391" t="s">
+      <c r="P391" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q391" t="s">
+        <v>4</v>
+      </c>
+      <c r="R391" t="s">
+        <v>4</v>
+      </c>
+      <c r="S391" t="s">
         <v>2694</v>
       </c>
-      <c r="P391" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q391" t="s">
-        <v>4</v>
-      </c>
-      <c r="R391" t="s">
-        <v>4</v>
-      </c>
-      <c r="S391" t="s">
+      <c r="T391" t="s">
+        <v>4</v>
+      </c>
+      <c r="U391" t="s">
+        <v>3037</v>
+      </c>
+      <c r="V391" t="s">
+        <v>4</v>
+      </c>
+      <c r="W391" t="s">
         <v>2695</v>
-      </c>
-      <c r="T391" t="s">
-        <v>4</v>
-      </c>
-      <c r="U391" t="s">
-        <v>3038</v>
-      </c>
-      <c r="V391" t="s">
-        <v>4</v>
-      </c>
-      <c r="W391" t="s">
-        <v>2696</v>
       </c>
     </row>
     <row r="392" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B392" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>136</v>
@@ -37763,7 +37771,7 @@
       <c r="N392" t="s">
         <v>4</v>
       </c>
-      <c r="O392" t="s">
+      <c r="O392" s="3" t="s">
         <v>1914</v>
       </c>
       <c r="P392" t="s">
@@ -37793,10 +37801,10 @@
     </row>
     <row r="393" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>1755</v>
@@ -37805,69 +37813,69 @@
         <v>4</v>
       </c>
       <c r="E393" t="s">
+        <v>2696</v>
+      </c>
+      <c r="F393" t="s">
+        <v>4</v>
+      </c>
+      <c r="G393" t="s">
         <v>2697</v>
       </c>
-      <c r="F393" t="s">
-        <v>4</v>
-      </c>
-      <c r="G393" t="s">
+      <c r="H393" t="s">
+        <v>4</v>
+      </c>
+      <c r="I393" t="s">
         <v>2698</v>
       </c>
-      <c r="H393" t="s">
-        <v>4</v>
-      </c>
-      <c r="I393" t="s">
+      <c r="J393" t="s">
+        <v>4</v>
+      </c>
+      <c r="K393" t="s">
         <v>2699</v>
       </c>
-      <c r="J393" t="s">
-        <v>4</v>
-      </c>
-      <c r="K393" t="s">
+      <c r="L393" t="s">
+        <v>4</v>
+      </c>
+      <c r="M393" t="s">
         <v>2700</v>
       </c>
-      <c r="L393" t="s">
-        <v>4</v>
-      </c>
-      <c r="M393" t="s">
+      <c r="N393" t="s">
+        <v>4</v>
+      </c>
+      <c r="O393" s="3" t="s">
         <v>2701</v>
       </c>
-      <c r="N393" t="s">
-        <v>4</v>
-      </c>
-      <c r="O393" t="s">
+      <c r="P393" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q393" t="s">
+        <v>4</v>
+      </c>
+      <c r="R393" t="s">
+        <v>4</v>
+      </c>
+      <c r="S393" t="s">
         <v>2702</v>
       </c>
-      <c r="P393" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q393" t="s">
-        <v>4</v>
-      </c>
-      <c r="R393" t="s">
-        <v>4</v>
-      </c>
-      <c r="S393" t="s">
+      <c r="T393" t="s">
+        <v>4</v>
+      </c>
+      <c r="U393" t="s">
+        <v>3038</v>
+      </c>
+      <c r="V393" t="s">
+        <v>4</v>
+      </c>
+      <c r="W393" t="s">
         <v>2703</v>
-      </c>
-      <c r="T393" t="s">
-        <v>4</v>
-      </c>
-      <c r="U393" t="s">
-        <v>3039</v>
-      </c>
-      <c r="V393" t="s">
-        <v>4</v>
-      </c>
-      <c r="W393" t="s">
-        <v>2704</v>
       </c>
     </row>
     <row r="394" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B394" s="1" t="s">
         <v>2638</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>2639</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>86</v>
@@ -37876,211 +37884,211 @@
         <v>4</v>
       </c>
       <c r="E394" t="s">
+        <v>2704</v>
+      </c>
+      <c r="F394" t="s">
+        <v>4</v>
+      </c>
+      <c r="G394" t="s">
         <v>2705</v>
       </c>
-      <c r="F394" t="s">
-        <v>4</v>
-      </c>
-      <c r="G394" t="s">
+      <c r="H394" t="s">
+        <v>4</v>
+      </c>
+      <c r="I394" t="s">
         <v>2706</v>
       </c>
-      <c r="H394" t="s">
-        <v>4</v>
-      </c>
-      <c r="I394" t="s">
+      <c r="J394" t="s">
+        <v>4</v>
+      </c>
+      <c r="K394" t="s">
         <v>2707</v>
       </c>
-      <c r="J394" t="s">
-        <v>4</v>
-      </c>
-      <c r="K394" t="s">
+      <c r="L394" t="s">
+        <v>4</v>
+      </c>
+      <c r="M394" t="s">
         <v>2708</v>
       </c>
-      <c r="L394" t="s">
-        <v>4</v>
-      </c>
-      <c r="M394" t="s">
+      <c r="N394" t="s">
+        <v>4</v>
+      </c>
+      <c r="O394" s="3" t="s">
         <v>2709</v>
       </c>
-      <c r="N394" t="s">
-        <v>4</v>
-      </c>
-      <c r="O394" t="s">
+      <c r="P394" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q394" t="s">
+        <v>4</v>
+      </c>
+      <c r="R394" t="s">
+        <v>4</v>
+      </c>
+      <c r="S394" t="s">
         <v>2710</v>
       </c>
-      <c r="P394" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q394" t="s">
-        <v>4</v>
-      </c>
-      <c r="R394" t="s">
-        <v>4</v>
-      </c>
-      <c r="S394" t="s">
+      <c r="T394" t="s">
+        <v>4</v>
+      </c>
+      <c r="U394" t="s">
+        <v>3039</v>
+      </c>
+      <c r="V394" t="s">
+        <v>4</v>
+      </c>
+      <c r="W394" t="s">
         <v>2711</v>
-      </c>
-      <c r="T394" t="s">
-        <v>4</v>
-      </c>
-      <c r="U394" t="s">
-        <v>3040</v>
-      </c>
-      <c r="V394" t="s">
-        <v>4</v>
-      </c>
-      <c r="W394" t="s">
-        <v>2712</v>
       </c>
     </row>
     <row r="395" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B395" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>2713</v>
       </c>
-      <c r="C395" s="1" t="s">
+      <c r="D395" t="s">
+        <v>4</v>
+      </c>
+      <c r="E395" t="s">
         <v>2714</v>
       </c>
-      <c r="D395" t="s">
-        <v>4</v>
-      </c>
-      <c r="E395" t="s">
+      <c r="F395" t="s">
+        <v>4</v>
+      </c>
+      <c r="G395" t="s">
         <v>2715</v>
       </c>
-      <c r="F395" t="s">
-        <v>4</v>
-      </c>
-      <c r="G395" t="s">
+      <c r="H395" t="s">
+        <v>4</v>
+      </c>
+      <c r="I395" t="s">
         <v>2716</v>
       </c>
-      <c r="H395" t="s">
-        <v>4</v>
-      </c>
-      <c r="I395" t="s">
+      <c r="J395" t="s">
+        <v>4</v>
+      </c>
+      <c r="K395" t="s">
         <v>2717</v>
       </c>
-      <c r="J395" t="s">
-        <v>4</v>
-      </c>
-      <c r="K395" t="s">
+      <c r="L395" t="s">
+        <v>4</v>
+      </c>
+      <c r="M395" t="s">
         <v>2718</v>
       </c>
-      <c r="L395" t="s">
-        <v>4</v>
-      </c>
-      <c r="M395" t="s">
+      <c r="N395" t="s">
+        <v>4</v>
+      </c>
+      <c r="O395" s="3" t="s">
         <v>2719</v>
       </c>
-      <c r="N395" t="s">
-        <v>4</v>
-      </c>
-      <c r="O395" t="s">
+      <c r="P395" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q395" t="s">
+        <v>4</v>
+      </c>
+      <c r="R395" t="s">
+        <v>4</v>
+      </c>
+      <c r="S395" t="s">
         <v>2720</v>
       </c>
-      <c r="P395" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q395" t="s">
-        <v>4</v>
-      </c>
-      <c r="R395" t="s">
-        <v>4</v>
-      </c>
-      <c r="S395" t="s">
+      <c r="T395" t="s">
+        <v>4</v>
+      </c>
+      <c r="U395" t="s">
+        <v>3040</v>
+      </c>
+      <c r="V395" t="s">
+        <v>4</v>
+      </c>
+      <c r="W395" t="s">
         <v>2721</v>
-      </c>
-      <c r="T395" t="s">
-        <v>4</v>
-      </c>
-      <c r="U395" t="s">
-        <v>3041</v>
-      </c>
-      <c r="V395" t="s">
-        <v>4</v>
-      </c>
-      <c r="W395" t="s">
-        <v>2722</v>
       </c>
     </row>
     <row r="396" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C396" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D396" t="s">
+        <v>4</v>
+      </c>
+      <c r="E396" t="s">
         <v>2723</v>
       </c>
-      <c r="D396" t="s">
-        <v>4</v>
-      </c>
-      <c r="E396" t="s">
+      <c r="F396" t="s">
+        <v>4</v>
+      </c>
+      <c r="G396" t="s">
         <v>2724</v>
       </c>
-      <c r="F396" t="s">
-        <v>4</v>
-      </c>
-      <c r="G396" t="s">
+      <c r="H396" t="s">
+        <v>4</v>
+      </c>
+      <c r="I396" t="s">
         <v>2725</v>
       </c>
-      <c r="H396" t="s">
-        <v>4</v>
-      </c>
-      <c r="I396" t="s">
+      <c r="J396" t="s">
+        <v>4</v>
+      </c>
+      <c r="K396" t="s">
         <v>2726</v>
       </c>
-      <c r="J396" t="s">
-        <v>4</v>
-      </c>
-      <c r="K396" t="s">
+      <c r="L396" t="s">
+        <v>4</v>
+      </c>
+      <c r="M396" t="s">
         <v>2727</v>
       </c>
-      <c r="L396" t="s">
-        <v>4</v>
-      </c>
-      <c r="M396" t="s">
+      <c r="N396" t="s">
+        <v>4</v>
+      </c>
+      <c r="O396" s="3" t="s">
         <v>2728</v>
       </c>
-      <c r="N396" t="s">
-        <v>4</v>
-      </c>
-      <c r="O396" t="s">
+      <c r="P396" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q396" t="s">
+        <v>4</v>
+      </c>
+      <c r="R396" t="s">
+        <v>4</v>
+      </c>
+      <c r="S396" t="s">
         <v>2729</v>
       </c>
-      <c r="P396" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q396" t="s">
-        <v>4</v>
-      </c>
-      <c r="R396" t="s">
-        <v>4</v>
-      </c>
-      <c r="S396" t="s">
+      <c r="T396" t="s">
+        <v>4</v>
+      </c>
+      <c r="U396" t="s">
+        <v>3041</v>
+      </c>
+      <c r="V396" t="s">
+        <v>4</v>
+      </c>
+      <c r="W396" t="s">
         <v>2730</v>
-      </c>
-      <c r="T396" t="s">
-        <v>4</v>
-      </c>
-      <c r="U396" t="s">
-        <v>3042</v>
-      </c>
-      <c r="V396" t="s">
-        <v>4</v>
-      </c>
-      <c r="W396" t="s">
-        <v>2731</v>
       </c>
     </row>
     <row r="397" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>1738</v>
@@ -38089,140 +38097,140 @@
         <v>4</v>
       </c>
       <c r="E397" t="s">
+        <v>2731</v>
+      </c>
+      <c r="F397" t="s">
+        <v>4</v>
+      </c>
+      <c r="G397" t="s">
         <v>2732</v>
       </c>
-      <c r="F397" t="s">
-        <v>4</v>
-      </c>
-      <c r="G397" t="s">
+      <c r="H397" t="s">
+        <v>4</v>
+      </c>
+      <c r="I397" t="s">
         <v>2733</v>
       </c>
-      <c r="H397" t="s">
-        <v>4</v>
-      </c>
-      <c r="I397" t="s">
+      <c r="J397" t="s">
+        <v>4</v>
+      </c>
+      <c r="K397" t="s">
         <v>2734</v>
       </c>
-      <c r="J397" t="s">
-        <v>4</v>
-      </c>
-      <c r="K397" t="s">
+      <c r="L397" t="s">
+        <v>4</v>
+      </c>
+      <c r="M397" t="s">
         <v>2735</v>
       </c>
-      <c r="L397" t="s">
-        <v>4</v>
-      </c>
-      <c r="M397" t="s">
+      <c r="N397" t="s">
+        <v>4</v>
+      </c>
+      <c r="O397" s="3" t="s">
         <v>2736</v>
       </c>
-      <c r="N397" t="s">
-        <v>4</v>
-      </c>
-      <c r="O397" t="s">
+      <c r="P397" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q397" t="s">
+        <v>4</v>
+      </c>
+      <c r="R397" t="s">
+        <v>4</v>
+      </c>
+      <c r="S397" t="s">
         <v>2737</v>
       </c>
-      <c r="P397" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q397" t="s">
-        <v>4</v>
-      </c>
-      <c r="R397" t="s">
-        <v>4</v>
-      </c>
-      <c r="S397" t="s">
+      <c r="T397" t="s">
+        <v>4</v>
+      </c>
+      <c r="U397" t="s">
+        <v>3042</v>
+      </c>
+      <c r="V397" t="s">
+        <v>4</v>
+      </c>
+      <c r="W397" t="s">
         <v>2738</v>
-      </c>
-      <c r="T397" t="s">
-        <v>4</v>
-      </c>
-      <c r="U397" t="s">
-        <v>3043</v>
-      </c>
-      <c r="V397" t="s">
-        <v>4</v>
-      </c>
-      <c r="W397" t="s">
-        <v>2739</v>
       </c>
     </row>
     <row r="398" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C398" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="D398" t="s">
+        <v>4</v>
+      </c>
+      <c r="E398" t="s">
         <v>2740</v>
       </c>
-      <c r="D398" t="s">
-        <v>4</v>
-      </c>
-      <c r="E398" t="s">
+      <c r="F398" t="s">
+        <v>4</v>
+      </c>
+      <c r="G398" t="s">
         <v>2741</v>
       </c>
-      <c r="F398" t="s">
-        <v>4</v>
-      </c>
-      <c r="G398" t="s">
+      <c r="H398" t="s">
+        <v>4</v>
+      </c>
+      <c r="I398" t="s">
         <v>2742</v>
       </c>
-      <c r="H398" t="s">
-        <v>4</v>
-      </c>
-      <c r="I398" t="s">
+      <c r="J398" t="s">
+        <v>4</v>
+      </c>
+      <c r="K398" t="s">
         <v>2743</v>
       </c>
-      <c r="J398" t="s">
-        <v>4</v>
-      </c>
-      <c r="K398" t="s">
+      <c r="L398" t="s">
+        <v>4</v>
+      </c>
+      <c r="M398" t="s">
         <v>2744</v>
       </c>
-      <c r="L398" t="s">
-        <v>4</v>
-      </c>
-      <c r="M398" t="s">
+      <c r="N398" t="s">
+        <v>4</v>
+      </c>
+      <c r="O398" s="3" t="s">
         <v>2745</v>
       </c>
-      <c r="N398" t="s">
-        <v>4</v>
-      </c>
-      <c r="O398" t="s">
+      <c r="P398" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q398" t="s">
+        <v>4</v>
+      </c>
+      <c r="R398" t="s">
+        <v>4</v>
+      </c>
+      <c r="S398" t="s">
         <v>2746</v>
       </c>
-      <c r="P398" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q398" t="s">
-        <v>4</v>
-      </c>
-      <c r="R398" t="s">
-        <v>4</v>
-      </c>
-      <c r="S398" t="s">
+      <c r="T398" t="s">
+        <v>4</v>
+      </c>
+      <c r="U398" t="s">
+        <v>3043</v>
+      </c>
+      <c r="V398" t="s">
+        <v>4</v>
+      </c>
+      <c r="W398" t="s">
         <v>2747</v>
-      </c>
-      <c r="T398" t="s">
-        <v>4</v>
-      </c>
-      <c r="U398" t="s">
-        <v>3044</v>
-      </c>
-      <c r="V398" t="s">
-        <v>4</v>
-      </c>
-      <c r="W398" t="s">
-        <v>2748</v>
       </c>
     </row>
     <row r="399" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>136</v>
@@ -38260,7 +38268,7 @@
       <c r="N399" t="s">
         <v>4</v>
       </c>
-      <c r="O399" t="s">
+      <c r="O399" s="3" t="s">
         <v>137</v>
       </c>
       <c r="P399" t="s">
@@ -38290,10 +38298,10 @@
     </row>
     <row r="400" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>115</v>
@@ -38331,7 +38339,7 @@
       <c r="N400" t="s">
         <v>4</v>
       </c>
-      <c r="O400" t="s">
+      <c r="O400" s="3" t="s">
         <v>121</v>
       </c>
       <c r="P400" t="s">
@@ -38350,7 +38358,7 @@
         <v>4</v>
       </c>
       <c r="U400" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="V400" t="s">
         <v>4</v>
@@ -38361,10 +38369,10 @@
     </row>
     <row r="401" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>1779</v>
@@ -38373,69 +38381,69 @@
         <v>4</v>
       </c>
       <c r="E401" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F401" t="s">
+        <v>4</v>
+      </c>
+      <c r="G401" t="s">
         <v>2749</v>
       </c>
-      <c r="F401" t="s">
-        <v>4</v>
-      </c>
-      <c r="G401" t="s">
+      <c r="H401" t="s">
+        <v>4</v>
+      </c>
+      <c r="I401" t="s">
         <v>2750</v>
       </c>
-      <c r="H401" t="s">
-        <v>4</v>
-      </c>
-      <c r="I401" t="s">
+      <c r="J401" t="s">
+        <v>4</v>
+      </c>
+      <c r="K401" t="s">
         <v>2751</v>
       </c>
-      <c r="J401" t="s">
-        <v>4</v>
-      </c>
-      <c r="K401" t="s">
+      <c r="L401" t="s">
+        <v>4</v>
+      </c>
+      <c r="M401" t="s">
         <v>2752</v>
       </c>
-      <c r="L401" t="s">
-        <v>4</v>
-      </c>
-      <c r="M401" t="s">
+      <c r="N401" t="s">
+        <v>4</v>
+      </c>
+      <c r="O401" s="3" t="s">
         <v>2753</v>
       </c>
-      <c r="N401" t="s">
-        <v>4</v>
-      </c>
-      <c r="O401" t="s">
+      <c r="P401" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q401" t="s">
+        <v>4</v>
+      </c>
+      <c r="R401" t="s">
+        <v>4</v>
+      </c>
+      <c r="S401" t="s">
         <v>2754</v>
       </c>
-      <c r="P401" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q401" t="s">
-        <v>4</v>
-      </c>
-      <c r="R401" t="s">
-        <v>4</v>
-      </c>
-      <c r="S401" t="s">
+      <c r="T401" t="s">
+        <v>4</v>
+      </c>
+      <c r="U401" t="s">
+        <v>3044</v>
+      </c>
+      <c r="V401" t="s">
+        <v>4</v>
+      </c>
+      <c r="W401" t="s">
         <v>2755</v>
-      </c>
-      <c r="T401" t="s">
-        <v>4</v>
-      </c>
-      <c r="U401" t="s">
-        <v>3045</v>
-      </c>
-      <c r="V401" t="s">
-        <v>4</v>
-      </c>
-      <c r="W401" t="s">
-        <v>2756</v>
       </c>
     </row>
     <row r="402" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>1755</v>
@@ -38444,25 +38452,25 @@
         <v>4</v>
       </c>
       <c r="E402" t="s">
+        <v>2756</v>
+      </c>
+      <c r="F402" t="s">
+        <v>4</v>
+      </c>
+      <c r="G402" t="s">
         <v>2757</v>
       </c>
-      <c r="F402" t="s">
-        <v>4</v>
-      </c>
-      <c r="G402" t="s">
+      <c r="H402" t="s">
+        <v>4</v>
+      </c>
+      <c r="I402" t="s">
         <v>2758</v>
       </c>
-      <c r="H402" t="s">
-        <v>4</v>
-      </c>
-      <c r="I402" t="s">
+      <c r="J402" t="s">
+        <v>4</v>
+      </c>
+      <c r="K402" t="s">
         <v>2759</v>
-      </c>
-      <c r="J402" t="s">
-        <v>4</v>
-      </c>
-      <c r="K402" t="s">
-        <v>2760</v>
       </c>
       <c r="L402" t="s">
         <v>4</v>
@@ -38473,395 +38481,395 @@
       <c r="N402" t="s">
         <v>4</v>
       </c>
-      <c r="O402" t="s">
+      <c r="O402" s="3" t="s">
+        <v>2760</v>
+      </c>
+      <c r="P402" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>4</v>
+      </c>
+      <c r="R402" t="s">
+        <v>4</v>
+      </c>
+      <c r="S402" t="s">
         <v>2761</v>
       </c>
-      <c r="P402" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q402" t="s">
-        <v>4</v>
-      </c>
-      <c r="R402" t="s">
-        <v>4</v>
-      </c>
-      <c r="S402" t="s">
+      <c r="T402" t="s">
+        <v>4</v>
+      </c>
+      <c r="U402" t="s">
+        <v>3045</v>
+      </c>
+      <c r="V402" t="s">
+        <v>4</v>
+      </c>
+      <c r="W402" t="s">
         <v>2762</v>
-      </c>
-      <c r="T402" t="s">
-        <v>4</v>
-      </c>
-      <c r="U402" t="s">
-        <v>3046</v>
-      </c>
-      <c r="V402" t="s">
-        <v>4</v>
-      </c>
-      <c r="W402" t="s">
-        <v>2763</v>
       </c>
     </row>
     <row r="403" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C403" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D403" t="s">
+        <v>4</v>
+      </c>
+      <c r="E403" t="s">
         <v>2764</v>
       </c>
-      <c r="D403" t="s">
-        <v>4</v>
-      </c>
-      <c r="E403" t="s">
+      <c r="F403" t="s">
+        <v>4</v>
+      </c>
+      <c r="G403" t="s">
         <v>2765</v>
       </c>
-      <c r="F403" t="s">
-        <v>4</v>
-      </c>
-      <c r="G403" t="s">
+      <c r="H403" t="s">
+        <v>4</v>
+      </c>
+      <c r="I403" t="s">
         <v>2766</v>
       </c>
-      <c r="H403" t="s">
-        <v>4</v>
-      </c>
-      <c r="I403" t="s">
+      <c r="J403" t="s">
+        <v>4</v>
+      </c>
+      <c r="K403" t="s">
         <v>2767</v>
       </c>
-      <c r="J403" t="s">
-        <v>4</v>
-      </c>
-      <c r="K403" t="s">
+      <c r="L403" t="s">
+        <v>4</v>
+      </c>
+      <c r="M403" t="s">
         <v>2768</v>
       </c>
-      <c r="L403" t="s">
-        <v>4</v>
-      </c>
-      <c r="M403" t="s">
+      <c r="N403" t="s">
+        <v>4</v>
+      </c>
+      <c r="O403" s="3" t="s">
         <v>2769</v>
       </c>
-      <c r="N403" t="s">
-        <v>4</v>
-      </c>
-      <c r="O403" t="s">
+      <c r="P403" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q403" t="s">
+        <v>4</v>
+      </c>
+      <c r="R403" t="s">
+        <v>4</v>
+      </c>
+      <c r="S403" t="s">
         <v>2770</v>
       </c>
-      <c r="P403" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q403" t="s">
-        <v>4</v>
-      </c>
-      <c r="R403" t="s">
-        <v>4</v>
-      </c>
-      <c r="S403" t="s">
+      <c r="T403" t="s">
+        <v>4</v>
+      </c>
+      <c r="U403" t="s">
+        <v>3046</v>
+      </c>
+      <c r="V403" t="s">
+        <v>4</v>
+      </c>
+      <c r="W403" t="s">
         <v>2771</v>
-      </c>
-      <c r="T403" t="s">
-        <v>4</v>
-      </c>
-      <c r="U403" t="s">
-        <v>3047</v>
-      </c>
-      <c r="V403" t="s">
-        <v>4</v>
-      </c>
-      <c r="W403" t="s">
-        <v>2772</v>
       </c>
     </row>
     <row r="404" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C404" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="D404" t="s">
+        <v>4</v>
+      </c>
+      <c r="E404" t="s">
         <v>2773</v>
       </c>
-      <c r="D404" t="s">
-        <v>4</v>
-      </c>
-      <c r="E404" t="s">
+      <c r="F404" t="s">
+        <v>4</v>
+      </c>
+      <c r="G404" t="s">
         <v>2774</v>
       </c>
-      <c r="F404" t="s">
-        <v>4</v>
-      </c>
-      <c r="G404" t="s">
+      <c r="H404" t="s">
+        <v>4</v>
+      </c>
+      <c r="I404" t="s">
         <v>2775</v>
       </c>
-      <c r="H404" t="s">
-        <v>4</v>
-      </c>
-      <c r="I404" t="s">
+      <c r="J404" t="s">
+        <v>4</v>
+      </c>
+      <c r="K404" t="s">
         <v>2776</v>
       </c>
-      <c r="J404" t="s">
-        <v>4</v>
-      </c>
-      <c r="K404" t="s">
+      <c r="L404" t="s">
+        <v>4</v>
+      </c>
+      <c r="M404" t="s">
         <v>2777</v>
       </c>
-      <c r="L404" t="s">
-        <v>4</v>
-      </c>
-      <c r="M404" t="s">
+      <c r="N404" t="s">
+        <v>4</v>
+      </c>
+      <c r="O404" s="3" t="s">
         <v>2778</v>
       </c>
-      <c r="N404" t="s">
-        <v>4</v>
-      </c>
-      <c r="O404" t="s">
+      <c r="P404" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q404" t="s">
+        <v>4</v>
+      </c>
+      <c r="R404" t="s">
+        <v>4</v>
+      </c>
+      <c r="S404" t="s">
         <v>2779</v>
       </c>
-      <c r="P404" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q404" t="s">
-        <v>4</v>
-      </c>
-      <c r="R404" t="s">
-        <v>4</v>
-      </c>
-      <c r="S404" t="s">
+      <c r="T404" t="s">
+        <v>4</v>
+      </c>
+      <c r="U404" t="s">
+        <v>3047</v>
+      </c>
+      <c r="V404" t="s">
+        <v>4</v>
+      </c>
+      <c r="W404" t="s">
         <v>2780</v>
-      </c>
-      <c r="T404" t="s">
-        <v>4</v>
-      </c>
-      <c r="U404" t="s">
-        <v>3048</v>
-      </c>
-      <c r="V404" t="s">
-        <v>4</v>
-      </c>
-      <c r="W404" t="s">
-        <v>2781</v>
       </c>
     </row>
     <row r="405" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C405" s="1" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D405" t="s">
+        <v>4</v>
+      </c>
+      <c r="E405" t="s">
         <v>2782</v>
       </c>
-      <c r="D405" t="s">
-        <v>4</v>
-      </c>
-      <c r="E405" t="s">
+      <c r="F405" t="s">
+        <v>4</v>
+      </c>
+      <c r="G405" t="s">
         <v>2783</v>
       </c>
-      <c r="F405" t="s">
-        <v>4</v>
-      </c>
-      <c r="G405" t="s">
+      <c r="H405" t="s">
+        <v>4</v>
+      </c>
+      <c r="I405" t="s">
         <v>2784</v>
       </c>
-      <c r="H405" t="s">
-        <v>4</v>
-      </c>
-      <c r="I405" t="s">
+      <c r="J405" t="s">
+        <v>4</v>
+      </c>
+      <c r="K405" t="s">
         <v>2785</v>
       </c>
-      <c r="J405" t="s">
-        <v>4</v>
-      </c>
-      <c r="K405" t="s">
+      <c r="L405" t="s">
+        <v>4</v>
+      </c>
+      <c r="M405" t="s">
         <v>2786</v>
       </c>
-      <c r="L405" t="s">
-        <v>4</v>
-      </c>
-      <c r="M405" t="s">
+      <c r="N405" t="s">
+        <v>4</v>
+      </c>
+      <c r="O405" s="3" t="s">
         <v>2787</v>
       </c>
-      <c r="N405" t="s">
-        <v>4</v>
-      </c>
-      <c r="O405" t="s">
+      <c r="P405" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q405" t="s">
+        <v>4</v>
+      </c>
+      <c r="R405" t="s">
+        <v>4</v>
+      </c>
+      <c r="S405" t="s">
         <v>2788</v>
       </c>
-      <c r="P405" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q405" t="s">
-        <v>4</v>
-      </c>
-      <c r="R405" t="s">
-        <v>4</v>
-      </c>
-      <c r="S405" t="s">
+      <c r="T405" t="s">
+        <v>4</v>
+      </c>
+      <c r="U405" t="s">
+        <v>3048</v>
+      </c>
+      <c r="V405" t="s">
+        <v>4</v>
+      </c>
+      <c r="W405" t="s">
         <v>2789</v>
-      </c>
-      <c r="T405" t="s">
-        <v>4</v>
-      </c>
-      <c r="U405" t="s">
-        <v>3049</v>
-      </c>
-      <c r="V405" t="s">
-        <v>4</v>
-      </c>
-      <c r="W405" t="s">
-        <v>2790</v>
       </c>
     </row>
     <row r="406" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C406" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D406" t="s">
+        <v>4</v>
+      </c>
+      <c r="E406" t="s">
         <v>2791</v>
       </c>
-      <c r="D406" t="s">
-        <v>4</v>
-      </c>
-      <c r="E406" t="s">
+      <c r="F406" t="s">
+        <v>4</v>
+      </c>
+      <c r="G406" t="s">
         <v>2792</v>
       </c>
-      <c r="F406" t="s">
-        <v>4</v>
-      </c>
-      <c r="G406" t="s">
+      <c r="H406" t="s">
+        <v>4</v>
+      </c>
+      <c r="I406" t="s">
         <v>2793</v>
       </c>
-      <c r="H406" t="s">
-        <v>4</v>
-      </c>
-      <c r="I406" t="s">
+      <c r="J406" t="s">
+        <v>4</v>
+      </c>
+      <c r="K406" t="s">
         <v>2794</v>
       </c>
-      <c r="J406" t="s">
-        <v>4</v>
-      </c>
-      <c r="K406" t="s">
+      <c r="L406" t="s">
+        <v>4</v>
+      </c>
+      <c r="M406" t="s">
         <v>2795</v>
       </c>
-      <c r="L406" t="s">
-        <v>4</v>
-      </c>
-      <c r="M406" t="s">
+      <c r="N406" t="s">
+        <v>4</v>
+      </c>
+      <c r="O406" s="3" t="s">
         <v>2796</v>
       </c>
-      <c r="N406" t="s">
-        <v>4</v>
-      </c>
-      <c r="O406" t="s">
+      <c r="P406" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q406" t="s">
+        <v>4</v>
+      </c>
+      <c r="R406" t="s">
+        <v>4</v>
+      </c>
+      <c r="S406" t="s">
         <v>2797</v>
       </c>
-      <c r="P406" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q406" t="s">
-        <v>4</v>
-      </c>
-      <c r="R406" t="s">
-        <v>4</v>
-      </c>
-      <c r="S406" t="s">
+      <c r="T406" t="s">
+        <v>4</v>
+      </c>
+      <c r="U406" t="s">
+        <v>3049</v>
+      </c>
+      <c r="V406" t="s">
+        <v>4</v>
+      </c>
+      <c r="W406" t="s">
         <v>2798</v>
-      </c>
-      <c r="T406" t="s">
-        <v>4</v>
-      </c>
-      <c r="U406" t="s">
-        <v>3050</v>
-      </c>
-      <c r="V406" t="s">
-        <v>4</v>
-      </c>
-      <c r="W406" t="s">
-        <v>2799</v>
       </c>
     </row>
     <row r="407" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C407" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="D407" t="s">
+        <v>4</v>
+      </c>
+      <c r="E407" t="s">
         <v>2800</v>
       </c>
-      <c r="D407" t="s">
-        <v>4</v>
-      </c>
-      <c r="E407" t="s">
+      <c r="F407" t="s">
+        <v>4</v>
+      </c>
+      <c r="G407" t="s">
         <v>2801</v>
       </c>
-      <c r="F407" t="s">
-        <v>4</v>
-      </c>
-      <c r="G407" t="s">
+      <c r="H407" t="s">
+        <v>4</v>
+      </c>
+      <c r="I407" t="s">
         <v>2802</v>
       </c>
-      <c r="H407" t="s">
-        <v>4</v>
-      </c>
-      <c r="I407" t="s">
+      <c r="J407" t="s">
+        <v>4</v>
+      </c>
+      <c r="K407" t="s">
         <v>2803</v>
       </c>
-      <c r="J407" t="s">
-        <v>4</v>
-      </c>
-      <c r="K407" t="s">
+      <c r="L407" t="s">
+        <v>4</v>
+      </c>
+      <c r="M407" t="s">
         <v>2804</v>
       </c>
-      <c r="L407" t="s">
-        <v>4</v>
-      </c>
-      <c r="M407" t="s">
+      <c r="N407" t="s">
+        <v>4</v>
+      </c>
+      <c r="O407" s="3" t="s">
         <v>2805</v>
       </c>
-      <c r="N407" t="s">
-        <v>4</v>
-      </c>
-      <c r="O407" t="s">
+      <c r="P407" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q407" t="s">
+        <v>4</v>
+      </c>
+      <c r="R407" t="s">
+        <v>4</v>
+      </c>
+      <c r="S407" t="s">
         <v>2806</v>
       </c>
-      <c r="P407" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q407" t="s">
-        <v>4</v>
-      </c>
-      <c r="R407" t="s">
-        <v>4</v>
-      </c>
-      <c r="S407" t="s">
+      <c r="T407" t="s">
+        <v>4</v>
+      </c>
+      <c r="U407" t="s">
+        <v>3050</v>
+      </c>
+      <c r="V407" t="s">
+        <v>4</v>
+      </c>
+      <c r="W407" t="s">
         <v>2807</v>
-      </c>
-      <c r="T407" t="s">
-        <v>4</v>
-      </c>
-      <c r="U407" t="s">
-        <v>3051</v>
-      </c>
-      <c r="V407" t="s">
-        <v>4</v>
-      </c>
-      <c r="W407" t="s">
-        <v>2808</v>
       </c>
     </row>
     <row r="408" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>1787</v>
@@ -38870,211 +38878,211 @@
         <v>4</v>
       </c>
       <c r="E408" t="s">
+        <v>2808</v>
+      </c>
+      <c r="F408" t="s">
+        <v>4</v>
+      </c>
+      <c r="G408" t="s">
         <v>2809</v>
       </c>
-      <c r="F408" t="s">
-        <v>4</v>
-      </c>
-      <c r="G408" t="s">
+      <c r="H408" t="s">
+        <v>4</v>
+      </c>
+      <c r="I408" t="s">
         <v>2810</v>
       </c>
-      <c r="H408" t="s">
-        <v>4</v>
-      </c>
-      <c r="I408" t="s">
+      <c r="J408" t="s">
+        <v>4</v>
+      </c>
+      <c r="K408" t="s">
         <v>2811</v>
       </c>
-      <c r="J408" t="s">
-        <v>4</v>
-      </c>
-      <c r="K408" t="s">
+      <c r="L408" t="s">
+        <v>4</v>
+      </c>
+      <c r="M408" t="s">
         <v>2812</v>
       </c>
-      <c r="L408" t="s">
-        <v>4</v>
-      </c>
-      <c r="M408" t="s">
+      <c r="N408" t="s">
+        <v>4</v>
+      </c>
+      <c r="O408" s="3" t="s">
         <v>2813</v>
       </c>
-      <c r="N408" t="s">
-        <v>4</v>
-      </c>
-      <c r="O408" t="s">
+      <c r="P408" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q408" t="s">
+        <v>4</v>
+      </c>
+      <c r="R408" t="s">
+        <v>4</v>
+      </c>
+      <c r="S408" t="s">
         <v>2814</v>
       </c>
-      <c r="P408" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q408" t="s">
-        <v>4</v>
-      </c>
-      <c r="R408" t="s">
-        <v>4</v>
-      </c>
-      <c r="S408" t="s">
+      <c r="T408" t="s">
+        <v>4</v>
+      </c>
+      <c r="U408" t="s">
+        <v>3051</v>
+      </c>
+      <c r="V408" t="s">
+        <v>4</v>
+      </c>
+      <c r="W408" t="s">
         <v>2815</v>
-      </c>
-      <c r="T408" t="s">
-        <v>4</v>
-      </c>
-      <c r="U408" t="s">
-        <v>3052</v>
-      </c>
-      <c r="V408" t="s">
-        <v>4</v>
-      </c>
-      <c r="W408" t="s">
-        <v>2816</v>
       </c>
     </row>
     <row r="409" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C409" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="D409" t="s">
+        <v>4</v>
+      </c>
+      <c r="E409" t="s">
         <v>2817</v>
       </c>
-      <c r="D409" t="s">
-        <v>4</v>
-      </c>
-      <c r="E409" t="s">
+      <c r="F409" t="s">
+        <v>4</v>
+      </c>
+      <c r="G409" t="s">
         <v>2818</v>
       </c>
-      <c r="F409" t="s">
-        <v>4</v>
-      </c>
-      <c r="G409" t="s">
+      <c r="H409" t="s">
+        <v>4</v>
+      </c>
+      <c r="I409" t="s">
+        <v>2817</v>
+      </c>
+      <c r="J409" t="s">
+        <v>4</v>
+      </c>
+      <c r="K409" t="s">
         <v>2819</v>
       </c>
-      <c r="H409" t="s">
-        <v>4</v>
-      </c>
-      <c r="I409" t="s">
-        <v>2818</v>
-      </c>
-      <c r="J409" t="s">
-        <v>4</v>
-      </c>
-      <c r="K409" t="s">
+      <c r="L409" t="s">
+        <v>4</v>
+      </c>
+      <c r="M409" t="s">
         <v>2820</v>
       </c>
-      <c r="L409" t="s">
-        <v>4</v>
-      </c>
-      <c r="M409" t="s">
+      <c r="N409" t="s">
+        <v>4</v>
+      </c>
+      <c r="O409" s="3" t="s">
         <v>2821</v>
       </c>
-      <c r="N409" t="s">
-        <v>4</v>
-      </c>
-      <c r="O409" t="s">
+      <c r="P409" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q409" t="s">
+        <v>4</v>
+      </c>
+      <c r="R409" t="s">
+        <v>4</v>
+      </c>
+      <c r="S409" t="s">
         <v>2822</v>
       </c>
-      <c r="P409" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q409" t="s">
-        <v>4</v>
-      </c>
-      <c r="R409" t="s">
-        <v>4</v>
-      </c>
-      <c r="S409" t="s">
+      <c r="T409" t="s">
+        <v>4</v>
+      </c>
+      <c r="U409" t="s">
+        <v>3052</v>
+      </c>
+      <c r="V409" t="s">
+        <v>4</v>
+      </c>
+      <c r="W409" t="s">
         <v>2823</v>
-      </c>
-      <c r="T409" t="s">
-        <v>4</v>
-      </c>
-      <c r="U409" t="s">
-        <v>3053</v>
-      </c>
-      <c r="V409" t="s">
-        <v>4</v>
-      </c>
-      <c r="W409" t="s">
-        <v>2824</v>
       </c>
     </row>
     <row r="410" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C410" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D410" t="s">
+        <v>4</v>
+      </c>
+      <c r="E410" t="s">
         <v>2825</v>
       </c>
-      <c r="D410" t="s">
-        <v>4</v>
-      </c>
-      <c r="E410" t="s">
+      <c r="F410" t="s">
+        <v>4</v>
+      </c>
+      <c r="G410" t="s">
         <v>2826</v>
       </c>
-      <c r="F410" t="s">
-        <v>4</v>
-      </c>
-      <c r="G410" t="s">
+      <c r="H410" t="s">
+        <v>4</v>
+      </c>
+      <c r="I410" t="s">
         <v>2827</v>
       </c>
-      <c r="H410" t="s">
-        <v>4</v>
-      </c>
-      <c r="I410" t="s">
+      <c r="J410" t="s">
+        <v>4</v>
+      </c>
+      <c r="K410" t="s">
         <v>2828</v>
       </c>
-      <c r="J410" t="s">
-        <v>4</v>
-      </c>
-      <c r="K410" t="s">
+      <c r="L410" t="s">
+        <v>4</v>
+      </c>
+      <c r="M410" t="s">
         <v>2829</v>
       </c>
-      <c r="L410" t="s">
-        <v>4</v>
-      </c>
-      <c r="M410" t="s">
+      <c r="N410" t="s">
+        <v>4</v>
+      </c>
+      <c r="O410" s="3" t="s">
         <v>2830</v>
       </c>
-      <c r="N410" t="s">
-        <v>4</v>
-      </c>
-      <c r="O410" t="s">
+      <c r="P410" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>4</v>
+      </c>
+      <c r="R410" t="s">
+        <v>4</v>
+      </c>
+      <c r="S410" t="s">
         <v>2831</v>
       </c>
-      <c r="P410" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q410" t="s">
-        <v>4</v>
-      </c>
-      <c r="R410" t="s">
-        <v>4</v>
-      </c>
-      <c r="S410" t="s">
+      <c r="T410" t="s">
+        <v>4</v>
+      </c>
+      <c r="U410" t="s">
+        <v>3053</v>
+      </c>
+      <c r="V410" t="s">
+        <v>4</v>
+      </c>
+      <c r="W410" t="s">
         <v>2832</v>
-      </c>
-      <c r="T410" t="s">
-        <v>4</v>
-      </c>
-      <c r="U410" t="s">
-        <v>3054</v>
-      </c>
-      <c r="V410" t="s">
-        <v>4</v>
-      </c>
-      <c r="W410" t="s">
-        <v>2833</v>
       </c>
     </row>
     <row r="411" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>86</v>
@@ -39083,25 +39091,25 @@
         <v>4</v>
       </c>
       <c r="E411" t="s">
+        <v>2833</v>
+      </c>
+      <c r="F411" t="s">
+        <v>4</v>
+      </c>
+      <c r="G411" t="s">
         <v>2834</v>
       </c>
-      <c r="F411" t="s">
-        <v>4</v>
-      </c>
-      <c r="G411" t="s">
+      <c r="H411" t="s">
+        <v>4</v>
+      </c>
+      <c r="I411" t="s">
         <v>2835</v>
       </c>
-      <c r="H411" t="s">
-        <v>4</v>
-      </c>
-      <c r="I411" t="s">
+      <c r="J411" t="s">
+        <v>4</v>
+      </c>
+      <c r="K411" t="s">
         <v>2836</v>
-      </c>
-      <c r="J411" t="s">
-        <v>4</v>
-      </c>
-      <c r="K411" t="s">
-        <v>2837</v>
       </c>
       <c r="L411" t="s">
         <v>4</v>
@@ -39112,32 +39120,32 @@
       <c r="N411" t="s">
         <v>4</v>
       </c>
-      <c r="O411" t="s">
+      <c r="O411" s="3" t="s">
+        <v>2837</v>
+      </c>
+      <c r="P411" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q411" t="s">
+        <v>4</v>
+      </c>
+      <c r="R411" t="s">
+        <v>4</v>
+      </c>
+      <c r="S411" t="s">
         <v>2838</v>
       </c>
-      <c r="P411" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q411" t="s">
-        <v>4</v>
-      </c>
-      <c r="R411" t="s">
-        <v>4</v>
-      </c>
-      <c r="S411" t="s">
+      <c r="T411" t="s">
+        <v>4</v>
+      </c>
+      <c r="U411" t="s">
+        <v>3054</v>
+      </c>
+      <c r="V411" t="s">
+        <v>4</v>
+      </c>
+      <c r="W411" t="s">
         <v>2839</v>
-      </c>
-      <c r="T411" t="s">
-        <v>4</v>
-      </c>
-      <c r="U411" t="s">
-        <v>3055</v>
-      </c>
-      <c r="V411" t="s">
-        <v>4</v>
-      </c>
-      <c r="W411" t="s">
-        <v>2840</v>
       </c>
     </row>
   </sheetData>

--- a/source/Translation.xlsx
+++ b/source/Translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sources\ChanSort\Source\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C12B7B-BEA7-41CC-A168-02600D56DEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F56F3AD-C3CE-4466-B5BF-8017ACF63813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1545" yWindow="2040" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10925" uniqueCount="3394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10825" uniqueCount="3384">
   <si>
     <t>Project</t>
   </si>
@@ -9119,36 +9119,6 @@
   </si>
   <si>
     <t>Referans Listesini Uygula</t>
-  </si>
-  <si>
-    <t>groupControl1.Text</t>
-  </si>
-  <si>
-    <t>1. Selezionare il file dell'elenco di riferimento</t>
-  </si>
-  <si>
-    <t>groupControl2.Text</t>
-  </si>
-  <si>
-    <t>2. Metti ordine nel tuo file TV</t>
-  </si>
-  <si>
-    <t>checkEdit1.Properties.Caption</t>
-  </si>
-  <si>
-    <t>Adat/Egyéb</t>
-  </si>
-  <si>
-    <t>Dane/Inne</t>
-  </si>
-  <si>
-    <t>Данные/Другое</t>
-  </si>
-  <si>
-    <t>Veri / Diğer</t>
-  </si>
-  <si>
-    <t>edFile.Properties.Buttons8</t>
   </si>
   <si>
     <t>SkinPickerForm</t>
@@ -10957,16 +10927,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y437"/>
+  <dimension ref="A1:Y433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F366" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="F376" sqref="F376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -39848,16 +39821,16 @@
         <v>25</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>2660</v>
+        <v>2936</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="D376" t="s">
         <v>4</v>
       </c>
       <c r="E376" t="s">
-        <v>2910</v>
+        <v>2938</v>
       </c>
       <c r="F376" t="s">
         <v>4</v>
@@ -39869,31 +39842,31 @@
         <v>4</v>
       </c>
       <c r="I376" t="s">
-        <v>2911</v>
+        <v>2939</v>
       </c>
       <c r="J376" t="s">
         <v>4</v>
       </c>
       <c r="K376" t="s">
-        <v>2912</v>
+        <v>4</v>
       </c>
       <c r="L376" t="s">
         <v>4</v>
       </c>
       <c r="M376" t="s">
-        <v>2913</v>
+        <v>2940</v>
       </c>
       <c r="N376" t="s">
         <v>4</v>
       </c>
       <c r="O376" t="s">
-        <v>2937</v>
+        <v>4</v>
       </c>
       <c r="P376" t="s">
         <v>4</v>
       </c>
       <c r="Q376" t="s">
-        <v>2914</v>
+        <v>2941</v>
       </c>
       <c r="R376" t="s">
         <v>4</v>
@@ -39905,19 +39878,19 @@
         <v>4</v>
       </c>
       <c r="U376" t="s">
-        <v>2915</v>
+        <v>4</v>
       </c>
       <c r="V376" t="s">
         <v>4</v>
       </c>
       <c r="W376" t="s">
-        <v>2916</v>
+        <v>2942</v>
       </c>
       <c r="X376" t="s">
         <v>4</v>
       </c>
       <c r="Y376" t="s">
-        <v>2917</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:25" x14ac:dyDescent="0.25">
@@ -39925,76 +39898,76 @@
         <v>25</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>2660</v>
+        <v>2936</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>2938</v>
+        <v>629</v>
       </c>
       <c r="D377" t="s">
         <v>4</v>
       </c>
       <c r="E377" t="s">
-        <v>2919</v>
+        <v>392</v>
       </c>
       <c r="F377" t="s">
         <v>4</v>
       </c>
       <c r="G377" t="s">
-        <v>4</v>
+        <v>393</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
       </c>
       <c r="I377" t="s">
-        <v>2920</v>
+        <v>394</v>
       </c>
       <c r="J377" t="s">
         <v>4</v>
       </c>
       <c r="K377" t="s">
-        <v>2921</v>
+        <v>395</v>
       </c>
       <c r="L377" t="s">
         <v>4</v>
       </c>
       <c r="M377" t="s">
-        <v>2922</v>
+        <v>396</v>
       </c>
       <c r="N377" t="s">
         <v>4</v>
       </c>
       <c r="O377" t="s">
-        <v>2939</v>
+        <v>397</v>
       </c>
       <c r="P377" t="s">
         <v>4</v>
       </c>
       <c r="Q377" t="s">
-        <v>2923</v>
+        <v>398</v>
       </c>
       <c r="R377" t="s">
         <v>4</v>
       </c>
       <c r="S377" t="s">
-        <v>4</v>
+        <v>630</v>
       </c>
       <c r="T377" t="s">
         <v>4</v>
       </c>
       <c r="U377" t="s">
-        <v>2924</v>
+        <v>399</v>
       </c>
       <c r="V377" t="s">
         <v>4</v>
       </c>
       <c r="W377" t="s">
-        <v>2925</v>
+        <v>400</v>
       </c>
       <c r="X377" t="s">
         <v>4</v>
       </c>
       <c r="Y377" t="s">
-        <v>2926</v>
+        <v>401</v>
       </c>
     </row>
     <row r="378" spans="1:25" x14ac:dyDescent="0.25">
@@ -40002,52 +39975,52 @@
         <v>25</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>2660</v>
+        <v>2936</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>2940</v>
+        <v>761</v>
       </c>
       <c r="D378" t="s">
         <v>4</v>
       </c>
       <c r="E378" t="s">
-        <v>2773</v>
+        <v>762</v>
       </c>
       <c r="F378" t="s">
         <v>4</v>
       </c>
       <c r="G378" t="s">
-        <v>4</v>
+        <v>762</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
       </c>
       <c r="I378" t="s">
-        <v>4</v>
+        <v>762</v>
       </c>
       <c r="J378" t="s">
         <v>4</v>
       </c>
       <c r="K378" t="s">
-        <v>4</v>
+        <v>762</v>
       </c>
       <c r="L378" t="s">
         <v>4</v>
       </c>
       <c r="M378" t="s">
-        <v>2941</v>
+        <v>762</v>
       </c>
       <c r="N378" t="s">
         <v>4</v>
       </c>
       <c r="O378" t="s">
-        <v>4</v>
+        <v>762</v>
       </c>
       <c r="P378" t="s">
         <v>4</v>
       </c>
       <c r="Q378" t="s">
-        <v>2942</v>
+        <v>762</v>
       </c>
       <c r="R378" t="s">
         <v>4</v>
@@ -40059,19 +40032,19 @@
         <v>4</v>
       </c>
       <c r="U378" t="s">
-        <v>4</v>
+        <v>762</v>
       </c>
       <c r="V378" t="s">
         <v>4</v>
       </c>
       <c r="W378" t="s">
-        <v>2943</v>
+        <v>763</v>
       </c>
       <c r="X378" t="s">
         <v>4</v>
       </c>
       <c r="Y378" t="s">
-        <v>2944</v>
+        <v>764</v>
       </c>
     </row>
     <row r="379" spans="1:25" x14ac:dyDescent="0.25">
@@ -40079,52 +40052,52 @@
         <v>25</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>2660</v>
+        <v>2936</v>
       </c>
       <c r="C379" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="D379" t="s">
+        <v>4</v>
+      </c>
+      <c r="E379" t="s">
+        <v>2944</v>
+      </c>
+      <c r="F379" t="s">
+        <v>4</v>
+      </c>
+      <c r="G379" t="s">
+        <v>4</v>
+      </c>
+      <c r="H379" t="s">
+        <v>4</v>
+      </c>
+      <c r="I379" t="s">
+        <v>4</v>
+      </c>
+      <c r="J379" t="s">
+        <v>4</v>
+      </c>
+      <c r="K379" t="s">
+        <v>4</v>
+      </c>
+      <c r="L379" t="s">
+        <v>4</v>
+      </c>
+      <c r="M379" t="s">
+        <v>4</v>
+      </c>
+      <c r="N379" t="s">
+        <v>4</v>
+      </c>
+      <c r="O379" t="s">
+        <v>4</v>
+      </c>
+      <c r="P379" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q379" t="s">
         <v>2945</v>
-      </c>
-      <c r="D379" t="s">
-        <v>4</v>
-      </c>
-      <c r="E379" t="s">
-        <v>4</v>
-      </c>
-      <c r="F379" t="s">
-        <v>4</v>
-      </c>
-      <c r="G379" t="s">
-        <v>4</v>
-      </c>
-      <c r="H379" t="s">
-        <v>4</v>
-      </c>
-      <c r="I379" t="s">
-        <v>4</v>
-      </c>
-      <c r="J379" t="s">
-        <v>4</v>
-      </c>
-      <c r="K379" t="s">
-        <v>4</v>
-      </c>
-      <c r="L379" t="s">
-        <v>4</v>
-      </c>
-      <c r="M379" t="s">
-        <v>4</v>
-      </c>
-      <c r="N379" t="s">
-        <v>4</v>
-      </c>
-      <c r="O379" t="s">
-        <v>4</v>
-      </c>
-      <c r="P379" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q379" t="s">
-        <v>4</v>
       </c>
       <c r="R379" t="s">
         <v>4</v>
@@ -40156,34 +40129,34 @@
         <v>25</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D380" t="s">
+        <v>4</v>
+      </c>
+      <c r="E380" t="s">
         <v>2946</v>
       </c>
-      <c r="C380" s="1" t="s">
+      <c r="F380" t="s">
+        <v>4</v>
+      </c>
+      <c r="G380" t="s">
         <v>2947</v>
       </c>
-      <c r="D380" t="s">
-        <v>4</v>
-      </c>
-      <c r="E380" t="s">
+      <c r="H380" t="s">
+        <v>4</v>
+      </c>
+      <c r="I380" t="s">
         <v>2948</v>
       </c>
-      <c r="F380" t="s">
-        <v>4</v>
-      </c>
-      <c r="G380" t="s">
-        <v>4</v>
-      </c>
-      <c r="H380" t="s">
-        <v>4</v>
-      </c>
-      <c r="I380" t="s">
+      <c r="J380" t="s">
+        <v>4</v>
+      </c>
+      <c r="K380" t="s">
         <v>2949</v>
-      </c>
-      <c r="J380" t="s">
-        <v>4</v>
-      </c>
-      <c r="K380" t="s">
-        <v>4</v>
       </c>
       <c r="L380" t="s">
         <v>4</v>
@@ -40207,25 +40180,25 @@
         <v>4</v>
       </c>
       <c r="S380" t="s">
-        <v>4</v>
+        <v>2952</v>
       </c>
       <c r="T380" t="s">
         <v>4</v>
       </c>
       <c r="U380" t="s">
-        <v>4</v>
+        <v>2953</v>
       </c>
       <c r="V380" t="s">
         <v>4</v>
       </c>
       <c r="W380" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
       <c r="X380" t="s">
         <v>4</v>
       </c>
       <c r="Y380" t="s">
-        <v>4</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="381" spans="1:25" x14ac:dyDescent="0.25">
@@ -40233,76 +40206,76 @@
         <v>25</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>2946</v>
+        <v>2956</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>629</v>
+        <v>2957</v>
       </c>
       <c r="D381" t="s">
         <v>4</v>
       </c>
       <c r="E381" t="s">
-        <v>392</v>
+        <v>2958</v>
       </c>
       <c r="F381" t="s">
         <v>4</v>
       </c>
       <c r="G381" t="s">
-        <v>393</v>
+        <v>2959</v>
       </c>
       <c r="H381" t="s">
         <v>4</v>
       </c>
       <c r="I381" t="s">
-        <v>394</v>
+        <v>2960</v>
       </c>
       <c r="J381" t="s">
         <v>4</v>
       </c>
       <c r="K381" t="s">
-        <v>395</v>
+        <v>2961</v>
       </c>
       <c r="L381" t="s">
         <v>4</v>
       </c>
       <c r="M381" t="s">
-        <v>396</v>
+        <v>2962</v>
       </c>
       <c r="N381" t="s">
         <v>4</v>
       </c>
       <c r="O381" t="s">
-        <v>397</v>
+        <v>2963</v>
       </c>
       <c r="P381" t="s">
         <v>4</v>
       </c>
       <c r="Q381" t="s">
-        <v>398</v>
+        <v>2964</v>
       </c>
       <c r="R381" t="s">
         <v>4</v>
       </c>
       <c r="S381" t="s">
-        <v>630</v>
+        <v>2965</v>
       </c>
       <c r="T381" t="s">
         <v>4</v>
       </c>
       <c r="U381" t="s">
-        <v>399</v>
+        <v>2966</v>
       </c>
       <c r="V381" t="s">
         <v>4</v>
       </c>
       <c r="W381" t="s">
-        <v>400</v>
+        <v>2967</v>
       </c>
       <c r="X381" t="s">
         <v>4</v>
       </c>
       <c r="Y381" t="s">
-        <v>401</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="382" spans="1:25" x14ac:dyDescent="0.25">
@@ -40310,52 +40283,52 @@
         <v>25</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>2946</v>
+        <v>2956</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>761</v>
+        <v>2969</v>
       </c>
       <c r="D382" t="s">
-        <v>4</v>
+        <v>616</v>
       </c>
       <c r="E382" t="s">
-        <v>762</v>
+        <v>2970</v>
       </c>
       <c r="F382" t="s">
         <v>4</v>
       </c>
       <c r="G382" t="s">
-        <v>762</v>
+        <v>2970</v>
       </c>
       <c r="H382" t="s">
         <v>4</v>
       </c>
       <c r="I382" t="s">
-        <v>762</v>
+        <v>4</v>
       </c>
       <c r="J382" t="s">
         <v>4</v>
       </c>
       <c r="K382" t="s">
-        <v>762</v>
+        <v>4</v>
       </c>
       <c r="L382" t="s">
         <v>4</v>
       </c>
       <c r="M382" t="s">
-        <v>762</v>
+        <v>4</v>
       </c>
       <c r="N382" t="s">
         <v>4</v>
       </c>
       <c r="O382" t="s">
-        <v>762</v>
+        <v>2971</v>
       </c>
       <c r="P382" t="s">
         <v>4</v>
       </c>
       <c r="Q382" t="s">
-        <v>762</v>
+        <v>4</v>
       </c>
       <c r="R382" t="s">
         <v>4</v>
@@ -40367,19 +40340,19 @@
         <v>4</v>
       </c>
       <c r="U382" t="s">
-        <v>762</v>
+        <v>2970</v>
       </c>
       <c r="V382" t="s">
         <v>4</v>
       </c>
       <c r="W382" t="s">
-        <v>763</v>
+        <v>4</v>
       </c>
       <c r="X382" t="s">
         <v>4</v>
       </c>
       <c r="Y382" t="s">
-        <v>764</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:25" x14ac:dyDescent="0.25">
@@ -40387,22 +40360,22 @@
         <v>25</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>2946</v>
+        <v>2956</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>2953</v>
+        <v>637</v>
       </c>
       <c r="D383" t="s">
-        <v>4</v>
+        <v>616</v>
       </c>
       <c r="E383" t="s">
-        <v>2954</v>
+        <v>2972</v>
       </c>
       <c r="F383" t="s">
         <v>4</v>
       </c>
       <c r="G383" t="s">
-        <v>4</v>
+        <v>2972</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -40426,13 +40399,13 @@
         <v>4</v>
       </c>
       <c r="O383" t="s">
-        <v>4</v>
+        <v>2973</v>
       </c>
       <c r="P383" t="s">
         <v>4</v>
       </c>
       <c r="Q383" t="s">
-        <v>2955</v>
+        <v>4</v>
       </c>
       <c r="R383" t="s">
         <v>4</v>
@@ -40444,7 +40417,7 @@
         <v>4</v>
       </c>
       <c r="U383" t="s">
-        <v>4</v>
+        <v>2972</v>
       </c>
       <c r="V383" t="s">
         <v>4</v>
@@ -40464,206 +40437,206 @@
         <v>25</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>2946</v>
+        <v>2956</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>637</v>
+        <v>2974</v>
       </c>
       <c r="D384" t="s">
         <v>4</v>
       </c>
       <c r="E384" t="s">
-        <v>2956</v>
+        <v>2975</v>
       </c>
       <c r="F384" t="s">
         <v>4</v>
       </c>
       <c r="G384" t="s">
-        <v>2957</v>
+        <v>2976</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
       </c>
       <c r="I384" t="s">
-        <v>2958</v>
+        <v>2977</v>
       </c>
       <c r="J384" t="s">
         <v>4</v>
       </c>
       <c r="K384" t="s">
-        <v>2959</v>
+        <v>2978</v>
       </c>
       <c r="L384" t="s">
         <v>4</v>
       </c>
       <c r="M384" t="s">
-        <v>2960</v>
+        <v>2979</v>
       </c>
       <c r="N384" t="s">
         <v>4</v>
       </c>
       <c r="O384" t="s">
-        <v>4</v>
+        <v>2980</v>
       </c>
       <c r="P384" t="s">
         <v>4</v>
       </c>
       <c r="Q384" t="s">
-        <v>2961</v>
+        <v>2981</v>
       </c>
       <c r="R384" t="s">
         <v>4</v>
       </c>
       <c r="S384" t="s">
-        <v>2962</v>
+        <v>2982</v>
       </c>
       <c r="T384" t="s">
         <v>4</v>
       </c>
       <c r="U384" t="s">
-        <v>2963</v>
+        <v>2983</v>
       </c>
       <c r="V384" t="s">
         <v>4</v>
       </c>
       <c r="W384" t="s">
-        <v>2964</v>
+        <v>2984</v>
       </c>
       <c r="X384" t="s">
         <v>4</v>
       </c>
       <c r="Y384" t="s">
-        <v>2965</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>25</v>
+        <v>2986</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>2966</v>
+        <v>2987</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>2967</v>
+        <v>2988</v>
       </c>
       <c r="D385" t="s">
         <v>4</v>
       </c>
       <c r="E385" t="s">
-        <v>2968</v>
+        <v>2989</v>
       </c>
       <c r="F385" t="s">
         <v>4</v>
       </c>
       <c r="G385" t="s">
-        <v>2969</v>
+        <v>2990</v>
       </c>
       <c r="H385" t="s">
         <v>4</v>
       </c>
       <c r="I385" t="s">
-        <v>2970</v>
+        <v>2991</v>
       </c>
       <c r="J385" t="s">
         <v>4</v>
       </c>
       <c r="K385" t="s">
-        <v>2971</v>
+        <v>2992</v>
       </c>
       <c r="L385" t="s">
         <v>4</v>
       </c>
       <c r="M385" t="s">
-        <v>2972</v>
+        <v>2993</v>
       </c>
       <c r="N385" t="s">
         <v>4</v>
       </c>
       <c r="O385" t="s">
-        <v>2973</v>
+        <v>2994</v>
       </c>
       <c r="P385" t="s">
         <v>4</v>
       </c>
       <c r="Q385" t="s">
-        <v>2974</v>
+        <v>2995</v>
       </c>
       <c r="R385" t="s">
         <v>4</v>
       </c>
       <c r="S385" t="s">
-        <v>2975</v>
+        <v>4</v>
       </c>
       <c r="T385" t="s">
         <v>4</v>
       </c>
       <c r="U385" t="s">
-        <v>2976</v>
+        <v>2996</v>
       </c>
       <c r="V385" t="s">
         <v>4</v>
       </c>
       <c r="W385" t="s">
-        <v>2977</v>
+        <v>2997</v>
       </c>
       <c r="X385" t="s">
         <v>4</v>
       </c>
       <c r="Y385" t="s">
-        <v>2978</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="386" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>25</v>
+        <v>2986</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>2966</v>
+        <v>2987</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>2979</v>
+        <v>2999</v>
       </c>
       <c r="D386" t="s">
-        <v>616</v>
+        <v>4</v>
       </c>
       <c r="E386" t="s">
-        <v>2980</v>
+        <v>3000</v>
       </c>
       <c r="F386" t="s">
         <v>4</v>
       </c>
       <c r="G386" t="s">
-        <v>2980</v>
+        <v>3001</v>
       </c>
       <c r="H386" t="s">
         <v>4</v>
       </c>
       <c r="I386" t="s">
-        <v>4</v>
+        <v>3002</v>
       </c>
       <c r="J386" t="s">
         <v>4</v>
       </c>
       <c r="K386" t="s">
-        <v>4</v>
+        <v>3003</v>
       </c>
       <c r="L386" t="s">
         <v>4</v>
       </c>
       <c r="M386" t="s">
-        <v>4</v>
+        <v>3004</v>
       </c>
       <c r="N386" t="s">
         <v>4</v>
       </c>
       <c r="O386" t="s">
-        <v>2981</v>
+        <v>3005</v>
       </c>
       <c r="P386" t="s">
         <v>4</v>
       </c>
       <c r="Q386" t="s">
-        <v>4</v>
+        <v>3006</v>
       </c>
       <c r="R386" t="s">
         <v>4</v>
@@ -40675,72 +40648,72 @@
         <v>4</v>
       </c>
       <c r="U386" t="s">
-        <v>2980</v>
+        <v>3007</v>
       </c>
       <c r="V386" t="s">
         <v>4</v>
       </c>
       <c r="W386" t="s">
-        <v>4</v>
+        <v>3008</v>
       </c>
       <c r="X386" t="s">
         <v>4</v>
       </c>
       <c r="Y386" t="s">
-        <v>4</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="387" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>25</v>
+        <v>3010</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>2966</v>
+        <v>3011</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>637</v>
+        <v>3012</v>
       </c>
       <c r="D387" t="s">
-        <v>616</v>
+        <v>4</v>
       </c>
       <c r="E387" t="s">
-        <v>2982</v>
+        <v>3013</v>
       </c>
       <c r="F387" t="s">
         <v>4</v>
       </c>
       <c r="G387" t="s">
-        <v>2982</v>
+        <v>3014</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
       </c>
       <c r="I387" t="s">
-        <v>4</v>
+        <v>3015</v>
       </c>
       <c r="J387" t="s">
         <v>4</v>
       </c>
       <c r="K387" t="s">
-        <v>4</v>
+        <v>3016</v>
       </c>
       <c r="L387" t="s">
         <v>4</v>
       </c>
       <c r="M387" t="s">
-        <v>4</v>
+        <v>3017</v>
       </c>
       <c r="N387" t="s">
         <v>4</v>
       </c>
       <c r="O387" t="s">
-        <v>2983</v>
+        <v>3018</v>
       </c>
       <c r="P387" t="s">
         <v>4</v>
       </c>
       <c r="Q387" t="s">
-        <v>4</v>
+        <v>3019</v>
       </c>
       <c r="R387" t="s">
         <v>4</v>
@@ -40752,149 +40725,149 @@
         <v>4</v>
       </c>
       <c r="U387" t="s">
-        <v>2982</v>
+        <v>3020</v>
       </c>
       <c r="V387" t="s">
         <v>4</v>
       </c>
       <c r="W387" t="s">
-        <v>4</v>
+        <v>3021</v>
       </c>
       <c r="X387" t="s">
         <v>4</v>
       </c>
       <c r="Y387" t="s">
-        <v>4</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="388" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>25</v>
+        <v>3010</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>2966</v>
+        <v>3011</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>2984</v>
+        <v>3023</v>
       </c>
       <c r="D388" t="s">
         <v>4</v>
       </c>
       <c r="E388" t="s">
-        <v>2985</v>
+        <v>3024</v>
       </c>
       <c r="F388" t="s">
         <v>4</v>
       </c>
       <c r="G388" t="s">
-        <v>2986</v>
+        <v>3025</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
       </c>
       <c r="I388" t="s">
-        <v>2987</v>
+        <v>3026</v>
       </c>
       <c r="J388" t="s">
         <v>4</v>
       </c>
       <c r="K388" t="s">
-        <v>2988</v>
+        <v>3027</v>
       </c>
       <c r="L388" t="s">
         <v>4</v>
       </c>
       <c r="M388" t="s">
-        <v>2989</v>
+        <v>3028</v>
       </c>
       <c r="N388" t="s">
         <v>4</v>
       </c>
       <c r="O388" t="s">
-        <v>2990</v>
+        <v>3029</v>
       </c>
       <c r="P388" t="s">
         <v>4</v>
       </c>
       <c r="Q388" t="s">
-        <v>2991</v>
+        <v>3030</v>
       </c>
       <c r="R388" t="s">
         <v>4</v>
       </c>
       <c r="S388" t="s">
-        <v>2992</v>
+        <v>4</v>
       </c>
       <c r="T388" t="s">
         <v>4</v>
       </c>
       <c r="U388" t="s">
-        <v>2993</v>
+        <v>3031</v>
       </c>
       <c r="V388" t="s">
         <v>4</v>
       </c>
       <c r="W388" t="s">
-        <v>2994</v>
+        <v>3032</v>
       </c>
       <c r="X388" t="s">
         <v>4</v>
       </c>
       <c r="Y388" t="s">
-        <v>2995</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="389" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>2996</v>
+        <v>3010</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>2997</v>
+        <v>3011</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>2998</v>
+        <v>3034</v>
       </c>
       <c r="D389" t="s">
         <v>4</v>
       </c>
       <c r="E389" t="s">
-        <v>2999</v>
+        <v>3035</v>
       </c>
       <c r="F389" t="s">
         <v>4</v>
       </c>
       <c r="G389" t="s">
-        <v>3000</v>
+        <v>3036</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
       </c>
       <c r="I389" t="s">
-        <v>3001</v>
+        <v>3037</v>
       </c>
       <c r="J389" t="s">
         <v>4</v>
       </c>
       <c r="K389" t="s">
-        <v>3002</v>
+        <v>3038</v>
       </c>
       <c r="L389" t="s">
         <v>4</v>
       </c>
       <c r="M389" t="s">
-        <v>3003</v>
+        <v>3039</v>
       </c>
       <c r="N389" t="s">
         <v>4</v>
       </c>
       <c r="O389" t="s">
-        <v>3004</v>
+        <v>3040</v>
       </c>
       <c r="P389" t="s">
         <v>4</v>
       </c>
       <c r="Q389" t="s">
-        <v>3005</v>
+        <v>3041</v>
       </c>
       <c r="R389" t="s">
         <v>4</v>
@@ -40906,72 +40879,72 @@
         <v>4</v>
       </c>
       <c r="U389" t="s">
-        <v>3006</v>
+        <v>3042</v>
       </c>
       <c r="V389" t="s">
         <v>4</v>
       </c>
       <c r="W389" t="s">
-        <v>3007</v>
+        <v>3043</v>
       </c>
       <c r="X389" t="s">
         <v>4</v>
       </c>
       <c r="Y389" t="s">
-        <v>3008</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="390" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>2996</v>
+        <v>3010</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>2997</v>
+        <v>3011</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>3009</v>
+        <v>3045</v>
       </c>
       <c r="D390" t="s">
         <v>4</v>
       </c>
       <c r="E390" t="s">
-        <v>3010</v>
+        <v>3046</v>
       </c>
       <c r="F390" t="s">
         <v>4</v>
       </c>
       <c r="G390" t="s">
-        <v>3011</v>
+        <v>3047</v>
       </c>
       <c r="H390" t="s">
         <v>4</v>
       </c>
       <c r="I390" t="s">
-        <v>3012</v>
+        <v>3048</v>
       </c>
       <c r="J390" t="s">
         <v>4</v>
       </c>
       <c r="K390" t="s">
-        <v>3013</v>
+        <v>3049</v>
       </c>
       <c r="L390" t="s">
         <v>4</v>
       </c>
       <c r="M390" t="s">
-        <v>3014</v>
+        <v>3050</v>
       </c>
       <c r="N390" t="s">
         <v>4</v>
       </c>
       <c r="O390" t="s">
-        <v>3015</v>
+        <v>3051</v>
       </c>
       <c r="P390" t="s">
         <v>4</v>
       </c>
       <c r="Q390" t="s">
-        <v>3016</v>
+        <v>3052</v>
       </c>
       <c r="R390" t="s">
         <v>4</v>
@@ -40983,72 +40956,72 @@
         <v>4</v>
       </c>
       <c r="U390" t="s">
-        <v>3017</v>
+        <v>3053</v>
       </c>
       <c r="V390" t="s">
         <v>4</v>
       </c>
       <c r="W390" t="s">
-        <v>3018</v>
+        <v>3054</v>
       </c>
       <c r="X390" t="s">
         <v>4</v>
       </c>
       <c r="Y390" t="s">
-        <v>3019</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="391" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>3021</v>
+        <v>3011</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>3022</v>
+        <v>3056</v>
       </c>
       <c r="D391" t="s">
         <v>4</v>
       </c>
       <c r="E391" t="s">
-        <v>3023</v>
+        <v>3057</v>
       </c>
       <c r="F391" t="s">
         <v>4</v>
       </c>
       <c r="G391" t="s">
-        <v>3024</v>
+        <v>4</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
       </c>
       <c r="I391" t="s">
-        <v>3025</v>
+        <v>3058</v>
       </c>
       <c r="J391" t="s">
         <v>4</v>
       </c>
       <c r="K391" t="s">
-        <v>3026</v>
+        <v>4</v>
       </c>
       <c r="L391" t="s">
         <v>4</v>
       </c>
       <c r="M391" t="s">
-        <v>3027</v>
+        <v>4</v>
       </c>
       <c r="N391" t="s">
         <v>4</v>
       </c>
       <c r="O391" t="s">
-        <v>3028</v>
+        <v>4</v>
       </c>
       <c r="P391" t="s">
         <v>4</v>
       </c>
       <c r="Q391" t="s">
-        <v>3029</v>
+        <v>3059</v>
       </c>
       <c r="R391" t="s">
         <v>4</v>
@@ -41060,72 +41033,72 @@
         <v>4</v>
       </c>
       <c r="U391" t="s">
-        <v>3030</v>
+        <v>4</v>
       </c>
       <c r="V391" t="s">
         <v>4</v>
       </c>
       <c r="W391" t="s">
-        <v>3031</v>
+        <v>3060</v>
       </c>
       <c r="X391" t="s">
         <v>4</v>
       </c>
       <c r="Y391" t="s">
-        <v>3032</v>
+        <v>4</v>
       </c>
     </row>
     <row r="392" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>3021</v>
+        <v>3011</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>3033</v>
+        <v>3061</v>
       </c>
       <c r="D392" t="s">
         <v>4</v>
       </c>
       <c r="E392" t="s">
-        <v>3034</v>
+        <v>3062</v>
       </c>
       <c r="F392" t="s">
         <v>4</v>
       </c>
       <c r="G392" t="s">
-        <v>3035</v>
+        <v>4</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
       </c>
       <c r="I392" t="s">
-        <v>3036</v>
+        <v>3063</v>
       </c>
       <c r="J392" t="s">
         <v>4</v>
       </c>
       <c r="K392" t="s">
-        <v>3037</v>
+        <v>4</v>
       </c>
       <c r="L392" t="s">
         <v>4</v>
       </c>
       <c r="M392" t="s">
-        <v>3038</v>
+        <v>4</v>
       </c>
       <c r="N392" t="s">
         <v>4</v>
       </c>
       <c r="O392" t="s">
-        <v>3039</v>
+        <v>4</v>
       </c>
       <c r="P392" t="s">
         <v>4</v>
       </c>
       <c r="Q392" t="s">
-        <v>3040</v>
+        <v>3064</v>
       </c>
       <c r="R392" t="s">
         <v>4</v>
@@ -41137,72 +41110,72 @@
         <v>4</v>
       </c>
       <c r="U392" t="s">
-        <v>3041</v>
+        <v>4</v>
       </c>
       <c r="V392" t="s">
         <v>4</v>
       </c>
       <c r="W392" t="s">
-        <v>3042</v>
+        <v>3065</v>
       </c>
       <c r="X392" t="s">
         <v>4</v>
       </c>
       <c r="Y392" t="s">
-        <v>3043</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>3021</v>
+        <v>3011</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>3044</v>
+        <v>3066</v>
       </c>
       <c r="D393" t="s">
         <v>4</v>
       </c>
       <c r="E393" t="s">
-        <v>3045</v>
+        <v>3067</v>
       </c>
       <c r="F393" t="s">
         <v>4</v>
       </c>
       <c r="G393" t="s">
-        <v>3046</v>
+        <v>3068</v>
       </c>
       <c r="H393" t="s">
         <v>4</v>
       </c>
       <c r="I393" t="s">
-        <v>3047</v>
+        <v>3069</v>
       </c>
       <c r="J393" t="s">
         <v>4</v>
       </c>
       <c r="K393" t="s">
-        <v>3048</v>
+        <v>3070</v>
       </c>
       <c r="L393" t="s">
         <v>4</v>
       </c>
       <c r="M393" t="s">
-        <v>3049</v>
+        <v>3071</v>
       </c>
       <c r="N393" t="s">
         <v>4</v>
       </c>
       <c r="O393" t="s">
-        <v>3050</v>
+        <v>4</v>
       </c>
       <c r="P393" t="s">
         <v>4</v>
       </c>
       <c r="Q393" t="s">
-        <v>3051</v>
+        <v>3072</v>
       </c>
       <c r="R393" t="s">
         <v>4</v>
@@ -41214,72 +41187,72 @@
         <v>4</v>
       </c>
       <c r="U393" t="s">
-        <v>3052</v>
+        <v>3073</v>
       </c>
       <c r="V393" t="s">
         <v>4</v>
       </c>
       <c r="W393" t="s">
-        <v>3053</v>
+        <v>3074</v>
       </c>
       <c r="X393" t="s">
         <v>4</v>
       </c>
       <c r="Y393" t="s">
-        <v>3054</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="394" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>3021</v>
+        <v>3011</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>3055</v>
+        <v>3076</v>
       </c>
       <c r="D394" t="s">
         <v>4</v>
       </c>
       <c r="E394" t="s">
-        <v>3056</v>
+        <v>3077</v>
       </c>
       <c r="F394" t="s">
         <v>4</v>
       </c>
       <c r="G394" t="s">
-        <v>3057</v>
+        <v>3078</v>
       </c>
       <c r="H394" t="s">
         <v>4</v>
       </c>
       <c r="I394" t="s">
-        <v>3058</v>
+        <v>3079</v>
       </c>
       <c r="J394" t="s">
         <v>4</v>
       </c>
       <c r="K394" t="s">
-        <v>3059</v>
+        <v>3080</v>
       </c>
       <c r="L394" t="s">
         <v>4</v>
       </c>
       <c r="M394" t="s">
-        <v>3060</v>
+        <v>3081</v>
       </c>
       <c r="N394" t="s">
         <v>4</v>
       </c>
       <c r="O394" t="s">
-        <v>3061</v>
+        <v>4</v>
       </c>
       <c r="P394" t="s">
         <v>4</v>
       </c>
       <c r="Q394" t="s">
-        <v>3062</v>
+        <v>3082</v>
       </c>
       <c r="R394" t="s">
         <v>4</v>
@@ -41291,36 +41264,36 @@
         <v>4</v>
       </c>
       <c r="U394" t="s">
-        <v>3063</v>
+        <v>3083</v>
       </c>
       <c r="V394" t="s">
         <v>4</v>
       </c>
       <c r="W394" t="s">
-        <v>3064</v>
+        <v>3084</v>
       </c>
       <c r="X394" t="s">
         <v>4</v>
       </c>
       <c r="Y394" t="s">
-        <v>3065</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="395" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>3021</v>
+        <v>3011</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>3066</v>
+        <v>3086</v>
       </c>
       <c r="D395" t="s">
         <v>4</v>
       </c>
       <c r="E395" t="s">
-        <v>3067</v>
+        <v>3087</v>
       </c>
       <c r="F395" t="s">
         <v>4</v>
@@ -41332,7 +41305,7 @@
         <v>4</v>
       </c>
       <c r="I395" t="s">
-        <v>3068</v>
+        <v>3088</v>
       </c>
       <c r="J395" t="s">
         <v>4</v>
@@ -41344,7 +41317,7 @@
         <v>4</v>
       </c>
       <c r="M395" t="s">
-        <v>4</v>
+        <v>3089</v>
       </c>
       <c r="N395" t="s">
         <v>4</v>
@@ -41356,7 +41329,7 @@
         <v>4</v>
       </c>
       <c r="Q395" t="s">
-        <v>3069</v>
+        <v>3090</v>
       </c>
       <c r="R395" t="s">
         <v>4</v>
@@ -41374,7 +41347,7 @@
         <v>4</v>
       </c>
       <c r="W395" t="s">
-        <v>3070</v>
+        <v>3091</v>
       </c>
       <c r="X395" t="s">
         <v>4</v>
@@ -41385,19 +41358,19 @@
     </row>
     <row r="396" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>3021</v>
+        <v>3011</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>3071</v>
+        <v>3092</v>
       </c>
       <c r="D396" t="s">
         <v>4</v>
       </c>
       <c r="E396" t="s">
-        <v>3072</v>
+        <v>3093</v>
       </c>
       <c r="F396" t="s">
         <v>4</v>
@@ -41409,7 +41382,7 @@
         <v>4</v>
       </c>
       <c r="I396" t="s">
-        <v>3073</v>
+        <v>3094</v>
       </c>
       <c r="J396" t="s">
         <v>4</v>
@@ -41421,7 +41394,7 @@
         <v>4</v>
       </c>
       <c r="M396" t="s">
-        <v>4</v>
+        <v>3095</v>
       </c>
       <c r="N396" t="s">
         <v>4</v>
@@ -41433,7 +41406,7 @@
         <v>4</v>
       </c>
       <c r="Q396" t="s">
-        <v>3074</v>
+        <v>3096</v>
       </c>
       <c r="R396" t="s">
         <v>4</v>
@@ -41451,7 +41424,7 @@
         <v>4</v>
       </c>
       <c r="W396" t="s">
-        <v>3075</v>
+        <v>3097</v>
       </c>
       <c r="X396" t="s">
         <v>4</v>
@@ -41462,43 +41435,43 @@
     </row>
     <row r="397" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>3021</v>
+        <v>3011</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>3076</v>
+        <v>3098</v>
       </c>
       <c r="D397" t="s">
         <v>4</v>
       </c>
       <c r="E397" t="s">
-        <v>3077</v>
+        <v>3099</v>
       </c>
       <c r="F397" t="s">
         <v>4</v>
       </c>
       <c r="G397" t="s">
-        <v>3078</v>
+        <v>4</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
       </c>
       <c r="I397" t="s">
-        <v>3079</v>
+        <v>3100</v>
       </c>
       <c r="J397" t="s">
         <v>4</v>
       </c>
       <c r="K397" t="s">
-        <v>3080</v>
+        <v>4</v>
       </c>
       <c r="L397" t="s">
         <v>4</v>
       </c>
       <c r="M397" t="s">
-        <v>3081</v>
+        <v>3101</v>
       </c>
       <c r="N397" t="s">
         <v>4</v>
@@ -41510,7 +41483,7 @@
         <v>4</v>
       </c>
       <c r="Q397" t="s">
-        <v>3082</v>
+        <v>3102</v>
       </c>
       <c r="R397" t="s">
         <v>4</v>
@@ -41522,60 +41495,60 @@
         <v>4</v>
       </c>
       <c r="U397" t="s">
-        <v>3083</v>
+        <v>4</v>
       </c>
       <c r="V397" t="s">
         <v>4</v>
       </c>
       <c r="W397" t="s">
-        <v>3084</v>
+        <v>3103</v>
       </c>
       <c r="X397" t="s">
         <v>4</v>
       </c>
       <c r="Y397" t="s">
-        <v>3085</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>3021</v>
+        <v>3011</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>3086</v>
+        <v>3104</v>
       </c>
       <c r="D398" t="s">
         <v>4</v>
       </c>
       <c r="E398" t="s">
-        <v>3087</v>
+        <v>392</v>
       </c>
       <c r="F398" t="s">
         <v>4</v>
       </c>
       <c r="G398" t="s">
-        <v>3088</v>
+        <v>393</v>
       </c>
       <c r="H398" t="s">
         <v>4</v>
       </c>
       <c r="I398" t="s">
-        <v>3089</v>
+        <v>394</v>
       </c>
       <c r="J398" t="s">
         <v>4</v>
       </c>
       <c r="K398" t="s">
-        <v>3090</v>
+        <v>395</v>
       </c>
       <c r="L398" t="s">
         <v>4</v>
       </c>
       <c r="M398" t="s">
-        <v>3091</v>
+        <v>396</v>
       </c>
       <c r="N398" t="s">
         <v>4</v>
@@ -41587,7 +41560,7 @@
         <v>4</v>
       </c>
       <c r="Q398" t="s">
-        <v>3092</v>
+        <v>398</v>
       </c>
       <c r="R398" t="s">
         <v>4</v>
@@ -41599,36 +41572,36 @@
         <v>4</v>
       </c>
       <c r="U398" t="s">
-        <v>3093</v>
+        <v>399</v>
       </c>
       <c r="V398" t="s">
         <v>4</v>
       </c>
       <c r="W398" t="s">
-        <v>3094</v>
+        <v>400</v>
       </c>
       <c r="X398" t="s">
         <v>4</v>
       </c>
       <c r="Y398" t="s">
-        <v>3095</v>
+        <v>401</v>
       </c>
     </row>
     <row r="399" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>3021</v>
+        <v>3011</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>3096</v>
+        <v>3105</v>
       </c>
       <c r="D399" t="s">
         <v>4</v>
       </c>
       <c r="E399" t="s">
-        <v>3097</v>
+        <v>3106</v>
       </c>
       <c r="F399" t="s">
         <v>4</v>
@@ -41640,7 +41613,7 @@
         <v>4</v>
       </c>
       <c r="I399" t="s">
-        <v>3098</v>
+        <v>3107</v>
       </c>
       <c r="J399" t="s">
         <v>4</v>
@@ -41652,7 +41625,7 @@
         <v>4</v>
       </c>
       <c r="M399" t="s">
-        <v>3099</v>
+        <v>3108</v>
       </c>
       <c r="N399" t="s">
         <v>4</v>
@@ -41664,7 +41637,7 @@
         <v>4</v>
       </c>
       <c r="Q399" t="s">
-        <v>3100</v>
+        <v>3109</v>
       </c>
       <c r="R399" t="s">
         <v>4</v>
@@ -41682,7 +41655,7 @@
         <v>4</v>
       </c>
       <c r="W399" t="s">
-        <v>3101</v>
+        <v>3110</v>
       </c>
       <c r="X399" t="s">
         <v>4</v>
@@ -41693,19 +41666,19 @@
     </row>
     <row r="400" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>3020</v>
+        <v>3111</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>3021</v>
+        <v>2987</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>3102</v>
+        <v>3112</v>
       </c>
       <c r="D400" t="s">
         <v>4</v>
       </c>
       <c r="E400" t="s">
-        <v>3103</v>
+        <v>3113</v>
       </c>
       <c r="F400" t="s">
         <v>4</v>
@@ -41717,31 +41690,31 @@
         <v>4</v>
       </c>
       <c r="I400" t="s">
-        <v>3104</v>
+        <v>3114</v>
       </c>
       <c r="J400" t="s">
         <v>4</v>
       </c>
       <c r="K400" t="s">
-        <v>4</v>
+        <v>3115</v>
       </c>
       <c r="L400" t="s">
         <v>4</v>
       </c>
       <c r="M400" t="s">
-        <v>3105</v>
+        <v>3116</v>
       </c>
       <c r="N400" t="s">
         <v>4</v>
       </c>
       <c r="O400" t="s">
-        <v>4</v>
+        <v>3117</v>
       </c>
       <c r="P400" t="s">
         <v>4</v>
       </c>
       <c r="Q400" t="s">
-        <v>3106</v>
+        <v>3118</v>
       </c>
       <c r="R400" t="s">
         <v>4</v>
@@ -41753,36 +41726,36 @@
         <v>4</v>
       </c>
       <c r="U400" t="s">
-        <v>4</v>
+        <v>3119</v>
       </c>
       <c r="V400" t="s">
         <v>4</v>
       </c>
       <c r="W400" t="s">
-        <v>3107</v>
+        <v>3120</v>
       </c>
       <c r="X400" t="s">
         <v>4</v>
       </c>
       <c r="Y400" t="s">
-        <v>4</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="401" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>3020</v>
+        <v>3111</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>3021</v>
+        <v>2987</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>3108</v>
+        <v>3122</v>
       </c>
       <c r="D401" t="s">
         <v>4</v>
       </c>
       <c r="E401" t="s">
-        <v>3109</v>
+        <v>3123</v>
       </c>
       <c r="F401" t="s">
         <v>4</v>
@@ -41794,31 +41767,31 @@
         <v>4</v>
       </c>
       <c r="I401" t="s">
-        <v>3110</v>
+        <v>3124</v>
       </c>
       <c r="J401" t="s">
         <v>4</v>
       </c>
       <c r="K401" t="s">
-        <v>4</v>
+        <v>3125</v>
       </c>
       <c r="L401" t="s">
         <v>4</v>
       </c>
       <c r="M401" t="s">
-        <v>3111</v>
+        <v>3126</v>
       </c>
       <c r="N401" t="s">
         <v>4</v>
       </c>
       <c r="O401" t="s">
-        <v>4</v>
+        <v>3127</v>
       </c>
       <c r="P401" t="s">
         <v>4</v>
       </c>
       <c r="Q401" t="s">
-        <v>3112</v>
+        <v>3128</v>
       </c>
       <c r="R401" t="s">
         <v>4</v>
@@ -41830,60 +41803,60 @@
         <v>4</v>
       </c>
       <c r="U401" t="s">
-        <v>4</v>
+        <v>3129</v>
       </c>
       <c r="V401" t="s">
         <v>4</v>
       </c>
       <c r="W401" t="s">
-        <v>3113</v>
+        <v>3130</v>
       </c>
       <c r="X401" t="s">
         <v>4</v>
       </c>
       <c r="Y401" t="s">
-        <v>4</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="402" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>3020</v>
+        <v>3132</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>3021</v>
+        <v>2987</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>3114</v>
+        <v>3133</v>
       </c>
       <c r="D402" t="s">
         <v>4</v>
       </c>
       <c r="E402" t="s">
-        <v>392</v>
+        <v>3134</v>
       </c>
       <c r="F402" t="s">
         <v>4</v>
       </c>
       <c r="G402" t="s">
-        <v>393</v>
+        <v>4</v>
       </c>
       <c r="H402" t="s">
         <v>4</v>
       </c>
       <c r="I402" t="s">
-        <v>394</v>
+        <v>3135</v>
       </c>
       <c r="J402" t="s">
         <v>4</v>
       </c>
       <c r="K402" t="s">
-        <v>395</v>
+        <v>4</v>
       </c>
       <c r="L402" t="s">
         <v>4</v>
       </c>
       <c r="M402" t="s">
-        <v>396</v>
+        <v>3136</v>
       </c>
       <c r="N402" t="s">
         <v>4</v>
@@ -41895,7 +41868,7 @@
         <v>4</v>
       </c>
       <c r="Q402" t="s">
-        <v>398</v>
+        <v>3137</v>
       </c>
       <c r="R402" t="s">
         <v>4</v>
@@ -41907,36 +41880,36 @@
         <v>4</v>
       </c>
       <c r="U402" t="s">
-        <v>399</v>
+        <v>4</v>
       </c>
       <c r="V402" t="s">
         <v>4</v>
       </c>
       <c r="W402" t="s">
-        <v>400</v>
+        <v>3138</v>
       </c>
       <c r="X402" t="s">
         <v>4</v>
       </c>
       <c r="Y402" t="s">
-        <v>401</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>3020</v>
+        <v>3132</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>3021</v>
+        <v>2987</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>3115</v>
+        <v>3139</v>
       </c>
       <c r="D403" t="s">
         <v>4</v>
       </c>
       <c r="E403" t="s">
-        <v>3116</v>
+        <v>3140</v>
       </c>
       <c r="F403" t="s">
         <v>4</v>
@@ -41948,7 +41921,7 @@
         <v>4</v>
       </c>
       <c r="I403" t="s">
-        <v>3117</v>
+        <v>3141</v>
       </c>
       <c r="J403" t="s">
         <v>4</v>
@@ -41960,7 +41933,7 @@
         <v>4</v>
       </c>
       <c r="M403" t="s">
-        <v>3118</v>
+        <v>3142</v>
       </c>
       <c r="N403" t="s">
         <v>4</v>
@@ -41972,7 +41945,7 @@
         <v>4</v>
       </c>
       <c r="Q403" t="s">
-        <v>3119</v>
+        <v>3143</v>
       </c>
       <c r="R403" t="s">
         <v>4</v>
@@ -41990,7 +41963,7 @@
         <v>4</v>
       </c>
       <c r="W403" t="s">
-        <v>3120</v>
+        <v>3144</v>
       </c>
       <c r="X403" t="s">
         <v>4</v>
@@ -42001,19 +41974,19 @@
     </row>
     <row r="404" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>3121</v>
+        <v>3132</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>2997</v>
+        <v>2987</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>3122</v>
+        <v>3145</v>
       </c>
       <c r="D404" t="s">
         <v>4</v>
       </c>
       <c r="E404" t="s">
-        <v>3123</v>
+        <v>3146</v>
       </c>
       <c r="F404" t="s">
         <v>4</v>
@@ -42025,31 +41998,31 @@
         <v>4</v>
       </c>
       <c r="I404" t="s">
-        <v>3124</v>
+        <v>3147</v>
       </c>
       <c r="J404" t="s">
         <v>4</v>
       </c>
       <c r="K404" t="s">
-        <v>3125</v>
+        <v>4</v>
       </c>
       <c r="L404" t="s">
         <v>4</v>
       </c>
       <c r="M404" t="s">
-        <v>3126</v>
+        <v>3148</v>
       </c>
       <c r="N404" t="s">
         <v>4</v>
       </c>
       <c r="O404" t="s">
-        <v>3127</v>
+        <v>4</v>
       </c>
       <c r="P404" t="s">
         <v>4</v>
       </c>
       <c r="Q404" t="s">
-        <v>3128</v>
+        <v>3149</v>
       </c>
       <c r="R404" t="s">
         <v>4</v>
@@ -42061,36 +42034,36 @@
         <v>4</v>
       </c>
       <c r="U404" t="s">
-        <v>3129</v>
+        <v>4</v>
       </c>
       <c r="V404" t="s">
         <v>4</v>
       </c>
       <c r="W404" t="s">
-        <v>3130</v>
+        <v>3150</v>
       </c>
       <c r="X404" t="s">
         <v>4</v>
       </c>
       <c r="Y404" t="s">
-        <v>3131</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>3121</v>
+        <v>3132</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>2997</v>
+        <v>2987</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>3132</v>
+        <v>3151</v>
       </c>
       <c r="D405" t="s">
         <v>4</v>
       </c>
       <c r="E405" t="s">
-        <v>3133</v>
+        <v>3152</v>
       </c>
       <c r="F405" t="s">
         <v>4</v>
@@ -42102,31 +42075,31 @@
         <v>4</v>
       </c>
       <c r="I405" t="s">
-        <v>3134</v>
+        <v>3153</v>
       </c>
       <c r="J405" t="s">
         <v>4</v>
       </c>
       <c r="K405" t="s">
-        <v>3135</v>
+        <v>4</v>
       </c>
       <c r="L405" t="s">
         <v>4</v>
       </c>
       <c r="M405" t="s">
-        <v>3136</v>
+        <v>3154</v>
       </c>
       <c r="N405" t="s">
         <v>4</v>
       </c>
       <c r="O405" t="s">
-        <v>3137</v>
+        <v>4</v>
       </c>
       <c r="P405" t="s">
         <v>4</v>
       </c>
       <c r="Q405" t="s">
-        <v>3138</v>
+        <v>3155</v>
       </c>
       <c r="R405" t="s">
         <v>4</v>
@@ -42138,60 +42111,60 @@
         <v>4</v>
       </c>
       <c r="U405" t="s">
-        <v>3139</v>
+        <v>4</v>
       </c>
       <c r="V405" t="s">
         <v>4</v>
       </c>
       <c r="W405" t="s">
-        <v>3140</v>
+        <v>3156</v>
       </c>
       <c r="X405" t="s">
         <v>4</v>
       </c>
       <c r="Y405" t="s">
-        <v>3141</v>
+        <v>4</v>
       </c>
     </row>
     <row r="406" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>3142</v>
+        <v>3132</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>2997</v>
+        <v>2987</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>3143</v>
+        <v>392</v>
       </c>
       <c r="D406" t="s">
         <v>4</v>
       </c>
       <c r="E406" t="s">
-        <v>3144</v>
+        <v>392</v>
       </c>
       <c r="F406" t="s">
         <v>4</v>
       </c>
       <c r="G406" t="s">
-        <v>4</v>
+        <v>393</v>
       </c>
       <c r="H406" t="s">
         <v>4</v>
       </c>
       <c r="I406" t="s">
-        <v>3145</v>
+        <v>394</v>
       </c>
       <c r="J406" t="s">
         <v>4</v>
       </c>
       <c r="K406" t="s">
-        <v>4</v>
+        <v>395</v>
       </c>
       <c r="L406" t="s">
         <v>4</v>
       </c>
       <c r="M406" t="s">
-        <v>3146</v>
+        <v>396</v>
       </c>
       <c r="N406" t="s">
         <v>4</v>
@@ -42203,7 +42176,7 @@
         <v>4</v>
       </c>
       <c r="Q406" t="s">
-        <v>3147</v>
+        <v>398</v>
       </c>
       <c r="R406" t="s">
         <v>4</v>
@@ -42215,60 +42188,60 @@
         <v>4</v>
       </c>
       <c r="U406" t="s">
-        <v>4</v>
+        <v>399</v>
       </c>
       <c r="V406" t="s">
         <v>4</v>
       </c>
       <c r="W406" t="s">
-        <v>3148</v>
+        <v>400</v>
       </c>
       <c r="X406" t="s">
         <v>4</v>
       </c>
       <c r="Y406" t="s">
-        <v>4</v>
+        <v>401</v>
       </c>
     </row>
     <row r="407" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>3142</v>
+        <v>3157</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>2997</v>
+        <v>3158</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>3149</v>
+        <v>574</v>
       </c>
       <c r="D407" t="s">
         <v>4</v>
       </c>
       <c r="E407" t="s">
-        <v>3150</v>
+        <v>3159</v>
       </c>
       <c r="F407" t="s">
         <v>4</v>
       </c>
       <c r="G407" t="s">
-        <v>4</v>
+        <v>3160</v>
       </c>
       <c r="H407" t="s">
         <v>4</v>
       </c>
       <c r="I407" t="s">
-        <v>3151</v>
+        <v>3161</v>
       </c>
       <c r="J407" t="s">
         <v>4</v>
       </c>
       <c r="K407" t="s">
-        <v>4</v>
+        <v>3162</v>
       </c>
       <c r="L407" t="s">
         <v>4</v>
       </c>
       <c r="M407" t="s">
-        <v>3152</v>
+        <v>3163</v>
       </c>
       <c r="N407" t="s">
         <v>4</v>
@@ -42280,7 +42253,7 @@
         <v>4</v>
       </c>
       <c r="Q407" t="s">
-        <v>3153</v>
+        <v>3164</v>
       </c>
       <c r="R407" t="s">
         <v>4</v>
@@ -42292,60 +42265,60 @@
         <v>4</v>
       </c>
       <c r="U407" t="s">
-        <v>4</v>
+        <v>3165</v>
       </c>
       <c r="V407" t="s">
         <v>4</v>
       </c>
       <c r="W407" t="s">
-        <v>3154</v>
+        <v>3166</v>
       </c>
       <c r="X407" t="s">
         <v>4</v>
       </c>
       <c r="Y407" t="s">
-        <v>4</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="408" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>3142</v>
+        <v>3157</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>2997</v>
+        <v>3158</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>3155</v>
+        <v>631</v>
       </c>
       <c r="D408" t="s">
         <v>4</v>
       </c>
       <c r="E408" t="s">
-        <v>3156</v>
+        <v>3168</v>
       </c>
       <c r="F408" t="s">
         <v>4</v>
       </c>
       <c r="G408" t="s">
-        <v>4</v>
+        <v>3169</v>
       </c>
       <c r="H408" t="s">
         <v>4</v>
       </c>
       <c r="I408" t="s">
-        <v>3157</v>
+        <v>3170</v>
       </c>
       <c r="J408" t="s">
         <v>4</v>
       </c>
       <c r="K408" t="s">
-        <v>4</v>
+        <v>3171</v>
       </c>
       <c r="L408" t="s">
         <v>4</v>
       </c>
       <c r="M408" t="s">
-        <v>3158</v>
+        <v>3172</v>
       </c>
       <c r="N408" t="s">
         <v>4</v>
@@ -42357,7 +42330,7 @@
         <v>4</v>
       </c>
       <c r="Q408" t="s">
-        <v>3159</v>
+        <v>3173</v>
       </c>
       <c r="R408" t="s">
         <v>4</v>
@@ -42369,60 +42342,60 @@
         <v>4</v>
       </c>
       <c r="U408" t="s">
-        <v>4</v>
+        <v>3174</v>
       </c>
       <c r="V408" t="s">
         <v>4</v>
       </c>
       <c r="W408" t="s">
-        <v>3160</v>
+        <v>3175</v>
       </c>
       <c r="X408" t="s">
         <v>4</v>
       </c>
       <c r="Y408" t="s">
-        <v>4</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="409" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>3142</v>
+        <v>3157</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>2997</v>
+        <v>3158</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>3161</v>
+        <v>2719</v>
       </c>
       <c r="D409" t="s">
         <v>4</v>
       </c>
       <c r="E409" t="s">
-        <v>3162</v>
+        <v>3177</v>
       </c>
       <c r="F409" t="s">
         <v>4</v>
       </c>
       <c r="G409" t="s">
-        <v>4</v>
+        <v>3178</v>
       </c>
       <c r="H409" t="s">
         <v>4</v>
       </c>
       <c r="I409" t="s">
-        <v>3163</v>
+        <v>3179</v>
       </c>
       <c r="J409" t="s">
         <v>4</v>
       </c>
       <c r="K409" t="s">
-        <v>4</v>
+        <v>3180</v>
       </c>
       <c r="L409" t="s">
         <v>4</v>
       </c>
       <c r="M409" t="s">
-        <v>3164</v>
+        <v>3181</v>
       </c>
       <c r="N409" t="s">
         <v>4</v>
@@ -42434,7 +42407,7 @@
         <v>4</v>
       </c>
       <c r="Q409" t="s">
-        <v>3165</v>
+        <v>3182</v>
       </c>
       <c r="R409" t="s">
         <v>4</v>
@@ -42446,60 +42419,60 @@
         <v>4</v>
       </c>
       <c r="U409" t="s">
-        <v>4</v>
+        <v>3183</v>
       </c>
       <c r="V409" t="s">
         <v>4</v>
       </c>
       <c r="W409" t="s">
-        <v>3166</v>
+        <v>3184</v>
       </c>
       <c r="X409" t="s">
         <v>4</v>
       </c>
       <c r="Y409" t="s">
-        <v>4</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="410" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>3142</v>
+        <v>3157</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>2997</v>
+        <v>3158</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>392</v>
+        <v>2737</v>
       </c>
       <c r="D410" t="s">
         <v>4</v>
       </c>
       <c r="E410" t="s">
-        <v>392</v>
+        <v>3186</v>
       </c>
       <c r="F410" t="s">
         <v>4</v>
       </c>
       <c r="G410" t="s">
-        <v>393</v>
+        <v>3187</v>
       </c>
       <c r="H410" t="s">
         <v>4</v>
       </c>
       <c r="I410" t="s">
-        <v>394</v>
+        <v>3188</v>
       </c>
       <c r="J410" t="s">
         <v>4</v>
       </c>
       <c r="K410" t="s">
-        <v>395</v>
+        <v>3189</v>
       </c>
       <c r="L410" t="s">
         <v>4</v>
       </c>
       <c r="M410" t="s">
-        <v>396</v>
+        <v>3190</v>
       </c>
       <c r="N410" t="s">
         <v>4</v>
@@ -42511,7 +42484,7 @@
         <v>4</v>
       </c>
       <c r="Q410" t="s">
-        <v>398</v>
+        <v>3191</v>
       </c>
       <c r="R410" t="s">
         <v>4</v>
@@ -42523,60 +42496,60 @@
         <v>4</v>
       </c>
       <c r="U410" t="s">
-        <v>399</v>
+        <v>3192</v>
       </c>
       <c r="V410" t="s">
         <v>4</v>
       </c>
       <c r="W410" t="s">
-        <v>400</v>
+        <v>3193</v>
       </c>
       <c r="X410" t="s">
         <v>4</v>
       </c>
       <c r="Y410" t="s">
-        <v>401</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="411" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>574</v>
+        <v>2747</v>
       </c>
       <c r="D411" t="s">
         <v>4</v>
       </c>
       <c r="E411" t="s">
-        <v>3169</v>
+        <v>3195</v>
       </c>
       <c r="F411" t="s">
         <v>4</v>
       </c>
       <c r="G411" t="s">
-        <v>3170</v>
+        <v>3196</v>
       </c>
       <c r="H411" t="s">
         <v>4</v>
       </c>
       <c r="I411" t="s">
-        <v>3171</v>
+        <v>3197</v>
       </c>
       <c r="J411" t="s">
         <v>4</v>
       </c>
       <c r="K411" t="s">
-        <v>3172</v>
+        <v>3198</v>
       </c>
       <c r="L411" t="s">
         <v>4</v>
       </c>
       <c r="M411" t="s">
-        <v>3173</v>
+        <v>3199</v>
       </c>
       <c r="N411" t="s">
         <v>4</v>
@@ -42588,7 +42561,7 @@
         <v>4</v>
       </c>
       <c r="Q411" t="s">
-        <v>3174</v>
+        <v>3200</v>
       </c>
       <c r="R411" t="s">
         <v>4</v>
@@ -42600,60 +42573,60 @@
         <v>4</v>
       </c>
       <c r="U411" t="s">
-        <v>3175</v>
+        <v>3201</v>
       </c>
       <c r="V411" t="s">
         <v>4</v>
       </c>
       <c r="W411" t="s">
-        <v>3176</v>
+        <v>3202</v>
       </c>
       <c r="X411" t="s">
         <v>4</v>
       </c>
       <c r="Y411" t="s">
-        <v>3177</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="412" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>631</v>
+        <v>2847</v>
       </c>
       <c r="D412" t="s">
         <v>4</v>
       </c>
       <c r="E412" t="s">
-        <v>3178</v>
+        <v>3204</v>
       </c>
       <c r="F412" t="s">
         <v>4</v>
       </c>
       <c r="G412" t="s">
-        <v>3179</v>
+        <v>3205</v>
       </c>
       <c r="H412" t="s">
         <v>4</v>
       </c>
       <c r="I412" t="s">
-        <v>3180</v>
+        <v>3206</v>
       </c>
       <c r="J412" t="s">
         <v>4</v>
       </c>
       <c r="K412" t="s">
-        <v>3181</v>
+        <v>3207</v>
       </c>
       <c r="L412" t="s">
         <v>4</v>
       </c>
       <c r="M412" t="s">
-        <v>3182</v>
+        <v>3208</v>
       </c>
       <c r="N412" t="s">
         <v>4</v>
@@ -42665,7 +42638,7 @@
         <v>4</v>
       </c>
       <c r="Q412" t="s">
-        <v>3183</v>
+        <v>3209</v>
       </c>
       <c r="R412" t="s">
         <v>4</v>
@@ -42677,60 +42650,60 @@
         <v>4</v>
       </c>
       <c r="U412" t="s">
-        <v>3184</v>
+        <v>3210</v>
       </c>
       <c r="V412" t="s">
         <v>4</v>
       </c>
       <c r="W412" t="s">
-        <v>3185</v>
+        <v>3211</v>
       </c>
       <c r="X412" t="s">
         <v>4</v>
       </c>
       <c r="Y412" t="s">
-        <v>3186</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="413" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>2719</v>
+        <v>3213</v>
       </c>
       <c r="D413" t="s">
         <v>4</v>
       </c>
       <c r="E413" t="s">
-        <v>3187</v>
+        <v>3214</v>
       </c>
       <c r="F413" t="s">
         <v>4</v>
       </c>
       <c r="G413" t="s">
-        <v>3188</v>
+        <v>3215</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
       </c>
       <c r="I413" t="s">
-        <v>3189</v>
+        <v>3216</v>
       </c>
       <c r="J413" t="s">
         <v>4</v>
       </c>
       <c r="K413" t="s">
-        <v>3190</v>
+        <v>3217</v>
       </c>
       <c r="L413" t="s">
         <v>4</v>
       </c>
       <c r="M413" t="s">
-        <v>3191</v>
+        <v>3218</v>
       </c>
       <c r="N413" t="s">
         <v>4</v>
@@ -42742,7 +42715,7 @@
         <v>4</v>
       </c>
       <c r="Q413" t="s">
-        <v>3192</v>
+        <v>3219</v>
       </c>
       <c r="R413" t="s">
         <v>4</v>
@@ -42754,60 +42727,60 @@
         <v>4</v>
       </c>
       <c r="U413" t="s">
-        <v>3193</v>
+        <v>3220</v>
       </c>
       <c r="V413" t="s">
         <v>4</v>
       </c>
       <c r="W413" t="s">
-        <v>3194</v>
+        <v>3221</v>
       </c>
       <c r="X413" t="s">
         <v>4</v>
       </c>
       <c r="Y413" t="s">
-        <v>3195</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="414" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>2737</v>
+        <v>761</v>
       </c>
       <c r="D414" t="s">
         <v>4</v>
       </c>
       <c r="E414" t="s">
-        <v>3196</v>
+        <v>762</v>
       </c>
       <c r="F414" t="s">
         <v>4</v>
       </c>
       <c r="G414" t="s">
-        <v>3197</v>
+        <v>762</v>
       </c>
       <c r="H414" t="s">
         <v>4</v>
       </c>
       <c r="I414" t="s">
-        <v>3198</v>
+        <v>762</v>
       </c>
       <c r="J414" t="s">
         <v>4</v>
       </c>
       <c r="K414" t="s">
-        <v>3199</v>
+        <v>762</v>
       </c>
       <c r="L414" t="s">
         <v>4</v>
       </c>
       <c r="M414" t="s">
-        <v>3200</v>
+        <v>762</v>
       </c>
       <c r="N414" t="s">
         <v>4</v>
@@ -42819,7 +42792,7 @@
         <v>4</v>
       </c>
       <c r="Q414" t="s">
-        <v>3201</v>
+        <v>763</v>
       </c>
       <c r="R414" t="s">
         <v>4</v>
@@ -42831,60 +42804,60 @@
         <v>4</v>
       </c>
       <c r="U414" t="s">
-        <v>3202</v>
+        <v>762</v>
       </c>
       <c r="V414" t="s">
         <v>4</v>
       </c>
       <c r="W414" t="s">
-        <v>3203</v>
+        <v>763</v>
       </c>
       <c r="X414" t="s">
         <v>4</v>
       </c>
       <c r="Y414" t="s">
-        <v>3204</v>
+        <v>764</v>
       </c>
     </row>
     <row r="415" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>2747</v>
+        <v>606</v>
       </c>
       <c r="D415" t="s">
         <v>4</v>
       </c>
       <c r="E415" t="s">
-        <v>3205</v>
+        <v>3223</v>
       </c>
       <c r="F415" t="s">
         <v>4</v>
       </c>
       <c r="G415" t="s">
-        <v>3206</v>
+        <v>3224</v>
       </c>
       <c r="H415" t="s">
         <v>4</v>
       </c>
       <c r="I415" t="s">
-        <v>3207</v>
+        <v>3225</v>
       </c>
       <c r="J415" t="s">
         <v>4</v>
       </c>
       <c r="K415" t="s">
-        <v>3208</v>
+        <v>3226</v>
       </c>
       <c r="L415" t="s">
         <v>4</v>
       </c>
       <c r="M415" t="s">
-        <v>3209</v>
+        <v>3227</v>
       </c>
       <c r="N415" t="s">
         <v>4</v>
@@ -42896,7 +42869,7 @@
         <v>4</v>
       </c>
       <c r="Q415" t="s">
-        <v>3210</v>
+        <v>3228</v>
       </c>
       <c r="R415" t="s">
         <v>4</v>
@@ -42908,60 +42881,60 @@
         <v>4</v>
       </c>
       <c r="U415" t="s">
-        <v>3211</v>
+        <v>3229</v>
       </c>
       <c r="V415" t="s">
         <v>4</v>
       </c>
       <c r="W415" t="s">
-        <v>3212</v>
+        <v>3230</v>
       </c>
       <c r="X415" t="s">
         <v>4</v>
       </c>
       <c r="Y415" t="s">
-        <v>3213</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="416" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>3168</v>
+        <v>3158</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>2847</v>
+        <v>637</v>
       </c>
       <c r="D416" t="s">
         <v>4</v>
       </c>
       <c r="E416" t="s">
-        <v>3214</v>
+        <v>3232</v>
       </c>
       <c r="F416" t="s">
         <v>4</v>
       </c>
       <c r="G416" t="s">
-        <v>3215</v>
+        <v>3233</v>
       </c>
       <c r="H416" t="s">
         <v>4</v>
       </c>
       <c r="I416" t="s">
-        <v>3216</v>
+        <v>3234</v>
       </c>
       <c r="J416" t="s">
         <v>4</v>
       </c>
       <c r="K416" t="s">
-        <v>3217</v>
+        <v>3235</v>
       </c>
       <c r="L416" t="s">
         <v>4</v>
       </c>
       <c r="M416" t="s">
-        <v>3218</v>
+        <v>3236</v>
       </c>
       <c r="N416" t="s">
         <v>4</v>
@@ -42973,7 +42946,7 @@
         <v>4</v>
       </c>
       <c r="Q416" t="s">
-        <v>3219</v>
+        <v>3237</v>
       </c>
       <c r="R416" t="s">
         <v>4</v>
@@ -42985,60 +42958,60 @@
         <v>4</v>
       </c>
       <c r="U416" t="s">
-        <v>3220</v>
+        <v>3238</v>
       </c>
       <c r="V416" t="s">
         <v>4</v>
       </c>
       <c r="W416" t="s">
-        <v>3221</v>
+        <v>3239</v>
       </c>
       <c r="X416" t="s">
         <v>4</v>
       </c>
       <c r="Y416" t="s">
-        <v>3222</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="417" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>3168</v>
+        <v>3241</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>3223</v>
+        <v>3242</v>
       </c>
       <c r="D417" t="s">
         <v>4</v>
       </c>
       <c r="E417" t="s">
-        <v>3224</v>
+        <v>3243</v>
       </c>
       <c r="F417" t="s">
         <v>4</v>
       </c>
       <c r="G417" t="s">
-        <v>3225</v>
+        <v>3244</v>
       </c>
       <c r="H417" t="s">
         <v>4</v>
       </c>
       <c r="I417" t="s">
-        <v>3226</v>
+        <v>3245</v>
       </c>
       <c r="J417" t="s">
         <v>4</v>
       </c>
       <c r="K417" t="s">
-        <v>3227</v>
+        <v>3246</v>
       </c>
       <c r="L417" t="s">
         <v>4</v>
       </c>
       <c r="M417" t="s">
-        <v>3228</v>
+        <v>3247</v>
       </c>
       <c r="N417" t="s">
         <v>4</v>
@@ -43050,7 +43023,7 @@
         <v>4</v>
       </c>
       <c r="Q417" t="s">
-        <v>3229</v>
+        <v>3248</v>
       </c>
       <c r="R417" t="s">
         <v>4</v>
@@ -43062,60 +43035,60 @@
         <v>4</v>
       </c>
       <c r="U417" t="s">
-        <v>3230</v>
+        <v>3249</v>
       </c>
       <c r="V417" t="s">
         <v>4</v>
       </c>
       <c r="W417" t="s">
-        <v>3231</v>
+        <v>3250</v>
       </c>
       <c r="X417" t="s">
         <v>4</v>
       </c>
       <c r="Y417" t="s">
-        <v>3232</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="418" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>3168</v>
+        <v>3241</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>761</v>
+        <v>3252</v>
       </c>
       <c r="D418" t="s">
         <v>4</v>
       </c>
       <c r="E418" t="s">
-        <v>762</v>
+        <v>3253</v>
       </c>
       <c r="F418" t="s">
         <v>4</v>
       </c>
       <c r="G418" t="s">
-        <v>762</v>
+        <v>3254</v>
       </c>
       <c r="H418" t="s">
         <v>4</v>
       </c>
       <c r="I418" t="s">
-        <v>762</v>
+        <v>3255</v>
       </c>
       <c r="J418" t="s">
         <v>4</v>
       </c>
       <c r="K418" t="s">
-        <v>762</v>
+        <v>3256</v>
       </c>
       <c r="L418" t="s">
         <v>4</v>
       </c>
       <c r="M418" t="s">
-        <v>762</v>
+        <v>3257</v>
       </c>
       <c r="N418" t="s">
         <v>4</v>
@@ -43127,7 +43100,7 @@
         <v>4</v>
       </c>
       <c r="Q418" t="s">
-        <v>763</v>
+        <v>3258</v>
       </c>
       <c r="R418" t="s">
         <v>4</v>
@@ -43139,60 +43112,60 @@
         <v>4</v>
       </c>
       <c r="U418" t="s">
-        <v>762</v>
+        <v>3259</v>
       </c>
       <c r="V418" t="s">
         <v>4</v>
       </c>
       <c r="W418" t="s">
-        <v>763</v>
+        <v>3260</v>
       </c>
       <c r="X418" t="s">
         <v>4</v>
       </c>
       <c r="Y418" t="s">
-        <v>764</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="419" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>3168</v>
+        <v>3241</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="D419" t="s">
         <v>4</v>
       </c>
       <c r="E419" t="s">
-        <v>3233</v>
+        <v>3262</v>
       </c>
       <c r="F419" t="s">
         <v>4</v>
       </c>
       <c r="G419" t="s">
-        <v>3234</v>
+        <v>3263</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
       </c>
       <c r="I419" t="s">
-        <v>3235</v>
+        <v>3264</v>
       </c>
       <c r="J419" t="s">
         <v>4</v>
       </c>
       <c r="K419" t="s">
-        <v>3236</v>
+        <v>3265</v>
       </c>
       <c r="L419" t="s">
         <v>4</v>
       </c>
       <c r="M419" t="s">
-        <v>3237</v>
+        <v>3266</v>
       </c>
       <c r="N419" t="s">
         <v>4</v>
@@ -43204,7 +43177,7 @@
         <v>4</v>
       </c>
       <c r="Q419" t="s">
-        <v>3238</v>
+        <v>3267</v>
       </c>
       <c r="R419" t="s">
         <v>4</v>
@@ -43216,60 +43189,60 @@
         <v>4</v>
       </c>
       <c r="U419" t="s">
-        <v>3239</v>
+        <v>3268</v>
       </c>
       <c r="V419" t="s">
         <v>4</v>
       </c>
       <c r="W419" t="s">
-        <v>3240</v>
+        <v>3269</v>
       </c>
       <c r="X419" t="s">
         <v>4</v>
       </c>
       <c r="Y419" t="s">
-        <v>3241</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="420" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>3168</v>
+        <v>3241</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>637</v>
+        <v>3271</v>
       </c>
       <c r="D420" t="s">
         <v>4</v>
       </c>
       <c r="E420" t="s">
-        <v>3242</v>
+        <v>3272</v>
       </c>
       <c r="F420" t="s">
         <v>4</v>
       </c>
       <c r="G420" t="s">
-        <v>3243</v>
+        <v>3273</v>
       </c>
       <c r="H420" t="s">
         <v>4</v>
       </c>
       <c r="I420" t="s">
-        <v>3244</v>
+        <v>3274</v>
       </c>
       <c r="J420" t="s">
         <v>4</v>
       </c>
       <c r="K420" t="s">
-        <v>3245</v>
+        <v>3275</v>
       </c>
       <c r="L420" t="s">
         <v>4</v>
       </c>
       <c r="M420" t="s">
-        <v>3246</v>
+        <v>3276</v>
       </c>
       <c r="N420" t="s">
         <v>4</v>
@@ -43281,7 +43254,7 @@
         <v>4</v>
       </c>
       <c r="Q420" t="s">
-        <v>3247</v>
+        <v>3277</v>
       </c>
       <c r="R420" t="s">
         <v>4</v>
@@ -43293,72 +43266,72 @@
         <v>4</v>
       </c>
       <c r="U420" t="s">
-        <v>3248</v>
+        <v>3278</v>
       </c>
       <c r="V420" t="s">
         <v>4</v>
       </c>
       <c r="W420" t="s">
-        <v>3249</v>
+        <v>3279</v>
       </c>
       <c r="X420" t="s">
         <v>4</v>
       </c>
       <c r="Y420" t="s">
-        <v>3250</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="421" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>3252</v>
+        <v>761</v>
       </c>
       <c r="D421" t="s">
         <v>4</v>
       </c>
       <c r="E421" t="s">
-        <v>3253</v>
+        <v>762</v>
       </c>
       <c r="F421" t="s">
         <v>4</v>
       </c>
       <c r="G421" t="s">
-        <v>3254</v>
+        <v>762</v>
       </c>
       <c r="H421" t="s">
         <v>4</v>
       </c>
       <c r="I421" t="s">
-        <v>3255</v>
+        <v>762</v>
       </c>
       <c r="J421" t="s">
         <v>4</v>
       </c>
       <c r="K421" t="s">
-        <v>3256</v>
+        <v>762</v>
       </c>
       <c r="L421" t="s">
         <v>4</v>
       </c>
       <c r="M421" t="s">
-        <v>3257</v>
+        <v>762</v>
       </c>
       <c r="N421" t="s">
         <v>4</v>
       </c>
       <c r="O421" t="s">
-        <v>4</v>
+        <v>762</v>
       </c>
       <c r="P421" t="s">
         <v>4</v>
       </c>
       <c r="Q421" t="s">
-        <v>3258</v>
+        <v>762</v>
       </c>
       <c r="R421" t="s">
         <v>4</v>
@@ -43370,137 +43343,137 @@
         <v>4</v>
       </c>
       <c r="U421" t="s">
-        <v>3259</v>
+        <v>762</v>
       </c>
       <c r="V421" t="s">
         <v>4</v>
       </c>
       <c r="W421" t="s">
-        <v>3260</v>
+        <v>763</v>
       </c>
       <c r="X421" t="s">
         <v>4</v>
       </c>
       <c r="Y421" t="s">
-        <v>3261</v>
+        <v>764</v>
       </c>
     </row>
     <row r="422" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>3262</v>
+        <v>629</v>
       </c>
       <c r="D422" t="s">
         <v>4</v>
       </c>
       <c r="E422" t="s">
-        <v>3263</v>
+        <v>392</v>
       </c>
       <c r="F422" t="s">
         <v>4</v>
       </c>
       <c r="G422" t="s">
-        <v>3264</v>
+        <v>393</v>
       </c>
       <c r="H422" t="s">
         <v>4</v>
       </c>
       <c r="I422" t="s">
-        <v>3265</v>
+        <v>394</v>
       </c>
       <c r="J422" t="s">
         <v>4</v>
       </c>
       <c r="K422" t="s">
-        <v>3266</v>
+        <v>395</v>
       </c>
       <c r="L422" t="s">
         <v>4</v>
       </c>
       <c r="M422" t="s">
-        <v>3267</v>
+        <v>396</v>
       </c>
       <c r="N422" t="s">
         <v>4</v>
       </c>
       <c r="O422" t="s">
-        <v>4</v>
+        <v>397</v>
       </c>
       <c r="P422" t="s">
         <v>4</v>
       </c>
       <c r="Q422" t="s">
-        <v>3268</v>
+        <v>398</v>
       </c>
       <c r="R422" t="s">
         <v>4</v>
       </c>
       <c r="S422" t="s">
-        <v>4</v>
+        <v>630</v>
       </c>
       <c r="T422" t="s">
         <v>4</v>
       </c>
       <c r="U422" t="s">
-        <v>3269</v>
+        <v>399</v>
       </c>
       <c r="V422" t="s">
         <v>4</v>
       </c>
       <c r="W422" t="s">
-        <v>3270</v>
+        <v>400</v>
       </c>
       <c r="X422" t="s">
         <v>4</v>
       </c>
       <c r="Y422" t="s">
-        <v>3271</v>
+        <v>401</v>
       </c>
     </row>
     <row r="423" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>574</v>
+        <v>631</v>
       </c>
       <c r="D423" t="s">
         <v>4</v>
       </c>
       <c r="E423" t="s">
-        <v>3272</v>
+        <v>3281</v>
       </c>
       <c r="F423" t="s">
         <v>4</v>
       </c>
       <c r="G423" t="s">
-        <v>3273</v>
+        <v>3282</v>
       </c>
       <c r="H423" t="s">
         <v>4</v>
       </c>
       <c r="I423" t="s">
-        <v>3274</v>
+        <v>3283</v>
       </c>
       <c r="J423" t="s">
         <v>4</v>
       </c>
       <c r="K423" t="s">
-        <v>3275</v>
+        <v>3284</v>
       </c>
       <c r="L423" t="s">
         <v>4</v>
       </c>
       <c r="M423" t="s">
-        <v>3276</v>
+        <v>3285</v>
       </c>
       <c r="N423" t="s">
         <v>4</v>
@@ -43512,7 +43485,7 @@
         <v>4</v>
       </c>
       <c r="Q423" t="s">
-        <v>3277</v>
+        <v>3286</v>
       </c>
       <c r="R423" t="s">
         <v>4</v>
@@ -43524,60 +43497,60 @@
         <v>4</v>
       </c>
       <c r="U423" t="s">
-        <v>3278</v>
+        <v>3287</v>
       </c>
       <c r="V423" t="s">
         <v>4</v>
       </c>
       <c r="W423" t="s">
-        <v>3279</v>
+        <v>3288</v>
       </c>
       <c r="X423" t="s">
         <v>4</v>
       </c>
       <c r="Y423" t="s">
-        <v>3280</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="424" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>3281</v>
+        <v>606</v>
       </c>
       <c r="D424" t="s">
         <v>4</v>
       </c>
       <c r="E424" t="s">
-        <v>3282</v>
+        <v>3290</v>
       </c>
       <c r="F424" t="s">
         <v>4</v>
       </c>
       <c r="G424" t="s">
-        <v>3283</v>
+        <v>3291</v>
       </c>
       <c r="H424" t="s">
         <v>4</v>
       </c>
       <c r="I424" t="s">
-        <v>3284</v>
+        <v>3292</v>
       </c>
       <c r="J424" t="s">
         <v>4</v>
       </c>
       <c r="K424" t="s">
-        <v>3285</v>
+        <v>3293</v>
       </c>
       <c r="L424" t="s">
         <v>4</v>
       </c>
       <c r="M424" t="s">
-        <v>3286</v>
+        <v>2684</v>
       </c>
       <c r="N424" t="s">
         <v>4</v>
@@ -43589,7 +43562,7 @@
         <v>4</v>
       </c>
       <c r="Q424" t="s">
-        <v>3287</v>
+        <v>3294</v>
       </c>
       <c r="R424" t="s">
         <v>4</v>
@@ -43601,72 +43574,72 @@
         <v>4</v>
       </c>
       <c r="U424" t="s">
-        <v>3288</v>
+        <v>3295</v>
       </c>
       <c r="V424" t="s">
         <v>4</v>
       </c>
       <c r="W424" t="s">
-        <v>3289</v>
+        <v>3296</v>
       </c>
       <c r="X424" t="s">
         <v>4</v>
       </c>
       <c r="Y424" t="s">
-        <v>3290</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="425" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>761</v>
+        <v>3298</v>
       </c>
       <c r="D425" t="s">
         <v>4</v>
       </c>
       <c r="E425" t="s">
-        <v>762</v>
+        <v>3299</v>
       </c>
       <c r="F425" t="s">
         <v>4</v>
       </c>
       <c r="G425" t="s">
-        <v>762</v>
+        <v>3300</v>
       </c>
       <c r="H425" t="s">
         <v>4</v>
       </c>
       <c r="I425" t="s">
-        <v>762</v>
+        <v>3301</v>
       </c>
       <c r="J425" t="s">
         <v>4</v>
       </c>
       <c r="K425" t="s">
-        <v>762</v>
+        <v>3302</v>
       </c>
       <c r="L425" t="s">
         <v>4</v>
       </c>
       <c r="M425" t="s">
-        <v>762</v>
+        <v>3303</v>
       </c>
       <c r="N425" t="s">
         <v>4</v>
       </c>
       <c r="O425" t="s">
-        <v>762</v>
+        <v>4</v>
       </c>
       <c r="P425" t="s">
         <v>4</v>
       </c>
       <c r="Q425" t="s">
-        <v>762</v>
+        <v>3304</v>
       </c>
       <c r="R425" t="s">
         <v>4</v>
@@ -43678,137 +43651,137 @@
         <v>4</v>
       </c>
       <c r="U425" t="s">
-        <v>762</v>
+        <v>3305</v>
       </c>
       <c r="V425" t="s">
         <v>4</v>
       </c>
       <c r="W425" t="s">
-        <v>763</v>
+        <v>3306</v>
       </c>
       <c r="X425" t="s">
         <v>4</v>
       </c>
       <c r="Y425" t="s">
-        <v>764</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="426" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>629</v>
+        <v>3308</v>
       </c>
       <c r="D426" t="s">
         <v>4</v>
       </c>
       <c r="E426" t="s">
-        <v>392</v>
+        <v>3309</v>
       </c>
       <c r="F426" t="s">
         <v>4</v>
       </c>
       <c r="G426" t="s">
-        <v>393</v>
+        <v>3310</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
       </c>
       <c r="I426" t="s">
-        <v>394</v>
+        <v>3311</v>
       </c>
       <c r="J426" t="s">
         <v>4</v>
       </c>
       <c r="K426" t="s">
-        <v>395</v>
+        <v>3312</v>
       </c>
       <c r="L426" t="s">
         <v>4</v>
       </c>
       <c r="M426" t="s">
-        <v>396</v>
+        <v>3313</v>
       </c>
       <c r="N426" t="s">
         <v>4</v>
       </c>
       <c r="O426" t="s">
-        <v>397</v>
+        <v>4</v>
       </c>
       <c r="P426" t="s">
         <v>4</v>
       </c>
       <c r="Q426" t="s">
-        <v>398</v>
+        <v>3314</v>
       </c>
       <c r="R426" t="s">
         <v>4</v>
       </c>
       <c r="S426" t="s">
-        <v>630</v>
+        <v>4</v>
       </c>
       <c r="T426" t="s">
         <v>4</v>
       </c>
       <c r="U426" t="s">
-        <v>399</v>
+        <v>3315</v>
       </c>
       <c r="V426" t="s">
         <v>4</v>
       </c>
       <c r="W426" t="s">
-        <v>400</v>
+        <v>3316</v>
       </c>
       <c r="X426" t="s">
         <v>4</v>
       </c>
       <c r="Y426" t="s">
-        <v>401</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="427" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>631</v>
+        <v>3318</v>
       </c>
       <c r="D427" t="s">
         <v>4</v>
       </c>
       <c r="E427" t="s">
-        <v>3291</v>
+        <v>3319</v>
       </c>
       <c r="F427" t="s">
         <v>4</v>
       </c>
       <c r="G427" t="s">
-        <v>3292</v>
+        <v>3320</v>
       </c>
       <c r="H427" t="s">
         <v>4</v>
       </c>
       <c r="I427" t="s">
-        <v>3293</v>
+        <v>3321</v>
       </c>
       <c r="J427" t="s">
         <v>4</v>
       </c>
       <c r="K427" t="s">
-        <v>3294</v>
+        <v>3322</v>
       </c>
       <c r="L427" t="s">
         <v>4</v>
       </c>
       <c r="M427" t="s">
-        <v>3295</v>
+        <v>3323</v>
       </c>
       <c r="N427" t="s">
         <v>4</v>
@@ -43820,7 +43793,7 @@
         <v>4</v>
       </c>
       <c r="Q427" t="s">
-        <v>3296</v>
+        <v>3324</v>
       </c>
       <c r="R427" t="s">
         <v>4</v>
@@ -43832,60 +43805,60 @@
         <v>4</v>
       </c>
       <c r="U427" t="s">
-        <v>3297</v>
+        <v>3325</v>
       </c>
       <c r="V427" t="s">
         <v>4</v>
       </c>
       <c r="W427" t="s">
-        <v>3298</v>
+        <v>3326</v>
       </c>
       <c r="X427" t="s">
         <v>4</v>
       </c>
       <c r="Y427" t="s">
-        <v>3299</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="428" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>606</v>
+        <v>3328</v>
       </c>
       <c r="D428" t="s">
         <v>4</v>
       </c>
       <c r="E428" t="s">
-        <v>3300</v>
+        <v>3329</v>
       </c>
       <c r="F428" t="s">
         <v>4</v>
       </c>
       <c r="G428" t="s">
-        <v>3301</v>
+        <v>3330</v>
       </c>
       <c r="H428" t="s">
         <v>4</v>
       </c>
       <c r="I428" t="s">
-        <v>3302</v>
+        <v>3331</v>
       </c>
       <c r="J428" t="s">
         <v>4</v>
       </c>
       <c r="K428" t="s">
-        <v>3303</v>
+        <v>3332</v>
       </c>
       <c r="L428" t="s">
         <v>4</v>
       </c>
       <c r="M428" t="s">
-        <v>2684</v>
+        <v>3333</v>
       </c>
       <c r="N428" t="s">
         <v>4</v>
@@ -43897,7 +43870,7 @@
         <v>4</v>
       </c>
       <c r="Q428" t="s">
-        <v>3304</v>
+        <v>3334</v>
       </c>
       <c r="R428" t="s">
         <v>4</v>
@@ -43909,60 +43882,60 @@
         <v>4</v>
       </c>
       <c r="U428" t="s">
-        <v>3305</v>
+        <v>3335</v>
       </c>
       <c r="V428" t="s">
         <v>4</v>
       </c>
       <c r="W428" t="s">
-        <v>3306</v>
+        <v>3336</v>
       </c>
       <c r="X428" t="s">
         <v>4</v>
       </c>
       <c r="Y428" t="s">
-        <v>3307</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="429" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>3308</v>
+        <v>3338</v>
       </c>
       <c r="D429" t="s">
         <v>4</v>
       </c>
       <c r="E429" t="s">
-        <v>3309</v>
+        <v>3339</v>
       </c>
       <c r="F429" t="s">
         <v>4</v>
       </c>
       <c r="G429" t="s">
-        <v>3310</v>
+        <v>3340</v>
       </c>
       <c r="H429" t="s">
         <v>4</v>
       </c>
       <c r="I429" t="s">
-        <v>3311</v>
+        <v>3341</v>
       </c>
       <c r="J429" t="s">
         <v>4</v>
       </c>
       <c r="K429" t="s">
-        <v>3312</v>
+        <v>3342</v>
       </c>
       <c r="L429" t="s">
         <v>4</v>
       </c>
       <c r="M429" t="s">
-        <v>3313</v>
+        <v>3343</v>
       </c>
       <c r="N429" t="s">
         <v>4</v>
@@ -43974,7 +43947,7 @@
         <v>4</v>
       </c>
       <c r="Q429" t="s">
-        <v>3314</v>
+        <v>3344</v>
       </c>
       <c r="R429" t="s">
         <v>4</v>
@@ -43986,60 +43959,60 @@
         <v>4</v>
       </c>
       <c r="U429" t="s">
-        <v>3315</v>
+        <v>3345</v>
       </c>
       <c r="V429" t="s">
         <v>4</v>
       </c>
       <c r="W429" t="s">
-        <v>3316</v>
+        <v>3346</v>
       </c>
       <c r="X429" t="s">
         <v>4</v>
       </c>
       <c r="Y429" t="s">
-        <v>3317</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="430" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>3318</v>
+        <v>2719</v>
       </c>
       <c r="D430" t="s">
         <v>4</v>
       </c>
       <c r="E430" t="s">
-        <v>3319</v>
+        <v>3348</v>
       </c>
       <c r="F430" t="s">
         <v>4</v>
       </c>
       <c r="G430" t="s">
-        <v>3320</v>
+        <v>3349</v>
       </c>
       <c r="H430" t="s">
         <v>4</v>
       </c>
       <c r="I430" t="s">
-        <v>3321</v>
+        <v>3350</v>
       </c>
       <c r="J430" t="s">
         <v>4</v>
       </c>
       <c r="K430" t="s">
-        <v>3322</v>
+        <v>3351</v>
       </c>
       <c r="L430" t="s">
         <v>4</v>
       </c>
       <c r="M430" t="s">
-        <v>3323</v>
+        <v>3352</v>
       </c>
       <c r="N430" t="s">
         <v>4</v>
@@ -44051,7 +44024,7 @@
         <v>4</v>
       </c>
       <c r="Q430" t="s">
-        <v>3324</v>
+        <v>3353</v>
       </c>
       <c r="R430" t="s">
         <v>4</v>
@@ -44063,60 +44036,60 @@
         <v>4</v>
       </c>
       <c r="U430" t="s">
-        <v>3325</v>
+        <v>3354</v>
       </c>
       <c r="V430" t="s">
         <v>4</v>
       </c>
       <c r="W430" t="s">
-        <v>3326</v>
+        <v>3355</v>
       </c>
       <c r="X430" t="s">
         <v>4</v>
       </c>
       <c r="Y430" t="s">
-        <v>3327</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="431" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>3328</v>
+        <v>3357</v>
       </c>
       <c r="D431" t="s">
         <v>4</v>
       </c>
       <c r="E431" t="s">
-        <v>3329</v>
+        <v>3358</v>
       </c>
       <c r="F431" t="s">
         <v>4</v>
       </c>
       <c r="G431" t="s">
-        <v>3330</v>
+        <v>3359</v>
       </c>
       <c r="H431" t="s">
         <v>4</v>
       </c>
       <c r="I431" t="s">
-        <v>3331</v>
+        <v>3358</v>
       </c>
       <c r="J431" t="s">
         <v>4</v>
       </c>
       <c r="K431" t="s">
-        <v>3332</v>
+        <v>3360</v>
       </c>
       <c r="L431" t="s">
         <v>4</v>
       </c>
       <c r="M431" t="s">
-        <v>3333</v>
+        <v>3361</v>
       </c>
       <c r="N431" t="s">
         <v>4</v>
@@ -44128,7 +44101,7 @@
         <v>4</v>
       </c>
       <c r="Q431" t="s">
-        <v>3334</v>
+        <v>3362</v>
       </c>
       <c r="R431" t="s">
         <v>4</v>
@@ -44140,60 +44113,60 @@
         <v>4</v>
       </c>
       <c r="U431" t="s">
-        <v>3335</v>
+        <v>3363</v>
       </c>
       <c r="V431" t="s">
         <v>4</v>
       </c>
       <c r="W431" t="s">
-        <v>3336</v>
+        <v>3364</v>
       </c>
       <c r="X431" t="s">
         <v>4</v>
       </c>
       <c r="Y431" t="s">
-        <v>3337</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="432" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>3338</v>
+        <v>3366</v>
       </c>
       <c r="D432" t="s">
         <v>4</v>
       </c>
       <c r="E432" t="s">
-        <v>3339</v>
+        <v>3367</v>
       </c>
       <c r="F432" t="s">
         <v>4</v>
       </c>
       <c r="G432" t="s">
-        <v>3340</v>
+        <v>3368</v>
       </c>
       <c r="H432" t="s">
         <v>4</v>
       </c>
       <c r="I432" t="s">
-        <v>3341</v>
+        <v>3369</v>
       </c>
       <c r="J432" t="s">
         <v>4</v>
       </c>
       <c r="K432" t="s">
-        <v>3342</v>
+        <v>3370</v>
       </c>
       <c r="L432" t="s">
         <v>4</v>
       </c>
       <c r="M432" t="s">
-        <v>3343</v>
+        <v>3371</v>
       </c>
       <c r="N432" t="s">
         <v>4</v>
@@ -44205,7 +44178,7 @@
         <v>4</v>
       </c>
       <c r="Q432" t="s">
-        <v>3344</v>
+        <v>3372</v>
       </c>
       <c r="R432" t="s">
         <v>4</v>
@@ -44217,60 +44190,60 @@
         <v>4</v>
       </c>
       <c r="U432" t="s">
-        <v>3345</v>
+        <v>3373</v>
       </c>
       <c r="V432" t="s">
         <v>4</v>
       </c>
       <c r="W432" t="s">
-        <v>3346</v>
+        <v>3374</v>
       </c>
       <c r="X432" t="s">
         <v>4</v>
       </c>
       <c r="Y432" t="s">
-        <v>3347</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="433" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>3167</v>
+        <v>3157</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>3348</v>
+        <v>637</v>
       </c>
       <c r="D433" t="s">
         <v>4</v>
       </c>
       <c r="E433" t="s">
-        <v>3349</v>
+        <v>3376</v>
       </c>
       <c r="F433" t="s">
         <v>4</v>
       </c>
       <c r="G433" t="s">
-        <v>3350</v>
+        <v>3377</v>
       </c>
       <c r="H433" t="s">
         <v>4</v>
       </c>
       <c r="I433" t="s">
-        <v>3351</v>
+        <v>3378</v>
       </c>
       <c r="J433" t="s">
         <v>4</v>
       </c>
       <c r="K433" t="s">
-        <v>3352</v>
+        <v>3379</v>
       </c>
       <c r="L433" t="s">
         <v>4</v>
       </c>
       <c r="M433" t="s">
-        <v>3353</v>
+        <v>719</v>
       </c>
       <c r="N433" t="s">
         <v>4</v>
@@ -44282,7 +44255,7 @@
         <v>4</v>
       </c>
       <c r="Q433" t="s">
-        <v>3354</v>
+        <v>3380</v>
       </c>
       <c r="R433" t="s">
         <v>4</v>
@@ -44294,331 +44267,23 @@
         <v>4</v>
       </c>
       <c r="U433" t="s">
-        <v>3355</v>
+        <v>3381</v>
       </c>
       <c r="V433" t="s">
         <v>4</v>
       </c>
       <c r="W433" t="s">
-        <v>3356</v>
+        <v>3382</v>
       </c>
       <c r="X433" t="s">
         <v>4</v>
       </c>
       <c r="Y433" t="s">
-        <v>3357</v>
-      </c>
-    </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
-        <v>3167</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>3251</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>2719</v>
-      </c>
-      <c r="D434" t="s">
-        <v>4</v>
-      </c>
-      <c r="E434" t="s">
-        <v>3358</v>
-      </c>
-      <c r="F434" t="s">
-        <v>4</v>
-      </c>
-      <c r="G434" t="s">
-        <v>3359</v>
-      </c>
-      <c r="H434" t="s">
-        <v>4</v>
-      </c>
-      <c r="I434" t="s">
-        <v>3360</v>
-      </c>
-      <c r="J434" t="s">
-        <v>4</v>
-      </c>
-      <c r="K434" t="s">
-        <v>3361</v>
-      </c>
-      <c r="L434" t="s">
-        <v>4</v>
-      </c>
-      <c r="M434" t="s">
-        <v>3362</v>
-      </c>
-      <c r="N434" t="s">
-        <v>4</v>
-      </c>
-      <c r="O434" t="s">
-        <v>4</v>
-      </c>
-      <c r="P434" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q434" t="s">
-        <v>3363</v>
-      </c>
-      <c r="R434" t="s">
-        <v>4</v>
-      </c>
-      <c r="S434" t="s">
-        <v>4</v>
-      </c>
-      <c r="T434" t="s">
-        <v>4</v>
-      </c>
-      <c r="U434" t="s">
-        <v>3364</v>
-      </c>
-      <c r="V434" t="s">
-        <v>4</v>
-      </c>
-      <c r="W434" t="s">
-        <v>3365</v>
-      </c>
-      <c r="X434" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y434" t="s">
-        <v>3366</v>
-      </c>
-    </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="s">
-        <v>3167</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>3251</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>3367</v>
-      </c>
-      <c r="D435" t="s">
-        <v>4</v>
-      </c>
-      <c r="E435" t="s">
-        <v>3368</v>
-      </c>
-      <c r="F435" t="s">
-        <v>4</v>
-      </c>
-      <c r="G435" t="s">
-        <v>3369</v>
-      </c>
-      <c r="H435" t="s">
-        <v>4</v>
-      </c>
-      <c r="I435" t="s">
-        <v>3368</v>
-      </c>
-      <c r="J435" t="s">
-        <v>4</v>
-      </c>
-      <c r="K435" t="s">
-        <v>3370</v>
-      </c>
-      <c r="L435" t="s">
-        <v>4</v>
-      </c>
-      <c r="M435" t="s">
-        <v>3371</v>
-      </c>
-      <c r="N435" t="s">
-        <v>4</v>
-      </c>
-      <c r="O435" t="s">
-        <v>4</v>
-      </c>
-      <c r="P435" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q435" t="s">
-        <v>3372</v>
-      </c>
-      <c r="R435" t="s">
-        <v>4</v>
-      </c>
-      <c r="S435" t="s">
-        <v>4</v>
-      </c>
-      <c r="T435" t="s">
-        <v>4</v>
-      </c>
-      <c r="U435" t="s">
-        <v>3373</v>
-      </c>
-      <c r="V435" t="s">
-        <v>4</v>
-      </c>
-      <c r="W435" t="s">
-        <v>3374</v>
-      </c>
-      <c r="X435" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y435" t="s">
-        <v>3375</v>
-      </c>
-    </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A436" s="1" t="s">
-        <v>3167</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>3251</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>3376</v>
-      </c>
-      <c r="D436" t="s">
-        <v>4</v>
-      </c>
-      <c r="E436" t="s">
-        <v>3377</v>
-      </c>
-      <c r="F436" t="s">
-        <v>4</v>
-      </c>
-      <c r="G436" t="s">
-        <v>3378</v>
-      </c>
-      <c r="H436" t="s">
-        <v>4</v>
-      </c>
-      <c r="I436" t="s">
-        <v>3379</v>
-      </c>
-      <c r="J436" t="s">
-        <v>4</v>
-      </c>
-      <c r="K436" t="s">
-        <v>3380</v>
-      </c>
-      <c r="L436" t="s">
-        <v>4</v>
-      </c>
-      <c r="M436" t="s">
-        <v>3381</v>
-      </c>
-      <c r="N436" t="s">
-        <v>4</v>
-      </c>
-      <c r="O436" t="s">
-        <v>4</v>
-      </c>
-      <c r="P436" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q436" t="s">
-        <v>3382</v>
-      </c>
-      <c r="R436" t="s">
-        <v>4</v>
-      </c>
-      <c r="S436" t="s">
-        <v>4</v>
-      </c>
-      <c r="T436" t="s">
-        <v>4</v>
-      </c>
-      <c r="U436" t="s">
         <v>3383</v>
-      </c>
-      <c r="V436" t="s">
-        <v>4</v>
-      </c>
-      <c r="W436" t="s">
-        <v>3384</v>
-      </c>
-      <c r="X436" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y436" t="s">
-        <v>3385</v>
-      </c>
-    </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
-        <v>3167</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>3251</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D437" t="s">
-        <v>4</v>
-      </c>
-      <c r="E437" t="s">
-        <v>3386</v>
-      </c>
-      <c r="F437" t="s">
-        <v>4</v>
-      </c>
-      <c r="G437" t="s">
-        <v>3387</v>
-      </c>
-      <c r="H437" t="s">
-        <v>4</v>
-      </c>
-      <c r="I437" t="s">
-        <v>3388</v>
-      </c>
-      <c r="J437" t="s">
-        <v>4</v>
-      </c>
-      <c r="K437" t="s">
-        <v>3389</v>
-      </c>
-      <c r="L437" t="s">
-        <v>4</v>
-      </c>
-      <c r="M437" t="s">
-        <v>719</v>
-      </c>
-      <c r="N437" t="s">
-        <v>4</v>
-      </c>
-      <c r="O437" t="s">
-        <v>4</v>
-      </c>
-      <c r="P437" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q437" t="s">
-        <v>3390</v>
-      </c>
-      <c r="R437" t="s">
-        <v>4</v>
-      </c>
-      <c r="S437" t="s">
-        <v>4</v>
-      </c>
-      <c r="T437" t="s">
-        <v>4</v>
-      </c>
-      <c r="U437" t="s">
-        <v>3391</v>
-      </c>
-      <c r="V437" t="s">
-        <v>4</v>
-      </c>
-      <c r="W437" t="s">
-        <v>3392</v>
-      </c>
-      <c r="X437" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y437" t="s">
-        <v>3393</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/source/Translation.xlsx
+++ b/source/Translation.xlsx
@@ -5432,7 +5432,7 @@
       </x:c>
       <x:c r="O41" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Antenna,CavoSat,IP,Analogico,Digitale,TV,Radio</x:t>
+          <x:t xml:space="preserve">Antenna,Cavo,Sat,IP,Analogico,Digitale,TV,Radio,Data</x:t>
         </x:is>
       </x:c>
       <x:c r="P41" t="inlineStr">
